--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G441"/>
+  <dimension ref="A1:G489"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9200,10 +9200,970 @@
         <v>否</v>
       </c>
     </row>
+    <row r="442">
+      <c r="A442">
+        <v>20980067</v>
+      </c>
+      <c r="B442" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C442" t="str">
+        <v>否</v>
+      </c>
+      <c r="D442">
+        <v>186</v>
+      </c>
+      <c r="E442" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F442" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443">
+        <v>19105793</v>
+      </c>
+      <c r="B443" t="str">
+        <v>喵卷卷2+3奇遇记 推理侦探系列</v>
+      </c>
+      <c r="C443" t="str">
+        <v>否</v>
+      </c>
+      <c r="D443">
+        <v>159</v>
+      </c>
+      <c r="E443" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F443" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444">
+        <v>24675766</v>
+      </c>
+      <c r="B444" t="str">
+        <v>东北民间轶事</v>
+      </c>
+      <c r="C444" t="str">
+        <v>否</v>
+      </c>
+      <c r="D444">
+        <v>263</v>
+      </c>
+      <c r="E444" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F444" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445">
+        <v>5445798</v>
+      </c>
+      <c r="B445" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C445" t="str">
+        <v>否</v>
+      </c>
+      <c r="D445">
+        <v>234</v>
+      </c>
+      <c r="E445" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F445" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446">
+        <v>14561753</v>
+      </c>
+      <c r="B446" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C446" t="str">
+        <v>否</v>
+      </c>
+      <c r="D446">
+        <v>127</v>
+      </c>
+      <c r="E446" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F446" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447">
+        <v>21799808</v>
+      </c>
+      <c r="B447" t="str">
+        <v>《父母的觉醒》| 喜马讲书</v>
+      </c>
+      <c r="C447" t="str">
+        <v>否</v>
+      </c>
+      <c r="D447">
+        <v>1</v>
+      </c>
+      <c r="E447" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F447" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448">
+        <v>23001462</v>
+      </c>
+      <c r="B448" t="str">
+        <v>杰出青少年的七个习惯|喜马讲书</v>
+      </c>
+      <c r="C448" t="str">
+        <v>否</v>
+      </c>
+      <c r="D448">
+        <v>1</v>
+      </c>
+      <c r="E448" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F448" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449">
+        <v>21803173</v>
+      </c>
+      <c r="B449" t="str">
+        <v>《好妈妈胜过好老师》| 喜马讲书（亲子育儿）</v>
+      </c>
+      <c r="C449" t="str">
+        <v>否</v>
+      </c>
+      <c r="D449">
+        <v>1</v>
+      </c>
+      <c r="E449" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F449" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450">
+        <v>21798928</v>
+      </c>
+      <c r="B450" t="str">
+        <v>《做孩子最好的英语学习规划师》</v>
+      </c>
+      <c r="C450" t="str">
+        <v>否</v>
+      </c>
+      <c r="D450">
+        <v>1</v>
+      </c>
+      <c r="E450" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F450" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451">
+        <v>29671024</v>
+      </c>
+      <c r="B451" t="str">
+        <v>刘奕君·开席了！宋朝饭局</v>
+      </c>
+      <c r="C451" t="str">
+        <v>否</v>
+      </c>
+      <c r="D451">
+        <v>93</v>
+      </c>
+      <c r="E451" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F451" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452">
+        <v>25484578</v>
+      </c>
+      <c r="B452" t="str">
+        <v>非正常死亡：法医鉴证实录</v>
+      </c>
+      <c r="C452" t="str">
+        <v>否</v>
+      </c>
+      <c r="D452">
+        <v>62</v>
+      </c>
+      <c r="E452" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F452" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453">
+        <v>21800082</v>
+      </c>
+      <c r="B453" t="str">
+        <v>《干法》|喜马讲书</v>
+      </c>
+      <c r="C453" t="str">
+        <v>否</v>
+      </c>
+      <c r="D453">
+        <v>1</v>
+      </c>
+      <c r="E453" t="str">
+        <v>商业财经</v>
+      </c>
+      <c r="F453" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454">
+        <v>29470514</v>
+      </c>
+      <c r="B454" t="str">
+        <v>清代皇陵秘闻录|VIP免费听</v>
+      </c>
+      <c r="C454" t="str">
+        <v>否</v>
+      </c>
+      <c r="D454">
+        <v>85</v>
+      </c>
+      <c r="E454" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F454" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455">
+        <v>29470514</v>
+      </c>
+      <c r="B455" t="str">
+        <v>清代皇陵秘闻录|VIP免费听</v>
+      </c>
+      <c r="C455" t="str">
+        <v>否</v>
+      </c>
+      <c r="D455">
+        <v>85</v>
+      </c>
+      <c r="E455" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F455" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456">
+        <v>33917662</v>
+      </c>
+      <c r="B456" t="str">
+        <v>讲给孩子听的-封神演义</v>
+      </c>
+      <c r="C456" t="str">
+        <v>否</v>
+      </c>
+      <c r="D456">
+        <v>173</v>
+      </c>
+      <c r="E456" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F456" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457">
+        <v>26083417</v>
+      </c>
+      <c r="B457" t="str">
+        <v>昆虫记|法布尔昆虫记|经典名著</v>
+      </c>
+      <c r="C457" t="str">
+        <v>否</v>
+      </c>
+      <c r="D457">
+        <v>105</v>
+      </c>
+      <c r="E457" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F457" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458">
+        <v>30769570</v>
+      </c>
+      <c r="B458" t="str">
+        <v>昆虫记 | 法布尔昆虫记第二辑</v>
+      </c>
+      <c r="C458" t="str">
+        <v>否</v>
+      </c>
+      <c r="D458">
+        <v>106</v>
+      </c>
+      <c r="E458" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F458" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459">
+        <v>32040440</v>
+      </c>
+      <c r="B459" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C459" t="str">
+        <v>否</v>
+      </c>
+      <c r="D459">
+        <v>175</v>
+      </c>
+      <c r="E459" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F459" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460">
+        <v>20980067</v>
+      </c>
+      <c r="B460" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C460" t="str">
+        <v>否</v>
+      </c>
+      <c r="D460">
+        <v>186</v>
+      </c>
+      <c r="E460" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F460" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461">
+        <v>19105793</v>
+      </c>
+      <c r="B461" t="str">
+        <v>喵卷卷2+3奇遇记 推理侦探系列</v>
+      </c>
+      <c r="C461" t="str">
+        <v>否</v>
+      </c>
+      <c r="D461">
+        <v>159</v>
+      </c>
+      <c r="E461" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F461" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462">
+        <v>24675766</v>
+      </c>
+      <c r="B462" t="str">
+        <v>东北民间轶事</v>
+      </c>
+      <c r="C462" t="str">
+        <v>否</v>
+      </c>
+      <c r="D462">
+        <v>263</v>
+      </c>
+      <c r="E462" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F462" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463">
+        <v>33474895</v>
+      </c>
+      <c r="B463" t="str">
+        <v>昊儒评书｜官场现形记</v>
+      </c>
+      <c r="C463" t="str">
+        <v>否</v>
+      </c>
+      <c r="D463">
+        <v>211</v>
+      </c>
+      <c r="E463" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F463" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464">
+        <v>30390485</v>
+      </c>
+      <c r="B464" t="str">
+        <v>明英烈 | 单田芳经典</v>
+      </c>
+      <c r="C464" t="str">
+        <v>否</v>
+      </c>
+      <c r="D464">
+        <v>163</v>
+      </c>
+      <c r="E464" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F464" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465">
+        <v>31485039</v>
+      </c>
+      <c r="B465" t="str">
+        <v>张金山经典《和珅秘史》</v>
+      </c>
+      <c r="C465" t="str">
+        <v>否</v>
+      </c>
+      <c r="D465">
+        <v>98</v>
+      </c>
+      <c r="E465" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F465" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466">
+        <v>25246986</v>
+      </c>
+      <c r="B466" t="str">
+        <v>楚汉争雄 | 单田芳经典</v>
+      </c>
+      <c r="C466" t="str">
+        <v>否</v>
+      </c>
+      <c r="D466">
+        <v>100</v>
+      </c>
+      <c r="E466" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F466" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467">
+        <v>30390517</v>
+      </c>
+      <c r="B467" t="str">
+        <v>风尘三侠 | 单田芳经典</v>
+      </c>
+      <c r="C467" t="str">
+        <v>否</v>
+      </c>
+      <c r="D467">
+        <v>80</v>
+      </c>
+      <c r="E467" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F467" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468">
+        <v>31945488</v>
+      </c>
+      <c r="B468" t="str">
+        <v>张鹤伦相声专场哈尔滨站2019</v>
+      </c>
+      <c r="C468" t="str">
+        <v>否</v>
+      </c>
+      <c r="D468">
+        <v>6</v>
+      </c>
+      <c r="E468" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F468" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469">
+        <v>32651716</v>
+      </c>
+      <c r="B469" t="str">
+        <v>岳云鹏相声专场北京站 2018</v>
+      </c>
+      <c r="C469" t="str">
+        <v>否</v>
+      </c>
+      <c r="D469">
+        <v>7</v>
+      </c>
+      <c r="E469" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F469" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470">
+        <v>30390399</v>
+      </c>
+      <c r="B470" t="str">
+        <v>唐明皇之宫帏惊变 | 单田芳经典</v>
+      </c>
+      <c r="C470" t="str">
+        <v>否</v>
+      </c>
+      <c r="D470">
+        <v>50</v>
+      </c>
+      <c r="E470" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F470" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471">
+        <v>30390324</v>
+      </c>
+      <c r="B471" t="str">
+        <v>五鼠闹东京 | 单田芳经典</v>
+      </c>
+      <c r="C471" t="str">
+        <v>否</v>
+      </c>
+      <c r="D471">
+        <v>40</v>
+      </c>
+      <c r="E471" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F471" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472">
+        <v>21984732</v>
+      </c>
+      <c r="B472" t="str">
+        <v>《西方美术史》丁宁“北大通识课” 精读版 | 喜马讲书</v>
+      </c>
+      <c r="C472" t="str">
+        <v>否</v>
+      </c>
+      <c r="D472">
+        <v>2</v>
+      </c>
+      <c r="E472" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F472" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473">
+        <v>21721044</v>
+      </c>
+      <c r="B473" t="str">
+        <v>《演员自我修养》| 喜马讲书</v>
+      </c>
+      <c r="C473" t="str">
+        <v>否</v>
+      </c>
+      <c r="D473">
+        <v>1</v>
+      </c>
+      <c r="E473" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F473" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474">
+        <v>5445798</v>
+      </c>
+      <c r="B474" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C474" t="str">
+        <v>否</v>
+      </c>
+      <c r="D474">
+        <v>234</v>
+      </c>
+      <c r="E474" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F474" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475">
+        <v>14561753</v>
+      </c>
+      <c r="B475" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C475" t="str">
+        <v>否</v>
+      </c>
+      <c r="D475">
+        <v>127</v>
+      </c>
+      <c r="E475" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F475" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476">
+        <v>21799808</v>
+      </c>
+      <c r="B476" t="str">
+        <v>《父母的觉醒》| 喜马讲书</v>
+      </c>
+      <c r="C476" t="str">
+        <v>否</v>
+      </c>
+      <c r="D476">
+        <v>1</v>
+      </c>
+      <c r="E476" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F476" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477">
+        <v>23001462</v>
+      </c>
+      <c r="B477" t="str">
+        <v>杰出青少年的七个习惯|喜马讲书</v>
+      </c>
+      <c r="C477" t="str">
+        <v>否</v>
+      </c>
+      <c r="D477">
+        <v>1</v>
+      </c>
+      <c r="E477" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F477" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478">
+        <v>21803173</v>
+      </c>
+      <c r="B478" t="str">
+        <v>《好妈妈胜过好老师》| 喜马讲书（亲子育儿）</v>
+      </c>
+      <c r="C478" t="str">
+        <v>否</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+      <c r="E478" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F478" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479">
+        <v>21798928</v>
+      </c>
+      <c r="B479" t="str">
+        <v>《做孩子最好的英语学习规划师》</v>
+      </c>
+      <c r="C479" t="str">
+        <v>否</v>
+      </c>
+      <c r="D479">
+        <v>1</v>
+      </c>
+      <c r="E479" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F479" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480">
+        <v>29671024</v>
+      </c>
+      <c r="B480" t="str">
+        <v>刘奕君·开席了！宋朝饭局</v>
+      </c>
+      <c r="C480" t="str">
+        <v>否</v>
+      </c>
+      <c r="D480">
+        <v>93</v>
+      </c>
+      <c r="E480" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F480" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481">
+        <v>25484578</v>
+      </c>
+      <c r="B481" t="str">
+        <v>非正常死亡：法医鉴证实录</v>
+      </c>
+      <c r="C481" t="str">
+        <v>否</v>
+      </c>
+      <c r="D481">
+        <v>62</v>
+      </c>
+      <c r="E481" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F481" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482">
+        <v>5445798</v>
+      </c>
+      <c r="B482" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C482" t="str">
+        <v>否</v>
+      </c>
+      <c r="D482">
+        <v>234</v>
+      </c>
+      <c r="E482" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F482" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483">
+        <v>14561753</v>
+      </c>
+      <c r="B483" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C483" t="str">
+        <v>否</v>
+      </c>
+      <c r="D483">
+        <v>127</v>
+      </c>
+      <c r="E483" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F483" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484">
+        <v>21799808</v>
+      </c>
+      <c r="B484" t="str">
+        <v>《父母的觉醒》| 喜马讲书</v>
+      </c>
+      <c r="C484" t="str">
+        <v>否</v>
+      </c>
+      <c r="D484">
+        <v>1</v>
+      </c>
+      <c r="E484" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F484" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485">
+        <v>23001462</v>
+      </c>
+      <c r="B485" t="str">
+        <v>杰出青少年的七个习惯|喜马讲书</v>
+      </c>
+      <c r="C485" t="str">
+        <v>否</v>
+      </c>
+      <c r="D485">
+        <v>1</v>
+      </c>
+      <c r="E485" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F485" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486">
+        <v>21803173</v>
+      </c>
+      <c r="B486" t="str">
+        <v>《好妈妈胜过好老师》| 喜马讲书（亲子育儿）</v>
+      </c>
+      <c r="C486" t="str">
+        <v>否</v>
+      </c>
+      <c r="D486">
+        <v>1</v>
+      </c>
+      <c r="E486" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F486" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487">
+        <v>21798928</v>
+      </c>
+      <c r="B487" t="str">
+        <v>《做孩子最好的英语学习规划师》</v>
+      </c>
+      <c r="C487" t="str">
+        <v>否</v>
+      </c>
+      <c r="D487">
+        <v>1</v>
+      </c>
+      <c r="E487" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F487" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488">
+        <v>29671024</v>
+      </c>
+      <c r="B488" t="str">
+        <v>刘奕君·开席了！宋朝饭局</v>
+      </c>
+      <c r="C488" t="str">
+        <v>否</v>
+      </c>
+      <c r="D488">
+        <v>93</v>
+      </c>
+      <c r="E488" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F488" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489">
+        <v>25484578</v>
+      </c>
+      <c r="B489" t="str">
+        <v>非正常死亡：法医鉴证实录</v>
+      </c>
+      <c r="C489" t="str">
+        <v>否</v>
+      </c>
+      <c r="D489">
+        <v>62</v>
+      </c>
+      <c r="E489" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F489" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G441"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G489"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F745"/>
+  <dimension ref="A1:F749"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15280,9 +15280,89 @@
         <v>否</v>
       </c>
     </row>
+    <row r="746">
+      <c r="A746">
+        <v>35350539</v>
+      </c>
+      <c r="B746" t="str">
+        <v>硅谷钢铁侠：埃隆·马斯克的冒险人生|雷军、丁磊、周鸿祎力荐</v>
+      </c>
+      <c r="C746" t="str">
+        <v>是</v>
+      </c>
+      <c r="D746">
+        <v>22</v>
+      </c>
+      <c r="E746" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F746" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747">
+        <v>38534851</v>
+      </c>
+      <c r="B747" t="str">
+        <v>好的经济学（2019年诺贝尔经济学奖得主新作）</v>
+      </c>
+      <c r="C747" t="str">
+        <v>是</v>
+      </c>
+      <c r="D747">
+        <v>35</v>
+      </c>
+      <c r="E747" t="str">
+        <v>商业财经</v>
+      </c>
+      <c r="F747" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748">
+        <v>38534389</v>
+      </c>
+      <c r="B748" t="str">
+        <v>十年一觉电影梦：李安传</v>
+      </c>
+      <c r="C748" t="str">
+        <v>是</v>
+      </c>
+      <c r="D748">
+        <v>41</v>
+      </c>
+      <c r="E748" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F748" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749">
+        <v>38536383</v>
+      </c>
+      <c r="B749" t="str">
+        <v>社交媒体简史：从莎草纸到互联网</v>
+      </c>
+      <c r="C749" t="str">
+        <v>是</v>
+      </c>
+      <c r="D749">
+        <v>25</v>
+      </c>
+      <c r="E749" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F749" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F745"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F749"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1090"/>
+  <dimension ref="A1:F1242"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -22180,9 +22180,3049 @@
         <v>否</v>
       </c>
     </row>
+    <row r="1091">
+      <c r="A1091">
+        <v>19232895</v>
+      </c>
+      <c r="B1091" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1091" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1091">
+        <v>1586</v>
+      </c>
+      <c r="E1091" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1091" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092">
+        <v>23632774</v>
+      </c>
+      <c r="B1092" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1092" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1092">
+        <v>256</v>
+      </c>
+      <c r="E1092" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1092" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093">
+        <v>35582881</v>
+      </c>
+      <c r="B1093" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1093" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1093">
+        <v>263</v>
+      </c>
+      <c r="E1093" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1093" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094">
+        <v>32267812</v>
+      </c>
+      <c r="B1094" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1094" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1094">
+        <v>204</v>
+      </c>
+      <c r="E1094" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1094" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095">
+        <v>26890897</v>
+      </c>
+      <c r="B1095" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1095" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1095">
+        <v>225</v>
+      </c>
+      <c r="E1095" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1095" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096">
+        <v>10989065</v>
+      </c>
+      <c r="B1096" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1096" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1096">
+        <v>202</v>
+      </c>
+      <c r="E1096" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1096" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097">
+        <v>25482236</v>
+      </c>
+      <c r="B1097" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1097" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1097">
+        <v>226</v>
+      </c>
+      <c r="E1097" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1097" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098">
+        <v>23625885</v>
+      </c>
+      <c r="B1098" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C1098" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1098">
+        <v>756</v>
+      </c>
+      <c r="E1098" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1098" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099">
+        <v>39016657</v>
+      </c>
+      <c r="B1099" t="str">
+        <v>《论语》儿童跟读版 | 儿童国学睡前故事</v>
+      </c>
+      <c r="C1099" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1099">
+        <v>106</v>
+      </c>
+      <c r="E1099" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1099" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100">
+        <v>23550058</v>
+      </c>
+      <c r="B1100" t="str">
+        <v>精读1000本全球好书|每天更新1本</v>
+      </c>
+      <c r="C1100" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1100">
+        <v>480</v>
+      </c>
+      <c r="E1100" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1100" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101">
+        <v>23633187</v>
+      </c>
+      <c r="B1101" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C1101" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1101">
+        <v>132</v>
+      </c>
+      <c r="E1101" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1101" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102">
+        <v>18982940</v>
+      </c>
+      <c r="B1102" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C1102" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1102">
+        <v>101</v>
+      </c>
+      <c r="E1102" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1102" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103">
+        <v>23633996</v>
+      </c>
+      <c r="B1103" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C1103" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1103">
+        <v>131</v>
+      </c>
+      <c r="E1103" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1103" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104">
+        <v>36387482</v>
+      </c>
+      <c r="B1104" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C1104" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1104">
+        <v>152</v>
+      </c>
+      <c r="E1104" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1104" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105">
+        <v>23633570</v>
+      </c>
+      <c r="B1105" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C1105" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1105">
+        <v>130</v>
+      </c>
+      <c r="E1105" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1105" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106">
+        <v>35454435</v>
+      </c>
+      <c r="B1106" t="str">
+        <v>老崔讲中国神探|300+大案纪实</v>
+      </c>
+      <c r="C1106" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1106">
+        <v>146</v>
+      </c>
+      <c r="E1106" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1106" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107">
+        <v>28756500</v>
+      </c>
+      <c r="B1107" t="str">
+        <v>《绝密档案》深夜调查局|200+尘封的未解之谜</v>
+      </c>
+      <c r="C1107" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1107">
+        <v>197</v>
+      </c>
+      <c r="E1107" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1107" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108">
+        <v>30362073</v>
+      </c>
+      <c r="B1108" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C1108" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1108">
+        <v>105</v>
+      </c>
+      <c r="E1108" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1108" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109">
+        <v>35516850</v>
+      </c>
+      <c r="B1109" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C1109" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1109">
+        <v>188</v>
+      </c>
+      <c r="E1109" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1109" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110">
+        <v>5445798</v>
+      </c>
+      <c r="B1110" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C1110" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1110">
+        <v>234</v>
+      </c>
+      <c r="E1110" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1110" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111">
+        <v>25488931</v>
+      </c>
+      <c r="B1111" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C1111" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1111">
+        <v>130</v>
+      </c>
+      <c r="E1111" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1111" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112">
+        <v>14561753</v>
+      </c>
+      <c r="B1112" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C1112" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1112">
+        <v>127</v>
+      </c>
+      <c r="E1112" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1112" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113">
+        <v>23633842</v>
+      </c>
+      <c r="B1113" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C1113" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1113">
+        <v>116</v>
+      </c>
+      <c r="E1113" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1113" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114">
+        <v>6693171</v>
+      </c>
+      <c r="B1114" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C1114" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1114">
+        <v>106</v>
+      </c>
+      <c r="E1114" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1114" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115">
+        <v>35454071</v>
+      </c>
+      <c r="B1115" t="str">
+        <v>【互动剧】基督山伯爵（600集悬疑推理，秦笙播讲）</v>
+      </c>
+      <c r="C1115" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1115">
+        <v>473</v>
+      </c>
+      <c r="E1115" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1115" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116">
+        <v>16166114</v>
+      </c>
+      <c r="B1116" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C1116" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1116">
+        <v>140</v>
+      </c>
+      <c r="E1116" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1116" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117">
+        <v>37304112</v>
+      </c>
+      <c r="B1117" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C1117" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1117">
+        <v>121</v>
+      </c>
+      <c r="E1117" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1117" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118">
+        <v>39885016</v>
+      </c>
+      <c r="B1118" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C1118" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1118">
+        <v>77</v>
+      </c>
+      <c r="E1118" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1118" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119">
+        <v>12424955</v>
+      </c>
+      <c r="B1119" t="str">
+        <v>一听就懂的《易经》</v>
+      </c>
+      <c r="C1119" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1119">
+        <v>107</v>
+      </c>
+      <c r="E1119" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1119" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120">
+        <v>39459352</v>
+      </c>
+      <c r="B1120" t="str">
+        <v>宋氏三姐妹 | 绝密档案</v>
+      </c>
+      <c r="C1120" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1120">
+        <v>70</v>
+      </c>
+      <c r="E1120" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1120" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121">
+        <v>11594109</v>
+      </c>
+      <c r="B1121" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1121" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1121">
+        <v>314</v>
+      </c>
+      <c r="E1121" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1121" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122">
+        <v>33476331</v>
+      </c>
+      <c r="B1122" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1122" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1122">
+        <v>541</v>
+      </c>
+      <c r="E1122" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1122" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123">
+        <v>19232895</v>
+      </c>
+      <c r="B1123" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1123" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1123">
+        <v>1586</v>
+      </c>
+      <c r="E1123" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1123" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124">
+        <v>33913846</v>
+      </c>
+      <c r="B1124" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1124" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1124">
+        <v>124</v>
+      </c>
+      <c r="E1124" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1124" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125">
+        <v>30816438</v>
+      </c>
+      <c r="B1125" t="str">
+        <v>三体（全六季）| 精品广播剧</v>
+      </c>
+      <c r="C1125" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1125">
+        <v>42</v>
+      </c>
+      <c r="E1125" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1125" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126">
+        <v>27505286</v>
+      </c>
+      <c r="B1126" t="str">
+        <v>刑警803【900集 每日双更】</v>
+      </c>
+      <c r="C1126" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1126">
+        <v>912</v>
+      </c>
+      <c r="E1126" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F1126" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127">
+        <v>22461672</v>
+      </c>
+      <c r="B1127" t="str">
+        <v>灵目鬼话（精品广播剧）</v>
+      </c>
+      <c r="C1127" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1127">
+        <v>253</v>
+      </c>
+      <c r="E1127" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1127" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128">
+        <v>22814062</v>
+      </c>
+      <c r="B1128" t="str">
+        <v>鬼话三国(贯穿封神西游上古神话)</v>
+      </c>
+      <c r="C1128" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1128">
+        <v>265</v>
+      </c>
+      <c r="E1128" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1128" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129">
+        <v>23632774</v>
+      </c>
+      <c r="B1129" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1129" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1129">
+        <v>256</v>
+      </c>
+      <c r="E1129" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1129" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130">
+        <v>4651578</v>
+      </c>
+      <c r="B1130" t="str">
+        <v>穿越异世界|我和公主有一腿</v>
+      </c>
+      <c r="C1130" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1130">
+        <v>603</v>
+      </c>
+      <c r="E1130" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1130" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131">
+        <v>32038799</v>
+      </c>
+      <c r="B1131" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1131" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1131">
+        <v>302</v>
+      </c>
+      <c r="E1131" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1131" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132">
+        <v>33917662</v>
+      </c>
+      <c r="B1132" t="str">
+        <v>讲给孩子听的-封神演义</v>
+      </c>
+      <c r="C1132" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1132">
+        <v>315</v>
+      </c>
+      <c r="E1132" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1132" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133">
+        <v>8645052</v>
+      </c>
+      <c r="B1133" t="str">
+        <v>评书版-斗破苍穹【与现场同步】</v>
+      </c>
+      <c r="C1133" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1133">
+        <v>318</v>
+      </c>
+      <c r="E1133" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1133" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134">
+        <v>21824864</v>
+      </c>
+      <c r="B1134" t="str">
+        <v>谦道·于谦首档音频脱口秀</v>
+      </c>
+      <c r="C1134" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1134">
+        <v>160</v>
+      </c>
+      <c r="E1134" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1134" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135">
+        <v>30416480</v>
+      </c>
+      <c r="B1135" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1135" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1135">
+        <v>259</v>
+      </c>
+      <c r="E1135" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1135" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136">
+        <v>35582881</v>
+      </c>
+      <c r="B1136" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1136" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1136">
+        <v>263</v>
+      </c>
+      <c r="E1136" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1136" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137">
+        <v>24675766</v>
+      </c>
+      <c r="B1137" t="str">
+        <v>东北民间轶事</v>
+      </c>
+      <c r="C1137" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1137">
+        <v>297</v>
+      </c>
+      <c r="E1137" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1137" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138">
+        <v>11438153</v>
+      </c>
+      <c r="B1138" t="str">
+        <v>郭论·郭德纲品俗文化史</v>
+      </c>
+      <c r="C1138" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1138">
+        <v>161</v>
+      </c>
+      <c r="E1138" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1138" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139">
+        <v>32040440</v>
+      </c>
+      <c r="B1139" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1139" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1139">
+        <v>259</v>
+      </c>
+      <c r="E1139" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1139" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1140">
+      <c r="A1140">
+        <v>22114507</v>
+      </c>
+      <c r="B1140" t="str">
+        <v>大力丸儿多人有声剧：百部小说里的中国史</v>
+      </c>
+      <c r="C1140" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1140">
+        <v>210</v>
+      </c>
+      <c r="E1140" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1140" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1141">
+      <c r="A1141">
+        <v>32267812</v>
+      </c>
+      <c r="B1141" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1141" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1141">
+        <v>204</v>
+      </c>
+      <c r="E1141" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1141" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1142">
+      <c r="A1142">
+        <v>32541372</v>
+      </c>
+      <c r="B1142" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1142" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1142">
+        <v>308</v>
+      </c>
+      <c r="E1142" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1142" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1143">
+      <c r="A1143">
+        <v>26890897</v>
+      </c>
+      <c r="B1143" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1143" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1143">
+        <v>225</v>
+      </c>
+      <c r="E1143" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1143" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1144">
+      <c r="A1144">
+        <v>10989065</v>
+      </c>
+      <c r="B1144" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1144" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1144">
+        <v>202</v>
+      </c>
+      <c r="E1144" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1144" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1145">
+      <c r="A1145">
+        <v>25482236</v>
+      </c>
+      <c r="B1145" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1145" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1145">
+        <v>226</v>
+      </c>
+      <c r="E1145" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1145" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1146">
+      <c r="A1146">
+        <v>39675735</v>
+      </c>
+      <c r="B1146" t="str">
+        <v>中国通史 | 500余则经典历史故事</v>
+      </c>
+      <c r="C1146" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1146">
+        <v>232</v>
+      </c>
+      <c r="E1146" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1146" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1147">
+      <c r="A1147">
+        <v>5211938</v>
+      </c>
+      <c r="B1147" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1147" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1147">
+        <v>369</v>
+      </c>
+      <c r="E1147" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1147" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1148">
+      <c r="A1148">
+        <v>32452148</v>
+      </c>
+      <c r="B1148" t="str">
+        <v>纳尼亚传奇 全7册</v>
+      </c>
+      <c r="C1148" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1148">
+        <v>292</v>
+      </c>
+      <c r="E1148" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1148" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1149">
+      <c r="A1149">
+        <v>29293434</v>
+      </c>
+      <c r="B1149" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1149" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1149">
+        <v>208</v>
+      </c>
+      <c r="E1149" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1149" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1150">
+      <c r="A1150">
+        <v>20980067</v>
+      </c>
+      <c r="B1150" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1150" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1150">
+        <v>234</v>
+      </c>
+      <c r="E1150" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1150" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1151">
+      <c r="A1151">
+        <v>28810646</v>
+      </c>
+      <c r="B1151" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C1151" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1151">
+        <v>321</v>
+      </c>
+      <c r="E1151" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1151" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1152">
+      <c r="A1152">
+        <v>34643279</v>
+      </c>
+      <c r="B1152" t="str">
+        <v>笑海书场｜十年相声精选</v>
+      </c>
+      <c r="C1152" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1152">
+        <v>209</v>
+      </c>
+      <c r="E1152" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1152" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1153">
+      <c r="A1153">
+        <v>35811994</v>
+      </c>
+      <c r="B1153" t="str">
+        <v>学者李亚平《说宋朝》下部</v>
+      </c>
+      <c r="C1153" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1153">
+        <v>246</v>
+      </c>
+      <c r="E1153" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1153" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1154">
+      <c r="A1154">
+        <v>21375015</v>
+      </c>
+      <c r="B1154" t="str">
+        <v>郭论·第二季</v>
+      </c>
+      <c r="C1154" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1154">
+        <v>158</v>
+      </c>
+      <c r="E1154" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1154" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1155">
+      <c r="A1155">
+        <v>32650457</v>
+      </c>
+      <c r="B1155" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1155" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1155">
+        <v>1104</v>
+      </c>
+      <c r="E1155" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1155" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1156">
+      <c r="A1156">
+        <v>23361684</v>
+      </c>
+      <c r="B1156" t="str">
+        <v>十万个为什么：动物真奇妙</v>
+      </c>
+      <c r="C1156" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1156">
+        <v>104</v>
+      </c>
+      <c r="E1156" t="str">
+        <v>其他</v>
+      </c>
+      <c r="F1156" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1157">
+      <c r="A1157">
+        <v>11594109</v>
+      </c>
+      <c r="B1157" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1157" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1157">
+        <v>314</v>
+      </c>
+      <c r="E1157" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1157" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1158">
+      <c r="A1158">
+        <v>33913846</v>
+      </c>
+      <c r="B1158" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1158" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1158">
+        <v>124</v>
+      </c>
+      <c r="E1158" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1158" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1159">
+      <c r="A1159">
+        <v>32038799</v>
+      </c>
+      <c r="B1159" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1159" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1159">
+        <v>302</v>
+      </c>
+      <c r="E1159" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1159" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1160">
+      <c r="A1160">
+        <v>33917662</v>
+      </c>
+      <c r="B1160" t="str">
+        <v>讲给孩子听的-封神演义</v>
+      </c>
+      <c r="C1160" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1160">
+        <v>315</v>
+      </c>
+      <c r="E1160" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1160" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1161">
+      <c r="A1161">
+        <v>30416480</v>
+      </c>
+      <c r="B1161" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1161" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1161">
+        <v>259</v>
+      </c>
+      <c r="E1161" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1161" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1162">
+      <c r="A1162">
+        <v>32040440</v>
+      </c>
+      <c r="B1162" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1162" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1162">
+        <v>259</v>
+      </c>
+      <c r="E1162" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1162" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1163">
+      <c r="A1163">
+        <v>32541372</v>
+      </c>
+      <c r="B1163" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1163" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1163">
+        <v>308</v>
+      </c>
+      <c r="E1163" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1163" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1164">
+      <c r="A1164">
+        <v>39675735</v>
+      </c>
+      <c r="B1164" t="str">
+        <v>中国通史 | 500余则经典历史故事</v>
+      </c>
+      <c r="C1164" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1164">
+        <v>232</v>
+      </c>
+      <c r="E1164" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1164" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1165">
+      <c r="A1165">
+        <v>5211938</v>
+      </c>
+      <c r="B1165" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1165" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1165">
+        <v>369</v>
+      </c>
+      <c r="E1165" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1165" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1166">
+      <c r="A1166">
+        <v>32452148</v>
+      </c>
+      <c r="B1166" t="str">
+        <v>纳尼亚传奇 全7册</v>
+      </c>
+      <c r="C1166" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1166">
+        <v>292</v>
+      </c>
+      <c r="E1166" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1166" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1167">
+      <c r="A1167">
+        <v>29293434</v>
+      </c>
+      <c r="B1167" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1167" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1167">
+        <v>208</v>
+      </c>
+      <c r="E1167" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1167" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1168">
+      <c r="A1168">
+        <v>20980067</v>
+      </c>
+      <c r="B1168" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1168" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1168">
+        <v>234</v>
+      </c>
+      <c r="E1168" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1168" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1169">
+      <c r="A1169">
+        <v>20965889</v>
+      </c>
+      <c r="B1169" t="str">
+        <v>【全集】冒险小王子睡前童话故事</v>
+      </c>
+      <c r="C1169" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1169">
+        <v>582</v>
+      </c>
+      <c r="E1169" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1169" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1170">
+      <c r="A1170">
+        <v>22267837</v>
+      </c>
+      <c r="B1170" t="str">
+        <v>每天五分钟，轻松做父母</v>
+      </c>
+      <c r="C1170" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1170">
+        <v>283</v>
+      </c>
+      <c r="E1170" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1170" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1171">
+      <c r="A1171">
+        <v>16783482</v>
+      </c>
+      <c r="B1171" t="str">
+        <v>暖房子有声绘本馆</v>
+      </c>
+      <c r="C1171" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1171">
+        <v>300</v>
+      </c>
+      <c r="E1171" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1171" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1172">
+      <c r="A1172">
+        <v>32318414</v>
+      </c>
+      <c r="B1172" t="str">
+        <v>碰碰狐！儿歌合辑</v>
+      </c>
+      <c r="C1172" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1172">
+        <v>145</v>
+      </c>
+      <c r="E1172" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1172" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1173">
+      <c r="A1173">
+        <v>40412609</v>
+      </c>
+      <c r="B1173" t="str">
+        <v>神探迈克狐· 国际学院篇｜哆哆罗</v>
+      </c>
+      <c r="C1173" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1173">
+        <v>42</v>
+      </c>
+      <c r="E1173" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1173" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1174">
+      <c r="A1174">
+        <v>38838259</v>
+      </c>
+      <c r="B1174" t="str">
+        <v>碰碰狐！英语儿歌合辑</v>
+      </c>
+      <c r="C1174" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1174">
+        <v>151</v>
+      </c>
+      <c r="E1174" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1174" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1175">
+      <c r="A1175">
+        <v>35583796</v>
+      </c>
+      <c r="B1175" t="str">
+        <v>植物大战僵尸之机器时代</v>
+      </c>
+      <c r="C1175" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1175">
+        <v>118</v>
+      </c>
+      <c r="E1175" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1175" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1176">
+      <c r="A1176">
+        <v>19787798</v>
+      </c>
+      <c r="B1176" t="str">
+        <v>林汉达中国历史故事1+2部</v>
+      </c>
+      <c r="C1176" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1176">
+        <v>262</v>
+      </c>
+      <c r="E1176" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1176" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1177">
+      <c r="A1177">
+        <v>39661561</v>
+      </c>
+      <c r="B1177" t="str">
+        <v>瑞奇宝宝儿歌</v>
+      </c>
+      <c r="C1177" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1177">
+        <v>105</v>
+      </c>
+      <c r="E1177" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1177" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1178">
+      <c r="A1178">
+        <v>33968878</v>
+      </c>
+      <c r="B1178" t="str">
+        <v>君伟上小学</v>
+      </c>
+      <c r="C1178" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1178">
+        <v>111</v>
+      </c>
+      <c r="E1178" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1178" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1179">
+      <c r="A1179">
+        <v>23548626</v>
+      </c>
+      <c r="B1179" t="str">
+        <v>小猪佩奇全集：五六季</v>
+      </c>
+      <c r="C1179" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1179">
+        <v>161</v>
+      </c>
+      <c r="E1179" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1179" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1180">
+      <c r="A1180">
+        <v>35356646</v>
+      </c>
+      <c r="B1180" t="str">
+        <v>神奇校车冒险故事【桥梁书版】</v>
+      </c>
+      <c r="C1180" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1180">
+        <v>203</v>
+      </c>
+      <c r="E1180" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1180" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1181">
+      <c r="A1181">
+        <v>19105793</v>
+      </c>
+      <c r="B1181" t="str">
+        <v>喵卷卷2+3奇遇记 推理侦探系列</v>
+      </c>
+      <c r="C1181" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1181">
+        <v>168</v>
+      </c>
+      <c r="E1181" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1181" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1182">
+      <c r="A1182">
+        <v>36857577</v>
+      </c>
+      <c r="B1182" t="str">
+        <v>村长讲故事|十万个为什么</v>
+      </c>
+      <c r="C1182" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1182">
+        <v>166</v>
+      </c>
+      <c r="E1182" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1182" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1183">
+      <c r="A1183">
+        <v>32212587</v>
+      </c>
+      <c r="B1183" t="str">
+        <v>乐高幻影忍者全集【官方正版】|儿童动画故事</v>
+      </c>
+      <c r="C1183" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1183">
+        <v>233</v>
+      </c>
+      <c r="E1183" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1183" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1184">
+      <c r="A1184">
+        <v>8272440</v>
+      </c>
+      <c r="B1184" t="str">
+        <v>耶鲁奶爸：唱学唐诗宋词70首</v>
+      </c>
+      <c r="C1184" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1184">
+        <v>141</v>
+      </c>
+      <c r="E1184" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1184" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1185">
+      <c r="A1185">
+        <v>35574131</v>
+      </c>
+      <c r="B1185" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C1185" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1185">
+        <v>177</v>
+      </c>
+      <c r="E1185" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1185" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1186">
+      <c r="A1186">
+        <v>40615158</v>
+      </c>
+      <c r="B1186" t="str">
+        <v>植物大战僵尸之全能大侦探</v>
+      </c>
+      <c r="C1186" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1186">
+        <v>20</v>
+      </c>
+      <c r="E1186" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1186" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1187">
+      <c r="A1187">
+        <v>30448605</v>
+      </c>
+      <c r="B1187" t="str">
+        <v>装在口袋里的爸爸（第5辑）</v>
+      </c>
+      <c r="C1187" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1187">
+        <v>116</v>
+      </c>
+      <c r="E1187" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1187" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1188">
+      <c r="A1188">
+        <v>20652876</v>
+      </c>
+      <c r="B1188" t="str">
+        <v>果壳：给孩子的自然百科400讲</v>
+      </c>
+      <c r="C1188" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1188">
+        <v>408</v>
+      </c>
+      <c r="E1188" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1188" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1189">
+      <c r="A1189">
+        <v>37149584</v>
+      </c>
+      <c r="B1189" t="str">
+        <v>少年派2·欢乐上学记</v>
+      </c>
+      <c r="C1189" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1189">
+        <v>146</v>
+      </c>
+      <c r="E1189" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1189" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1190">
+      <c r="A1190">
+        <v>30141290</v>
+      </c>
+      <c r="B1190" t="str">
+        <v>植物世界：超梦幻战斗第三季</v>
+      </c>
+      <c r="C1190" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1190">
+        <v>162</v>
+      </c>
+      <c r="E1190" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1190" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1191">
+      <c r="A1191">
+        <v>35487789</v>
+      </c>
+      <c r="B1191" t="str">
+        <v>校园三剑客（第3季）|少年科幻</v>
+      </c>
+      <c r="C1191" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1191">
+        <v>127</v>
+      </c>
+      <c r="E1191" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1191" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1192">
+      <c r="A1192">
+        <v>11267914</v>
+      </c>
+      <c r="B1192" t="str">
+        <v>植物世界：超梦幻战斗第一季</v>
+      </c>
+      <c r="C1192" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1192">
+        <v>118</v>
+      </c>
+      <c r="E1192" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1192" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1193">
+      <c r="A1193">
+        <v>31163168</v>
+      </c>
+      <c r="B1193" t="str">
+        <v>校园三剑客（第2季）|少年科幻</v>
+      </c>
+      <c r="C1193" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1193">
+        <v>119</v>
+      </c>
+      <c r="E1193" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1193" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1194">
+      <c r="A1194">
+        <v>33110625</v>
+      </c>
+      <c r="B1194" t="str">
+        <v>骑士街9号（第二季）神侦探推理</v>
+      </c>
+      <c r="C1194" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1194">
+        <v>118</v>
+      </c>
+      <c r="E1194" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1194" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1195">
+      <c r="A1195">
+        <v>14777570</v>
+      </c>
+      <c r="B1195" t="str">
+        <v>植物世界：超梦幻战斗第二季</v>
+      </c>
+      <c r="C1195" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1195">
+        <v>131</v>
+      </c>
+      <c r="E1195" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1195" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1196">
+      <c r="A1196">
+        <v>35724447</v>
+      </c>
+      <c r="B1196" t="str">
+        <v>孟京辉话剧|恋爱的犀牛</v>
+      </c>
+      <c r="C1196" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1196">
+        <v>4</v>
+      </c>
+      <c r="E1196" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1196" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1197">
+      <c r="A1197">
+        <v>21984732</v>
+      </c>
+      <c r="B1197" t="str">
+        <v>《西方美术史》丁宁“北大通识课” 精读版 | 喜马讲书</v>
+      </c>
+      <c r="C1197" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1197">
+        <v>2</v>
+      </c>
+      <c r="E1197" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1197" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1198">
+      <c r="A1198">
+        <v>40194393</v>
+      </c>
+      <c r="B1198" t="str">
+        <v>品位江南 | 著名作家张永祎主讲（凤凰书苑）</v>
+      </c>
+      <c r="C1198" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1198">
+        <v>20</v>
+      </c>
+      <c r="E1198" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1198" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1199">
+      <c r="A1199">
+        <v>35724780</v>
+      </c>
+      <c r="B1199" t="str">
+        <v>一个无政府主义者的意外死亡</v>
+      </c>
+      <c r="C1199" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1199">
+        <v>4</v>
+      </c>
+      <c r="E1199" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1199" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1200">
+      <c r="A1200">
+        <v>21721044</v>
+      </c>
+      <c r="B1200" t="str">
+        <v>《演员自我修养》| 喜马讲书</v>
+      </c>
+      <c r="C1200" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1200">
+        <v>1</v>
+      </c>
+      <c r="E1200" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1200" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1201">
+      <c r="A1201">
+        <v>35725787</v>
+      </c>
+      <c r="B1201" t="str">
+        <v>孟京辉|关于爱情归宿的最新观念</v>
+      </c>
+      <c r="C1201" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1201">
+        <v>5</v>
+      </c>
+      <c r="E1201" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1201" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202">
+        <v>16420380</v>
+      </c>
+      <c r="B1202" t="str">
+        <v>禧爷说艺术 | 史上16个艺术表情</v>
+      </c>
+      <c r="C1202" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1202">
+        <v>22</v>
+      </c>
+      <c r="E1202" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1202" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1203">
+      <c r="A1203">
+        <v>38540483</v>
+      </c>
+      <c r="B1203" t="str">
+        <v>艺术头条|宅游15个世界博物馆</v>
+      </c>
+      <c r="C1203" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1203">
+        <v>31</v>
+      </c>
+      <c r="E1203" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1203" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204">
+        <v>35724380</v>
+      </c>
+      <c r="B1204" t="str">
+        <v>孟京辉话剧|镜花水月</v>
+      </c>
+      <c r="C1204" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1204">
+        <v>3</v>
+      </c>
+      <c r="E1204" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1204" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1205">
+      <c r="A1205">
+        <v>33476331</v>
+      </c>
+      <c r="B1205" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1205" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1205">
+        <v>541</v>
+      </c>
+      <c r="E1205" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1205" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1206">
+      <c r="A1206">
+        <v>28810646</v>
+      </c>
+      <c r="B1206" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C1206" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1206">
+        <v>321</v>
+      </c>
+      <c r="E1206" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1206" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1207">
+      <c r="A1207">
+        <v>32650457</v>
+      </c>
+      <c r="B1207" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1207" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1207">
+        <v>1104</v>
+      </c>
+      <c r="E1207" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1207" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1208">
+      <c r="A1208">
+        <v>34220825</v>
+      </c>
+      <c r="B1208" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C1208" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1208">
+        <v>616</v>
+      </c>
+      <c r="E1208" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1208" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1209">
+      <c r="A1209">
+        <v>31887842</v>
+      </c>
+      <c r="B1209" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1209" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1209">
+        <v>1258</v>
+      </c>
+      <c r="E1209" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1209" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210">
+        <v>23889957</v>
+      </c>
+      <c r="B1210" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C1210" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1210">
+        <v>1931</v>
+      </c>
+      <c r="E1210" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1210" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1211">
+      <c r="A1211">
+        <v>32553758</v>
+      </c>
+      <c r="B1211" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C1211" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1211">
+        <v>855</v>
+      </c>
+      <c r="E1211" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1211" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1212">
+      <c r="A1212">
+        <v>25010802</v>
+      </c>
+      <c r="B1212" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1212" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1212">
+        <v>1902</v>
+      </c>
+      <c r="E1212" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1212" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1213">
+      <c r="A1213">
+        <v>33541329</v>
+      </c>
+      <c r="B1213" t="str">
+        <v>少帅你老婆又跑了|民国言情多人（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1213" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1213">
+        <v>965</v>
+      </c>
+      <c r="E1213" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1213" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1214">
+      <c r="A1214">
+        <v>22459052</v>
+      </c>
+      <c r="B1214" t="str">
+        <v>神医凰后（杨超越主演《且听凤鸣》原著小说，苏小暖作品）</v>
+      </c>
+      <c r="C1214" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1214">
+        <v>846</v>
+      </c>
+      <c r="E1214" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1214" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1215">
+      <c r="A1215">
+        <v>19095902</v>
+      </c>
+      <c r="B1215" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C1215" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1215">
+        <v>1989</v>
+      </c>
+      <c r="E1215" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1215" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1216">
+      <c r="A1216">
+        <v>29316562</v>
+      </c>
+      <c r="B1216" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C1216" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1216">
+        <v>1329</v>
+      </c>
+      <c r="E1216" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1216" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1217">
+      <c r="A1217">
+        <v>14356532</v>
+      </c>
+      <c r="B1217" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C1217" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1217">
+        <v>708</v>
+      </c>
+      <c r="E1217" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1217" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1218">
+      <c r="A1218">
+        <v>37081450</v>
+      </c>
+      <c r="B1218" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C1218" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1218">
+        <v>219</v>
+      </c>
+      <c r="E1218" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1218" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1219">
+      <c r="A1219">
+        <v>26440948</v>
+      </c>
+      <c r="B1219" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C1219" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1219">
+        <v>1058</v>
+      </c>
+      <c r="E1219" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1219" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1220">
+      <c r="A1220">
+        <v>3416829</v>
+      </c>
+      <c r="B1220" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C1220" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1220">
+        <v>1063</v>
+      </c>
+      <c r="E1220" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1220" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1221">
+      <c r="A1221">
+        <v>32210809</v>
+      </c>
+      <c r="B1221" t="str">
+        <v>龙王殿|萧阳叶云舒都市精品多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1221" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1221">
+        <v>843</v>
+      </c>
+      <c r="E1221" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1221" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1222">
+      <c r="A1222">
+        <v>17594210</v>
+      </c>
+      <c r="B1222" t="str">
+        <v>倒卖凶宅那几年/堪比盗墓笔记</v>
+      </c>
+      <c r="C1222" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1222">
+        <v>1057</v>
+      </c>
+      <c r="E1222" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1222" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1223">
+      <c r="A1223">
+        <v>36154122</v>
+      </c>
+      <c r="B1223" t="str">
+        <v>我的微信连三界|爆笑双播（幻樱空、妙儿姐）</v>
+      </c>
+      <c r="C1223" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1223">
+        <v>925</v>
+      </c>
+      <c r="E1223" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1223" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1224">
+      <c r="A1224">
+        <v>25001000</v>
+      </c>
+      <c r="B1224" t="str">
+        <v>神医毒妃 | 神医嫡女第二部</v>
+      </c>
+      <c r="C1224" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1224">
+        <v>861</v>
+      </c>
+      <c r="E1224" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1224" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1225">
+      <c r="A1225">
+        <v>15966734</v>
+      </c>
+      <c r="B1225" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C1225" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1225">
+        <v>1235</v>
+      </c>
+      <c r="E1225" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1225" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1226">
+      <c r="A1226">
+        <v>31503620</v>
+      </c>
+      <c r="B1226" t="str">
+        <v>都市极品医神｜叶辰夏若雪</v>
+      </c>
+      <c r="C1226" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1226">
+        <v>1860</v>
+      </c>
+      <c r="E1226" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1226" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1227">
+      <c r="A1227">
+        <v>11813511</v>
+      </c>
+      <c r="B1227" t="str">
+        <v>最强兵王|福海播讲|北冥出品</v>
+      </c>
+      <c r="C1227" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1227">
+        <v>3784</v>
+      </c>
+      <c r="E1227" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1227" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1228">
+      <c r="A1228">
+        <v>27249251</v>
+      </c>
+      <c r="B1228" t="str">
+        <v>第一赘婿（都市异能精品双人剧|全勇、竹嘻播）</v>
+      </c>
+      <c r="C1228" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1228">
+        <v>1835</v>
+      </c>
+      <c r="E1228" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1228" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229">
+        <v>23385573</v>
+      </c>
+      <c r="B1229" t="str">
+        <v>女神的布衣兵王【兵王在都市】</v>
+      </c>
+      <c r="C1229" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1229">
+        <v>390</v>
+      </c>
+      <c r="E1229" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1229" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1230">
+      <c r="A1230">
+        <v>32401742</v>
+      </c>
+      <c r="B1230" t="str">
+        <v>家有王妃初长成｜古言宫斗甜宠多人剧</v>
+      </c>
+      <c r="C1230" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1230">
+        <v>1150</v>
+      </c>
+      <c r="E1230" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1230" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231">
+        <v>35706608</v>
+      </c>
+      <c r="B1231" t="str">
+        <v>快穿之反派又黑化了｜爆笑穿越甜宠多人剧</v>
+      </c>
+      <c r="C1231" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1231">
+        <v>835</v>
+      </c>
+      <c r="E1231" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1231" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1232">
+      <c r="A1232">
+        <v>24645711</v>
+      </c>
+      <c r="B1232" t="str">
+        <v>我有一座冒险屋（精编完整版）</v>
+      </c>
+      <c r="C1232" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1232">
+        <v>1073</v>
+      </c>
+      <c r="E1232" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1232" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233">
+        <v>20135114</v>
+      </c>
+      <c r="B1233" t="str">
+        <v>大王饶命（刺儿版）</v>
+      </c>
+      <c r="C1233" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1233">
+        <v>1215</v>
+      </c>
+      <c r="E1233" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1233" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1234">
+      <c r="A1234">
+        <v>24671709</v>
+      </c>
+      <c r="B1234" t="str">
+        <v>末日蟑螂丨末世鼻祖</v>
+      </c>
+      <c r="C1234" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1234">
+        <v>1457</v>
+      </c>
+      <c r="E1234" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1234" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1235">
+      <c r="A1235">
+        <v>36765062</v>
+      </c>
+      <c r="B1235" t="str">
+        <v>爆更|末世大回炉（热血重生）</v>
+      </c>
+      <c r="C1235" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1235">
+        <v>656</v>
+      </c>
+      <c r="E1235" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1235" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1236">
+      <c r="A1236">
+        <v>37425148</v>
+      </c>
+      <c r="B1236" t="str">
+        <v>无上神帝 |20年玄幻巅峰 | 会员免费</v>
+      </c>
+      <c r="C1236" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1236">
+        <v>709</v>
+      </c>
+      <c r="E1236" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1236" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237">
+        <v>25455385</v>
+      </c>
+      <c r="B1237" t="str">
+        <v>最强系统【头陀渊&amp;小桃红】搞笑</v>
+      </c>
+      <c r="C1237" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1237">
+        <v>882</v>
+      </c>
+      <c r="E1237" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1237" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1238">
+      <c r="A1238">
+        <v>38160002</v>
+      </c>
+      <c r="B1238" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1238" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1238">
+        <v>373</v>
+      </c>
+      <c r="E1238" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1238" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239">
+        <v>20134108</v>
+      </c>
+      <c r="B1239" t="str">
+        <v>牧神记（多人录制版）</v>
+      </c>
+      <c r="C1239" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1239">
+        <v>1704</v>
+      </c>
+      <c r="E1239" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1239" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1240">
+      <c r="A1240">
+        <v>27883324</v>
+      </c>
+      <c r="B1240" t="str">
+        <v>许你万丈光芒好（姝艾/芸飞/云天河领衔现言甜宠多人剧）</v>
+      </c>
+      <c r="C1240" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1240">
+        <v>765</v>
+      </c>
+      <c r="E1240" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1240" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1241">
+      <c r="A1241">
+        <v>16436772</v>
+      </c>
+      <c r="B1241" t="str">
+        <v>《星期五有鬼》| 相声版（爆笑）</v>
+      </c>
+      <c r="C1241" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1241">
+        <v>660</v>
+      </c>
+      <c r="E1241" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1241" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1242">
+      <c r="A1242">
+        <v>36868226</v>
+      </c>
+      <c r="B1242" t="str">
+        <v>栀子花开/穿越重生/VIP免费/红彤彤的小柿子&amp;呵壁问天</v>
+      </c>
+      <c r="C1242" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1242">
+        <v>391</v>
+      </c>
+      <c r="E1242" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1242" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F1090"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1242"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1242"/>
+  <dimension ref="A1:F1243"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25220,9 +25220,29 @@
         <v>否</v>
       </c>
     </row>
+    <row r="1243">
+      <c r="A1243">
+        <v>12517524</v>
+      </c>
+      <c r="B1243" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1243" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1243">
+        <v>126</v>
+      </c>
+      <c r="E1243" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1243" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F1242"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1243"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1243"/>
+  <dimension ref="A1:F1592"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -25240,9 +25240,6989 @@
         <v>否</v>
       </c>
     </row>
+    <row r="1244">
+      <c r="A1244">
+        <v>33704383</v>
+      </c>
+      <c r="B1244" t="str">
+        <v>武神主宰（同名动画原著）</v>
+      </c>
+      <c r="C1244" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1244">
+        <v>533</v>
+      </c>
+      <c r="E1244" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1244" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1245">
+      <c r="A1245">
+        <v>19232895</v>
+      </c>
+      <c r="B1245" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1245" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1245">
+        <v>1587</v>
+      </c>
+      <c r="E1245" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1245" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1246">
+      <c r="A1246">
+        <v>23632774</v>
+      </c>
+      <c r="B1246" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1246" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1246">
+        <v>256</v>
+      </c>
+      <c r="E1246" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1246" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1247">
+      <c r="A1247">
+        <v>35582881</v>
+      </c>
+      <c r="B1247" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1247" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1247">
+        <v>271</v>
+      </c>
+      <c r="E1247" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1247" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1248">
+      <c r="A1248">
+        <v>32267812</v>
+      </c>
+      <c r="B1248" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1248" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1248">
+        <v>204</v>
+      </c>
+      <c r="E1248" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1248" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1249">
+      <c r="A1249">
+        <v>10989065</v>
+      </c>
+      <c r="B1249" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1249" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1249">
+        <v>202</v>
+      </c>
+      <c r="E1249" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1249" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1250">
+      <c r="A1250">
+        <v>26890897</v>
+      </c>
+      <c r="B1250" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1250" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1250">
+        <v>227</v>
+      </c>
+      <c r="E1250" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1250" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1251">
+      <c r="A1251">
+        <v>25482236</v>
+      </c>
+      <c r="B1251" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1251" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1251">
+        <v>228</v>
+      </c>
+      <c r="E1251" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1251" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1252">
+      <c r="A1252">
+        <v>23625885</v>
+      </c>
+      <c r="B1252" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C1252" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1252">
+        <v>756</v>
+      </c>
+      <c r="E1252" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1252" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1253">
+      <c r="A1253">
+        <v>39016657</v>
+      </c>
+      <c r="B1253" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C1253" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1253">
+        <v>160</v>
+      </c>
+      <c r="E1253" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1253" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1254">
+      <c r="A1254">
+        <v>5445798</v>
+      </c>
+      <c r="B1254" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C1254" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1254">
+        <v>234</v>
+      </c>
+      <c r="E1254" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1254" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1255">
+      <c r="A1255">
+        <v>18982940</v>
+      </c>
+      <c r="B1255" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C1255" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1255">
+        <v>101</v>
+      </c>
+      <c r="E1255" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1255" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1256">
+      <c r="A1256">
+        <v>23633187</v>
+      </c>
+      <c r="B1256" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C1256" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1256">
+        <v>132</v>
+      </c>
+      <c r="E1256" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1256" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1257">
+      <c r="A1257">
+        <v>23550058</v>
+      </c>
+      <c r="B1257" t="str">
+        <v>精读1000本全球好书|每天更新1本</v>
+      </c>
+      <c r="C1257" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1257">
+        <v>484</v>
+      </c>
+      <c r="E1257" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1257" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1258">
+      <c r="A1258">
+        <v>23633996</v>
+      </c>
+      <c r="B1258" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C1258" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1258">
+        <v>131</v>
+      </c>
+      <c r="E1258" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1258" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1259">
+      <c r="A1259">
+        <v>35454435</v>
+      </c>
+      <c r="B1259" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C1259" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1259">
+        <v>150</v>
+      </c>
+      <c r="E1259" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1259" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1260">
+      <c r="A1260">
+        <v>36387482</v>
+      </c>
+      <c r="B1260" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C1260" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1260">
+        <v>156</v>
+      </c>
+      <c r="E1260" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1260" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1261">
+      <c r="A1261">
+        <v>23633570</v>
+      </c>
+      <c r="B1261" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C1261" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1261">
+        <v>130</v>
+      </c>
+      <c r="E1261" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1261" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1262">
+      <c r="A1262">
+        <v>28756500</v>
+      </c>
+      <c r="B1262" t="str">
+        <v>《绝密档案》深夜调查局|200+尘封的未解之谜</v>
+      </c>
+      <c r="C1262" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1262">
+        <v>199</v>
+      </c>
+      <c r="E1262" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1262" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1263">
+      <c r="A1263">
+        <v>30362073</v>
+      </c>
+      <c r="B1263" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C1263" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1263">
+        <v>105</v>
+      </c>
+      <c r="E1263" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1263" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1264">
+      <c r="A1264">
+        <v>23633842</v>
+      </c>
+      <c r="B1264" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C1264" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1264">
+        <v>116</v>
+      </c>
+      <c r="E1264" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1264" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1265">
+      <c r="A1265">
+        <v>14561753</v>
+      </c>
+      <c r="B1265" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C1265" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1265">
+        <v>127</v>
+      </c>
+      <c r="E1265" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1265" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1266">
+      <c r="A1266">
+        <v>25488931</v>
+      </c>
+      <c r="B1266" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C1266" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1266">
+        <v>130</v>
+      </c>
+      <c r="E1266" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1266" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1267">
+      <c r="A1267">
+        <v>35516850</v>
+      </c>
+      <c r="B1267" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C1267" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1267">
+        <v>196</v>
+      </c>
+      <c r="E1267" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1267" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1268">
+      <c r="A1268">
+        <v>37304112</v>
+      </c>
+      <c r="B1268" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C1268" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1268">
+        <v>125</v>
+      </c>
+      <c r="E1268" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1268" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1269">
+      <c r="A1269">
+        <v>6693171</v>
+      </c>
+      <c r="B1269" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C1269" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1269">
+        <v>106</v>
+      </c>
+      <c r="E1269" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1269" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1270">
+      <c r="A1270">
+        <v>16166114</v>
+      </c>
+      <c r="B1270" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C1270" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1270">
+        <v>140</v>
+      </c>
+      <c r="E1270" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1270" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1271">
+      <c r="A1271">
+        <v>39885016</v>
+      </c>
+      <c r="B1271" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C1271" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1271">
+        <v>87</v>
+      </c>
+      <c r="E1271" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1271" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1272">
+      <c r="A1272">
+        <v>12424955</v>
+      </c>
+      <c r="B1272" t="str">
+        <v>一听就懂的《易经》</v>
+      </c>
+      <c r="C1272" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1272">
+        <v>107</v>
+      </c>
+      <c r="E1272" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1272" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1273">
+      <c r="A1273">
+        <v>29671024</v>
+      </c>
+      <c r="B1273" t="str">
+        <v>刘奕君·开席了！宋朝饭局</v>
+      </c>
+      <c r="C1273" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1273">
+        <v>93</v>
+      </c>
+      <c r="E1273" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1273" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1274">
+      <c r="A1274">
+        <v>26459165</v>
+      </c>
+      <c r="B1274" t="str">
+        <v>刘敏涛·宋朝小日子</v>
+      </c>
+      <c r="C1274" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1274">
+        <v>81</v>
+      </c>
+      <c r="E1274" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1274" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1275">
+      <c r="A1275">
+        <v>11594109</v>
+      </c>
+      <c r="B1275" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1275" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1275">
+        <v>314</v>
+      </c>
+      <c r="E1275" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1275" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1276">
+      <c r="A1276">
+        <v>33476331</v>
+      </c>
+      <c r="B1276" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1276" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1276">
+        <v>549</v>
+      </c>
+      <c r="E1276" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1276" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1277">
+      <c r="A1277">
+        <v>19232895</v>
+      </c>
+      <c r="B1277" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1277" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1277">
+        <v>1587</v>
+      </c>
+      <c r="E1277" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1277" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1278">
+      <c r="A1278">
+        <v>33913846</v>
+      </c>
+      <c r="B1278" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1278" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1278">
+        <v>124</v>
+      </c>
+      <c r="E1278" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1278" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1279">
+      <c r="A1279">
+        <v>27505286</v>
+      </c>
+      <c r="B1279" t="str">
+        <v>刑警803【900集 每日双更】</v>
+      </c>
+      <c r="C1279" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1279">
+        <v>912</v>
+      </c>
+      <c r="E1279" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F1279" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1280">
+      <c r="A1280">
+        <v>4651578</v>
+      </c>
+      <c r="B1280" t="str">
+        <v>穿越异世界|我和公主有一腿</v>
+      </c>
+      <c r="C1280" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1280">
+        <v>608</v>
+      </c>
+      <c r="E1280" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1280" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1281">
+      <c r="A1281">
+        <v>22814062</v>
+      </c>
+      <c r="B1281" t="str">
+        <v>鬼话三国(贯穿封神西游上古神话)</v>
+      </c>
+      <c r="C1281" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1281">
+        <v>265</v>
+      </c>
+      <c r="E1281" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1281" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1282">
+      <c r="A1282">
+        <v>30416480</v>
+      </c>
+      <c r="B1282" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1282" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1282">
+        <v>261</v>
+      </c>
+      <c r="E1282" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1282" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1283">
+      <c r="A1283">
+        <v>23632774</v>
+      </c>
+      <c r="B1283" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1283" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1283">
+        <v>256</v>
+      </c>
+      <c r="E1283" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1283" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1284">
+      <c r="A1284">
+        <v>30816438</v>
+      </c>
+      <c r="B1284" t="str">
+        <v>三体（全六季）| 精品广播剧</v>
+      </c>
+      <c r="C1284" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1284">
+        <v>42</v>
+      </c>
+      <c r="E1284" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1284" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1285">
+      <c r="A1285">
+        <v>33917662</v>
+      </c>
+      <c r="B1285" t="str">
+        <v>讲给孩子听的-封神演义</v>
+      </c>
+      <c r="C1285" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1285">
+        <v>321</v>
+      </c>
+      <c r="E1285" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1285" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1286">
+      <c r="A1286">
+        <v>8645052</v>
+      </c>
+      <c r="B1286" t="str">
+        <v>评书版-斗破苍穹【与现场同步】</v>
+      </c>
+      <c r="C1286" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1286">
+        <v>318</v>
+      </c>
+      <c r="E1286" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1286" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1287">
+      <c r="A1287">
+        <v>24675766</v>
+      </c>
+      <c r="B1287" t="str">
+        <v>东北民间轶事</v>
+      </c>
+      <c r="C1287" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1287">
+        <v>299</v>
+      </c>
+      <c r="E1287" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1287" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1288">
+      <c r="A1288">
+        <v>35582881</v>
+      </c>
+      <c r="B1288" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1288" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1288">
+        <v>271</v>
+      </c>
+      <c r="E1288" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1288" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1289">
+      <c r="A1289">
+        <v>21824864</v>
+      </c>
+      <c r="B1289" t="str">
+        <v>谦道·于谦首档音频脱口秀</v>
+      </c>
+      <c r="C1289" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1289">
+        <v>160</v>
+      </c>
+      <c r="E1289" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1289" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1290">
+      <c r="A1290">
+        <v>32040440</v>
+      </c>
+      <c r="B1290" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1290" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1290">
+        <v>263</v>
+      </c>
+      <c r="E1290" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1290" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1291">
+      <c r="A1291">
+        <v>32267812</v>
+      </c>
+      <c r="B1291" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1291" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1291">
+        <v>204</v>
+      </c>
+      <c r="E1291" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1291" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1292">
+      <c r="A1292">
+        <v>11438153</v>
+      </c>
+      <c r="B1292" t="str">
+        <v>郭论·郭德纲品俗文化史</v>
+      </c>
+      <c r="C1292" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1292">
+        <v>161</v>
+      </c>
+      <c r="E1292" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1292" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1293">
+      <c r="A1293">
+        <v>32038799</v>
+      </c>
+      <c r="B1293" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1293" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1293">
+        <v>302</v>
+      </c>
+      <c r="E1293" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1293" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1294">
+      <c r="A1294">
+        <v>22114507</v>
+      </c>
+      <c r="B1294" t="str">
+        <v>大力丸儿多人有声剧：百部小说里的中国史</v>
+      </c>
+      <c r="C1294" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1294">
+        <v>212</v>
+      </c>
+      <c r="E1294" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1294" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1295">
+      <c r="A1295">
+        <v>29293434</v>
+      </c>
+      <c r="B1295" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1295" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1295">
+        <v>211</v>
+      </c>
+      <c r="E1295" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1295" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1296">
+      <c r="A1296">
+        <v>10989065</v>
+      </c>
+      <c r="B1296" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1296" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1296">
+        <v>202</v>
+      </c>
+      <c r="E1296" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1296" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1297">
+      <c r="A1297">
+        <v>26890897</v>
+      </c>
+      <c r="B1297" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1297" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1297">
+        <v>227</v>
+      </c>
+      <c r="E1297" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1297" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1298">
+      <c r="A1298">
+        <v>20980067</v>
+      </c>
+      <c r="B1298" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1298" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1298">
+        <v>240</v>
+      </c>
+      <c r="E1298" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1298" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1299">
+      <c r="A1299">
+        <v>32541372</v>
+      </c>
+      <c r="B1299" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1299" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1299">
+        <v>310</v>
+      </c>
+      <c r="E1299" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1299" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1300">
+      <c r="A1300">
+        <v>19003298</v>
+      </c>
+      <c r="B1300" t="str">
+        <v>永恒的边缘：冷战的权力游戏</v>
+      </c>
+      <c r="C1300" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1300">
+        <v>331</v>
+      </c>
+      <c r="E1300" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1300" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1301">
+      <c r="A1301">
+        <v>32452148</v>
+      </c>
+      <c r="B1301" t="str">
+        <v>纳尼亚传奇 全7册</v>
+      </c>
+      <c r="C1301" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1301">
+        <v>301</v>
+      </c>
+      <c r="E1301" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1301" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1302">
+      <c r="A1302">
+        <v>15771787</v>
+      </c>
+      <c r="B1302" t="str">
+        <v>马红漫的投资日历·一二季合辑</v>
+      </c>
+      <c r="C1302" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1302">
+        <v>519</v>
+      </c>
+      <c r="E1302" t="str">
+        <v>商业财经</v>
+      </c>
+      <c r="F1302" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1303">
+      <c r="A1303">
+        <v>39675735</v>
+      </c>
+      <c r="B1303" t="str">
+        <v>中国通史 | 500余则经典历史故事</v>
+      </c>
+      <c r="C1303" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1303">
+        <v>236</v>
+      </c>
+      <c r="E1303" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1303" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1304">
+      <c r="A1304">
+        <v>28810646</v>
+      </c>
+      <c r="B1304" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C1304" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1304">
+        <v>339</v>
+      </c>
+      <c r="E1304" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1304" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1305">
+      <c r="A1305">
+        <v>35811994</v>
+      </c>
+      <c r="B1305" t="str">
+        <v>学者李亚平《说宋朝》下部</v>
+      </c>
+      <c r="C1305" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1305">
+        <v>260</v>
+      </c>
+      <c r="E1305" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1305" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1306">
+      <c r="A1306">
+        <v>5211938</v>
+      </c>
+      <c r="B1306" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1306" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1306">
+        <v>369</v>
+      </c>
+      <c r="E1306" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1306" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1307">
+      <c r="A1307">
+        <v>25482236</v>
+      </c>
+      <c r="B1307" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1307" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1307">
+        <v>228</v>
+      </c>
+      <c r="E1307" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1307" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1308">
+      <c r="A1308">
+        <v>21375015</v>
+      </c>
+      <c r="B1308" t="str">
+        <v>郭论·第二季</v>
+      </c>
+      <c r="C1308" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1308">
+        <v>158</v>
+      </c>
+      <c r="E1308" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1308" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1309">
+      <c r="A1309">
+        <v>11594109</v>
+      </c>
+      <c r="B1309" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1309" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1309">
+        <v>314</v>
+      </c>
+      <c r="E1309" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1309" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1310">
+      <c r="A1310">
+        <v>33913846</v>
+      </c>
+      <c r="B1310" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1310" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1310">
+        <v>124</v>
+      </c>
+      <c r="E1310" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1310" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1311">
+      <c r="A1311">
+        <v>30416480</v>
+      </c>
+      <c r="B1311" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1311" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1311">
+        <v>261</v>
+      </c>
+      <c r="E1311" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1311" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1312">
+      <c r="A1312">
+        <v>33917662</v>
+      </c>
+      <c r="B1312" t="str">
+        <v>讲给孩子听的-封神演义</v>
+      </c>
+      <c r="C1312" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1312">
+        <v>321</v>
+      </c>
+      <c r="E1312" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1312" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1313">
+      <c r="A1313">
+        <v>32040440</v>
+      </c>
+      <c r="B1313" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1313" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1313">
+        <v>263</v>
+      </c>
+      <c r="E1313" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1313" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1314">
+      <c r="A1314">
+        <v>32038799</v>
+      </c>
+      <c r="B1314" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1314" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1314">
+        <v>302</v>
+      </c>
+      <c r="E1314" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1314" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1315">
+      <c r="A1315">
+        <v>29293434</v>
+      </c>
+      <c r="B1315" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1315" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1315">
+        <v>211</v>
+      </c>
+      <c r="E1315" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1315" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1316">
+      <c r="A1316">
+        <v>20980067</v>
+      </c>
+      <c r="B1316" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1316" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1316">
+        <v>240</v>
+      </c>
+      <c r="E1316" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1316" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1317">
+      <c r="A1317">
+        <v>32541372</v>
+      </c>
+      <c r="B1317" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1317" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1317">
+        <v>310</v>
+      </c>
+      <c r="E1317" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1317" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1318">
+      <c r="A1318">
+        <v>32452148</v>
+      </c>
+      <c r="B1318" t="str">
+        <v>纳尼亚传奇 全7册</v>
+      </c>
+      <c r="C1318" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1318">
+        <v>301</v>
+      </c>
+      <c r="E1318" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1318" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1319">
+      <c r="A1319">
+        <v>39675735</v>
+      </c>
+      <c r="B1319" t="str">
+        <v>中国通史 | 500余则经典历史故事</v>
+      </c>
+      <c r="C1319" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1319">
+        <v>236</v>
+      </c>
+      <c r="E1319" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1319" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1320">
+      <c r="A1320">
+        <v>5211938</v>
+      </c>
+      <c r="B1320" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1320" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1320">
+        <v>369</v>
+      </c>
+      <c r="E1320" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1320" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1321">
+      <c r="A1321">
+        <v>16783482</v>
+      </c>
+      <c r="B1321" t="str">
+        <v>暖房子有声绘本馆</v>
+      </c>
+      <c r="C1321" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1321">
+        <v>304</v>
+      </c>
+      <c r="E1321" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1321" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1322">
+      <c r="A1322">
+        <v>20965889</v>
+      </c>
+      <c r="B1322" t="str">
+        <v>【全集】冒险小王子睡前童话故事</v>
+      </c>
+      <c r="C1322" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1322">
+        <v>586</v>
+      </c>
+      <c r="E1322" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1322" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1323">
+      <c r="A1323">
+        <v>23361684</v>
+      </c>
+      <c r="B1323" t="str">
+        <v>十万个为什么：动物真奇妙</v>
+      </c>
+      <c r="C1323" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1323">
+        <v>104</v>
+      </c>
+      <c r="E1323" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1323" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1324">
+      <c r="A1324">
+        <v>22267837</v>
+      </c>
+      <c r="B1324" t="str">
+        <v>每天五分钟，轻松做父母</v>
+      </c>
+      <c r="C1324" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1324">
+        <v>287</v>
+      </c>
+      <c r="E1324" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1324" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1325">
+      <c r="A1325">
+        <v>38838259</v>
+      </c>
+      <c r="B1325" t="str">
+        <v>碰碰狐！英语儿歌合辑</v>
+      </c>
+      <c r="C1325" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1325">
+        <v>151</v>
+      </c>
+      <c r="E1325" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1325" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1326">
+      <c r="A1326">
+        <v>32318414</v>
+      </c>
+      <c r="B1326" t="str">
+        <v>碰碰狐！儿歌合辑</v>
+      </c>
+      <c r="C1326" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1326">
+        <v>145</v>
+      </c>
+      <c r="E1326" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1326" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1327">
+      <c r="A1327">
+        <v>26042939</v>
+      </c>
+      <c r="B1327" t="str">
+        <v>十万个为什么：人体真有趣</v>
+      </c>
+      <c r="C1327" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1327">
+        <v>114</v>
+      </c>
+      <c r="E1327" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1327" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1328">
+      <c r="A1328">
+        <v>35583796</v>
+      </c>
+      <c r="B1328" t="str">
+        <v>植物大战僵尸之机器时代</v>
+      </c>
+      <c r="C1328" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1328">
+        <v>122</v>
+      </c>
+      <c r="E1328" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1328" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1329">
+      <c r="A1329">
+        <v>35582289</v>
+      </c>
+      <c r="B1329" t="str">
+        <v>江户川乱步·少年侦探有声剧 | 儿童睡前故事</v>
+      </c>
+      <c r="C1329" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1329">
+        <v>208</v>
+      </c>
+      <c r="E1329" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1329" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1330">
+      <c r="A1330">
+        <v>19787798</v>
+      </c>
+      <c r="B1330" t="str">
+        <v>林汉达中国历史故事1+2部</v>
+      </c>
+      <c r="C1330" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1330">
+        <v>262</v>
+      </c>
+      <c r="E1330" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1330" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1331">
+      <c r="A1331">
+        <v>19232895</v>
+      </c>
+      <c r="B1331" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1331" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1331">
+        <v>1587</v>
+      </c>
+      <c r="E1331" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1331" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1332">
+      <c r="A1332">
+        <v>23632774</v>
+      </c>
+      <c r="B1332" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1332" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1332">
+        <v>256</v>
+      </c>
+      <c r="E1332" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1332" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1333">
+      <c r="A1333">
+        <v>35582881</v>
+      </c>
+      <c r="B1333" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1333" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1333">
+        <v>271</v>
+      </c>
+      <c r="E1333" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1333" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1334">
+      <c r="A1334">
+        <v>32267812</v>
+      </c>
+      <c r="B1334" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1334" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1334">
+        <v>204</v>
+      </c>
+      <c r="E1334" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1334" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1335">
+      <c r="A1335">
+        <v>10989065</v>
+      </c>
+      <c r="B1335" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1335" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1335">
+        <v>202</v>
+      </c>
+      <c r="E1335" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1335" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1336">
+      <c r="A1336">
+        <v>26890897</v>
+      </c>
+      <c r="B1336" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1336" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1336">
+        <v>227</v>
+      </c>
+      <c r="E1336" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1336" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1337">
+      <c r="A1337">
+        <v>25482236</v>
+      </c>
+      <c r="B1337" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1337" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1337">
+        <v>228</v>
+      </c>
+      <c r="E1337" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1337" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1338">
+      <c r="A1338">
+        <v>23625885</v>
+      </c>
+      <c r="B1338" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C1338" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1338">
+        <v>756</v>
+      </c>
+      <c r="E1338" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1338" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1339">
+      <c r="A1339">
+        <v>39016657</v>
+      </c>
+      <c r="B1339" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C1339" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1339">
+        <v>160</v>
+      </c>
+      <c r="E1339" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1339" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1340">
+      <c r="A1340">
+        <v>5445798</v>
+      </c>
+      <c r="B1340" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C1340" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1340">
+        <v>234</v>
+      </c>
+      <c r="E1340" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1340" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1341">
+      <c r="A1341">
+        <v>18982940</v>
+      </c>
+      <c r="B1341" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C1341" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1341">
+        <v>101</v>
+      </c>
+      <c r="E1341" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1341" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1342">
+      <c r="A1342">
+        <v>23633187</v>
+      </c>
+      <c r="B1342" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C1342" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1342">
+        <v>132</v>
+      </c>
+      <c r="E1342" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1342" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1343">
+      <c r="A1343">
+        <v>23550058</v>
+      </c>
+      <c r="B1343" t="str">
+        <v>精读1000本全球好书|每天更新1本</v>
+      </c>
+      <c r="C1343" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1343">
+        <v>484</v>
+      </c>
+      <c r="E1343" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1343" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1344">
+      <c r="A1344">
+        <v>23633996</v>
+      </c>
+      <c r="B1344" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C1344" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1344">
+        <v>131</v>
+      </c>
+      <c r="E1344" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1344" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1345">
+      <c r="A1345">
+        <v>35454435</v>
+      </c>
+      <c r="B1345" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C1345" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1345">
+        <v>150</v>
+      </c>
+      <c r="E1345" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1345" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1346">
+      <c r="A1346">
+        <v>36387482</v>
+      </c>
+      <c r="B1346" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C1346" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1346">
+        <v>156</v>
+      </c>
+      <c r="E1346" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1346" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1347">
+      <c r="A1347">
+        <v>23633570</v>
+      </c>
+      <c r="B1347" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C1347" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1347">
+        <v>130</v>
+      </c>
+      <c r="E1347" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1347" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1348">
+      <c r="A1348">
+        <v>28756500</v>
+      </c>
+      <c r="B1348" t="str">
+        <v>《绝密档案》深夜调查局|200+尘封的未解之谜</v>
+      </c>
+      <c r="C1348" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1348">
+        <v>199</v>
+      </c>
+      <c r="E1348" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1348" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1349">
+      <c r="A1349">
+        <v>30362073</v>
+      </c>
+      <c r="B1349" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C1349" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1349">
+        <v>105</v>
+      </c>
+      <c r="E1349" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1349" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1350">
+      <c r="A1350">
+        <v>23633842</v>
+      </c>
+      <c r="B1350" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C1350" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1350">
+        <v>116</v>
+      </c>
+      <c r="E1350" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1350" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1351">
+      <c r="A1351">
+        <v>14561753</v>
+      </c>
+      <c r="B1351" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C1351" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1351">
+        <v>127</v>
+      </c>
+      <c r="E1351" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1351" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1352">
+      <c r="A1352">
+        <v>25488931</v>
+      </c>
+      <c r="B1352" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C1352" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1352">
+        <v>130</v>
+      </c>
+      <c r="E1352" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1352" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1353">
+      <c r="A1353">
+        <v>35516850</v>
+      </c>
+      <c r="B1353" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C1353" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1353">
+        <v>196</v>
+      </c>
+      <c r="E1353" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1353" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1354">
+      <c r="A1354">
+        <v>37304112</v>
+      </c>
+      <c r="B1354" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C1354" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1354">
+        <v>125</v>
+      </c>
+      <c r="E1354" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1354" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1355">
+      <c r="A1355">
+        <v>6693171</v>
+      </c>
+      <c r="B1355" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C1355" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1355">
+        <v>106</v>
+      </c>
+      <c r="E1355" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1355" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1356">
+      <c r="A1356">
+        <v>16166114</v>
+      </c>
+      <c r="B1356" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C1356" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1356">
+        <v>140</v>
+      </c>
+      <c r="E1356" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1356" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1357">
+      <c r="A1357">
+        <v>39885016</v>
+      </c>
+      <c r="B1357" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C1357" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1357">
+        <v>87</v>
+      </c>
+      <c r="E1357" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1357" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1358">
+      <c r="A1358">
+        <v>12424955</v>
+      </c>
+      <c r="B1358" t="str">
+        <v>一听就懂的《易经》</v>
+      </c>
+      <c r="C1358" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1358">
+        <v>107</v>
+      </c>
+      <c r="E1358" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1358" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1359">
+      <c r="A1359">
+        <v>29671024</v>
+      </c>
+      <c r="B1359" t="str">
+        <v>刘奕君·开席了！宋朝饭局</v>
+      </c>
+      <c r="C1359" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1359">
+        <v>93</v>
+      </c>
+      <c r="E1359" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1359" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1360">
+      <c r="A1360">
+        <v>26459165</v>
+      </c>
+      <c r="B1360" t="str">
+        <v>刘敏涛·宋朝小日子</v>
+      </c>
+      <c r="C1360" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1360">
+        <v>81</v>
+      </c>
+      <c r="E1360" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1360" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1361">
+      <c r="A1361">
+        <v>11594109</v>
+      </c>
+      <c r="B1361" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1361" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1361">
+        <v>314</v>
+      </c>
+      <c r="E1361" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1361" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1362">
+      <c r="A1362">
+        <v>33476331</v>
+      </c>
+      <c r="B1362" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1362" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1362">
+        <v>549</v>
+      </c>
+      <c r="E1362" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1362" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1363">
+      <c r="A1363">
+        <v>19232895</v>
+      </c>
+      <c r="B1363" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1363" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1363">
+        <v>1587</v>
+      </c>
+      <c r="E1363" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1363" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1364">
+      <c r="A1364">
+        <v>33913846</v>
+      </c>
+      <c r="B1364" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1364" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1364">
+        <v>124</v>
+      </c>
+      <c r="E1364" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1364" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1365">
+      <c r="A1365">
+        <v>27505286</v>
+      </c>
+      <c r="B1365" t="str">
+        <v>刑警803【900集 每日双更】</v>
+      </c>
+      <c r="C1365" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1365">
+        <v>912</v>
+      </c>
+      <c r="E1365" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F1365" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1366">
+      <c r="A1366">
+        <v>4651578</v>
+      </c>
+      <c r="B1366" t="str">
+        <v>穿越异世界|我和公主有一腿</v>
+      </c>
+      <c r="C1366" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1366">
+        <v>608</v>
+      </c>
+      <c r="E1366" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1366" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1367">
+      <c r="A1367">
+        <v>22814062</v>
+      </c>
+      <c r="B1367" t="str">
+        <v>鬼话三国(贯穿封神西游上古神话)</v>
+      </c>
+      <c r="C1367" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1367">
+        <v>265</v>
+      </c>
+      <c r="E1367" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1367" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368">
+        <v>30416480</v>
+      </c>
+      <c r="B1368" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1368" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1368">
+        <v>261</v>
+      </c>
+      <c r="E1368" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1368" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369">
+        <v>23632774</v>
+      </c>
+      <c r="B1369" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1369" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1369">
+        <v>256</v>
+      </c>
+      <c r="E1369" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1369" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370">
+        <v>30816438</v>
+      </c>
+      <c r="B1370" t="str">
+        <v>三体（全六季）| 精品广播剧</v>
+      </c>
+      <c r="C1370" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1370">
+        <v>42</v>
+      </c>
+      <c r="E1370" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1370" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371">
+        <v>33917662</v>
+      </c>
+      <c r="B1371" t="str">
+        <v>讲给孩子听的-封神演义</v>
+      </c>
+      <c r="C1371" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1371">
+        <v>321</v>
+      </c>
+      <c r="E1371" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1371" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372">
+        <v>8645052</v>
+      </c>
+      <c r="B1372" t="str">
+        <v>评书版-斗破苍穹【与现场同步】</v>
+      </c>
+      <c r="C1372" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1372">
+        <v>318</v>
+      </c>
+      <c r="E1372" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1372" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373">
+        <v>24675766</v>
+      </c>
+      <c r="B1373" t="str">
+        <v>东北民间轶事</v>
+      </c>
+      <c r="C1373" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1373">
+        <v>299</v>
+      </c>
+      <c r="E1373" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1373" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374">
+        <v>35582881</v>
+      </c>
+      <c r="B1374" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1374" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1374">
+        <v>271</v>
+      </c>
+      <c r="E1374" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1374" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375">
+        <v>21824864</v>
+      </c>
+      <c r="B1375" t="str">
+        <v>谦道·于谦首档音频脱口秀</v>
+      </c>
+      <c r="C1375" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1375">
+        <v>160</v>
+      </c>
+      <c r="E1375" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1375" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376">
+        <v>32040440</v>
+      </c>
+      <c r="B1376" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1376" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1376">
+        <v>263</v>
+      </c>
+      <c r="E1376" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1376" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377">
+        <v>32267812</v>
+      </c>
+      <c r="B1377" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1377" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1377">
+        <v>204</v>
+      </c>
+      <c r="E1377" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1377" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378">
+        <v>11438153</v>
+      </c>
+      <c r="B1378" t="str">
+        <v>郭论·郭德纲品俗文化史</v>
+      </c>
+      <c r="C1378" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1378">
+        <v>161</v>
+      </c>
+      <c r="E1378" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1378" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379">
+        <v>32038799</v>
+      </c>
+      <c r="B1379" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1379" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1379">
+        <v>302</v>
+      </c>
+      <c r="E1379" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1379" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380">
+        <v>22114507</v>
+      </c>
+      <c r="B1380" t="str">
+        <v>大力丸儿多人有声剧：百部小说里的中国史</v>
+      </c>
+      <c r="C1380" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1380">
+        <v>212</v>
+      </c>
+      <c r="E1380" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1380" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381">
+        <v>29293434</v>
+      </c>
+      <c r="B1381" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1381" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1381">
+        <v>211</v>
+      </c>
+      <c r="E1381" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1381" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382">
+        <v>10989065</v>
+      </c>
+      <c r="B1382" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1382" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1382">
+        <v>202</v>
+      </c>
+      <c r="E1382" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1382" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383">
+        <v>26890897</v>
+      </c>
+      <c r="B1383" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1383" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1383">
+        <v>227</v>
+      </c>
+      <c r="E1383" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1383" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384">
+        <v>20980067</v>
+      </c>
+      <c r="B1384" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1384" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1384">
+        <v>240</v>
+      </c>
+      <c r="E1384" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1384" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385">
+        <v>32541372</v>
+      </c>
+      <c r="B1385" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1385" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1385">
+        <v>311</v>
+      </c>
+      <c r="E1385" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1385" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386">
+        <v>19003298</v>
+      </c>
+      <c r="B1386" t="str">
+        <v>永恒的边缘：冷战的权力游戏</v>
+      </c>
+      <c r="C1386" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1386">
+        <v>331</v>
+      </c>
+      <c r="E1386" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1386" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387">
+        <v>32452148</v>
+      </c>
+      <c r="B1387" t="str">
+        <v>纳尼亚传奇 全7册</v>
+      </c>
+      <c r="C1387" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1387">
+        <v>301</v>
+      </c>
+      <c r="E1387" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1387" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388">
+        <v>15771787</v>
+      </c>
+      <c r="B1388" t="str">
+        <v>马红漫的投资日历·一二季合辑</v>
+      </c>
+      <c r="C1388" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1388">
+        <v>519</v>
+      </c>
+      <c r="E1388" t="str">
+        <v>商业财经</v>
+      </c>
+      <c r="F1388" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389">
+        <v>39675735</v>
+      </c>
+      <c r="B1389" t="str">
+        <v>中国通史 | 500余则经典历史故事</v>
+      </c>
+      <c r="C1389" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1389">
+        <v>236</v>
+      </c>
+      <c r="E1389" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1389" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390">
+        <v>28810646</v>
+      </c>
+      <c r="B1390" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C1390" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1390">
+        <v>339</v>
+      </c>
+      <c r="E1390" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1390" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391">
+        <v>35811994</v>
+      </c>
+      <c r="B1391" t="str">
+        <v>学者李亚平《说宋朝》下部</v>
+      </c>
+      <c r="C1391" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1391">
+        <v>260</v>
+      </c>
+      <c r="E1391" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1391" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392">
+        <v>5211938</v>
+      </c>
+      <c r="B1392" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1392" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1392">
+        <v>369</v>
+      </c>
+      <c r="E1392" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1392" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1393">
+      <c r="A1393">
+        <v>25482236</v>
+      </c>
+      <c r="B1393" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1393" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1393">
+        <v>228</v>
+      </c>
+      <c r="E1393" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1393" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394">
+        <v>21375015</v>
+      </c>
+      <c r="B1394" t="str">
+        <v>郭论·第二季</v>
+      </c>
+      <c r="C1394" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1394">
+        <v>158</v>
+      </c>
+      <c r="E1394" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1394" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395">
+        <v>11594109</v>
+      </c>
+      <c r="B1395" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1395" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1395">
+        <v>314</v>
+      </c>
+      <c r="E1395" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1395" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1396">
+      <c r="A1396">
+        <v>33913846</v>
+      </c>
+      <c r="B1396" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1396" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1396">
+        <v>124</v>
+      </c>
+      <c r="E1396" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1396" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1397">
+      <c r="A1397">
+        <v>30416480</v>
+      </c>
+      <c r="B1397" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1397" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1397">
+        <v>261</v>
+      </c>
+      <c r="E1397" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1397" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1398">
+      <c r="A1398">
+        <v>33917662</v>
+      </c>
+      <c r="B1398" t="str">
+        <v>讲给孩子听的-封神演义</v>
+      </c>
+      <c r="C1398" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1398">
+        <v>321</v>
+      </c>
+      <c r="E1398" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1398" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1399">
+      <c r="A1399">
+        <v>32040440</v>
+      </c>
+      <c r="B1399" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1399" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1399">
+        <v>263</v>
+      </c>
+      <c r="E1399" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1399" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1400">
+      <c r="A1400">
+        <v>32038799</v>
+      </c>
+      <c r="B1400" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1400" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1400">
+        <v>302</v>
+      </c>
+      <c r="E1400" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1400" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1401">
+      <c r="A1401">
+        <v>29293434</v>
+      </c>
+      <c r="B1401" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1401" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1401">
+        <v>211</v>
+      </c>
+      <c r="E1401" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1401" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1402">
+      <c r="A1402">
+        <v>20980067</v>
+      </c>
+      <c r="B1402" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1402" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1402">
+        <v>240</v>
+      </c>
+      <c r="E1402" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1402" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1403">
+      <c r="A1403">
+        <v>32541372</v>
+      </c>
+      <c r="B1403" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1403" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1403">
+        <v>311</v>
+      </c>
+      <c r="E1403" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1403" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1404">
+      <c r="A1404">
+        <v>32452148</v>
+      </c>
+      <c r="B1404" t="str">
+        <v>纳尼亚传奇 全7册</v>
+      </c>
+      <c r="C1404" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1404">
+        <v>301</v>
+      </c>
+      <c r="E1404" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1404" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1405">
+      <c r="A1405">
+        <v>39675735</v>
+      </c>
+      <c r="B1405" t="str">
+        <v>中国通史 | 500余则经典历史故事</v>
+      </c>
+      <c r="C1405" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1405">
+        <v>236</v>
+      </c>
+      <c r="E1405" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1405" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1406">
+      <c r="A1406">
+        <v>5211938</v>
+      </c>
+      <c r="B1406" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1406" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1406">
+        <v>369</v>
+      </c>
+      <c r="E1406" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1406" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1407">
+      <c r="A1407">
+        <v>16783482</v>
+      </c>
+      <c r="B1407" t="str">
+        <v>暖房子有声绘本馆</v>
+      </c>
+      <c r="C1407" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1407">
+        <v>304</v>
+      </c>
+      <c r="E1407" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1407" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1408">
+      <c r="A1408">
+        <v>20965889</v>
+      </c>
+      <c r="B1408" t="str">
+        <v>【全集】冒险小王子睡前童话故事</v>
+      </c>
+      <c r="C1408" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1408">
+        <v>586</v>
+      </c>
+      <c r="E1408" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1408" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1409">
+      <c r="A1409">
+        <v>23361684</v>
+      </c>
+      <c r="B1409" t="str">
+        <v>十万个为什么：动物真奇妙</v>
+      </c>
+      <c r="C1409" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1409">
+        <v>104</v>
+      </c>
+      <c r="E1409" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1409" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1410">
+      <c r="A1410">
+        <v>22267837</v>
+      </c>
+      <c r="B1410" t="str">
+        <v>每天五分钟，轻松做父母</v>
+      </c>
+      <c r="C1410" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1410">
+        <v>287</v>
+      </c>
+      <c r="E1410" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1410" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1411">
+      <c r="A1411">
+        <v>38838259</v>
+      </c>
+      <c r="B1411" t="str">
+        <v>碰碰狐！英语儿歌合辑</v>
+      </c>
+      <c r="C1411" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1411">
+        <v>151</v>
+      </c>
+      <c r="E1411" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1411" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1412">
+      <c r="A1412">
+        <v>32318414</v>
+      </c>
+      <c r="B1412" t="str">
+        <v>碰碰狐！儿歌合辑</v>
+      </c>
+      <c r="C1412" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1412">
+        <v>145</v>
+      </c>
+      <c r="E1412" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1412" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1413">
+      <c r="A1413">
+        <v>26042939</v>
+      </c>
+      <c r="B1413" t="str">
+        <v>十万个为什么：人体真有趣</v>
+      </c>
+      <c r="C1413" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1413">
+        <v>114</v>
+      </c>
+      <c r="E1413" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1413" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1414">
+      <c r="A1414">
+        <v>35583796</v>
+      </c>
+      <c r="B1414" t="str">
+        <v>植物大战僵尸之机器时代</v>
+      </c>
+      <c r="C1414" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1414">
+        <v>122</v>
+      </c>
+      <c r="E1414" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1414" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1415">
+      <c r="A1415">
+        <v>35582289</v>
+      </c>
+      <c r="B1415" t="str">
+        <v>江户川乱步·少年侦探有声剧 | 儿童睡前故事</v>
+      </c>
+      <c r="C1415" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1415">
+        <v>208</v>
+      </c>
+      <c r="E1415" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1415" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1416">
+      <c r="A1416">
+        <v>19787798</v>
+      </c>
+      <c r="B1416" t="str">
+        <v>林汉达中国历史故事1+2部</v>
+      </c>
+      <c r="C1416" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1416">
+        <v>262</v>
+      </c>
+      <c r="E1416" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1416" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1417">
+      <c r="A1417">
+        <v>40291552</v>
+      </c>
+      <c r="B1417" t="str">
+        <v>儿童睡前故事：陪孩子读《山海经》《最美古诗词》</v>
+      </c>
+      <c r="C1417" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1417">
+        <v>392</v>
+      </c>
+      <c r="E1417" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1417" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1418">
+      <c r="A1418">
+        <v>23548626</v>
+      </c>
+      <c r="B1418" t="str">
+        <v>小猪佩奇全集：五六季</v>
+      </c>
+      <c r="C1418" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1418">
+        <v>161</v>
+      </c>
+      <c r="E1418" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1418" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1419">
+      <c r="A1419">
+        <v>40412609</v>
+      </c>
+      <c r="B1419" t="str">
+        <v>神探迈克狐· 国际学院篇｜哆哆罗</v>
+      </c>
+      <c r="C1419" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1419">
+        <v>44</v>
+      </c>
+      <c r="E1419" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1419" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1420">
+      <c r="A1420">
+        <v>33968878</v>
+      </c>
+      <c r="B1420" t="str">
+        <v>君伟上小学</v>
+      </c>
+      <c r="C1420" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1420">
+        <v>111</v>
+      </c>
+      <c r="E1420" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1420" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1421">
+      <c r="A1421">
+        <v>35574131</v>
+      </c>
+      <c r="B1421" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C1421" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1421">
+        <v>179</v>
+      </c>
+      <c r="E1421" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1421" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1422">
+      <c r="A1422">
+        <v>39661561</v>
+      </c>
+      <c r="B1422" t="str">
+        <v>瑞奇宝宝儿歌</v>
+      </c>
+      <c r="C1422" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1422">
+        <v>105</v>
+      </c>
+      <c r="E1422" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1422" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1423">
+      <c r="A1423">
+        <v>20652876</v>
+      </c>
+      <c r="B1423" t="str">
+        <v>果壳：给孩子的自然百科400讲</v>
+      </c>
+      <c r="C1423" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1423">
+        <v>408</v>
+      </c>
+      <c r="E1423" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1423" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1424">
+      <c r="A1424">
+        <v>19105793</v>
+      </c>
+      <c r="B1424" t="str">
+        <v>喵卷卷2+3奇遇记 推理侦探系列</v>
+      </c>
+      <c r="C1424" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1424">
+        <v>168</v>
+      </c>
+      <c r="E1424" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1424" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1425">
+      <c r="A1425">
+        <v>32212587</v>
+      </c>
+      <c r="B1425" t="str">
+        <v>乐高幻影忍者全集【官方正版】|儿童动画故事</v>
+      </c>
+      <c r="C1425" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1425">
+        <v>237</v>
+      </c>
+      <c r="E1425" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1425" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1426">
+      <c r="A1426">
+        <v>8272440</v>
+      </c>
+      <c r="B1426" t="str">
+        <v>耶鲁奶爸：唱学唐诗宋词70首</v>
+      </c>
+      <c r="C1426" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1426">
+        <v>141</v>
+      </c>
+      <c r="E1426" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1426" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1427">
+      <c r="A1427">
+        <v>37149584</v>
+      </c>
+      <c r="B1427" t="str">
+        <v>少年派2·欢乐上学记</v>
+      </c>
+      <c r="C1427" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1427">
+        <v>146</v>
+      </c>
+      <c r="E1427" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1427" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1428">
+      <c r="A1428">
+        <v>35487789</v>
+      </c>
+      <c r="B1428" t="str">
+        <v>校园三剑客（第3季）|少年科幻</v>
+      </c>
+      <c r="C1428" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1428">
+        <v>127</v>
+      </c>
+      <c r="E1428" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1428" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1429">
+      <c r="A1429">
+        <v>30141290</v>
+      </c>
+      <c r="B1429" t="str">
+        <v>植物世界：超梦幻战斗第三季</v>
+      </c>
+      <c r="C1429" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1429">
+        <v>162</v>
+      </c>
+      <c r="E1429" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1429" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1430">
+      <c r="A1430">
+        <v>30448605</v>
+      </c>
+      <c r="B1430" t="str">
+        <v>装在口袋里的爸爸（第5辑）</v>
+      </c>
+      <c r="C1430" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1430">
+        <v>116</v>
+      </c>
+      <c r="E1430" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1430" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1431">
+      <c r="A1431">
+        <v>36857577</v>
+      </c>
+      <c r="B1431" t="str">
+        <v>村长讲故事|十万个为什么</v>
+      </c>
+      <c r="C1431" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1431">
+        <v>166</v>
+      </c>
+      <c r="E1431" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1431" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1432">
+      <c r="A1432">
+        <v>11267914</v>
+      </c>
+      <c r="B1432" t="str">
+        <v>植物世界：超梦幻战斗第一季</v>
+      </c>
+      <c r="C1432" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1432">
+        <v>118</v>
+      </c>
+      <c r="E1432" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1432" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1433">
+      <c r="A1433">
+        <v>35356646</v>
+      </c>
+      <c r="B1433" t="str">
+        <v>神奇校车冒险故事【桥梁书版】</v>
+      </c>
+      <c r="C1433" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1433">
+        <v>209</v>
+      </c>
+      <c r="E1433" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1433" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1434">
+      <c r="A1434">
+        <v>40615158</v>
+      </c>
+      <c r="B1434" t="str">
+        <v>植物大战僵尸之全能大侦探</v>
+      </c>
+      <c r="C1434" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1434">
+        <v>23</v>
+      </c>
+      <c r="E1434" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1434" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1435">
+      <c r="A1435">
+        <v>31163168</v>
+      </c>
+      <c r="B1435" t="str">
+        <v>校园三剑客（第2季）|少年科幻</v>
+      </c>
+      <c r="C1435" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1435">
+        <v>119</v>
+      </c>
+      <c r="E1435" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1435" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1436">
+      <c r="A1436">
+        <v>32510373</v>
+      </c>
+      <c r="B1436" t="str">
+        <v>装在口袋里的爸爸（第6辑）</v>
+      </c>
+      <c r="C1436" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1436">
+        <v>121</v>
+      </c>
+      <c r="E1436" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1436" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1437">
+      <c r="A1437">
+        <v>12517524</v>
+      </c>
+      <c r="B1437" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1437" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1437">
+        <v>127</v>
+      </c>
+      <c r="E1437" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1437" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1438">
+      <c r="A1438">
+        <v>19232895</v>
+      </c>
+      <c r="B1438" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1438" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1438">
+        <v>1591</v>
+      </c>
+      <c r="E1438" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1438" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1439">
+      <c r="A1439">
+        <v>23632774</v>
+      </c>
+      <c r="B1439" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1439" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1439">
+        <v>259</v>
+      </c>
+      <c r="E1439" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1439" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1440">
+      <c r="A1440">
+        <v>32267812</v>
+      </c>
+      <c r="B1440" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1440" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1440">
+        <v>204</v>
+      </c>
+      <c r="E1440" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1440" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1441">
+      <c r="A1441">
+        <v>35582881</v>
+      </c>
+      <c r="B1441" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1441" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1441">
+        <v>276</v>
+      </c>
+      <c r="E1441" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1441" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1442">
+      <c r="A1442">
+        <v>26890897</v>
+      </c>
+      <c r="B1442" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1442" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1442">
+        <v>227</v>
+      </c>
+      <c r="E1442" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1442" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1443">
+      <c r="A1443">
+        <v>10989065</v>
+      </c>
+      <c r="B1443" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1443" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1443">
+        <v>202</v>
+      </c>
+      <c r="E1443" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1443" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1444">
+      <c r="A1444">
+        <v>25482236</v>
+      </c>
+      <c r="B1444" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1444" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1444">
+        <v>228</v>
+      </c>
+      <c r="E1444" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1444" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1445">
+      <c r="A1445">
+        <v>23625885</v>
+      </c>
+      <c r="B1445" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C1445" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1445">
+        <v>765</v>
+      </c>
+      <c r="E1445" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1445" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1446">
+      <c r="A1446">
+        <v>39684288</v>
+      </c>
+      <c r="B1446" t="str">
+        <v>坏民主 | 一部关于美国民主里程碑式巨著，薛涌著</v>
+      </c>
+      <c r="C1446" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1446">
+        <v>111</v>
+      </c>
+      <c r="E1446" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1446" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1447">
+      <c r="A1447">
+        <v>5445798</v>
+      </c>
+      <c r="B1447" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C1447" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1447">
+        <v>234</v>
+      </c>
+      <c r="E1447" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1447" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1448">
+      <c r="A1448">
+        <v>39016657</v>
+      </c>
+      <c r="B1448" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C1448" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1448">
+        <v>160</v>
+      </c>
+      <c r="E1448" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1448" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1449">
+      <c r="A1449">
+        <v>23550058</v>
+      </c>
+      <c r="B1449" t="str">
+        <v>精读1000本全球好书【日更】心理罪、人类简史、墨菲定律等</v>
+      </c>
+      <c r="C1449" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1449">
+        <v>487</v>
+      </c>
+      <c r="E1449" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1449" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1450">
+      <c r="A1450">
+        <v>23633187</v>
+      </c>
+      <c r="B1450" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C1450" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1450">
+        <v>132</v>
+      </c>
+      <c r="E1450" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1450" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1451">
+      <c r="A1451">
+        <v>23633996</v>
+      </c>
+      <c r="B1451" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C1451" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1451">
+        <v>131</v>
+      </c>
+      <c r="E1451" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1451" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1452">
+      <c r="A1452">
+        <v>18982940</v>
+      </c>
+      <c r="B1452" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C1452" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1452">
+        <v>101</v>
+      </c>
+      <c r="E1452" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1452" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1453">
+      <c r="A1453">
+        <v>35454435</v>
+      </c>
+      <c r="B1453" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C1453" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1453">
+        <v>153</v>
+      </c>
+      <c r="E1453" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1453" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1454">
+      <c r="A1454">
+        <v>36387482</v>
+      </c>
+      <c r="B1454" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C1454" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1454">
+        <v>160</v>
+      </c>
+      <c r="E1454" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1454" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1455">
+      <c r="A1455">
+        <v>23633570</v>
+      </c>
+      <c r="B1455" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C1455" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1455">
+        <v>130</v>
+      </c>
+      <c r="E1455" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1455" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1456">
+      <c r="A1456">
+        <v>35516850</v>
+      </c>
+      <c r="B1456" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C1456" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1456">
+        <v>202</v>
+      </c>
+      <c r="E1456" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1456" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1457">
+      <c r="A1457">
+        <v>30362073</v>
+      </c>
+      <c r="B1457" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C1457" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1457">
+        <v>105</v>
+      </c>
+      <c r="E1457" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1457" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1458">
+      <c r="A1458">
+        <v>23633842</v>
+      </c>
+      <c r="B1458" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C1458" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1458">
+        <v>116</v>
+      </c>
+      <c r="E1458" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1458" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1459">
+      <c r="A1459">
+        <v>25488931</v>
+      </c>
+      <c r="B1459" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C1459" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1459">
+        <v>129</v>
+      </c>
+      <c r="E1459" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1459" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1460">
+      <c r="A1460">
+        <v>14561753</v>
+      </c>
+      <c r="B1460" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C1460" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1460">
+        <v>127</v>
+      </c>
+      <c r="E1460" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1460" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1461">
+      <c r="A1461">
+        <v>28756500</v>
+      </c>
+      <c r="B1461" t="str">
+        <v>《绝密档案》深夜调查局|200+尘封的未解之谜</v>
+      </c>
+      <c r="C1461" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1461">
+        <v>199</v>
+      </c>
+      <c r="E1461" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1461" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1462">
+      <c r="A1462">
+        <v>37304112</v>
+      </c>
+      <c r="B1462" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C1462" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1462">
+        <v>128</v>
+      </c>
+      <c r="E1462" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1462" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1463">
+      <c r="A1463">
+        <v>6693171</v>
+      </c>
+      <c r="B1463" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C1463" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1463">
+        <v>106</v>
+      </c>
+      <c r="E1463" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1463" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1464">
+      <c r="A1464">
+        <v>16166114</v>
+      </c>
+      <c r="B1464" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C1464" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1464">
+        <v>140</v>
+      </c>
+      <c r="E1464" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1464" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1465">
+      <c r="A1465">
+        <v>12424955</v>
+      </c>
+      <c r="B1465" t="str">
+        <v>一听就懂的《易经》</v>
+      </c>
+      <c r="C1465" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1465">
+        <v>107</v>
+      </c>
+      <c r="E1465" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1465" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1466">
+      <c r="A1466">
+        <v>39885016</v>
+      </c>
+      <c r="B1466" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C1466" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1466">
+        <v>94</v>
+      </c>
+      <c r="E1466" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1466" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1467">
+      <c r="A1467">
+        <v>29671024</v>
+      </c>
+      <c r="B1467" t="str">
+        <v>刘奕君·开席了！宋朝饭局</v>
+      </c>
+      <c r="C1467" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1467">
+        <v>93</v>
+      </c>
+      <c r="E1467" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1467" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1468">
+      <c r="A1468">
+        <v>11594109</v>
+      </c>
+      <c r="B1468" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1468" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1468">
+        <v>314</v>
+      </c>
+      <c r="E1468" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1468" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1469">
+      <c r="A1469">
+        <v>18923338</v>
+      </c>
+      <c r="B1469" t="str">
+        <v>罪咒 | 悬疑侦探剧</v>
+      </c>
+      <c r="C1469" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1469">
+        <v>227</v>
+      </c>
+      <c r="E1469" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F1469" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1470">
+      <c r="A1470">
+        <v>19232895</v>
+      </c>
+      <c r="B1470" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1470" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1470">
+        <v>1591</v>
+      </c>
+      <c r="E1470" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1470" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1471">
+      <c r="A1471">
+        <v>33476331</v>
+      </c>
+      <c r="B1471" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1471" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1471">
+        <v>555</v>
+      </c>
+      <c r="E1471" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1471" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1472">
+      <c r="A1472">
+        <v>33913846</v>
+      </c>
+      <c r="B1472" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1472" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1472">
+        <v>125</v>
+      </c>
+      <c r="E1472" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1472" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1473">
+      <c r="A1473">
+        <v>27505286</v>
+      </c>
+      <c r="B1473" t="str">
+        <v>刑警803【900集 每日双更】</v>
+      </c>
+      <c r="C1473" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1473">
+        <v>912</v>
+      </c>
+      <c r="E1473" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F1473" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1474">
+      <c r="A1474">
+        <v>22814062</v>
+      </c>
+      <c r="B1474" t="str">
+        <v>鬼话三国(贯穿封神西游上古神话)</v>
+      </c>
+      <c r="C1474" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1474">
+        <v>265</v>
+      </c>
+      <c r="E1474" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1474" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1475">
+      <c r="A1475">
+        <v>4651578</v>
+      </c>
+      <c r="B1475" t="str">
+        <v>穿越异世界|我和公主有一腿</v>
+      </c>
+      <c r="C1475" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1475">
+        <v>610</v>
+      </c>
+      <c r="E1475" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1475" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1476">
+      <c r="A1476">
+        <v>30416480</v>
+      </c>
+      <c r="B1476" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1476" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1476">
+        <v>265</v>
+      </c>
+      <c r="E1476" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1476" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1477">
+      <c r="A1477">
+        <v>23632774</v>
+      </c>
+      <c r="B1477" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1477" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1477">
+        <v>259</v>
+      </c>
+      <c r="E1477" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1477" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1478">
+      <c r="A1478">
+        <v>33917662</v>
+      </c>
+      <c r="B1478" t="str">
+        <v>讲给孩子听的-封神演义</v>
+      </c>
+      <c r="C1478" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1478">
+        <v>326</v>
+      </c>
+      <c r="E1478" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1478" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1479">
+      <c r="A1479">
+        <v>24675766</v>
+      </c>
+      <c r="B1479" t="str">
+        <v>东北民间轶事</v>
+      </c>
+      <c r="C1479" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1479">
+        <v>300</v>
+      </c>
+      <c r="E1479" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1479" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1480">
+      <c r="A1480">
+        <v>29293434</v>
+      </c>
+      <c r="B1480" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1480" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1480">
+        <v>213</v>
+      </c>
+      <c r="E1480" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1480" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1481">
+      <c r="A1481">
+        <v>8645052</v>
+      </c>
+      <c r="B1481" t="str">
+        <v>评书版-斗破苍穹【与现场同步】</v>
+      </c>
+      <c r="C1481" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1481">
+        <v>318</v>
+      </c>
+      <c r="E1481" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1481" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1482">
+      <c r="A1482">
+        <v>32267812</v>
+      </c>
+      <c r="B1482" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1482" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1482">
+        <v>204</v>
+      </c>
+      <c r="E1482" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1482" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1483">
+      <c r="A1483">
+        <v>32541372</v>
+      </c>
+      <c r="B1483" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1483" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1483">
+        <v>314</v>
+      </c>
+      <c r="E1483" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1483" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1484">
+      <c r="A1484">
+        <v>32040440</v>
+      </c>
+      <c r="B1484" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1484" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1484">
+        <v>266</v>
+      </c>
+      <c r="E1484" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1484" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1485">
+      <c r="A1485">
+        <v>35582881</v>
+      </c>
+      <c r="B1485" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1485" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1485">
+        <v>276</v>
+      </c>
+      <c r="E1485" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1485" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1486">
+      <c r="A1486">
+        <v>35582289</v>
+      </c>
+      <c r="B1486" t="str">
+        <v>江户川乱步·少年侦探有声剧 | 儿童睡前故事</v>
+      </c>
+      <c r="C1486" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1486">
+        <v>214</v>
+      </c>
+      <c r="E1486" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1486" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1487">
+      <c r="A1487">
+        <v>19003298</v>
+      </c>
+      <c r="B1487" t="str">
+        <v>永恒的边缘：冷战的权力游戏</v>
+      </c>
+      <c r="C1487" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1487">
+        <v>331</v>
+      </c>
+      <c r="E1487" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1487" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1488">
+      <c r="A1488">
+        <v>11438153</v>
+      </c>
+      <c r="B1488" t="str">
+        <v>郭论·郭德纲品俗文化史</v>
+      </c>
+      <c r="C1488" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1488">
+        <v>161</v>
+      </c>
+      <c r="E1488" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1488" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1489">
+      <c r="A1489">
+        <v>21824864</v>
+      </c>
+      <c r="B1489" t="str">
+        <v>谦道·于谦首档音频脱口秀</v>
+      </c>
+      <c r="C1489" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1489">
+        <v>161</v>
+      </c>
+      <c r="E1489" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1489" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1490">
+      <c r="A1490">
+        <v>15771787</v>
+      </c>
+      <c r="B1490" t="str">
+        <v>马红漫的投资日历·一二季合辑</v>
+      </c>
+      <c r="C1490" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1490">
+        <v>519</v>
+      </c>
+      <c r="E1490" t="str">
+        <v>商业财经</v>
+      </c>
+      <c r="F1490" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1491">
+      <c r="A1491">
+        <v>20980067</v>
+      </c>
+      <c r="B1491" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1491" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1491">
+        <v>242</v>
+      </c>
+      <c r="E1491" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1491" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1492">
+      <c r="A1492">
+        <v>26890897</v>
+      </c>
+      <c r="B1492" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1492" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1492">
+        <v>227</v>
+      </c>
+      <c r="E1492" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1492" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1493">
+      <c r="A1493">
+        <v>10989065</v>
+      </c>
+      <c r="B1493" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1493" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1493">
+        <v>202</v>
+      </c>
+      <c r="E1493" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1493" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1494">
+      <c r="A1494">
+        <v>22114507</v>
+      </c>
+      <c r="B1494" t="str">
+        <v>大力丸儿多人有声剧：百部小说里的中国史</v>
+      </c>
+      <c r="C1494" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1494">
+        <v>214</v>
+      </c>
+      <c r="E1494" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1494" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1495">
+      <c r="A1495">
+        <v>32452148</v>
+      </c>
+      <c r="B1495" t="str">
+        <v>纳尼亚传奇 全7册</v>
+      </c>
+      <c r="C1495" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1495">
+        <v>301</v>
+      </c>
+      <c r="E1495" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1495" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1496">
+      <c r="A1496">
+        <v>16783482</v>
+      </c>
+      <c r="B1496" t="str">
+        <v>暖房子有声绘本馆</v>
+      </c>
+      <c r="C1496" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1496">
+        <v>307</v>
+      </c>
+      <c r="E1496" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1496" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1497">
+      <c r="A1497">
+        <v>5211938</v>
+      </c>
+      <c r="B1497" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1497" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1497">
+        <v>369</v>
+      </c>
+      <c r="E1497" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1497" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1498">
+      <c r="A1498">
+        <v>32038799</v>
+      </c>
+      <c r="B1498" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1498" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1498">
+        <v>302</v>
+      </c>
+      <c r="E1498" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1498" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1499">
+      <c r="A1499">
+        <v>35811994</v>
+      </c>
+      <c r="B1499" t="str">
+        <v>学者李亚平《说宋朝》下部</v>
+      </c>
+      <c r="C1499" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1499">
+        <v>260</v>
+      </c>
+      <c r="E1499" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1499" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1500">
+      <c r="A1500">
+        <v>21375015</v>
+      </c>
+      <c r="B1500" t="str">
+        <v>郭论·第二季</v>
+      </c>
+      <c r="C1500" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1500">
+        <v>158</v>
+      </c>
+      <c r="E1500" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1500" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1501">
+      <c r="A1501">
+        <v>11594109</v>
+      </c>
+      <c r="B1501" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1501" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1501">
+        <v>314</v>
+      </c>
+      <c r="E1501" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1501" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1502">
+      <c r="A1502">
+        <v>33913846</v>
+      </c>
+      <c r="B1502" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1502" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1502">
+        <v>125</v>
+      </c>
+      <c r="E1502" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1502" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1503">
+      <c r="A1503">
+        <v>30416480</v>
+      </c>
+      <c r="B1503" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1503" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1503">
+        <v>265</v>
+      </c>
+      <c r="E1503" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1503" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1504">
+      <c r="A1504">
+        <v>33917662</v>
+      </c>
+      <c r="B1504" t="str">
+        <v>讲给孩子听的-封神演义</v>
+      </c>
+      <c r="C1504" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1504">
+        <v>326</v>
+      </c>
+      <c r="E1504" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1504" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1505">
+      <c r="A1505">
+        <v>29293434</v>
+      </c>
+      <c r="B1505" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1505" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1505">
+        <v>213</v>
+      </c>
+      <c r="E1505" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1505" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1506">
+      <c r="A1506">
+        <v>32541372</v>
+      </c>
+      <c r="B1506" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1506" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1506">
+        <v>314</v>
+      </c>
+      <c r="E1506" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1506" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1507">
+      <c r="A1507">
+        <v>32040440</v>
+      </c>
+      <c r="B1507" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1507" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1507">
+        <v>266</v>
+      </c>
+      <c r="E1507" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1507" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1508">
+      <c r="A1508">
+        <v>35582289</v>
+      </c>
+      <c r="B1508" t="str">
+        <v>江户川乱步·少年侦探有声剧 | 儿童睡前故事</v>
+      </c>
+      <c r="C1508" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1508">
+        <v>214</v>
+      </c>
+      <c r="E1508" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1508" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1509">
+      <c r="A1509">
+        <v>20980067</v>
+      </c>
+      <c r="B1509" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1509" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1509">
+        <v>242</v>
+      </c>
+      <c r="E1509" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1509" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1510">
+      <c r="A1510">
+        <v>32452148</v>
+      </c>
+      <c r="B1510" t="str">
+        <v>纳尼亚传奇 全7册</v>
+      </c>
+      <c r="C1510" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1510">
+        <v>301</v>
+      </c>
+      <c r="E1510" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1510" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1511">
+      <c r="A1511">
+        <v>16783482</v>
+      </c>
+      <c r="B1511" t="str">
+        <v>暖房子有声绘本馆</v>
+      </c>
+      <c r="C1511" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1511">
+        <v>307</v>
+      </c>
+      <c r="E1511" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1511" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1512">
+      <c r="A1512">
+        <v>5211938</v>
+      </c>
+      <c r="B1512" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1512" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1512">
+        <v>369</v>
+      </c>
+      <c r="E1512" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1512" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1513">
+      <c r="A1513">
+        <v>32038799</v>
+      </c>
+      <c r="B1513" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1513" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1513">
+        <v>302</v>
+      </c>
+      <c r="E1513" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1513" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1514">
+      <c r="A1514">
+        <v>20965889</v>
+      </c>
+      <c r="B1514" t="str">
+        <v>【全集】冒险小王子睡前童话故事</v>
+      </c>
+      <c r="C1514" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1514">
+        <v>589</v>
+      </c>
+      <c r="E1514" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1514" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1515">
+      <c r="A1515">
+        <v>39675735</v>
+      </c>
+      <c r="B1515" t="str">
+        <v>中国通史 | 500余则经典历史故事</v>
+      </c>
+      <c r="C1515" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1515">
+        <v>239</v>
+      </c>
+      <c r="E1515" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1515" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1516">
+      <c r="A1516">
+        <v>30421077</v>
+      </c>
+      <c r="B1516" t="str">
+        <v>小学生第一堂“阅读习惯”养成课</v>
+      </c>
+      <c r="C1516" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1516">
+        <v>287</v>
+      </c>
+      <c r="E1516" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1516" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1517">
+      <c r="A1517">
+        <v>23361684</v>
+      </c>
+      <c r="B1517" t="str">
+        <v>十万个为什么：动物真奇妙</v>
+      </c>
+      <c r="C1517" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1517">
+        <v>104</v>
+      </c>
+      <c r="E1517" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1517" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1518">
+      <c r="A1518">
+        <v>38838259</v>
+      </c>
+      <c r="B1518" t="str">
+        <v>碰碰狐！英语儿歌合辑</v>
+      </c>
+      <c r="C1518" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1518">
+        <v>151</v>
+      </c>
+      <c r="E1518" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1518" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1519">
+      <c r="A1519">
+        <v>19787798</v>
+      </c>
+      <c r="B1519" t="str">
+        <v>林汉达中国历史故事1+2部</v>
+      </c>
+      <c r="C1519" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1519">
+        <v>262</v>
+      </c>
+      <c r="E1519" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1519" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1520">
+      <c r="A1520">
+        <v>35583796</v>
+      </c>
+      <c r="B1520" t="str">
+        <v>植物大战僵尸之机器时代</v>
+      </c>
+      <c r="C1520" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1520">
+        <v>125</v>
+      </c>
+      <c r="E1520" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1520" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1521">
+      <c r="A1521">
+        <v>35574131</v>
+      </c>
+      <c r="B1521" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C1521" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1521">
+        <v>238</v>
+      </c>
+      <c r="E1521" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1521" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1522">
+      <c r="A1522">
+        <v>26042939</v>
+      </c>
+      <c r="B1522" t="str">
+        <v>十万个为什么：人体真有趣</v>
+      </c>
+      <c r="C1522" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1522">
+        <v>114</v>
+      </c>
+      <c r="E1522" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1522" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1523">
+      <c r="A1523">
+        <v>23548626</v>
+      </c>
+      <c r="B1523" t="str">
+        <v>小猪佩奇全集：五六季</v>
+      </c>
+      <c r="C1523" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1523">
+        <v>161</v>
+      </c>
+      <c r="E1523" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1523" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1524">
+      <c r="A1524">
+        <v>22267837</v>
+      </c>
+      <c r="B1524" t="str">
+        <v>每天五分钟，轻松做父母</v>
+      </c>
+      <c r="C1524" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1524">
+        <v>290</v>
+      </c>
+      <c r="E1524" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1524" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1525">
+      <c r="A1525">
+        <v>33968878</v>
+      </c>
+      <c r="B1525" t="str">
+        <v>君伟上小学</v>
+      </c>
+      <c r="C1525" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1525">
+        <v>111</v>
+      </c>
+      <c r="E1525" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1525" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1526">
+      <c r="A1526">
+        <v>20652876</v>
+      </c>
+      <c r="B1526" t="str">
+        <v>果壳：给孩子的自然百科400讲</v>
+      </c>
+      <c r="C1526" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1526">
+        <v>408</v>
+      </c>
+      <c r="E1526" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1526" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1527">
+      <c r="A1527">
+        <v>36857577</v>
+      </c>
+      <c r="B1527" t="str">
+        <v>村长讲故事|十万个为什么</v>
+      </c>
+      <c r="C1527" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1527">
+        <v>166</v>
+      </c>
+      <c r="E1527" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1527" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1528">
+      <c r="A1528">
+        <v>32212587</v>
+      </c>
+      <c r="B1528" t="str">
+        <v>乐高幻影忍者全集【官方正版】|儿童动画故事</v>
+      </c>
+      <c r="C1528" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1528">
+        <v>240</v>
+      </c>
+      <c r="E1528" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1528" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1529">
+      <c r="A1529">
+        <v>37149584</v>
+      </c>
+      <c r="B1529" t="str">
+        <v>少年派2·欢乐上学记</v>
+      </c>
+      <c r="C1529" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1529">
+        <v>146</v>
+      </c>
+      <c r="E1529" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1529" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1530">
+      <c r="A1530">
+        <v>8272440</v>
+      </c>
+      <c r="B1530" t="str">
+        <v>耶鲁奶爸：唱学唐诗宋词70首</v>
+      </c>
+      <c r="C1530" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1530">
+        <v>141</v>
+      </c>
+      <c r="E1530" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1530" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1531">
+      <c r="A1531">
+        <v>19105793</v>
+      </c>
+      <c r="B1531" t="str">
+        <v>喵卷卷2+3奇遇记 推理侦探系列</v>
+      </c>
+      <c r="C1531" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1531">
+        <v>168</v>
+      </c>
+      <c r="E1531" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1531" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1532">
+      <c r="A1532">
+        <v>30448605</v>
+      </c>
+      <c r="B1532" t="str">
+        <v>装在口袋里的爸爸（第5辑）</v>
+      </c>
+      <c r="C1532" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1532">
+        <v>116</v>
+      </c>
+      <c r="E1532" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1532" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1533">
+      <c r="A1533">
+        <v>30141290</v>
+      </c>
+      <c r="B1533" t="str">
+        <v>植物世界：超梦幻战斗第三季</v>
+      </c>
+      <c r="C1533" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1533">
+        <v>162</v>
+      </c>
+      <c r="E1533" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1533" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1534">
+      <c r="A1534">
+        <v>35487789</v>
+      </c>
+      <c r="B1534" t="str">
+        <v>校园三剑客（第3季）|少年科幻</v>
+      </c>
+      <c r="C1534" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1534">
+        <v>127</v>
+      </c>
+      <c r="E1534" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1534" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1535">
+      <c r="A1535">
+        <v>35356646</v>
+      </c>
+      <c r="B1535" t="str">
+        <v>神奇校车冒险故事【桥梁书版】</v>
+      </c>
+      <c r="C1535" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1535">
+        <v>214</v>
+      </c>
+      <c r="E1535" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1535" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536">
+        <v>11267914</v>
+      </c>
+      <c r="B1536" t="str">
+        <v>植物世界：超梦幻战斗第一季</v>
+      </c>
+      <c r="C1536" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1536">
+        <v>118</v>
+      </c>
+      <c r="E1536" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1536" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537">
+        <v>39661561</v>
+      </c>
+      <c r="B1537" t="str">
+        <v>瑞奇宝宝儿歌</v>
+      </c>
+      <c r="C1537" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1537">
+        <v>105</v>
+      </c>
+      <c r="E1537" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1537" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538">
+        <v>31163168</v>
+      </c>
+      <c r="B1538" t="str">
+        <v>校园三剑客（第2季）|少年科幻</v>
+      </c>
+      <c r="C1538" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1538">
+        <v>119</v>
+      </c>
+      <c r="E1538" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1538" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539">
+        <v>36469999</v>
+      </c>
+      <c r="B1539" t="str">
+        <v>装在口袋里的爸爸（第7辑）</v>
+      </c>
+      <c r="C1539" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1539">
+        <v>132</v>
+      </c>
+      <c r="E1539" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1539" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540">
+        <v>32510373</v>
+      </c>
+      <c r="B1540" t="str">
+        <v>装在口袋里的爸爸（第6辑）</v>
+      </c>
+      <c r="C1540" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1540">
+        <v>121</v>
+      </c>
+      <c r="E1540" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1540" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541">
+        <v>35724447</v>
+      </c>
+      <c r="B1541" t="str">
+        <v>孟京辉话剧 | 恋爱的犀牛</v>
+      </c>
+      <c r="C1541" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1541">
+        <v>4</v>
+      </c>
+      <c r="E1541" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1541" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542">
+        <v>21984732</v>
+      </c>
+      <c r="B1542" t="str">
+        <v>《西方美术史》丁宁“北大通识课” 精读版 | 喜马讲书</v>
+      </c>
+      <c r="C1542" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1542">
+        <v>2</v>
+      </c>
+      <c r="E1542" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1542" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543">
+        <v>40616034</v>
+      </c>
+      <c r="B1543" t="str">
+        <v>简笔画变变变丨激发小朋友绘画艺术的视频课</v>
+      </c>
+      <c r="C1543" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1543">
+        <v>63</v>
+      </c>
+      <c r="E1543" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1543" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544">
+        <v>16420380</v>
+      </c>
+      <c r="B1544" t="str">
+        <v>禧爷说艺术 | 史上16个艺术表情</v>
+      </c>
+      <c r="C1544" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1544">
+        <v>22</v>
+      </c>
+      <c r="E1544" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1544" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545">
+        <v>35724780</v>
+      </c>
+      <c r="B1545" t="str">
+        <v>孟京辉话剧 | 一个无政府主义者的意外死亡</v>
+      </c>
+      <c r="C1545" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1545">
+        <v>4</v>
+      </c>
+      <c r="E1545" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1545" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546">
+        <v>35724380</v>
+      </c>
+      <c r="B1546" t="str">
+        <v>孟京辉话剧 | 镜花水月</v>
+      </c>
+      <c r="C1546" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1546">
+        <v>3</v>
+      </c>
+      <c r="E1546" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1546" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547">
+        <v>40194393</v>
+      </c>
+      <c r="B1547" t="str">
+        <v>品位江南 | 著名作家张永祎主讲（凤凰书苑）</v>
+      </c>
+      <c r="C1547" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1547">
+        <v>20</v>
+      </c>
+      <c r="E1547" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1547" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548">
+        <v>38540483</v>
+      </c>
+      <c r="B1548" t="str">
+        <v>艺术头条|宅游15个世界博物馆</v>
+      </c>
+      <c r="C1548" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1548">
+        <v>31</v>
+      </c>
+      <c r="E1548" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1548" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549">
+        <v>5934464</v>
+      </c>
+      <c r="B1549" t="str">
+        <v>画家苏阳阳陪您聊艺术</v>
+      </c>
+      <c r="C1549" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1549">
+        <v>96</v>
+      </c>
+      <c r="E1549" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1549" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550">
+        <v>35725787</v>
+      </c>
+      <c r="B1550" t="str">
+        <v>孟京辉话剧 | 关于爱情归宿的最新观念</v>
+      </c>
+      <c r="C1550" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1550">
+        <v>5</v>
+      </c>
+      <c r="E1550" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1550" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551">
+        <v>21721044</v>
+      </c>
+      <c r="B1551" t="str">
+        <v>《演员自我修养》| 喜马讲书</v>
+      </c>
+      <c r="C1551" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1551">
+        <v>1</v>
+      </c>
+      <c r="E1551" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1551" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552">
+        <v>33476331</v>
+      </c>
+      <c r="B1552" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1552" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1552">
+        <v>555</v>
+      </c>
+      <c r="E1552" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1552" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553">
+        <v>32650457</v>
+      </c>
+      <c r="B1553" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1553" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1553">
+        <v>1139</v>
+      </c>
+      <c r="E1553" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1553" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554">
+        <v>28810646</v>
+      </c>
+      <c r="B1554" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C1554" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1554">
+        <v>348</v>
+      </c>
+      <c r="E1554" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1554" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555">
+        <v>34220825</v>
+      </c>
+      <c r="B1555" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C1555" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1555">
+        <v>631</v>
+      </c>
+      <c r="E1555" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1555" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556">
+        <v>31887842</v>
+      </c>
+      <c r="B1556" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1556" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1556">
+        <v>1293</v>
+      </c>
+      <c r="E1556" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1556" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557">
+        <v>32553758</v>
+      </c>
+      <c r="B1557" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C1557" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1557">
+        <v>876</v>
+      </c>
+      <c r="E1557" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1557" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558">
+        <v>25010802</v>
+      </c>
+      <c r="B1558" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1558" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1558">
+        <v>1916</v>
+      </c>
+      <c r="E1558" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1558" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559">
+        <v>33541329</v>
+      </c>
+      <c r="B1559" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C1559" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1559">
+        <v>1000</v>
+      </c>
+      <c r="E1559" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1559" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560">
+        <v>3416829</v>
+      </c>
+      <c r="B1560" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C1560" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1560">
+        <v>1066</v>
+      </c>
+      <c r="E1560" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1560" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561">
+        <v>23889957</v>
+      </c>
+      <c r="B1561" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C1561" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1561">
+        <v>1966</v>
+      </c>
+      <c r="E1561" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1561" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562">
+        <v>38954602</v>
+      </c>
+      <c r="B1562" t="str">
+        <v>你是我的万千星辰丨都市虐恋言情丨一刀苏苏精品多人（会员畅听）</v>
+      </c>
+      <c r="C1562" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1562">
+        <v>455</v>
+      </c>
+      <c r="E1562" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1562" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563">
+        <v>19095902</v>
+      </c>
+      <c r="B1563" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C1563" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1563">
+        <v>1999</v>
+      </c>
+      <c r="E1563" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1563" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564">
+        <v>14356532</v>
+      </c>
+      <c r="B1564" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C1564" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1564">
+        <v>722</v>
+      </c>
+      <c r="E1564" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1564" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565">
+        <v>29316562</v>
+      </c>
+      <c r="B1565" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C1565" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1565">
+        <v>1374</v>
+      </c>
+      <c r="E1565" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1565" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566">
+        <v>37081450</v>
+      </c>
+      <c r="B1566" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C1566" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1566">
+        <v>237</v>
+      </c>
+      <c r="E1566" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1566" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567">
+        <v>26440948</v>
+      </c>
+      <c r="B1567" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C1567" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1567">
+        <v>1100</v>
+      </c>
+      <c r="E1567" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1567" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568">
+        <v>32210809</v>
+      </c>
+      <c r="B1568" t="str">
+        <v>龙王殿|萧阳叶云舒都市精品多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1568" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1568">
+        <v>864</v>
+      </c>
+      <c r="E1568" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1568" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569">
+        <v>17594210</v>
+      </c>
+      <c r="B1569" t="str">
+        <v>倒卖凶宅那几年/凶宅笔记盗墓篇</v>
+      </c>
+      <c r="C1569" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1569">
+        <v>1062</v>
+      </c>
+      <c r="E1569" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1569" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570">
+        <v>31503620</v>
+      </c>
+      <c r="B1570" t="str">
+        <v>都市极品医神｜叶辰夏若雪</v>
+      </c>
+      <c r="C1570" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1570">
+        <v>1895</v>
+      </c>
+      <c r="E1570" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1570" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571">
+        <v>36154122</v>
+      </c>
+      <c r="B1571" t="str">
+        <v>我的微信连三界|爆笑双播（幻樱空、妙儿姐）</v>
+      </c>
+      <c r="C1571" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1571">
+        <v>960</v>
+      </c>
+      <c r="E1571" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1571" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572">
+        <v>15966734</v>
+      </c>
+      <c r="B1572" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C1572" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1572">
+        <v>1242</v>
+      </c>
+      <c r="E1572" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1572" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573">
+        <v>25001000</v>
+      </c>
+      <c r="B1573" t="str">
+        <v>神医毒妃 | 神医嫡女第二部</v>
+      </c>
+      <c r="C1573" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1573">
+        <v>875</v>
+      </c>
+      <c r="E1573" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1573" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574">
+        <v>20135114</v>
+      </c>
+      <c r="B1574" t="str">
+        <v>大王饶命（刺儿版）</v>
+      </c>
+      <c r="C1574" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1574">
+        <v>1229</v>
+      </c>
+      <c r="E1574" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1574" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575">
+        <v>35706608</v>
+      </c>
+      <c r="B1575" t="str">
+        <v>快穿之反派又黑化了｜爆笑穿越｜一刀苏苏多人剧</v>
+      </c>
+      <c r="C1575" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1575">
+        <v>875</v>
+      </c>
+      <c r="E1575" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1575" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576">
+        <v>27249251</v>
+      </c>
+      <c r="B1576" t="str">
+        <v>第一赘婿（都市异能精品双人剧|全勇、竹嘻播）</v>
+      </c>
+      <c r="C1576" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1576">
+        <v>1870</v>
+      </c>
+      <c r="E1576" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1576" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577">
+        <v>11813511</v>
+      </c>
+      <c r="B1577" t="str">
+        <v>最强兵王|福海播讲|北冥出品</v>
+      </c>
+      <c r="C1577" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1577">
+        <v>3819</v>
+      </c>
+      <c r="E1577" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1577" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578">
+        <v>23385573</v>
+      </c>
+      <c r="B1578" t="str">
+        <v>女神的布衣兵王【兵王在都市】</v>
+      </c>
+      <c r="C1578" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1578">
+        <v>394</v>
+      </c>
+      <c r="E1578" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1578" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579">
+        <v>22459052</v>
+      </c>
+      <c r="B1579" t="str">
+        <v>神医凰后（杨超越主演《且听凤鸣》原著小说，苏小暖作品）</v>
+      </c>
+      <c r="C1579" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1579">
+        <v>860</v>
+      </c>
+      <c r="E1579" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1579" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580">
+        <v>36765062</v>
+      </c>
+      <c r="B1580" t="str">
+        <v>爆更|末世大回炉（热血重生）</v>
+      </c>
+      <c r="C1580" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1580">
+        <v>696</v>
+      </c>
+      <c r="E1580" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1580" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581">
+        <v>24671709</v>
+      </c>
+      <c r="B1581" t="str">
+        <v>末日蟑螂丨末世鼻祖</v>
+      </c>
+      <c r="C1581" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1581">
+        <v>1478</v>
+      </c>
+      <c r="E1581" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1581" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582">
+        <v>32401742</v>
+      </c>
+      <c r="B1582" t="str">
+        <v>家有王妃初长成｜古言宫斗甜宠多人剧</v>
+      </c>
+      <c r="C1582" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1582">
+        <v>1190</v>
+      </c>
+      <c r="E1582" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1582" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583">
+        <v>38160002</v>
+      </c>
+      <c r="B1583" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1583" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1583">
+        <v>388</v>
+      </c>
+      <c r="E1583" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1583" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584">
+        <v>24645711</v>
+      </c>
+      <c r="B1584" t="str">
+        <v>我有一座冒险屋（精编完整版）</v>
+      </c>
+      <c r="C1584" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1584">
+        <v>1080</v>
+      </c>
+      <c r="E1584" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1584" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585">
+        <v>20134108</v>
+      </c>
+      <c r="B1585" t="str">
+        <v>牧神记（多人录制版）</v>
+      </c>
+      <c r="C1585" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1585">
+        <v>1713</v>
+      </c>
+      <c r="E1585" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1585" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586">
+        <v>25455385</v>
+      </c>
+      <c r="B1586" t="str">
+        <v>最强系统【头陀渊&amp;小桃红】搞笑</v>
+      </c>
+      <c r="C1586" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1586">
+        <v>892</v>
+      </c>
+      <c r="E1586" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1586" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587">
+        <v>17581384</v>
+      </c>
+      <c r="B1587" t="str">
+        <v>风水有术（铁锁玄学作品，丸子播讲）</v>
+      </c>
+      <c r="C1587" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1587">
+        <v>2392</v>
+      </c>
+      <c r="E1587" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1587" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588">
+        <v>23818706</v>
+      </c>
+      <c r="B1588" t="str">
+        <v>不朽凡人|鹅是老五玄幻大作（小编c/拈水笑双播精品）</v>
+      </c>
+      <c r="C1588" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1588">
+        <v>1231</v>
+      </c>
+      <c r="E1588" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1588" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589">
+        <v>28566097</v>
+      </c>
+      <c r="B1589" t="str">
+        <v>傲风|女强玄幻｜一刀苏苏多人剧</v>
+      </c>
+      <c r="C1589" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1589">
+        <v>1282</v>
+      </c>
+      <c r="E1589" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1589" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590">
+        <v>11500090</v>
+      </c>
+      <c r="B1590" t="str">
+        <v>《武动乾坤（下部）》紫襟故事</v>
+      </c>
+      <c r="C1590" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1590">
+        <v>467</v>
+      </c>
+      <c r="E1590" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1590" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591">
+        <v>14342570</v>
+      </c>
+      <c r="B1591" t="str">
+        <v>吞噬星空 | 起点过亿点击神作</v>
+      </c>
+      <c r="C1591" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1591">
+        <v>1024</v>
+      </c>
+      <c r="E1591" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1591" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592">
+        <v>14658610</v>
+      </c>
+      <c r="B1592" t="str">
+        <v>三国之蜀汉我做主</v>
+      </c>
+      <c r="C1592" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1592">
+        <v>726</v>
+      </c>
+      <c r="E1592" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1592" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F1243"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1592"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1592"/>
+  <dimension ref="A1:F1924"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -32220,9 +32220,6649 @@
         <v>否</v>
       </c>
     </row>
+    <row r="1593">
+      <c r="A1593">
+        <v>40121646</v>
+      </c>
+      <c r="B1593" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C1593" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1593">
+        <v>58</v>
+      </c>
+      <c r="E1593" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1593" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594">
+        <v>19232895</v>
+      </c>
+      <c r="B1594" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1594" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1594">
+        <v>1595</v>
+      </c>
+      <c r="E1594" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1594" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595">
+        <v>23632774</v>
+      </c>
+      <c r="B1595" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1595" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1595">
+        <v>260</v>
+      </c>
+      <c r="E1595" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1595" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596">
+        <v>35582881</v>
+      </c>
+      <c r="B1596" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1596" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1596">
+        <v>286</v>
+      </c>
+      <c r="E1596" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1596" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597">
+        <v>32267812</v>
+      </c>
+      <c r="B1597" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1597" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1597">
+        <v>204</v>
+      </c>
+      <c r="E1597" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1597" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598">
+        <v>10989065</v>
+      </c>
+      <c r="B1598" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1598" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1598">
+        <v>202</v>
+      </c>
+      <c r="E1598" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1598" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599">
+        <v>26890897</v>
+      </c>
+      <c r="B1599" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1599" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1599">
+        <v>229</v>
+      </c>
+      <c r="E1599" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1599" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600">
+        <v>25482236</v>
+      </c>
+      <c r="B1600" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1600" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1600">
+        <v>230</v>
+      </c>
+      <c r="E1600" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1600" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601">
+        <v>23625885</v>
+      </c>
+      <c r="B1601" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C1601" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1601">
+        <v>774</v>
+      </c>
+      <c r="E1601" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1601" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602">
+        <v>35516850</v>
+      </c>
+      <c r="B1602" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C1602" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1602">
+        <v>210</v>
+      </c>
+      <c r="E1602" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1602" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603">
+        <v>5445798</v>
+      </c>
+      <c r="B1603" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C1603" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1603">
+        <v>234</v>
+      </c>
+      <c r="E1603" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1603" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604">
+        <v>23550058</v>
+      </c>
+      <c r="B1604" t="str">
+        <v>精读1000本全球好书【日更】心理罪、人类简史、墨菲定律等</v>
+      </c>
+      <c r="C1604" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1604">
+        <v>491</v>
+      </c>
+      <c r="E1604" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1604" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605">
+        <v>39016657</v>
+      </c>
+      <c r="B1605" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C1605" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1605">
+        <v>160</v>
+      </c>
+      <c r="E1605" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1605" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606">
+        <v>23633187</v>
+      </c>
+      <c r="B1606" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C1606" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1606">
+        <v>132</v>
+      </c>
+      <c r="E1606" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1606" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607">
+        <v>23633996</v>
+      </c>
+      <c r="B1607" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C1607" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1607">
+        <v>131</v>
+      </c>
+      <c r="E1607" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1607" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1608">
+      <c r="A1608">
+        <v>28756500</v>
+      </c>
+      <c r="B1608" t="str">
+        <v>《绝密档案》深夜调查局|200+尘封的未解之谜</v>
+      </c>
+      <c r="C1608" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1608">
+        <v>201</v>
+      </c>
+      <c r="E1608" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1608" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1609">
+      <c r="A1609">
+        <v>23633570</v>
+      </c>
+      <c r="B1609" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C1609" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1609">
+        <v>138</v>
+      </c>
+      <c r="E1609" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1609" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1610">
+      <c r="A1610">
+        <v>36387482</v>
+      </c>
+      <c r="B1610" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C1610" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1610">
+        <v>161</v>
+      </c>
+      <c r="E1610" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1610" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1611">
+      <c r="A1611">
+        <v>18982940</v>
+      </c>
+      <c r="B1611" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C1611" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1611">
+        <v>101</v>
+      </c>
+      <c r="E1611" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1611" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1612">
+      <c r="A1612">
+        <v>35454435</v>
+      </c>
+      <c r="B1612" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C1612" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1612">
+        <v>158</v>
+      </c>
+      <c r="E1612" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1612" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1613">
+      <c r="A1613">
+        <v>25488931</v>
+      </c>
+      <c r="B1613" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C1613" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1613">
+        <v>130</v>
+      </c>
+      <c r="E1613" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1613" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1614">
+      <c r="A1614">
+        <v>14561753</v>
+      </c>
+      <c r="B1614" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C1614" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1614">
+        <v>127</v>
+      </c>
+      <c r="E1614" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1614" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1615">
+      <c r="A1615">
+        <v>30362073</v>
+      </c>
+      <c r="B1615" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C1615" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1615">
+        <v>105</v>
+      </c>
+      <c r="E1615" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1615" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1616">
+      <c r="A1616">
+        <v>23633842</v>
+      </c>
+      <c r="B1616" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C1616" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1616">
+        <v>116</v>
+      </c>
+      <c r="E1616" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1616" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1617">
+      <c r="A1617">
+        <v>37304112</v>
+      </c>
+      <c r="B1617" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C1617" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1617">
+        <v>132</v>
+      </c>
+      <c r="E1617" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1617" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1618">
+      <c r="A1618">
+        <v>6693171</v>
+      </c>
+      <c r="B1618" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C1618" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1618">
+        <v>106</v>
+      </c>
+      <c r="E1618" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1618" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1619">
+      <c r="A1619">
+        <v>16166114</v>
+      </c>
+      <c r="B1619" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C1619" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1619">
+        <v>140</v>
+      </c>
+      <c r="E1619" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1619" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1620">
+      <c r="A1620">
+        <v>19232895</v>
+      </c>
+      <c r="B1620" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1620" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1620">
+        <v>1595</v>
+      </c>
+      <c r="E1620" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1620" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1621">
+      <c r="A1621">
+        <v>23632774</v>
+      </c>
+      <c r="B1621" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1621" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1621">
+        <v>260</v>
+      </c>
+      <c r="E1621" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1621" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1622">
+      <c r="A1622">
+        <v>35582881</v>
+      </c>
+      <c r="B1622" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1622" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1622">
+        <v>286</v>
+      </c>
+      <c r="E1622" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1622" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1623">
+      <c r="A1623">
+        <v>32267812</v>
+      </c>
+      <c r="B1623" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1623" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1623">
+        <v>204</v>
+      </c>
+      <c r="E1623" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1623" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1624">
+      <c r="A1624">
+        <v>10989065</v>
+      </c>
+      <c r="B1624" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1624" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1624">
+        <v>202</v>
+      </c>
+      <c r="E1624" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1624" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1625">
+      <c r="A1625">
+        <v>26890897</v>
+      </c>
+      <c r="B1625" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1625" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1625">
+        <v>230</v>
+      </c>
+      <c r="E1625" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1625" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1626">
+      <c r="A1626">
+        <v>25482236</v>
+      </c>
+      <c r="B1626" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1626" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1626">
+        <v>231</v>
+      </c>
+      <c r="E1626" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1626" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1627">
+      <c r="A1627">
+        <v>23625885</v>
+      </c>
+      <c r="B1627" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C1627" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1627">
+        <v>774</v>
+      </c>
+      <c r="E1627" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1627" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1628">
+      <c r="A1628">
+        <v>35516850</v>
+      </c>
+      <c r="B1628" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C1628" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1628">
+        <v>210</v>
+      </c>
+      <c r="E1628" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1628" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1629">
+      <c r="A1629">
+        <v>5445798</v>
+      </c>
+      <c r="B1629" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C1629" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1629">
+        <v>234</v>
+      </c>
+      <c r="E1629" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1629" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1630">
+      <c r="A1630">
+        <v>23550058</v>
+      </c>
+      <c r="B1630" t="str">
+        <v>精读1000本全球好书【日更】心理罪、人类简史、墨菲定律等</v>
+      </c>
+      <c r="C1630" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1630">
+        <v>491</v>
+      </c>
+      <c r="E1630" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1630" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1631">
+      <c r="A1631">
+        <v>39016657</v>
+      </c>
+      <c r="B1631" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C1631" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1631">
+        <v>160</v>
+      </c>
+      <c r="E1631" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1631" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1632">
+      <c r="A1632">
+        <v>23633187</v>
+      </c>
+      <c r="B1632" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C1632" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1632">
+        <v>132</v>
+      </c>
+      <c r="E1632" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1632" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1633">
+      <c r="A1633">
+        <v>23633996</v>
+      </c>
+      <c r="B1633" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C1633" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1633">
+        <v>131</v>
+      </c>
+      <c r="E1633" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1633" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1634">
+      <c r="A1634">
+        <v>28756500</v>
+      </c>
+      <c r="B1634" t="str">
+        <v>《绝密档案》深夜调查局|200+尘封的未解之谜</v>
+      </c>
+      <c r="C1634" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1634">
+        <v>201</v>
+      </c>
+      <c r="E1634" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1634" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1635">
+      <c r="A1635">
+        <v>23633570</v>
+      </c>
+      <c r="B1635" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C1635" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1635">
+        <v>138</v>
+      </c>
+      <c r="E1635" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1635" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1636">
+      <c r="A1636">
+        <v>36387482</v>
+      </c>
+      <c r="B1636" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C1636" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1636">
+        <v>161</v>
+      </c>
+      <c r="E1636" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1636" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1637">
+      <c r="A1637">
+        <v>18982940</v>
+      </c>
+      <c r="B1637" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C1637" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1637">
+        <v>101</v>
+      </c>
+      <c r="E1637" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1637" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1638">
+      <c r="A1638">
+        <v>35454435</v>
+      </c>
+      <c r="B1638" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C1638" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1638">
+        <v>158</v>
+      </c>
+      <c r="E1638" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1638" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1639">
+      <c r="A1639">
+        <v>25488931</v>
+      </c>
+      <c r="B1639" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C1639" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1639">
+        <v>130</v>
+      </c>
+      <c r="E1639" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1639" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1640">
+      <c r="A1640">
+        <v>14561753</v>
+      </c>
+      <c r="B1640" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C1640" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1640">
+        <v>127</v>
+      </c>
+      <c r="E1640" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1640" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1641">
+      <c r="A1641">
+        <v>30362073</v>
+      </c>
+      <c r="B1641" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C1641" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1641">
+        <v>105</v>
+      </c>
+      <c r="E1641" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1641" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1642">
+      <c r="A1642">
+        <v>23633842</v>
+      </c>
+      <c r="B1642" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C1642" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1642">
+        <v>116</v>
+      </c>
+      <c r="E1642" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1642" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1643">
+      <c r="A1643">
+        <v>37304112</v>
+      </c>
+      <c r="B1643" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C1643" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1643">
+        <v>132</v>
+      </c>
+      <c r="E1643" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1643" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1644">
+      <c r="A1644">
+        <v>6693171</v>
+      </c>
+      <c r="B1644" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C1644" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1644">
+        <v>106</v>
+      </c>
+      <c r="E1644" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1644" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1645">
+      <c r="A1645">
+        <v>16166114</v>
+      </c>
+      <c r="B1645" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C1645" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1645">
+        <v>140</v>
+      </c>
+      <c r="E1645" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1645" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1646">
+      <c r="A1646">
+        <v>39643145</v>
+      </c>
+      <c r="B1646" t="str">
+        <v>孙子兵法、三十六计智谋全解 | 历代兵家奇谋方略</v>
+      </c>
+      <c r="C1646" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1646">
+        <v>111</v>
+      </c>
+      <c r="E1646" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1646" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1647">
+      <c r="A1647">
+        <v>39885016</v>
+      </c>
+      <c r="B1647" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C1647" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1647">
+        <v>110</v>
+      </c>
+      <c r="E1647" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1647" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1648">
+      <c r="A1648">
+        <v>12424955</v>
+      </c>
+      <c r="B1648" t="str">
+        <v>一听就懂的《易经》</v>
+      </c>
+      <c r="C1648" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1648">
+        <v>107</v>
+      </c>
+      <c r="E1648" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1648" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1649">
+      <c r="A1649">
+        <v>11594109</v>
+      </c>
+      <c r="B1649" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1649" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1649">
+        <v>314</v>
+      </c>
+      <c r="E1649" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1649" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1650">
+      <c r="A1650">
+        <v>30421077</v>
+      </c>
+      <c r="B1650" t="str">
+        <v>小学生第一堂“阅读习惯”养成课</v>
+      </c>
+      <c r="C1650" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1650">
+        <v>290</v>
+      </c>
+      <c r="E1650" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1650" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1651">
+      <c r="A1651">
+        <v>18923338</v>
+      </c>
+      <c r="B1651" t="str">
+        <v>罪咒 | 悬疑侦探剧</v>
+      </c>
+      <c r="C1651" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1651">
+        <v>231</v>
+      </c>
+      <c r="E1651" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F1651" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1652">
+      <c r="A1652">
+        <v>19232895</v>
+      </c>
+      <c r="B1652" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1652" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1652">
+        <v>1595</v>
+      </c>
+      <c r="E1652" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1652" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1653">
+      <c r="A1653">
+        <v>33476331</v>
+      </c>
+      <c r="B1653" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1653" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1653">
+        <v>563</v>
+      </c>
+      <c r="E1653" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1653" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1654">
+      <c r="A1654">
+        <v>27505286</v>
+      </c>
+      <c r="B1654" t="str">
+        <v>刑警803【900集 每日双更】</v>
+      </c>
+      <c r="C1654" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1654">
+        <v>912</v>
+      </c>
+      <c r="E1654" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F1654" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1655">
+      <c r="A1655">
+        <v>22814062</v>
+      </c>
+      <c r="B1655" t="str">
+        <v>鬼话三国(贯穿封神西游上古神话)</v>
+      </c>
+      <c r="C1655" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1655">
+        <v>266</v>
+      </c>
+      <c r="E1655" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1655" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1656">
+      <c r="A1656">
+        <v>33917662</v>
+      </c>
+      <c r="B1656" t="str">
+        <v>讲给孩子听的-封神演义</v>
+      </c>
+      <c r="C1656" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1656">
+        <v>329</v>
+      </c>
+      <c r="E1656" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1656" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1657">
+      <c r="A1657">
+        <v>33913846</v>
+      </c>
+      <c r="B1657" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1657" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1657">
+        <v>126</v>
+      </c>
+      <c r="E1657" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1657" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1658">
+      <c r="A1658">
+        <v>23632774</v>
+      </c>
+      <c r="B1658" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1658" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1658">
+        <v>260</v>
+      </c>
+      <c r="E1658" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1658" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1659">
+      <c r="A1659">
+        <v>4651578</v>
+      </c>
+      <c r="B1659" t="str">
+        <v>穿越异世界|我和公主有一腿</v>
+      </c>
+      <c r="C1659" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1659">
+        <v>615</v>
+      </c>
+      <c r="E1659" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1659" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1660">
+      <c r="A1660">
+        <v>30416480</v>
+      </c>
+      <c r="B1660" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1660" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1660">
+        <v>266</v>
+      </c>
+      <c r="E1660" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1660" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1661">
+      <c r="A1661">
+        <v>19003298</v>
+      </c>
+      <c r="B1661" t="str">
+        <v>永恒的边缘：冷战的权力游戏</v>
+      </c>
+      <c r="C1661" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1661">
+        <v>331</v>
+      </c>
+      <c r="E1661" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1661" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1662">
+      <c r="A1662">
+        <v>35574131</v>
+      </c>
+      <c r="B1662" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C1662" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1662">
+        <v>238</v>
+      </c>
+      <c r="E1662" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1662" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1663">
+      <c r="A1663">
+        <v>32040440</v>
+      </c>
+      <c r="B1663" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1663" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1663">
+        <v>270</v>
+      </c>
+      <c r="E1663" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1663" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1664">
+      <c r="A1664">
+        <v>24675766</v>
+      </c>
+      <c r="B1664" t="str">
+        <v>东北民间轶事</v>
+      </c>
+      <c r="C1664" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1664">
+        <v>301</v>
+      </c>
+      <c r="E1664" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1664" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1665">
+      <c r="A1665">
+        <v>8645052</v>
+      </c>
+      <c r="B1665" t="str">
+        <v>评书版-斗破苍穹【与现场同步】</v>
+      </c>
+      <c r="C1665" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1665">
+        <v>318</v>
+      </c>
+      <c r="E1665" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1665" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1666">
+      <c r="A1666">
+        <v>35582881</v>
+      </c>
+      <c r="B1666" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1666" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1666">
+        <v>286</v>
+      </c>
+      <c r="E1666" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1666" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1667">
+      <c r="A1667">
+        <v>35582289</v>
+      </c>
+      <c r="B1667" t="str">
+        <v>江户川乱步·少年侦探有声剧 | 儿童睡前故事</v>
+      </c>
+      <c r="C1667" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1667">
+        <v>220</v>
+      </c>
+      <c r="E1667" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1667" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1668">
+      <c r="A1668">
+        <v>32267812</v>
+      </c>
+      <c r="B1668" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1668" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1668">
+        <v>204</v>
+      </c>
+      <c r="E1668" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1668" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1669">
+      <c r="A1669">
+        <v>32541372</v>
+      </c>
+      <c r="B1669" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1669" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1669">
+        <v>319</v>
+      </c>
+      <c r="E1669" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1669" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1670">
+      <c r="A1670">
+        <v>29293434</v>
+      </c>
+      <c r="B1670" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1670" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1670">
+        <v>217</v>
+      </c>
+      <c r="E1670" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1670" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1671">
+      <c r="A1671">
+        <v>11438153</v>
+      </c>
+      <c r="B1671" t="str">
+        <v>郭论·郭德纲品俗文化史</v>
+      </c>
+      <c r="C1671" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1671">
+        <v>161</v>
+      </c>
+      <c r="E1671" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1671" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1672">
+      <c r="A1672">
+        <v>22114507</v>
+      </c>
+      <c r="B1672" t="str">
+        <v>大力丸儿多人有声剧：百部小说里的中国史</v>
+      </c>
+      <c r="C1672" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1672">
+        <v>215</v>
+      </c>
+      <c r="E1672" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1672" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1673">
+      <c r="A1673">
+        <v>10989065</v>
+      </c>
+      <c r="B1673" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1673" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1673">
+        <v>202</v>
+      </c>
+      <c r="E1673" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1673" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1674">
+      <c r="A1674">
+        <v>15771787</v>
+      </c>
+      <c r="B1674" t="str">
+        <v>马红漫的投资日历·一二季合辑</v>
+      </c>
+      <c r="C1674" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1674">
+        <v>519</v>
+      </c>
+      <c r="E1674" t="str">
+        <v>商业财经</v>
+      </c>
+      <c r="F1674" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1675">
+      <c r="A1675">
+        <v>5211938</v>
+      </c>
+      <c r="B1675" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1675" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1675">
+        <v>369</v>
+      </c>
+      <c r="E1675" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1675" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1676">
+      <c r="A1676">
+        <v>21824864</v>
+      </c>
+      <c r="B1676" t="str">
+        <v>谦道·于谦首档音频脱口秀</v>
+      </c>
+      <c r="C1676" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1676">
+        <v>161</v>
+      </c>
+      <c r="E1676" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1676" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1677">
+      <c r="A1677">
+        <v>32452148</v>
+      </c>
+      <c r="B1677" t="str">
+        <v>纳尼亚传奇 全7册</v>
+      </c>
+      <c r="C1677" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1677">
+        <v>301</v>
+      </c>
+      <c r="E1677" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1677" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1678">
+      <c r="A1678">
+        <v>20980067</v>
+      </c>
+      <c r="B1678" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1678" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1678">
+        <v>242</v>
+      </c>
+      <c r="E1678" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1678" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1679">
+      <c r="A1679">
+        <v>26890897</v>
+      </c>
+      <c r="B1679" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1679" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1679">
+        <v>230</v>
+      </c>
+      <c r="E1679" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1679" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1680">
+      <c r="A1680">
+        <v>32038799</v>
+      </c>
+      <c r="B1680" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1680" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1680">
+        <v>302</v>
+      </c>
+      <c r="E1680" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1680" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1681">
+      <c r="A1681">
+        <v>16783482</v>
+      </c>
+      <c r="B1681" t="str">
+        <v>暖房子有声绘本馆</v>
+      </c>
+      <c r="C1681" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1681">
+        <v>312</v>
+      </c>
+      <c r="E1681" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1681" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1682">
+      <c r="A1682">
+        <v>11594109</v>
+      </c>
+      <c r="B1682" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1682" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1682">
+        <v>314</v>
+      </c>
+      <c r="E1682" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1682" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1683">
+      <c r="A1683">
+        <v>30421077</v>
+      </c>
+      <c r="B1683" t="str">
+        <v>小学生第一堂“阅读习惯”养成课</v>
+      </c>
+      <c r="C1683" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1683">
+        <v>290</v>
+      </c>
+      <c r="E1683" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1683" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1684">
+      <c r="A1684">
+        <v>33913846</v>
+      </c>
+      <c r="B1684" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1684" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1684">
+        <v>126</v>
+      </c>
+      <c r="E1684" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1684" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1685">
+      <c r="A1685">
+        <v>30416480</v>
+      </c>
+      <c r="B1685" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1685" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1685">
+        <v>266</v>
+      </c>
+      <c r="E1685" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1685" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1686">
+      <c r="A1686">
+        <v>35574131</v>
+      </c>
+      <c r="B1686" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C1686" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1686">
+        <v>238</v>
+      </c>
+      <c r="E1686" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1686" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1687">
+      <c r="A1687">
+        <v>32040440</v>
+      </c>
+      <c r="B1687" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1687" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1687">
+        <v>270</v>
+      </c>
+      <c r="E1687" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1687" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1688">
+      <c r="A1688">
+        <v>35582289</v>
+      </c>
+      <c r="B1688" t="str">
+        <v>江户川乱步·少年侦探有声剧 | 儿童睡前故事</v>
+      </c>
+      <c r="C1688" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1688">
+        <v>220</v>
+      </c>
+      <c r="E1688" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1688" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1689">
+      <c r="A1689">
+        <v>32541372</v>
+      </c>
+      <c r="B1689" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1689" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1689">
+        <v>319</v>
+      </c>
+      <c r="E1689" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1689" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1690">
+      <c r="A1690">
+        <v>29293434</v>
+      </c>
+      <c r="B1690" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1690" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1690">
+        <v>217</v>
+      </c>
+      <c r="E1690" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1690" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1691">
+      <c r="A1691">
+        <v>5211938</v>
+      </c>
+      <c r="B1691" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1691" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1691">
+        <v>369</v>
+      </c>
+      <c r="E1691" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1691" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1692">
+      <c r="A1692">
+        <v>20980067</v>
+      </c>
+      <c r="B1692" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1692" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1692">
+        <v>242</v>
+      </c>
+      <c r="E1692" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1692" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1693">
+      <c r="A1693">
+        <v>32038799</v>
+      </c>
+      <c r="B1693" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1693" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1693">
+        <v>302</v>
+      </c>
+      <c r="E1693" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1693" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1694">
+      <c r="A1694">
+        <v>16783482</v>
+      </c>
+      <c r="B1694" t="str">
+        <v>暖房子有声绘本馆</v>
+      </c>
+      <c r="C1694" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1694">
+        <v>312</v>
+      </c>
+      <c r="E1694" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1694" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1695">
+      <c r="A1695">
+        <v>20965889</v>
+      </c>
+      <c r="B1695" t="str">
+        <v>【全集】冒险小王子睡前童话故事</v>
+      </c>
+      <c r="C1695" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1695">
+        <v>591</v>
+      </c>
+      <c r="E1695" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1695" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1696">
+      <c r="A1696">
+        <v>23361684</v>
+      </c>
+      <c r="B1696" t="str">
+        <v>十万个为什么：动物真奇妙</v>
+      </c>
+      <c r="C1696" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1696">
+        <v>104</v>
+      </c>
+      <c r="E1696" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1696" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1697">
+      <c r="A1697">
+        <v>32318414</v>
+      </c>
+      <c r="B1697" t="str">
+        <v>碰碰狐！儿歌合辑</v>
+      </c>
+      <c r="C1697" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1697">
+        <v>145</v>
+      </c>
+      <c r="E1697" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1697" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1698">
+      <c r="A1698">
+        <v>39675735</v>
+      </c>
+      <c r="B1698" t="str">
+        <v>中国通史 | 500余则经典历史故事</v>
+      </c>
+      <c r="C1698" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1698">
+        <v>244</v>
+      </c>
+      <c r="E1698" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1698" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1699">
+      <c r="A1699">
+        <v>38838259</v>
+      </c>
+      <c r="B1699" t="str">
+        <v>碰碰狐！英语儿歌合辑</v>
+      </c>
+      <c r="C1699" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1699">
+        <v>151</v>
+      </c>
+      <c r="E1699" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1699" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1700">
+      <c r="A1700">
+        <v>20652876</v>
+      </c>
+      <c r="B1700" t="str">
+        <v>果壳：给孩子的自然百科400讲</v>
+      </c>
+      <c r="C1700" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1700">
+        <v>408</v>
+      </c>
+      <c r="E1700" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1700" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1701">
+      <c r="A1701">
+        <v>19787798</v>
+      </c>
+      <c r="B1701" t="str">
+        <v>林汉达中国历史故事1+2部</v>
+      </c>
+      <c r="C1701" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1701">
+        <v>262</v>
+      </c>
+      <c r="E1701" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1701" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1702">
+      <c r="A1702">
+        <v>26042939</v>
+      </c>
+      <c r="B1702" t="str">
+        <v>十万个为什么：人体真有趣</v>
+      </c>
+      <c r="C1702" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1702">
+        <v>114</v>
+      </c>
+      <c r="E1702" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1702" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1703">
+      <c r="A1703">
+        <v>32212587</v>
+      </c>
+      <c r="B1703" t="str">
+        <v>乐高幻影忍者全集【官方正版】|儿童动画故事</v>
+      </c>
+      <c r="C1703" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1703">
+        <v>245</v>
+      </c>
+      <c r="E1703" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1703" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1704">
+      <c r="A1704">
+        <v>35583796</v>
+      </c>
+      <c r="B1704" t="str">
+        <v>植物大战僵尸之机器时代</v>
+      </c>
+      <c r="C1704" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1704">
+        <v>129</v>
+      </c>
+      <c r="E1704" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1704" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1705">
+      <c r="A1705">
+        <v>35356646</v>
+      </c>
+      <c r="B1705" t="str">
+        <v>神奇校车冒险故事【桥梁书版】</v>
+      </c>
+      <c r="C1705" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1705">
+        <v>222</v>
+      </c>
+      <c r="E1705" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1705" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1706">
+      <c r="A1706">
+        <v>23548626</v>
+      </c>
+      <c r="B1706" t="str">
+        <v>小猪佩奇全集：五六季</v>
+      </c>
+      <c r="C1706" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1706">
+        <v>161</v>
+      </c>
+      <c r="E1706" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1706" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1707">
+      <c r="A1707">
+        <v>8272440</v>
+      </c>
+      <c r="B1707" t="str">
+        <v>耶鲁奶爸：唱学唐诗宋词70首</v>
+      </c>
+      <c r="C1707" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1707">
+        <v>141</v>
+      </c>
+      <c r="E1707" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1707" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1708">
+      <c r="A1708">
+        <v>37149584</v>
+      </c>
+      <c r="B1708" t="str">
+        <v>少年派2·欢乐上学记</v>
+      </c>
+      <c r="C1708" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1708">
+        <v>146</v>
+      </c>
+      <c r="E1708" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1708" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1709">
+      <c r="A1709">
+        <v>11267914</v>
+      </c>
+      <c r="B1709" t="str">
+        <v>植物世界：超梦幻战斗第一季</v>
+      </c>
+      <c r="C1709" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1709">
+        <v>118</v>
+      </c>
+      <c r="E1709" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1709" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1710">
+      <c r="A1710">
+        <v>19105793</v>
+      </c>
+      <c r="B1710" t="str">
+        <v>喵卷卷2+3奇遇记 推理侦探系列</v>
+      </c>
+      <c r="C1710" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1710">
+        <v>168</v>
+      </c>
+      <c r="E1710" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1710" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1711">
+      <c r="A1711">
+        <v>36857577</v>
+      </c>
+      <c r="B1711" t="str">
+        <v>村长讲故事|十万个为什么</v>
+      </c>
+      <c r="C1711" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1711">
+        <v>166</v>
+      </c>
+      <c r="E1711" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1711" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1712">
+      <c r="A1712">
+        <v>33968878</v>
+      </c>
+      <c r="B1712" t="str">
+        <v>君伟上小学</v>
+      </c>
+      <c r="C1712" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1712">
+        <v>111</v>
+      </c>
+      <c r="E1712" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1712" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1713">
+      <c r="A1713">
+        <v>35487789</v>
+      </c>
+      <c r="B1713" t="str">
+        <v>校园三剑客（第3季）|少年科幻</v>
+      </c>
+      <c r="C1713" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1713">
+        <v>127</v>
+      </c>
+      <c r="E1713" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1713" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1714">
+      <c r="A1714">
+        <v>32601976</v>
+      </c>
+      <c r="B1714" t="str">
+        <v>汉声中国童话</v>
+      </c>
+      <c r="C1714" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1714">
+        <v>236</v>
+      </c>
+      <c r="E1714" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1714" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1715">
+      <c r="A1715">
+        <v>36469999</v>
+      </c>
+      <c r="B1715" t="str">
+        <v>装在口袋里的爸爸（第7辑）</v>
+      </c>
+      <c r="C1715" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1715">
+        <v>137</v>
+      </c>
+      <c r="E1715" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1715" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1716">
+      <c r="A1716">
+        <v>30448605</v>
+      </c>
+      <c r="B1716" t="str">
+        <v>装在口袋里的爸爸（第5辑）</v>
+      </c>
+      <c r="C1716" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1716">
+        <v>116</v>
+      </c>
+      <c r="E1716" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1716" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1717">
+      <c r="A1717">
+        <v>30141290</v>
+      </c>
+      <c r="B1717" t="str">
+        <v>植物世界：超梦幻战斗第三季</v>
+      </c>
+      <c r="C1717" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1717">
+        <v>162</v>
+      </c>
+      <c r="E1717" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1717" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1718">
+      <c r="A1718">
+        <v>32510373</v>
+      </c>
+      <c r="B1718" t="str">
+        <v>装在口袋里的爸爸（第6辑）</v>
+      </c>
+      <c r="C1718" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1718">
+        <v>121</v>
+      </c>
+      <c r="E1718" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1718" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1719">
+      <c r="A1719">
+        <v>40194923</v>
+      </c>
+      <c r="B1719" t="str">
+        <v>装在口袋里的爸爸：恐龙星球</v>
+      </c>
+      <c r="C1719" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1719">
+        <v>112</v>
+      </c>
+      <c r="E1719" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1719" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1720">
+      <c r="A1720">
+        <v>31163168</v>
+      </c>
+      <c r="B1720" t="str">
+        <v>校园三剑客（第2季）|少年科幻</v>
+      </c>
+      <c r="C1720" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1720">
+        <v>119</v>
+      </c>
+      <c r="E1720" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1720" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1721">
+      <c r="A1721">
+        <v>15123737</v>
+      </c>
+      <c r="B1721" t="str">
+        <v>女生日记：杨红樱成长小说系列（会员畅听）</v>
+      </c>
+      <c r="C1721" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1721">
+        <v>101</v>
+      </c>
+      <c r="E1721" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1721" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1722">
+      <c r="A1722">
+        <v>20542923</v>
+      </c>
+      <c r="B1722" t="str">
+        <v>白菜小哥历险记（第一季）</v>
+      </c>
+      <c r="C1722" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1722">
+        <v>105</v>
+      </c>
+      <c r="E1722" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1722" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1723">
+      <c r="A1723">
+        <v>35724447</v>
+      </c>
+      <c r="B1723" t="str">
+        <v>孟京辉话剧 | 恋爱的犀牛</v>
+      </c>
+      <c r="C1723" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1723">
+        <v>4</v>
+      </c>
+      <c r="E1723" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1723" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1724">
+      <c r="A1724">
+        <v>21984732</v>
+      </c>
+      <c r="B1724" t="str">
+        <v>《西方美术史》丁宁“北大通识课” 精读版 | 喜马讲书</v>
+      </c>
+      <c r="C1724" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1724">
+        <v>2</v>
+      </c>
+      <c r="E1724" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1724" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1725">
+      <c r="A1725">
+        <v>16420380</v>
+      </c>
+      <c r="B1725" t="str">
+        <v>禧爷说艺术 | 史上16个艺术表情</v>
+      </c>
+      <c r="C1725" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1725">
+        <v>22</v>
+      </c>
+      <c r="E1725" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1725" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1726">
+      <c r="A1726">
+        <v>35724780</v>
+      </c>
+      <c r="B1726" t="str">
+        <v>孟京辉话剧 | 一个无政府主义者的意外死亡</v>
+      </c>
+      <c r="C1726" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1726">
+        <v>4</v>
+      </c>
+      <c r="E1726" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1726" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1727">
+      <c r="A1727">
+        <v>40194393</v>
+      </c>
+      <c r="B1727" t="str">
+        <v>品位江南 | 著名作家张永祎主讲（凤凰书苑）</v>
+      </c>
+      <c r="C1727" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1727">
+        <v>20</v>
+      </c>
+      <c r="E1727" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1727" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1728">
+      <c r="A1728">
+        <v>38540483</v>
+      </c>
+      <c r="B1728" t="str">
+        <v>艺术头条|宅游15个世界博物馆</v>
+      </c>
+      <c r="C1728" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1728">
+        <v>31</v>
+      </c>
+      <c r="E1728" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1728" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1729">
+      <c r="A1729">
+        <v>35724380</v>
+      </c>
+      <c r="B1729" t="str">
+        <v>孟京辉话剧 | 镜花水月</v>
+      </c>
+      <c r="C1729" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1729">
+        <v>3</v>
+      </c>
+      <c r="E1729" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1729" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1730">
+      <c r="A1730">
+        <v>35725787</v>
+      </c>
+      <c r="B1730" t="str">
+        <v>孟京辉话剧 | 关于爱情归宿的最新观念</v>
+      </c>
+      <c r="C1730" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1730">
+        <v>5</v>
+      </c>
+      <c r="E1730" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1730" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1731">
+      <c r="A1731">
+        <v>21721044</v>
+      </c>
+      <c r="B1731" t="str">
+        <v>《演员自我修养》| 喜马讲书</v>
+      </c>
+      <c r="C1731" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1731">
+        <v>1</v>
+      </c>
+      <c r="E1731" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1731" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1732">
+      <c r="A1732">
+        <v>33476331</v>
+      </c>
+      <c r="B1732" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1732" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1732">
+        <v>563</v>
+      </c>
+      <c r="E1732" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1732" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1733">
+      <c r="A1733">
+        <v>32650457</v>
+      </c>
+      <c r="B1733" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1733" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1733">
+        <v>1159</v>
+      </c>
+      <c r="E1733" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1733" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1734">
+      <c r="A1734">
+        <v>31887842</v>
+      </c>
+      <c r="B1734" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1734" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1734">
+        <v>1313</v>
+      </c>
+      <c r="E1734" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1734" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1735">
+      <c r="A1735">
+        <v>34220825</v>
+      </c>
+      <c r="B1735" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C1735" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1735">
+        <v>646</v>
+      </c>
+      <c r="E1735" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1735" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1736">
+      <c r="A1736">
+        <v>25010802</v>
+      </c>
+      <c r="B1736" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1736" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1736">
+        <v>1926</v>
+      </c>
+      <c r="E1736" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1736" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1737">
+      <c r="A1737">
+        <v>33541329</v>
+      </c>
+      <c r="B1737" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C1737" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1737">
+        <v>1025</v>
+      </c>
+      <c r="E1737" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1737" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1738">
+      <c r="A1738">
+        <v>32553758</v>
+      </c>
+      <c r="B1738" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C1738" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1738">
+        <v>886</v>
+      </c>
+      <c r="E1738" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1738" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1739">
+      <c r="A1739">
+        <v>3416829</v>
+      </c>
+      <c r="B1739" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C1739" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1739">
+        <v>1067</v>
+      </c>
+      <c r="E1739" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1739" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1740">
+      <c r="A1740">
+        <v>23889957</v>
+      </c>
+      <c r="B1740" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C1740" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1740">
+        <v>1986</v>
+      </c>
+      <c r="E1740" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1740" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1741">
+      <c r="A1741">
+        <v>28810646</v>
+      </c>
+      <c r="B1741" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C1741" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1741">
+        <v>363</v>
+      </c>
+      <c r="E1741" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1741" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1742">
+      <c r="A1742">
+        <v>19095902</v>
+      </c>
+      <c r="B1742" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C1742" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1742">
+        <v>2007</v>
+      </c>
+      <c r="E1742" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1742" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1743">
+      <c r="A1743">
+        <v>29316562</v>
+      </c>
+      <c r="B1743" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C1743" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1743">
+        <v>1399</v>
+      </c>
+      <c r="E1743" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1743" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1744">
+      <c r="A1744">
+        <v>14356532</v>
+      </c>
+      <c r="B1744" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C1744" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1744">
+        <v>732</v>
+      </c>
+      <c r="E1744" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1744" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1745">
+      <c r="A1745">
+        <v>26440948</v>
+      </c>
+      <c r="B1745" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C1745" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1745">
+        <v>1130</v>
+      </c>
+      <c r="E1745" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1745" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1746">
+      <c r="A1746">
+        <v>38954602</v>
+      </c>
+      <c r="B1746" t="str">
+        <v>你是我的万千星辰丨都市虐恋言情丨一刀苏苏精品多人（会员畅听）</v>
+      </c>
+      <c r="C1746" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1746">
+        <v>480</v>
+      </c>
+      <c r="E1746" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1746" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1747">
+      <c r="A1747">
+        <v>37081450</v>
+      </c>
+      <c r="B1747" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C1747" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1747">
+        <v>249</v>
+      </c>
+      <c r="E1747" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1747" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1748">
+      <c r="A1748">
+        <v>17594210</v>
+      </c>
+      <c r="B1748" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C1748" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1748">
+        <v>1066</v>
+      </c>
+      <c r="E1748" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1748" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1749">
+      <c r="A1749">
+        <v>32210809</v>
+      </c>
+      <c r="B1749" t="str">
+        <v>龙王殿|萧阳叶云舒都市精品多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1749" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1749">
+        <v>874</v>
+      </c>
+      <c r="E1749" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1749" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1750">
+      <c r="A1750">
+        <v>23385573</v>
+      </c>
+      <c r="B1750" t="str">
+        <v>女神的布衣兵王【兵王在都市】</v>
+      </c>
+      <c r="C1750" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1750">
+        <v>398</v>
+      </c>
+      <c r="E1750" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1750" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1751">
+      <c r="A1751">
+        <v>31503620</v>
+      </c>
+      <c r="B1751" t="str">
+        <v>都市极品医神｜叶辰夏若雪</v>
+      </c>
+      <c r="C1751" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1751">
+        <v>1915</v>
+      </c>
+      <c r="E1751" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1751" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1752">
+      <c r="A1752">
+        <v>20135114</v>
+      </c>
+      <c r="B1752" t="str">
+        <v>大王饶命（刺儿版）</v>
+      </c>
+      <c r="C1752" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1752">
+        <v>1229</v>
+      </c>
+      <c r="E1752" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1752" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1753">
+      <c r="A1753">
+        <v>36154122</v>
+      </c>
+      <c r="B1753" t="str">
+        <v>我的微信连三界|爆笑双播（幻樱空、妙儿姐）</v>
+      </c>
+      <c r="C1753" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1753">
+        <v>989</v>
+      </c>
+      <c r="E1753" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1753" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1754">
+      <c r="A1754">
+        <v>15966734</v>
+      </c>
+      <c r="B1754" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C1754" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1754">
+        <v>1246</v>
+      </c>
+      <c r="E1754" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1754" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1755">
+      <c r="A1755">
+        <v>11813511</v>
+      </c>
+      <c r="B1755" t="str">
+        <v>最强兵王|福海播讲|北冥出品</v>
+      </c>
+      <c r="C1755" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1755">
+        <v>3835</v>
+      </c>
+      <c r="E1755" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1755" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1756">
+      <c r="A1756">
+        <v>25001000</v>
+      </c>
+      <c r="B1756" t="str">
+        <v>神医毒妃 | 神医嫡女第二部</v>
+      </c>
+      <c r="C1756" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1756">
+        <v>883</v>
+      </c>
+      <c r="E1756" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1756" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1757">
+      <c r="A1757">
+        <v>27249251</v>
+      </c>
+      <c r="B1757" t="str">
+        <v>第一赘婿（都市异能精品双人剧|全勇、竹嘻播）</v>
+      </c>
+      <c r="C1757" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1757">
+        <v>1890</v>
+      </c>
+      <c r="E1757" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1757" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1758">
+      <c r="A1758">
+        <v>35706608</v>
+      </c>
+      <c r="B1758" t="str">
+        <v>快穿之反派又黑化了｜爆笑穿越｜一刀苏苏多人剧</v>
+      </c>
+      <c r="C1758" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1758">
+        <v>895</v>
+      </c>
+      <c r="E1758" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1758" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1759">
+      <c r="A1759">
+        <v>33476331</v>
+      </c>
+      <c r="B1759" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1759" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1759">
+        <v>563</v>
+      </c>
+      <c r="E1759" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1759" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1760">
+      <c r="A1760">
+        <v>32650457</v>
+      </c>
+      <c r="B1760" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1760" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1760">
+        <v>1159</v>
+      </c>
+      <c r="E1760" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1760" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1761">
+      <c r="A1761">
+        <v>31887842</v>
+      </c>
+      <c r="B1761" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1761" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1761">
+        <v>1313</v>
+      </c>
+      <c r="E1761" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1761" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1762">
+      <c r="A1762">
+        <v>34220825</v>
+      </c>
+      <c r="B1762" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C1762" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1762">
+        <v>646</v>
+      </c>
+      <c r="E1762" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1762" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1763">
+      <c r="A1763">
+        <v>25010802</v>
+      </c>
+      <c r="B1763" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1763" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1763">
+        <v>1926</v>
+      </c>
+      <c r="E1763" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1763" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1764">
+      <c r="A1764">
+        <v>33541329</v>
+      </c>
+      <c r="B1764" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C1764" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1764">
+        <v>1025</v>
+      </c>
+      <c r="E1764" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1764" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1765">
+      <c r="A1765">
+        <v>32553758</v>
+      </c>
+      <c r="B1765" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C1765" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1765">
+        <v>886</v>
+      </c>
+      <c r="E1765" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1765" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1766">
+      <c r="A1766">
+        <v>3416829</v>
+      </c>
+      <c r="B1766" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C1766" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1766">
+        <v>1067</v>
+      </c>
+      <c r="E1766" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1766" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1767">
+      <c r="A1767">
+        <v>23889957</v>
+      </c>
+      <c r="B1767" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C1767" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1767">
+        <v>1986</v>
+      </c>
+      <c r="E1767" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1767" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1768">
+      <c r="A1768">
+        <v>28810646</v>
+      </c>
+      <c r="B1768" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C1768" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1768">
+        <v>363</v>
+      </c>
+      <c r="E1768" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1768" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1769">
+      <c r="A1769">
+        <v>19095902</v>
+      </c>
+      <c r="B1769" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C1769" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1769">
+        <v>2007</v>
+      </c>
+      <c r="E1769" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1769" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1770">
+      <c r="A1770">
+        <v>29316562</v>
+      </c>
+      <c r="B1770" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C1770" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1770">
+        <v>1399</v>
+      </c>
+      <c r="E1770" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1770" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1771">
+      <c r="A1771">
+        <v>14356532</v>
+      </c>
+      <c r="B1771" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C1771" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1771">
+        <v>732</v>
+      </c>
+      <c r="E1771" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1771" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1772">
+      <c r="A1772">
+        <v>26440948</v>
+      </c>
+      <c r="B1772" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C1772" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1772">
+        <v>1130</v>
+      </c>
+      <c r="E1772" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1772" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1773">
+      <c r="A1773">
+        <v>38954602</v>
+      </c>
+      <c r="B1773" t="str">
+        <v>你是我的万千星辰丨都市虐恋言情丨一刀苏苏精品多人（会员畅听）</v>
+      </c>
+      <c r="C1773" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1773">
+        <v>480</v>
+      </c>
+      <c r="E1773" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1773" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1774">
+      <c r="A1774">
+        <v>37081450</v>
+      </c>
+      <c r="B1774" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C1774" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1774">
+        <v>249</v>
+      </c>
+      <c r="E1774" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1774" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1775">
+      <c r="A1775">
+        <v>17594210</v>
+      </c>
+      <c r="B1775" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C1775" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1775">
+        <v>1066</v>
+      </c>
+      <c r="E1775" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1775" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1776">
+      <c r="A1776">
+        <v>32210809</v>
+      </c>
+      <c r="B1776" t="str">
+        <v>龙王殿|萧阳叶云舒都市精品多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1776" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1776">
+        <v>874</v>
+      </c>
+      <c r="E1776" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1776" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1777">
+      <c r="A1777">
+        <v>23385573</v>
+      </c>
+      <c r="B1777" t="str">
+        <v>女神的布衣兵王【兵王在都市】</v>
+      </c>
+      <c r="C1777" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1777">
+        <v>398</v>
+      </c>
+      <c r="E1777" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1777" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1778">
+      <c r="A1778">
+        <v>31503620</v>
+      </c>
+      <c r="B1778" t="str">
+        <v>都市极品医神｜叶辰夏若雪</v>
+      </c>
+      <c r="C1778" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1778">
+        <v>1915</v>
+      </c>
+      <c r="E1778" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1778" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1779">
+      <c r="A1779">
+        <v>20135114</v>
+      </c>
+      <c r="B1779" t="str">
+        <v>大王饶命（刺儿版）</v>
+      </c>
+      <c r="C1779" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1779">
+        <v>1229</v>
+      </c>
+      <c r="E1779" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1779" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780">
+        <v>36154122</v>
+      </c>
+      <c r="B1780" t="str">
+        <v>我的微信连三界|爆笑双播（幻樱空、妙儿姐）</v>
+      </c>
+      <c r="C1780" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1780">
+        <v>989</v>
+      </c>
+      <c r="E1780" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1780" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781">
+        <v>15966734</v>
+      </c>
+      <c r="B1781" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C1781" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1781">
+        <v>1246</v>
+      </c>
+      <c r="E1781" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1781" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1782">
+      <c r="A1782">
+        <v>11813511</v>
+      </c>
+      <c r="B1782" t="str">
+        <v>最强兵王|福海播讲|北冥出品</v>
+      </c>
+      <c r="C1782" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1782">
+        <v>3835</v>
+      </c>
+      <c r="E1782" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1782" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1783">
+      <c r="A1783">
+        <v>25001000</v>
+      </c>
+      <c r="B1783" t="str">
+        <v>神医毒妃 | 神医嫡女第二部</v>
+      </c>
+      <c r="C1783" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1783">
+        <v>883</v>
+      </c>
+      <c r="E1783" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1783" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1784">
+      <c r="A1784">
+        <v>27249251</v>
+      </c>
+      <c r="B1784" t="str">
+        <v>第一赘婿（都市异能精品双人剧|全勇、竹嘻播）</v>
+      </c>
+      <c r="C1784" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1784">
+        <v>1890</v>
+      </c>
+      <c r="E1784" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1784" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1785">
+      <c r="A1785">
+        <v>35706608</v>
+      </c>
+      <c r="B1785" t="str">
+        <v>快穿之反派又黑化了｜爆笑穿越｜一刀苏苏多人剧</v>
+      </c>
+      <c r="C1785" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1785">
+        <v>895</v>
+      </c>
+      <c r="E1785" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1785" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1786">
+      <c r="A1786">
+        <v>33476331</v>
+      </c>
+      <c r="B1786" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1786" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1786">
+        <v>573</v>
+      </c>
+      <c r="E1786" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1786" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1787">
+      <c r="A1787">
+        <v>32650457</v>
+      </c>
+      <c r="B1787" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1787" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1787">
+        <v>1184</v>
+      </c>
+      <c r="E1787" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1787" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1788">
+      <c r="A1788">
+        <v>31887842</v>
+      </c>
+      <c r="B1788" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1788" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1788">
+        <v>1338</v>
+      </c>
+      <c r="E1788" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1788" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1789">
+      <c r="A1789">
+        <v>34220825</v>
+      </c>
+      <c r="B1789" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C1789" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1789">
+        <v>661</v>
+      </c>
+      <c r="E1789" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1789" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1790">
+      <c r="A1790">
+        <v>25010802</v>
+      </c>
+      <c r="B1790" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1790" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1790">
+        <v>1934</v>
+      </c>
+      <c r="E1790" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1790" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1791">
+      <c r="A1791">
+        <v>23889957</v>
+      </c>
+      <c r="B1791" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C1791" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1791">
+        <v>2016</v>
+      </c>
+      <c r="E1791" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1791" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1792">
+      <c r="A1792">
+        <v>32553758</v>
+      </c>
+      <c r="B1792" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C1792" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1792">
+        <v>899</v>
+      </c>
+      <c r="E1792" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1792" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793">
+        <v>17594210</v>
+      </c>
+      <c r="B1793" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C1793" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1793">
+        <v>1070</v>
+      </c>
+      <c r="E1793" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1793" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1794">
+      <c r="A1794">
+        <v>33541329</v>
+      </c>
+      <c r="B1794" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C1794" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1794">
+        <v>1045</v>
+      </c>
+      <c r="E1794" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1794" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1795">
+      <c r="A1795">
+        <v>28810646</v>
+      </c>
+      <c r="B1795" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C1795" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1795">
+        <v>378</v>
+      </c>
+      <c r="E1795" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1795" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1796">
+      <c r="A1796">
+        <v>19095902</v>
+      </c>
+      <c r="B1796" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C1796" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1796">
+        <v>2017</v>
+      </c>
+      <c r="E1796" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1796" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1797">
+      <c r="A1797">
+        <v>3416829</v>
+      </c>
+      <c r="B1797" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C1797" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1797">
+        <v>1069</v>
+      </c>
+      <c r="E1797" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1797" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1798">
+      <c r="A1798">
+        <v>26440948</v>
+      </c>
+      <c r="B1798" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C1798" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1798">
+        <v>1160</v>
+      </c>
+      <c r="E1798" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1798" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1799">
+      <c r="A1799">
+        <v>29316562</v>
+      </c>
+      <c r="B1799" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C1799" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1799">
+        <v>1434</v>
+      </c>
+      <c r="E1799" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1799" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1800">
+      <c r="A1800">
+        <v>14356532</v>
+      </c>
+      <c r="B1800" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C1800" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1800">
+        <v>742</v>
+      </c>
+      <c r="E1800" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1800" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1801">
+      <c r="A1801">
+        <v>37081450</v>
+      </c>
+      <c r="B1801" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C1801" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1801">
+        <v>264</v>
+      </c>
+      <c r="E1801" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1801" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802">
+        <v>38954602</v>
+      </c>
+      <c r="B1802" t="str">
+        <v>你是我的万千星辰丨都市虐恋言情丨一刀苏苏精品多人（会员畅听）</v>
+      </c>
+      <c r="C1802" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1802">
+        <v>505</v>
+      </c>
+      <c r="E1802" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1802" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1803">
+      <c r="A1803">
+        <v>31503620</v>
+      </c>
+      <c r="B1803" t="str">
+        <v>都市极品医神｜叶辰夏若雪</v>
+      </c>
+      <c r="C1803" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1803">
+        <v>1940</v>
+      </c>
+      <c r="E1803" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1803" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1804">
+      <c r="A1804">
+        <v>32210809</v>
+      </c>
+      <c r="B1804" t="str">
+        <v>龙王殿|萧阳叶云舒都市精品多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1804" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1804">
+        <v>887</v>
+      </c>
+      <c r="E1804" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1804" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1805">
+      <c r="A1805">
+        <v>15966734</v>
+      </c>
+      <c r="B1805" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C1805" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1805">
+        <v>1251</v>
+      </c>
+      <c r="E1805" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1805" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1806">
+      <c r="A1806">
+        <v>11813511</v>
+      </c>
+      <c r="B1806" t="str">
+        <v>最强兵王|福海播讲|北冥出品</v>
+      </c>
+      <c r="C1806" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1806">
+        <v>3835</v>
+      </c>
+      <c r="E1806" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1806" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1807">
+      <c r="A1807">
+        <v>25001000</v>
+      </c>
+      <c r="B1807" t="str">
+        <v>神医毒妃 | 神医嫡女第二部</v>
+      </c>
+      <c r="C1807" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1807">
+        <v>892</v>
+      </c>
+      <c r="E1807" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1807" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1808">
+      <c r="A1808">
+        <v>25340448</v>
+      </c>
+      <c r="B1808" t="str">
+        <v>民国真实档案记录（VIP免费）</v>
+      </c>
+      <c r="C1808" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1808">
+        <v>839</v>
+      </c>
+      <c r="E1808" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1808" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1809">
+      <c r="A1809">
+        <v>38160002</v>
+      </c>
+      <c r="B1809" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1809" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1809">
+        <v>407</v>
+      </c>
+      <c r="E1809" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1809" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1810">
+      <c r="A1810">
+        <v>37679350</v>
+      </c>
+      <c r="B1810" t="str">
+        <v>听说你喜欢我丨医疗言情多人小说剧（温水&amp;青山领衔）</v>
+      </c>
+      <c r="C1810" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1810">
+        <v>288</v>
+      </c>
+      <c r="E1810" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1810" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1811">
+      <c r="A1811">
+        <v>36154122</v>
+      </c>
+      <c r="B1811" t="str">
+        <v>我的微信连三界|爆笑双播（幻樱空、妙儿姐）</v>
+      </c>
+      <c r="C1811" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1811">
+        <v>1014</v>
+      </c>
+      <c r="E1811" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1811" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812">
+        <v>20135114</v>
+      </c>
+      <c r="B1812" t="str">
+        <v>大王饶命（刺儿版）</v>
+      </c>
+      <c r="C1812" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1812">
+        <v>1235</v>
+      </c>
+      <c r="E1812" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1812" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1813">
+      <c r="A1813">
+        <v>27249251</v>
+      </c>
+      <c r="B1813" t="str">
+        <v>第一赘婿（都市异能精品双人剧|全勇、竹嘻播）</v>
+      </c>
+      <c r="C1813" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1813">
+        <v>1913</v>
+      </c>
+      <c r="E1813" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1813" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1814">
+      <c r="A1814">
+        <v>18710779</v>
+      </c>
+      <c r="B1814" t="str">
+        <v>狗一样的江湖｜东北往事黑道风云</v>
+      </c>
+      <c r="C1814" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1814">
+        <v>697</v>
+      </c>
+      <c r="E1814" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1814" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1815">
+      <c r="A1815">
+        <v>35706608</v>
+      </c>
+      <c r="B1815" t="str">
+        <v>快穿之反派又黑化了｜爆笑穿越｜一刀苏苏多人剧</v>
+      </c>
+      <c r="C1815" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1815">
+        <v>920</v>
+      </c>
+      <c r="E1815" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1815" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1816">
+      <c r="A1816">
+        <v>38094235</v>
+      </c>
+      <c r="B1816" t="str">
+        <v>先婚后爱：楚少慢慢来（专宠）</v>
+      </c>
+      <c r="C1816" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1816">
+        <v>218</v>
+      </c>
+      <c r="E1816" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1816" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817">
+        <v>36765062</v>
+      </c>
+      <c r="B1817" t="str">
+        <v>爆更|末世大回炉（热血重生）</v>
+      </c>
+      <c r="C1817" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1817">
+        <v>741</v>
+      </c>
+      <c r="E1817" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1817" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1818">
+      <c r="A1818">
+        <v>23385573</v>
+      </c>
+      <c r="B1818" t="str">
+        <v>女神的布衣兵王【兵王在都市】</v>
+      </c>
+      <c r="C1818" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1818">
+        <v>403</v>
+      </c>
+      <c r="E1818" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1818" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1819">
+      <c r="A1819">
+        <v>24671709</v>
+      </c>
+      <c r="B1819" t="str">
+        <v>末日蟑螂丨末世鼻祖</v>
+      </c>
+      <c r="C1819" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1819">
+        <v>1505</v>
+      </c>
+      <c r="E1819" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1819" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1820">
+      <c r="A1820">
+        <v>24645711</v>
+      </c>
+      <c r="B1820" t="str">
+        <v>我有一座冒险屋（精编完整版）</v>
+      </c>
+      <c r="C1820" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1820">
+        <v>1089</v>
+      </c>
+      <c r="E1820" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1820" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821">
+        <v>13180603</v>
+      </c>
+      <c r="B1821" t="str">
+        <v>带着仓库到大明</v>
+      </c>
+      <c r="C1821" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1821">
+        <v>1251</v>
+      </c>
+      <c r="E1821" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1821" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1822">
+      <c r="A1822">
+        <v>16636827</v>
+      </c>
+      <c r="B1822" t="str">
+        <v>我的微信连三界（爆笑红包系统文）</v>
+      </c>
+      <c r="C1822" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1822">
+        <v>2707</v>
+      </c>
+      <c r="E1822" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1822" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1823">
+      <c r="A1823">
+        <v>25455385</v>
+      </c>
+      <c r="B1823" t="str">
+        <v>最强系统【头陀渊&amp;小桃红】搞笑</v>
+      </c>
+      <c r="C1823" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1823">
+        <v>910</v>
+      </c>
+      <c r="E1823" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1823" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1824">
+      <c r="A1824">
+        <v>17581384</v>
+      </c>
+      <c r="B1824" t="str">
+        <v>风水有术（铁锁玄学作品，丸子播讲）</v>
+      </c>
+      <c r="C1824" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1824">
+        <v>2428</v>
+      </c>
+      <c r="E1824" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1824" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1825">
+      <c r="A1825">
+        <v>38356779</v>
+      </c>
+      <c r="B1825" t="str">
+        <v>万界武神（逆天改命，我主沉浮）</v>
+      </c>
+      <c r="C1825" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1825">
+        <v>402</v>
+      </c>
+      <c r="E1825" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1825" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826">
+        <v>12517524</v>
+      </c>
+      <c r="B1826" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1826" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1826">
+        <v>128</v>
+      </c>
+      <c r="E1826" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1826" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1827">
+      <c r="A1827">
+        <v>33476331</v>
+      </c>
+      <c r="B1827" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1827" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1827">
+        <v>581</v>
+      </c>
+      <c r="E1827" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1827" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1828">
+      <c r="A1828">
+        <v>32650457</v>
+      </c>
+      <c r="B1828" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1828" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1828">
+        <v>1204</v>
+      </c>
+      <c r="E1828" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1828" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1829">
+      <c r="A1829">
+        <v>31887842</v>
+      </c>
+      <c r="B1829" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1829" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1829">
+        <v>1358</v>
+      </c>
+      <c r="E1829" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1829" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1830">
+      <c r="A1830">
+        <v>34220825</v>
+      </c>
+      <c r="B1830" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C1830" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1830">
+        <v>673</v>
+      </c>
+      <c r="E1830" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1830" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831">
+        <v>23889957</v>
+      </c>
+      <c r="B1831" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C1831" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1831">
+        <v>2036</v>
+      </c>
+      <c r="E1831" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1831" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1832">
+      <c r="A1832">
+        <v>25010802</v>
+      </c>
+      <c r="B1832" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1832" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1832">
+        <v>1944</v>
+      </c>
+      <c r="E1832" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1832" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1833">
+      <c r="A1833">
+        <v>32553758</v>
+      </c>
+      <c r="B1833" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C1833" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1833">
+        <v>911</v>
+      </c>
+      <c r="E1833" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1833" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1834">
+      <c r="A1834">
+        <v>17594210</v>
+      </c>
+      <c r="B1834" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C1834" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1834">
+        <v>1075</v>
+      </c>
+      <c r="E1834" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1834" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1835">
+      <c r="A1835">
+        <v>19095902</v>
+      </c>
+      <c r="B1835" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C1835" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1835">
+        <v>2025</v>
+      </c>
+      <c r="E1835" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1835" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836">
+        <v>33541329</v>
+      </c>
+      <c r="B1836" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C1836" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1836">
+        <v>1070</v>
+      </c>
+      <c r="E1836" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1836" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1837">
+      <c r="A1837">
+        <v>26440948</v>
+      </c>
+      <c r="B1837" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C1837" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1837">
+        <v>1184</v>
+      </c>
+      <c r="E1837" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1837" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1838">
+      <c r="A1838">
+        <v>3416829</v>
+      </c>
+      <c r="B1838" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C1838" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1838">
+        <v>1071</v>
+      </c>
+      <c r="E1838" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1838" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1839">
+      <c r="A1839">
+        <v>28810646</v>
+      </c>
+      <c r="B1839" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C1839" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1839">
+        <v>390</v>
+      </c>
+      <c r="E1839" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1839" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1840">
+      <c r="A1840">
+        <v>29316562</v>
+      </c>
+      <c r="B1840" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C1840" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1840">
+        <v>1454</v>
+      </c>
+      <c r="E1840" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1840" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841">
+        <v>39361268</v>
+      </c>
+      <c r="B1841" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C1841" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1841">
+        <v>381</v>
+      </c>
+      <c r="E1841" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1841" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1842">
+      <c r="A1842">
+        <v>14356532</v>
+      </c>
+      <c r="B1842" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C1842" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1842">
+        <v>749</v>
+      </c>
+      <c r="E1842" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1842" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1843">
+      <c r="A1843">
+        <v>37081450</v>
+      </c>
+      <c r="B1843" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C1843" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1843">
+        <v>276</v>
+      </c>
+      <c r="E1843" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1843" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1844">
+      <c r="A1844">
+        <v>38160002</v>
+      </c>
+      <c r="B1844" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1844" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1844">
+        <v>415</v>
+      </c>
+      <c r="E1844" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1844" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1845">
+      <c r="A1845">
+        <v>38954602</v>
+      </c>
+      <c r="B1845" t="str">
+        <v>你是我的万千星辰丨都市虐恋言情丨一刀苏苏精品多人（会员畅听）</v>
+      </c>
+      <c r="C1845" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1845">
+        <v>540</v>
+      </c>
+      <c r="E1845" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1845" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846">
+        <v>25001000</v>
+      </c>
+      <c r="B1846" t="str">
+        <v>神医毒妃 | 神医嫡女第二部</v>
+      </c>
+      <c r="C1846" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1846">
+        <v>900</v>
+      </c>
+      <c r="E1846" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1846" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1847">
+      <c r="A1847">
+        <v>32210809</v>
+      </c>
+      <c r="B1847" t="str">
+        <v>龙王殿|萧阳叶云舒都市精品多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1847" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1847">
+        <v>899</v>
+      </c>
+      <c r="E1847" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1847" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1848">
+      <c r="A1848">
+        <v>31503620</v>
+      </c>
+      <c r="B1848" t="str">
+        <v>都市极品医神｜叶辰夏若雪</v>
+      </c>
+      <c r="C1848" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1848">
+        <v>1965</v>
+      </c>
+      <c r="E1848" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1848" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1849">
+      <c r="A1849">
+        <v>11813511</v>
+      </c>
+      <c r="B1849" t="str">
+        <v>最强兵王|福海播讲|北冥出品</v>
+      </c>
+      <c r="C1849" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1849">
+        <v>3835</v>
+      </c>
+      <c r="E1849" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1849" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1850">
+      <c r="A1850">
+        <v>15966734</v>
+      </c>
+      <c r="B1850" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C1850" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1850">
+        <v>1256</v>
+      </c>
+      <c r="E1850" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1850" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851">
+        <v>25340448</v>
+      </c>
+      <c r="B1851" t="str">
+        <v>民国真实档案记录（VIP免费）</v>
+      </c>
+      <c r="C1851" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1851">
+        <v>843</v>
+      </c>
+      <c r="E1851" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1851" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1852">
+      <c r="A1852">
+        <v>27249251</v>
+      </c>
+      <c r="B1852" t="str">
+        <v>第一赘婿（都市异能精品双人剧|全勇、竹嘻播）</v>
+      </c>
+      <c r="C1852" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1852">
+        <v>1933</v>
+      </c>
+      <c r="E1852" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1852" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1853">
+      <c r="A1853">
+        <v>36154122</v>
+      </c>
+      <c r="B1853" t="str">
+        <v>我的微信连三界|爆笑双播（幻樱空、妙儿姐）</v>
+      </c>
+      <c r="C1853" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1853">
+        <v>1034</v>
+      </c>
+      <c r="E1853" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1853" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1854">
+      <c r="A1854">
+        <v>20135114</v>
+      </c>
+      <c r="B1854" t="str">
+        <v>大王饶命（刺儿版）</v>
+      </c>
+      <c r="C1854" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1854">
+        <v>1245</v>
+      </c>
+      <c r="E1854" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1854" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855">
+        <v>35706608</v>
+      </c>
+      <c r="B1855" t="str">
+        <v>快穿之反派又黑化了｜爆笑穿越｜一刀苏苏多人剧</v>
+      </c>
+      <c r="C1855" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1855">
+        <v>940</v>
+      </c>
+      <c r="E1855" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1855" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1856">
+      <c r="A1856">
+        <v>36765062</v>
+      </c>
+      <c r="B1856" t="str">
+        <v>爆更|末世大回炉（热血重生）</v>
+      </c>
+      <c r="C1856" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1856">
+        <v>773</v>
+      </c>
+      <c r="E1856" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1856" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1857">
+      <c r="A1857">
+        <v>16636827</v>
+      </c>
+      <c r="B1857" t="str">
+        <v>我的微信连三界（爆笑红包系统文）</v>
+      </c>
+      <c r="C1857" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1857">
+        <v>2723</v>
+      </c>
+      <c r="E1857" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1857" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1858">
+      <c r="A1858">
+        <v>25455385</v>
+      </c>
+      <c r="B1858" t="str">
+        <v>最强系统【头陀渊&amp;小桃红】搞笑</v>
+      </c>
+      <c r="C1858" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1858">
+        <v>918</v>
+      </c>
+      <c r="E1858" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1858" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1859">
+      <c r="A1859">
+        <v>24671709</v>
+      </c>
+      <c r="B1859" t="str">
+        <v>末日蟑螂丨末世鼻祖</v>
+      </c>
+      <c r="C1859" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1859">
+        <v>1517</v>
+      </c>
+      <c r="E1859" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1859" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1860">
+      <c r="A1860">
+        <v>23385573</v>
+      </c>
+      <c r="B1860" t="str">
+        <v>女神的布衣兵王【兵王在都市】</v>
+      </c>
+      <c r="C1860" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1860">
+        <v>407</v>
+      </c>
+      <c r="E1860" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1860" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1861">
+      <c r="A1861">
+        <v>24645711</v>
+      </c>
+      <c r="B1861" t="str">
+        <v>我有一座冒险屋（精编完整版）</v>
+      </c>
+      <c r="C1861" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1861">
+        <v>1093</v>
+      </c>
+      <c r="E1861" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1861" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1862">
+      <c r="A1862">
+        <v>33476331</v>
+      </c>
+      <c r="B1862" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1862" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1862">
+        <v>581</v>
+      </c>
+      <c r="E1862" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1862" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1863">
+      <c r="A1863">
+        <v>32650457</v>
+      </c>
+      <c r="B1863" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1863" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1863">
+        <v>1204</v>
+      </c>
+      <c r="E1863" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1863" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1864">
+      <c r="A1864">
+        <v>31887842</v>
+      </c>
+      <c r="B1864" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1864" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1864">
+        <v>1358</v>
+      </c>
+      <c r="E1864" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1864" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1865">
+      <c r="A1865">
+        <v>34220825</v>
+      </c>
+      <c r="B1865" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C1865" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1865">
+        <v>673</v>
+      </c>
+      <c r="E1865" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1865" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1866">
+      <c r="A1866">
+        <v>23889957</v>
+      </c>
+      <c r="B1866" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C1866" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1866">
+        <v>2036</v>
+      </c>
+      <c r="E1866" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1866" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1867">
+      <c r="A1867">
+        <v>25010802</v>
+      </c>
+      <c r="B1867" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1867" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1867">
+        <v>1944</v>
+      </c>
+      <c r="E1867" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1867" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1868">
+      <c r="A1868">
+        <v>32553758</v>
+      </c>
+      <c r="B1868" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C1868" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1868">
+        <v>911</v>
+      </c>
+      <c r="E1868" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1868" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1869">
+      <c r="A1869">
+        <v>17594210</v>
+      </c>
+      <c r="B1869" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C1869" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1869">
+        <v>1075</v>
+      </c>
+      <c r="E1869" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1869" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1870">
+      <c r="A1870">
+        <v>19095902</v>
+      </c>
+      <c r="B1870" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C1870" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1870">
+        <v>2025</v>
+      </c>
+      <c r="E1870" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1870" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1871">
+      <c r="A1871">
+        <v>33541329</v>
+      </c>
+      <c r="B1871" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C1871" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1871">
+        <v>1070</v>
+      </c>
+      <c r="E1871" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1871" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1872">
+      <c r="A1872">
+        <v>26440948</v>
+      </c>
+      <c r="B1872" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C1872" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1872">
+        <v>1184</v>
+      </c>
+      <c r="E1872" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1872" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1873">
+      <c r="A1873">
+        <v>3416829</v>
+      </c>
+      <c r="B1873" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C1873" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1873">
+        <v>1071</v>
+      </c>
+      <c r="E1873" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1873" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1874">
+      <c r="A1874">
+        <v>28810646</v>
+      </c>
+      <c r="B1874" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C1874" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1874">
+        <v>390</v>
+      </c>
+      <c r="E1874" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1874" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1875">
+      <c r="A1875">
+        <v>29316562</v>
+      </c>
+      <c r="B1875" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C1875" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1875">
+        <v>1454</v>
+      </c>
+      <c r="E1875" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1875" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1876">
+      <c r="A1876">
+        <v>39361268</v>
+      </c>
+      <c r="B1876" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C1876" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1876">
+        <v>381</v>
+      </c>
+      <c r="E1876" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1876" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1877">
+      <c r="A1877">
+        <v>14356532</v>
+      </c>
+      <c r="B1877" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C1877" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1877">
+        <v>749</v>
+      </c>
+      <c r="E1877" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1877" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1878">
+      <c r="A1878">
+        <v>37081450</v>
+      </c>
+      <c r="B1878" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C1878" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1878">
+        <v>276</v>
+      </c>
+      <c r="E1878" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1878" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1879">
+      <c r="A1879">
+        <v>38160002</v>
+      </c>
+      <c r="B1879" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1879" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1879">
+        <v>415</v>
+      </c>
+      <c r="E1879" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1879" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1880">
+      <c r="A1880">
+        <v>38954602</v>
+      </c>
+      <c r="B1880" t="str">
+        <v>你是我的万千星辰丨都市虐恋言情丨一刀苏苏精品多人（会员畅听）</v>
+      </c>
+      <c r="C1880" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1880">
+        <v>540</v>
+      </c>
+      <c r="E1880" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1880" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1881">
+      <c r="A1881">
+        <v>25001000</v>
+      </c>
+      <c r="B1881" t="str">
+        <v>神医毒妃 | 神医嫡女第二部</v>
+      </c>
+      <c r="C1881" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1881">
+        <v>900</v>
+      </c>
+      <c r="E1881" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1881" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1882">
+      <c r="A1882">
+        <v>32210809</v>
+      </c>
+      <c r="B1882" t="str">
+        <v>龙王殿|萧阳叶云舒都市精品多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1882" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1882">
+        <v>899</v>
+      </c>
+      <c r="E1882" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1882" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1883">
+      <c r="A1883">
+        <v>31503620</v>
+      </c>
+      <c r="B1883" t="str">
+        <v>都市极品医神｜叶辰夏若雪</v>
+      </c>
+      <c r="C1883" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1883">
+        <v>1965</v>
+      </c>
+      <c r="E1883" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1883" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1884">
+      <c r="A1884">
+        <v>11813511</v>
+      </c>
+      <c r="B1884" t="str">
+        <v>最强兵王|福海播讲|北冥出品</v>
+      </c>
+      <c r="C1884" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1884">
+        <v>3835</v>
+      </c>
+      <c r="E1884" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1884" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1885">
+      <c r="A1885">
+        <v>15966734</v>
+      </c>
+      <c r="B1885" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C1885" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1885">
+        <v>1256</v>
+      </c>
+      <c r="E1885" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1885" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1886">
+      <c r="A1886">
+        <v>25340448</v>
+      </c>
+      <c r="B1886" t="str">
+        <v>民国真实档案记录（VIP免费）</v>
+      </c>
+      <c r="C1886" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1886">
+        <v>843</v>
+      </c>
+      <c r="E1886" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1886" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1887">
+      <c r="A1887">
+        <v>27249251</v>
+      </c>
+      <c r="B1887" t="str">
+        <v>第一赘婿（都市异能精品双人剧|全勇、竹嘻播）</v>
+      </c>
+      <c r="C1887" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1887">
+        <v>1933</v>
+      </c>
+      <c r="E1887" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1887" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1888">
+      <c r="A1888">
+        <v>36154122</v>
+      </c>
+      <c r="B1888" t="str">
+        <v>我的微信连三界|爆笑双播（幻樱空、妙儿姐）</v>
+      </c>
+      <c r="C1888" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1888">
+        <v>1034</v>
+      </c>
+      <c r="E1888" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1888" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1889">
+      <c r="A1889">
+        <v>20135114</v>
+      </c>
+      <c r="B1889" t="str">
+        <v>大王饶命（刺儿版）</v>
+      </c>
+      <c r="C1889" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1889">
+        <v>1245</v>
+      </c>
+      <c r="E1889" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1889" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1890">
+      <c r="A1890">
+        <v>35706608</v>
+      </c>
+      <c r="B1890" t="str">
+        <v>快穿之反派又黑化了｜爆笑穿越｜一刀苏苏多人剧</v>
+      </c>
+      <c r="C1890" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1890">
+        <v>940</v>
+      </c>
+      <c r="E1890" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1890" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1891">
+      <c r="A1891">
+        <v>36765062</v>
+      </c>
+      <c r="B1891" t="str">
+        <v>爆更|末世大回炉（热血重生）</v>
+      </c>
+      <c r="C1891" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1891">
+        <v>773</v>
+      </c>
+      <c r="E1891" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1891" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1892">
+      <c r="A1892">
+        <v>16636827</v>
+      </c>
+      <c r="B1892" t="str">
+        <v>我的微信连三界（爆笑红包系统文）</v>
+      </c>
+      <c r="C1892" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1892">
+        <v>2723</v>
+      </c>
+      <c r="E1892" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1892" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1893">
+      <c r="A1893">
+        <v>25455385</v>
+      </c>
+      <c r="B1893" t="str">
+        <v>最强系统【头陀渊&amp;小桃红】搞笑</v>
+      </c>
+      <c r="C1893" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1893">
+        <v>918</v>
+      </c>
+      <c r="E1893" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1893" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1894">
+      <c r="A1894">
+        <v>24671709</v>
+      </c>
+      <c r="B1894" t="str">
+        <v>末日蟑螂丨末世鼻祖</v>
+      </c>
+      <c r="C1894" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1894">
+        <v>1517</v>
+      </c>
+      <c r="E1894" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1894" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1895">
+      <c r="A1895">
+        <v>23385573</v>
+      </c>
+      <c r="B1895" t="str">
+        <v>女神的布衣兵王【兵王在都市】</v>
+      </c>
+      <c r="C1895" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1895">
+        <v>407</v>
+      </c>
+      <c r="E1895" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1895" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1896">
+      <c r="A1896">
+        <v>24645711</v>
+      </c>
+      <c r="B1896" t="str">
+        <v>我有一座冒险屋（精编完整版）</v>
+      </c>
+      <c r="C1896" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1896">
+        <v>1093</v>
+      </c>
+      <c r="E1896" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1896" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1897">
+      <c r="A1897">
+        <v>19232895</v>
+      </c>
+      <c r="B1897" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1897" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1897">
+        <v>1605</v>
+      </c>
+      <c r="E1897" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1897" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1898">
+      <c r="A1898">
+        <v>23632774</v>
+      </c>
+      <c r="B1898" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1898" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1898">
+        <v>261</v>
+      </c>
+      <c r="E1898" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1898" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1899">
+      <c r="A1899">
+        <v>35582881</v>
+      </c>
+      <c r="B1899" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1899" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1899">
+        <v>297</v>
+      </c>
+      <c r="E1899" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1899" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1900">
+      <c r="A1900">
+        <v>32267812</v>
+      </c>
+      <c r="B1900" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1900" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1900">
+        <v>204</v>
+      </c>
+      <c r="E1900" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1900" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1901">
+      <c r="A1901">
+        <v>23625885</v>
+      </c>
+      <c r="B1901" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C1901" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1901">
+        <v>793</v>
+      </c>
+      <c r="E1901" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1901" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1902">
+      <c r="A1902">
+        <v>28756500</v>
+      </c>
+      <c r="B1902" t="str">
+        <v>《绝密档案》深夜调查局|200+尘封的未解之谜</v>
+      </c>
+      <c r="C1902" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1902">
+        <v>201</v>
+      </c>
+      <c r="E1902" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1902" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1903">
+      <c r="A1903">
+        <v>26890897</v>
+      </c>
+      <c r="B1903" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1903" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1903">
+        <v>235</v>
+      </c>
+      <c r="E1903" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1903" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1904">
+      <c r="A1904">
+        <v>10989065</v>
+      </c>
+      <c r="B1904" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1904" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1904">
+        <v>202</v>
+      </c>
+      <c r="E1904" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1904" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1905">
+      <c r="A1905">
+        <v>35516850</v>
+      </c>
+      <c r="B1905" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C1905" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1905">
+        <v>240</v>
+      </c>
+      <c r="E1905" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1905" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1906">
+      <c r="A1906">
+        <v>25482236</v>
+      </c>
+      <c r="B1906" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1906" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1906">
+        <v>236</v>
+      </c>
+      <c r="E1906" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1906" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1907">
+      <c r="A1907">
+        <v>39016657</v>
+      </c>
+      <c r="B1907" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C1907" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1907">
+        <v>160</v>
+      </c>
+      <c r="E1907" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1907" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1908">
+      <c r="A1908">
+        <v>23550058</v>
+      </c>
+      <c r="B1908" t="str">
+        <v>精读1000本全球好书【日更】心理罪、人类简史、墨菲定律等</v>
+      </c>
+      <c r="C1908" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1908">
+        <v>501</v>
+      </c>
+      <c r="E1908" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1908" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1909">
+      <c r="A1909">
+        <v>5445798</v>
+      </c>
+      <c r="B1909" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C1909" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1909">
+        <v>234</v>
+      </c>
+      <c r="E1909" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1909" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1910">
+      <c r="A1910">
+        <v>18982940</v>
+      </c>
+      <c r="B1910" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C1910" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1910">
+        <v>101</v>
+      </c>
+      <c r="E1910" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1910" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1911">
+      <c r="A1911">
+        <v>23633996</v>
+      </c>
+      <c r="B1911" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C1911" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1911">
+        <v>136</v>
+      </c>
+      <c r="E1911" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1911" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1912">
+      <c r="A1912">
+        <v>23633570</v>
+      </c>
+      <c r="B1912" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C1912" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1912">
+        <v>144</v>
+      </c>
+      <c r="E1912" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1912" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1913">
+      <c r="A1913">
+        <v>23633187</v>
+      </c>
+      <c r="B1913" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C1913" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1913">
+        <v>137</v>
+      </c>
+      <c r="E1913" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1913" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1914">
+      <c r="A1914">
+        <v>36387482</v>
+      </c>
+      <c r="B1914" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C1914" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1914">
+        <v>161</v>
+      </c>
+      <c r="E1914" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1914" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1915">
+      <c r="A1915">
+        <v>23633842</v>
+      </c>
+      <c r="B1915" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C1915" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1915">
+        <v>118</v>
+      </c>
+      <c r="E1915" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1915" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1916">
+      <c r="A1916">
+        <v>30362073</v>
+      </c>
+      <c r="B1916" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C1916" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1916">
+        <v>105</v>
+      </c>
+      <c r="E1916" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1916" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1917">
+      <c r="A1917">
+        <v>35454435</v>
+      </c>
+      <c r="B1917" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C1917" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1917">
+        <v>167</v>
+      </c>
+      <c r="E1917" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1917" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1918">
+      <c r="A1918">
+        <v>39885016</v>
+      </c>
+      <c r="B1918" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C1918" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1918">
+        <v>145</v>
+      </c>
+      <c r="E1918" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1918" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1919">
+      <c r="A1919">
+        <v>39643145</v>
+      </c>
+      <c r="B1919" t="str">
+        <v>孙子兵法三十六计智谋全解（全译全注解读版） | 历代奇谋方略</v>
+      </c>
+      <c r="C1919" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1919">
+        <v>131</v>
+      </c>
+      <c r="E1919" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1919" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1920">
+      <c r="A1920">
+        <v>14561753</v>
+      </c>
+      <c r="B1920" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C1920" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1920">
+        <v>127</v>
+      </c>
+      <c r="E1920" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1920" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1921">
+      <c r="A1921">
+        <v>12517524</v>
+      </c>
+      <c r="B1921" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1921" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1921">
+        <v>129</v>
+      </c>
+      <c r="E1921" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1921" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1922">
+      <c r="A1922">
+        <v>12517524</v>
+      </c>
+      <c r="B1922" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1922" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1922">
+        <v>129</v>
+      </c>
+      <c r="E1922" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1922" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1923">
+      <c r="A1923">
+        <v>40610230</v>
+      </c>
+      <c r="B1923" t="str">
+        <v>魏晋风华：轻松读懂《世说新语》</v>
+      </c>
+      <c r="C1923" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1923">
+        <v>101</v>
+      </c>
+      <c r="E1923" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1923" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1924">
+      <c r="A1924">
+        <v>25488931</v>
+      </c>
+      <c r="B1924" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C1924" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1924">
+        <v>131</v>
+      </c>
+      <c r="E1924" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1924" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F1592"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1924"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F1924"/>
+  <dimension ref="A1:F2019"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -38860,9 +38860,1909 @@
         <v>否</v>
       </c>
     </row>
+    <row r="1925">
+      <c r="A1925">
+        <v>37304112</v>
+      </c>
+      <c r="B1925" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C1925" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1925">
+        <v>142</v>
+      </c>
+      <c r="E1925" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1925" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1926">
+      <c r="A1926">
+        <v>6693171</v>
+      </c>
+      <c r="B1926" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C1926" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1926">
+        <v>106</v>
+      </c>
+      <c r="E1926" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1926" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1927">
+      <c r="A1927">
+        <v>16166114</v>
+      </c>
+      <c r="B1927" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C1927" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1927">
+        <v>140</v>
+      </c>
+      <c r="E1927" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1927" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1928">
+      <c r="A1928">
+        <v>12424955</v>
+      </c>
+      <c r="B1928" t="str">
+        <v>一听就懂的《易经》</v>
+      </c>
+      <c r="C1928" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1928">
+        <v>107</v>
+      </c>
+      <c r="E1928" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1928" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1929">
+      <c r="A1929">
+        <v>11594109</v>
+      </c>
+      <c r="B1929" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1929" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1929">
+        <v>314</v>
+      </c>
+      <c r="E1929" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1929" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1930">
+      <c r="A1930">
+        <v>18923338</v>
+      </c>
+      <c r="B1930" t="str">
+        <v>罪咒 | 悬疑侦探剧</v>
+      </c>
+      <c r="C1930" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1930">
+        <v>236</v>
+      </c>
+      <c r="E1930" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F1930" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1931">
+      <c r="A1931">
+        <v>38419496</v>
+      </c>
+      <c r="B1931" t="str">
+        <v>【限时免费】财商精品课</v>
+      </c>
+      <c r="C1931" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1931">
+        <v>209</v>
+      </c>
+      <c r="E1931" t="str">
+        <v>教育培训</v>
+      </c>
+      <c r="F1931" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1932">
+      <c r="A1932">
+        <v>33476331</v>
+      </c>
+      <c r="B1932" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1932" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1932">
+        <v>581</v>
+      </c>
+      <c r="E1932" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1932" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1933">
+      <c r="A1933">
+        <v>35574131</v>
+      </c>
+      <c r="B1933" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C1933" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1933">
+        <v>238</v>
+      </c>
+      <c r="E1933" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1933" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1934">
+      <c r="A1934">
+        <v>19232895</v>
+      </c>
+      <c r="B1934" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C1934" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1934">
+        <v>1605</v>
+      </c>
+      <c r="E1934" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1934" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1935">
+      <c r="A1935">
+        <v>27505286</v>
+      </c>
+      <c r="B1935" t="str">
+        <v>刑警803【900集 每日双更】</v>
+      </c>
+      <c r="C1935" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1935">
+        <v>912</v>
+      </c>
+      <c r="E1935" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F1935" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1936">
+      <c r="A1936">
+        <v>35356646</v>
+      </c>
+      <c r="B1936" t="str">
+        <v>神奇校车冒险故事【桥梁书版】</v>
+      </c>
+      <c r="C1936" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1936">
+        <v>230</v>
+      </c>
+      <c r="E1936" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1936" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1937">
+      <c r="A1937">
+        <v>22814062</v>
+      </c>
+      <c r="B1937" t="str">
+        <v>鬼话三国(贯穿封神西游上古神话)</v>
+      </c>
+      <c r="C1937" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1937">
+        <v>270</v>
+      </c>
+      <c r="E1937" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1937" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1938">
+      <c r="A1938">
+        <v>30416480</v>
+      </c>
+      <c r="B1938" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1938" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1938">
+        <v>272</v>
+      </c>
+      <c r="E1938" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1938" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1939">
+      <c r="A1939">
+        <v>23632774</v>
+      </c>
+      <c r="B1939" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C1939" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1939">
+        <v>261</v>
+      </c>
+      <c r="E1939" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1939" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1940">
+      <c r="A1940">
+        <v>4651578</v>
+      </c>
+      <c r="B1940" t="str">
+        <v>穿越异世界|我和公主有一腿</v>
+      </c>
+      <c r="C1940" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1940">
+        <v>624</v>
+      </c>
+      <c r="E1940" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1940" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1941">
+      <c r="A1941">
+        <v>19003298</v>
+      </c>
+      <c r="B1941" t="str">
+        <v>永恒的边缘：冷战的权力游戏</v>
+      </c>
+      <c r="C1941" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1941">
+        <v>331</v>
+      </c>
+      <c r="E1941" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1941" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1942">
+      <c r="A1942">
+        <v>32038799</v>
+      </c>
+      <c r="B1942" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1942" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1942">
+        <v>302</v>
+      </c>
+      <c r="E1942" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1942" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1943">
+      <c r="A1943">
+        <v>35582881</v>
+      </c>
+      <c r="B1943" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C1943" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1943">
+        <v>297</v>
+      </c>
+      <c r="E1943" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1943" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1944">
+      <c r="A1944">
+        <v>8645052</v>
+      </c>
+      <c r="B1944" t="str">
+        <v>评书版-斗破苍穹【与现场同步】</v>
+      </c>
+      <c r="C1944" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1944">
+        <v>318</v>
+      </c>
+      <c r="E1944" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1944" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1945">
+      <c r="A1945">
+        <v>11438153</v>
+      </c>
+      <c r="B1945" t="str">
+        <v>郭论·郭德纲品俗文化史</v>
+      </c>
+      <c r="C1945" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1945">
+        <v>161</v>
+      </c>
+      <c r="E1945" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1945" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1946">
+      <c r="A1946">
+        <v>39394985</v>
+      </c>
+      <c r="B1946" t="str">
+        <v>火影：从双神威开始 |精品多人剧</v>
+      </c>
+      <c r="C1946" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1946">
+        <v>225</v>
+      </c>
+      <c r="E1946" t="str">
+        <v>二次元</v>
+      </c>
+      <c r="F1946" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1947">
+      <c r="A1947">
+        <v>38128064</v>
+      </c>
+      <c r="B1947" t="str">
+        <v>LOL之养爹系统 | 英雄联盟精品多人剧</v>
+      </c>
+      <c r="C1947" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1947">
+        <v>334</v>
+      </c>
+      <c r="E1947" t="str">
+        <v>二次元</v>
+      </c>
+      <c r="F1947" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1948">
+      <c r="A1948">
+        <v>22114507</v>
+      </c>
+      <c r="B1948" t="str">
+        <v>大力丸儿多人有声剧：百部小说里的中国史</v>
+      </c>
+      <c r="C1948" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1948">
+        <v>220</v>
+      </c>
+      <c r="E1948" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1948" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1949">
+      <c r="A1949">
+        <v>32267812</v>
+      </c>
+      <c r="B1949" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C1949" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1949">
+        <v>204</v>
+      </c>
+      <c r="E1949" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1949" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1950">
+      <c r="A1950">
+        <v>24675766</v>
+      </c>
+      <c r="B1950" t="str">
+        <v>东北民间轶事</v>
+      </c>
+      <c r="C1950" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1950">
+        <v>304</v>
+      </c>
+      <c r="E1950" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1950" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1951">
+      <c r="A1951">
+        <v>30917190</v>
+      </c>
+      <c r="B1951" t="str">
+        <v>三侠五义｜ 邵军荣书场</v>
+      </c>
+      <c r="C1951" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1951">
+        <v>317</v>
+      </c>
+      <c r="E1951" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1951" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1952">
+      <c r="A1952">
+        <v>32040440</v>
+      </c>
+      <c r="B1952" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1952" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1952">
+        <v>279</v>
+      </c>
+      <c r="E1952" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1952" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1953">
+      <c r="A1953">
+        <v>32541372</v>
+      </c>
+      <c r="B1953" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1953" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1953">
+        <v>326</v>
+      </c>
+      <c r="E1953" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1953" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1954">
+      <c r="A1954">
+        <v>23625885</v>
+      </c>
+      <c r="B1954" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C1954" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1954">
+        <v>793</v>
+      </c>
+      <c r="E1954" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1954" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1955">
+      <c r="A1955">
+        <v>29293434</v>
+      </c>
+      <c r="B1955" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1955" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1955">
+        <v>224</v>
+      </c>
+      <c r="E1955" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1955" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1956">
+      <c r="A1956">
+        <v>33559480</v>
+      </c>
+      <c r="B1956" t="str">
+        <v>三国演义丨王寿成作品</v>
+      </c>
+      <c r="C1956" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1956">
+        <v>301</v>
+      </c>
+      <c r="E1956" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1956" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1957">
+      <c r="A1957">
+        <v>16783482</v>
+      </c>
+      <c r="B1957" t="str">
+        <v>暖房子有声绘本馆</v>
+      </c>
+      <c r="C1957" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1957">
+        <v>321</v>
+      </c>
+      <c r="E1957" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1957" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1958">
+      <c r="A1958">
+        <v>26890897</v>
+      </c>
+      <c r="B1958" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C1958" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1958">
+        <v>235</v>
+      </c>
+      <c r="E1958" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1958" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1959">
+      <c r="A1959">
+        <v>20980067</v>
+      </c>
+      <c r="B1959" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1959" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1959">
+        <v>242</v>
+      </c>
+      <c r="E1959" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1959" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1960">
+      <c r="A1960">
+        <v>10989065</v>
+      </c>
+      <c r="B1960" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C1960" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1960">
+        <v>202</v>
+      </c>
+      <c r="E1960" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1960" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1961">
+      <c r="A1961">
+        <v>15771787</v>
+      </c>
+      <c r="B1961" t="str">
+        <v>马红漫的投资日历·一二季合辑</v>
+      </c>
+      <c r="C1961" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1961">
+        <v>519</v>
+      </c>
+      <c r="E1961" t="str">
+        <v>商业财经</v>
+      </c>
+      <c r="F1961" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1962">
+      <c r="A1962">
+        <v>35516850</v>
+      </c>
+      <c r="B1962" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C1962" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1962">
+        <v>240</v>
+      </c>
+      <c r="E1962" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F1962" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1963">
+      <c r="A1963">
+        <v>21375015</v>
+      </c>
+      <c r="B1963" t="str">
+        <v>郭论·第二季</v>
+      </c>
+      <c r="C1963" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1963">
+        <v>158</v>
+      </c>
+      <c r="E1963" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1963" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1964">
+      <c r="A1964">
+        <v>35582289</v>
+      </c>
+      <c r="B1964" t="str">
+        <v>江户川乱步·少年侦探有声剧 | 儿童睡前故事</v>
+      </c>
+      <c r="C1964" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1964">
+        <v>232</v>
+      </c>
+      <c r="E1964" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1964" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1965">
+      <c r="A1965">
+        <v>5211938</v>
+      </c>
+      <c r="B1965" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1965" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1965">
+        <v>369</v>
+      </c>
+      <c r="E1965" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1965" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1966">
+      <c r="A1966">
+        <v>33913846</v>
+      </c>
+      <c r="B1966" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1966" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1966">
+        <v>127</v>
+      </c>
+      <c r="E1966" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1966" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1967">
+      <c r="A1967">
+        <v>11594109</v>
+      </c>
+      <c r="B1967" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C1967" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1967">
+        <v>314</v>
+      </c>
+      <c r="E1967" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1967" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1968">
+      <c r="A1968">
+        <v>35574131</v>
+      </c>
+      <c r="B1968" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C1968" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1968">
+        <v>238</v>
+      </c>
+      <c r="E1968" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1968" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1969">
+      <c r="A1969">
+        <v>35356646</v>
+      </c>
+      <c r="B1969" t="str">
+        <v>神奇校车冒险故事【桥梁书版】</v>
+      </c>
+      <c r="C1969" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1969">
+        <v>230</v>
+      </c>
+      <c r="E1969" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1969" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1970">
+      <c r="A1970">
+        <v>30416480</v>
+      </c>
+      <c r="B1970" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C1970" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1970">
+        <v>272</v>
+      </c>
+      <c r="E1970" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1970" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1971">
+      <c r="A1971">
+        <v>32038799</v>
+      </c>
+      <c r="B1971" t="str">
+        <v>大个子老鼠小个子猫 故事集</v>
+      </c>
+      <c r="C1971" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1971">
+        <v>302</v>
+      </c>
+      <c r="E1971" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1971" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1972">
+      <c r="A1972">
+        <v>32040440</v>
+      </c>
+      <c r="B1972" t="str">
+        <v>给孩子的365个成语故事</v>
+      </c>
+      <c r="C1972" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1972">
+        <v>279</v>
+      </c>
+      <c r="E1972" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1972" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1973">
+      <c r="A1973">
+        <v>32541372</v>
+      </c>
+      <c r="B1973" t="str">
+        <v>情商故事：肖小笑上学记（全集）</v>
+      </c>
+      <c r="C1973" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1973">
+        <v>326</v>
+      </c>
+      <c r="E1973" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1973" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1974">
+      <c r="A1974">
+        <v>29293434</v>
+      </c>
+      <c r="B1974" t="str">
+        <v>魔法学校第二季| 神秘好玩的校园故事</v>
+      </c>
+      <c r="C1974" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1974">
+        <v>224</v>
+      </c>
+      <c r="E1974" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1974" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1975">
+      <c r="A1975">
+        <v>16783482</v>
+      </c>
+      <c r="B1975" t="str">
+        <v>暖房子有声绘本馆</v>
+      </c>
+      <c r="C1975" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1975">
+        <v>321</v>
+      </c>
+      <c r="E1975" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1975" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1976">
+      <c r="A1976">
+        <v>20980067</v>
+      </c>
+      <c r="B1976" t="str">
+        <v>有个小孩叫曹操【上学记2+3】</v>
+      </c>
+      <c r="C1976" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1976">
+        <v>242</v>
+      </c>
+      <c r="E1976" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1976" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1977">
+      <c r="A1977">
+        <v>35582289</v>
+      </c>
+      <c r="B1977" t="str">
+        <v>江户川乱步·少年侦探有声剧 | 儿童睡前故事</v>
+      </c>
+      <c r="C1977" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1977">
+        <v>232</v>
+      </c>
+      <c r="E1977" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1977" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1978">
+      <c r="A1978">
+        <v>5211938</v>
+      </c>
+      <c r="B1978" t="str">
+        <v>晚安妈妈：世界真奇妙</v>
+      </c>
+      <c r="C1978" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1978">
+        <v>369</v>
+      </c>
+      <c r="E1978" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1978" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1979">
+      <c r="A1979">
+        <v>33913846</v>
+      </c>
+      <c r="B1979" t="str">
+        <v>神探迈克狐· 神秘组织篇｜哆哆罗</v>
+      </c>
+      <c r="C1979" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1979">
+        <v>127</v>
+      </c>
+      <c r="E1979" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1979" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1980">
+      <c r="A1980">
+        <v>23361684</v>
+      </c>
+      <c r="B1980" t="str">
+        <v>十万个为什么：动物真奇妙</v>
+      </c>
+      <c r="C1980" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1980">
+        <v>104</v>
+      </c>
+      <c r="E1980" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1980" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1981">
+      <c r="A1981">
+        <v>20965889</v>
+      </c>
+      <c r="B1981" t="str">
+        <v>【全集】冒险小王子睡前童话故事</v>
+      </c>
+      <c r="C1981" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1981">
+        <v>601</v>
+      </c>
+      <c r="E1981" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1981" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1982">
+      <c r="A1982">
+        <v>38838259</v>
+      </c>
+      <c r="B1982" t="str">
+        <v>碰碰狐！英语儿歌合辑</v>
+      </c>
+      <c r="C1982" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1982">
+        <v>151</v>
+      </c>
+      <c r="E1982" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1982" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1983">
+      <c r="A1983">
+        <v>26042939</v>
+      </c>
+      <c r="B1983" t="str">
+        <v>十万个为什么：人体真有趣</v>
+      </c>
+      <c r="C1983" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1983">
+        <v>114</v>
+      </c>
+      <c r="E1983" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1983" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1984">
+      <c r="A1984">
+        <v>20652876</v>
+      </c>
+      <c r="B1984" t="str">
+        <v>果壳：给孩子的自然百科400讲</v>
+      </c>
+      <c r="C1984" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1984">
+        <v>408</v>
+      </c>
+      <c r="E1984" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1984" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1985">
+      <c r="A1985">
+        <v>32212587</v>
+      </c>
+      <c r="B1985" t="str">
+        <v>乐高幻影忍者全集【官方正版】|儿童动画故事</v>
+      </c>
+      <c r="C1985" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1985">
+        <v>254</v>
+      </c>
+      <c r="E1985" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1985" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1986">
+      <c r="A1986">
+        <v>19787798</v>
+      </c>
+      <c r="B1986" t="str">
+        <v>林汉达中国历史故事1+2部</v>
+      </c>
+      <c r="C1986" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1986">
+        <v>262</v>
+      </c>
+      <c r="E1986" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1986" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1987">
+      <c r="A1987">
+        <v>23548626</v>
+      </c>
+      <c r="B1987" t="str">
+        <v>小猪佩奇全集：五六季</v>
+      </c>
+      <c r="C1987" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1987">
+        <v>161</v>
+      </c>
+      <c r="E1987" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1987" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1988">
+      <c r="A1988">
+        <v>35583796</v>
+      </c>
+      <c r="B1988" t="str">
+        <v>植物大战僵尸之机器时代</v>
+      </c>
+      <c r="C1988" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1988">
+        <v>141</v>
+      </c>
+      <c r="E1988" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1988" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1989">
+      <c r="A1989">
+        <v>40194923</v>
+      </c>
+      <c r="B1989" t="str">
+        <v>装在口袋里的爸爸：恐龙星球</v>
+      </c>
+      <c r="C1989" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1989">
+        <v>132</v>
+      </c>
+      <c r="E1989" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1989" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1990">
+      <c r="A1990">
+        <v>8272440</v>
+      </c>
+      <c r="B1990" t="str">
+        <v>耶鲁奶爸：唱学唐诗宋词70首</v>
+      </c>
+      <c r="C1990" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1990">
+        <v>141</v>
+      </c>
+      <c r="E1990" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1990" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1991">
+      <c r="A1991">
+        <v>11267914</v>
+      </c>
+      <c r="B1991" t="str">
+        <v>植物世界：超梦幻战斗第一季</v>
+      </c>
+      <c r="C1991" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1991">
+        <v>118</v>
+      </c>
+      <c r="E1991" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1991" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1992">
+      <c r="A1992">
+        <v>19105793</v>
+      </c>
+      <c r="B1992" t="str">
+        <v>喵卷卷2+3奇遇记 推理侦探系列</v>
+      </c>
+      <c r="C1992" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1992">
+        <v>168</v>
+      </c>
+      <c r="E1992" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1992" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1993">
+      <c r="A1993">
+        <v>37149584</v>
+      </c>
+      <c r="B1993" t="str">
+        <v>少年派2·欢乐上学记</v>
+      </c>
+      <c r="C1993" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1993">
+        <v>146</v>
+      </c>
+      <c r="E1993" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1993" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1994">
+      <c r="A1994">
+        <v>40412609</v>
+      </c>
+      <c r="B1994" t="str">
+        <v>神探迈克狐· 国际学院篇｜哆哆罗</v>
+      </c>
+      <c r="C1994" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1994">
+        <v>57</v>
+      </c>
+      <c r="E1994" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1994" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1995">
+      <c r="A1995">
+        <v>30448605</v>
+      </c>
+      <c r="B1995" t="str">
+        <v>装在口袋里的爸爸（第5辑）</v>
+      </c>
+      <c r="C1995" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1995">
+        <v>116</v>
+      </c>
+      <c r="E1995" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1995" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1996">
+      <c r="A1996">
+        <v>36469999</v>
+      </c>
+      <c r="B1996" t="str">
+        <v>装在口袋里的爸爸（第7辑）</v>
+      </c>
+      <c r="C1996" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1996">
+        <v>138</v>
+      </c>
+      <c r="E1996" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1996" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1997">
+      <c r="A1997">
+        <v>35487789</v>
+      </c>
+      <c r="B1997" t="str">
+        <v>校园三剑客（第3季）|少年科幻</v>
+      </c>
+      <c r="C1997" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1997">
+        <v>127</v>
+      </c>
+      <c r="E1997" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1997" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1998">
+      <c r="A1998">
+        <v>31163168</v>
+      </c>
+      <c r="B1998" t="str">
+        <v>校园三剑客（第2季）|少年科幻</v>
+      </c>
+      <c r="C1998" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1998">
+        <v>119</v>
+      </c>
+      <c r="E1998" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1998" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1999">
+      <c r="A1999">
+        <v>38447248</v>
+      </c>
+      <c r="B1999" t="str">
+        <v>哆哆罗3-8岁精品原创故事</v>
+      </c>
+      <c r="C1999" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1999">
+        <v>151</v>
+      </c>
+      <c r="E1999" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F1999" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2000">
+      <c r="A2000">
+        <v>32601976</v>
+      </c>
+      <c r="B2000" t="str">
+        <v>汉声中国童话</v>
+      </c>
+      <c r="C2000" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2000">
+        <v>245</v>
+      </c>
+      <c r="E2000" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2000" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2001">
+      <c r="A2001">
+        <v>32130436</v>
+      </c>
+      <c r="B2001" t="str">
+        <v>神探小鼠队|鼠年限定侦探推理剧</v>
+      </c>
+      <c r="C2001" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2001">
+        <v>104</v>
+      </c>
+      <c r="E2001" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2001" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2002">
+      <c r="A2002">
+        <v>14777570</v>
+      </c>
+      <c r="B2002" t="str">
+        <v>植物世界：超梦幻战斗第二季</v>
+      </c>
+      <c r="C2002" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2002">
+        <v>131</v>
+      </c>
+      <c r="E2002" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2002" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2003">
+      <c r="A2003">
+        <v>32510373</v>
+      </c>
+      <c r="B2003" t="str">
+        <v>装在口袋里的爸爸（第6辑）</v>
+      </c>
+      <c r="C2003" t="str">
+        <v>是</v>
+      </c>
+      <c r="D2003">
+        <v>121</v>
+      </c>
+      <c r="E2003" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2003" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2004">
+      <c r="A2004">
+        <v>33110625</v>
+      </c>
+      <c r="B2004" t="str">
+        <v>骑士街9号（第二季）神侦探推理</v>
+      </c>
+      <c r="C2004" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2004">
+        <v>118</v>
+      </c>
+      <c r="E2004" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2004" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2005">
+      <c r="A2005">
+        <v>20542923</v>
+      </c>
+      <c r="B2005" t="str">
+        <v>白菜小哥历险记（第一季）</v>
+      </c>
+      <c r="C2005" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2005">
+        <v>105</v>
+      </c>
+      <c r="E2005" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2005" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2006">
+      <c r="A2006">
+        <v>39223746</v>
+      </c>
+      <c r="B2006" t="str">
+        <v>中小学生必学：180个成语故事</v>
+      </c>
+      <c r="C2006" t="str">
+        <v>是</v>
+      </c>
+      <c r="D2006">
+        <v>180</v>
+      </c>
+      <c r="E2006" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2006" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2007">
+      <c r="A2007">
+        <v>37382087</v>
+      </c>
+      <c r="B2007" t="str">
+        <v>少年冒险王2 | 探险故事</v>
+      </c>
+      <c r="C2007" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2007">
+        <v>123</v>
+      </c>
+      <c r="E2007" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2007" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2008">
+      <c r="A2008">
+        <v>35724447</v>
+      </c>
+      <c r="B2008" t="str">
+        <v>孟京辉话剧 | 恋爱的犀牛</v>
+      </c>
+      <c r="C2008" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2008">
+        <v>4</v>
+      </c>
+      <c r="E2008" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2008" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2009">
+      <c r="A2009">
+        <v>21984732</v>
+      </c>
+      <c r="B2009" t="str">
+        <v>《西方美术史》丁宁“北大通识课” 精读版 | 喜马讲书</v>
+      </c>
+      <c r="C2009" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2009">
+        <v>2</v>
+      </c>
+      <c r="E2009" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2009" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2010">
+      <c r="A2010">
+        <v>35724780</v>
+      </c>
+      <c r="B2010" t="str">
+        <v>孟京辉话剧 | 一个无政府主义者的意外死亡</v>
+      </c>
+      <c r="C2010" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2010">
+        <v>4</v>
+      </c>
+      <c r="E2010" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2010" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2011">
+      <c r="A2011">
+        <v>21721044</v>
+      </c>
+      <c r="B2011" t="str">
+        <v>《演员自我修养》| 喜马讲书</v>
+      </c>
+      <c r="C2011" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2011">
+        <v>1</v>
+      </c>
+      <c r="E2011" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2011" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2012">
+      <c r="A2012">
+        <v>35725787</v>
+      </c>
+      <c r="B2012" t="str">
+        <v>孟京辉话剧 | 关于爱情归宿的最新观念</v>
+      </c>
+      <c r="C2012" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2012">
+        <v>5</v>
+      </c>
+      <c r="E2012" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2012" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2013">
+      <c r="A2013">
+        <v>40194393</v>
+      </c>
+      <c r="B2013" t="str">
+        <v>品位江南 | 著名作家张永祎主讲（凤凰书苑）</v>
+      </c>
+      <c r="C2013" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2013">
+        <v>20</v>
+      </c>
+      <c r="E2013" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2013" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2014">
+      <c r="A2014">
+        <v>16420380</v>
+      </c>
+      <c r="B2014" t="str">
+        <v>禧爷说艺术 | 史上16个艺术表情</v>
+      </c>
+      <c r="C2014" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2014">
+        <v>22</v>
+      </c>
+      <c r="E2014" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2014" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2015">
+      <c r="A2015">
+        <v>35724380</v>
+      </c>
+      <c r="B2015" t="str">
+        <v>孟京辉话剧 | 镜花水月</v>
+      </c>
+      <c r="C2015" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2015">
+        <v>3</v>
+      </c>
+      <c r="E2015" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2015" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2016">
+      <c r="A2016">
+        <v>38540483</v>
+      </c>
+      <c r="B2016" t="str">
+        <v>艺术头条|宅游15个世界博物馆</v>
+      </c>
+      <c r="C2016" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2016">
+        <v>31</v>
+      </c>
+      <c r="E2016" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2016" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2017">
+      <c r="A2017">
+        <v>12517524</v>
+      </c>
+      <c r="B2017" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2017" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2017">
+        <v>129</v>
+      </c>
+      <c r="E2017" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2017" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2018">
+      <c r="A2018">
+        <v>37407947</v>
+      </c>
+      <c r="B2018" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2018" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2018">
+        <v>560</v>
+      </c>
+      <c r="E2018" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2018" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2019">
+      <c r="A2019">
+        <v>30575436</v>
+      </c>
+      <c r="B2019" t="str">
+        <v>活着（致敬经典-余华著，一种侃侃、一刀苏苏演播）</v>
+      </c>
+      <c r="C2019" t="str">
+        <v>是</v>
+      </c>
+      <c r="D2019">
+        <v>43</v>
+      </c>
+      <c r="E2019" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2019" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F1924"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2019"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2019"/>
+  <dimension ref="A1:F2022"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40760,9 +40760,69 @@
         <v>否</v>
       </c>
     </row>
+    <row r="2020">
+      <c r="A2020">
+        <v>32650457</v>
+      </c>
+      <c r="B2020" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C2020" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2020">
+        <v>1224</v>
+      </c>
+      <c r="E2020" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2020" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2021">
+      <c r="A2021">
+        <v>31887842</v>
+      </c>
+      <c r="B2021" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C2021" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2021">
+        <v>1383</v>
+      </c>
+      <c r="E2021" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2021" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2022">
+      <c r="A2022">
+        <v>34220825</v>
+      </c>
+      <c r="B2022" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C2022" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2022">
+        <v>685</v>
+      </c>
+      <c r="E2022" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2022" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2019"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2022"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2022"/>
+  <dimension ref="A1:F2106"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40820,9 +40820,1689 @@
         <v>否</v>
       </c>
     </row>
+    <row r="2023">
+      <c r="A2023">
+        <v>12517524</v>
+      </c>
+      <c r="B2023" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2023" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2023">
+        <v>129</v>
+      </c>
+      <c r="E2023" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2023" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2024">
+      <c r="A2024">
+        <v>37407947</v>
+      </c>
+      <c r="B2024" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2024" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2024">
+        <v>575</v>
+      </c>
+      <c r="E2024" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2024" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2025">
+      <c r="A2025">
+        <v>40121646</v>
+      </c>
+      <c r="B2025" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2025" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2025">
+        <v>86</v>
+      </c>
+      <c r="E2025" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2025" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2026">
+      <c r="A2026">
+        <v>30816438</v>
+      </c>
+      <c r="B2026" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2026" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2026">
+        <v>46</v>
+      </c>
+      <c r="E2026" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2026" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2027">
+      <c r="A2027">
+        <v>30222680</v>
+      </c>
+      <c r="B2027" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2027" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2027">
+        <v>1488</v>
+      </c>
+      <c r="E2027" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2027" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2028">
+      <c r="A2028">
+        <v>33476331</v>
+      </c>
+      <c r="B2028" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2028" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2028">
+        <v>591</v>
+      </c>
+      <c r="E2028" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2028" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2029">
+      <c r="A2029">
+        <v>32650457</v>
+      </c>
+      <c r="B2029" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C2029" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2029">
+        <v>1229</v>
+      </c>
+      <c r="E2029" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2029" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2030">
+      <c r="A2030">
+        <v>31887842</v>
+      </c>
+      <c r="B2030" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C2030" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2030">
+        <v>1383</v>
+      </c>
+      <c r="E2030" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2030" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2031">
+      <c r="A2031">
+        <v>34220825</v>
+      </c>
+      <c r="B2031" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C2031" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2031">
+        <v>688</v>
+      </c>
+      <c r="E2031" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2031" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2032">
+      <c r="A2032">
+        <v>25010802</v>
+      </c>
+      <c r="B2032" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C2032" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2032">
+        <v>1952</v>
+      </c>
+      <c r="E2032" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2032" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2033">
+      <c r="A2033">
+        <v>23889957</v>
+      </c>
+      <c r="B2033" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C2033" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2033">
+        <v>2061</v>
+      </c>
+      <c r="E2033" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2033" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2034">
+      <c r="A2034">
+        <v>32553758</v>
+      </c>
+      <c r="B2034" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C2034" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2034">
+        <v>924</v>
+      </c>
+      <c r="E2034" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2034" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2035">
+      <c r="A2035">
+        <v>39361268</v>
+      </c>
+      <c r="B2035" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C2035" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2035">
+        <v>406</v>
+      </c>
+      <c r="E2035" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2035" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2036">
+      <c r="A2036">
+        <v>33541329</v>
+      </c>
+      <c r="B2036" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C2036" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2036">
+        <v>1090</v>
+      </c>
+      <c r="E2036" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2036" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2037">
+      <c r="A2037">
+        <v>12517524</v>
+      </c>
+      <c r="B2037" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2037" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2037">
+        <v>129</v>
+      </c>
+      <c r="E2037" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2037" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2038">
+      <c r="A2038">
+        <v>37407947</v>
+      </c>
+      <c r="B2038" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2038" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2038">
+        <v>575</v>
+      </c>
+      <c r="E2038" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2038" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2039">
+      <c r="A2039">
+        <v>40121646</v>
+      </c>
+      <c r="B2039" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2039" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2039">
+        <v>86</v>
+      </c>
+      <c r="E2039" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2039" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2040">
+      <c r="A2040">
+        <v>30816438</v>
+      </c>
+      <c r="B2040" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2040" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2040">
+        <v>46</v>
+      </c>
+      <c r="E2040" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2040" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2041">
+      <c r="A2041">
+        <v>30222680</v>
+      </c>
+      <c r="B2041" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2041" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2041">
+        <v>1488</v>
+      </c>
+      <c r="E2041" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2041" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2042">
+      <c r="A2042">
+        <v>33476331</v>
+      </c>
+      <c r="B2042" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2042" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2042">
+        <v>593</v>
+      </c>
+      <c r="E2042" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2042" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2043">
+      <c r="A2043">
+        <v>32650457</v>
+      </c>
+      <c r="B2043" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C2043" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2043">
+        <v>1229</v>
+      </c>
+      <c r="E2043" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2043" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2044">
+      <c r="A2044">
+        <v>31887842</v>
+      </c>
+      <c r="B2044" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C2044" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2044">
+        <v>1383</v>
+      </c>
+      <c r="E2044" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2044" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2045">
+      <c r="A2045">
+        <v>34220825</v>
+      </c>
+      <c r="B2045" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C2045" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2045">
+        <v>688</v>
+      </c>
+      <c r="E2045" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2045" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2046">
+      <c r="A2046">
+        <v>25010802</v>
+      </c>
+      <c r="B2046" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C2046" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2046">
+        <v>1954</v>
+      </c>
+      <c r="E2046" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2046" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2047">
+      <c r="A2047">
+        <v>23889957</v>
+      </c>
+      <c r="B2047" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C2047" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2047">
+        <v>2061</v>
+      </c>
+      <c r="E2047" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2047" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2048">
+      <c r="A2048">
+        <v>32553758</v>
+      </c>
+      <c r="B2048" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C2048" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2048">
+        <v>924</v>
+      </c>
+      <c r="E2048" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2048" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2049">
+      <c r="A2049">
+        <v>39361268</v>
+      </c>
+      <c r="B2049" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C2049" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2049">
+        <v>406</v>
+      </c>
+      <c r="E2049" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2049" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2050">
+      <c r="A2050">
+        <v>33541329</v>
+      </c>
+      <c r="B2050" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C2050" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2050">
+        <v>1095</v>
+      </c>
+      <c r="E2050" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2050" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2051">
+      <c r="A2051">
+        <v>17594210</v>
+      </c>
+      <c r="B2051" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C2051" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2051">
+        <v>1080</v>
+      </c>
+      <c r="E2051" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2051" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2052">
+      <c r="A2052">
+        <v>19095902</v>
+      </c>
+      <c r="B2052" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C2052" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2052">
+        <v>2035</v>
+      </c>
+      <c r="E2052" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2052" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2053">
+      <c r="A2053">
+        <v>26440948</v>
+      </c>
+      <c r="B2053" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C2053" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2053">
+        <v>1214</v>
+      </c>
+      <c r="E2053" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2053" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2054">
+      <c r="A2054">
+        <v>29316562</v>
+      </c>
+      <c r="B2054" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C2054" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2054">
+        <v>1479</v>
+      </c>
+      <c r="E2054" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2054" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2055">
+      <c r="A2055">
+        <v>37081450</v>
+      </c>
+      <c r="B2055" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C2055" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2055">
+        <v>291</v>
+      </c>
+      <c r="E2055" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2055" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2056">
+      <c r="A2056">
+        <v>3416829</v>
+      </c>
+      <c r="B2056" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C2056" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2056">
+        <v>1073</v>
+      </c>
+      <c r="E2056" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2056" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2057">
+      <c r="A2057">
+        <v>38160002</v>
+      </c>
+      <c r="B2057" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C2057" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2057">
+        <v>425</v>
+      </c>
+      <c r="E2057" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2057" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2058">
+      <c r="A2058">
+        <v>14356532</v>
+      </c>
+      <c r="B2058" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C2058" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2058">
+        <v>759</v>
+      </c>
+      <c r="E2058" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2058" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2059">
+      <c r="A2059">
+        <v>38954602</v>
+      </c>
+      <c r="B2059" t="str">
+        <v>你是我的万千星辰丨都市虐恋言情丨一刀苏苏精品多人（会员畅听）</v>
+      </c>
+      <c r="C2059" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2059">
+        <v>565</v>
+      </c>
+      <c r="E2059" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2059" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2060">
+      <c r="A2060">
+        <v>25001000</v>
+      </c>
+      <c r="B2060" t="str">
+        <v>神医毒妃 | 神医嫡女第二部</v>
+      </c>
+      <c r="C2060" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2060">
+        <v>912</v>
+      </c>
+      <c r="E2060" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2060" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2061">
+      <c r="A2061">
+        <v>28810646</v>
+      </c>
+      <c r="B2061" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C2061" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2061">
+        <v>405</v>
+      </c>
+      <c r="E2061" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2061" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2062">
+      <c r="A2062">
+        <v>12517524</v>
+      </c>
+      <c r="B2062" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2062" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2062">
+        <v>129</v>
+      </c>
+      <c r="E2062" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2062" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2063">
+      <c r="A2063">
+        <v>37407947</v>
+      </c>
+      <c r="B2063" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2063" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2063">
+        <v>575</v>
+      </c>
+      <c r="E2063" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2063" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2064">
+      <c r="A2064">
+        <v>40121646</v>
+      </c>
+      <c r="B2064" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2064" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2064">
+        <v>86</v>
+      </c>
+      <c r="E2064" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2064" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2065">
+      <c r="A2065">
+        <v>30816438</v>
+      </c>
+      <c r="B2065" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2065" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2065">
+        <v>46</v>
+      </c>
+      <c r="E2065" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2065" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2066">
+      <c r="A2066">
+        <v>30222680</v>
+      </c>
+      <c r="B2066" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2066" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2066">
+        <v>1488</v>
+      </c>
+      <c r="E2066" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2066" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2067">
+      <c r="A2067">
+        <v>33476331</v>
+      </c>
+      <c r="B2067" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2067" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2067">
+        <v>593</v>
+      </c>
+      <c r="E2067" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2067" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2068">
+      <c r="A2068">
+        <v>32650457</v>
+      </c>
+      <c r="B2068" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C2068" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2068">
+        <v>1229</v>
+      </c>
+      <c r="E2068" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2068" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2069">
+      <c r="A2069">
+        <v>31887842</v>
+      </c>
+      <c r="B2069" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C2069" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2069">
+        <v>1388</v>
+      </c>
+      <c r="E2069" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2069" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2070">
+      <c r="A2070">
+        <v>34220825</v>
+      </c>
+      <c r="B2070" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C2070" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2070">
+        <v>688</v>
+      </c>
+      <c r="E2070" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2070" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2071">
+      <c r="A2071">
+        <v>25010802</v>
+      </c>
+      <c r="B2071" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C2071" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2071">
+        <v>1954</v>
+      </c>
+      <c r="E2071" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2071" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2072">
+      <c r="A2072">
+        <v>23889957</v>
+      </c>
+      <c r="B2072" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C2072" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2072">
+        <v>2066</v>
+      </c>
+      <c r="E2072" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2072" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2073">
+      <c r="A2073">
+        <v>32553758</v>
+      </c>
+      <c r="B2073" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C2073" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2073">
+        <v>924</v>
+      </c>
+      <c r="E2073" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2073" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2074">
+      <c r="A2074">
+        <v>39361268</v>
+      </c>
+      <c r="B2074" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C2074" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2074">
+        <v>406</v>
+      </c>
+      <c r="E2074" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2074" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2075">
+      <c r="A2075">
+        <v>33541329</v>
+      </c>
+      <c r="B2075" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C2075" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2075">
+        <v>1095</v>
+      </c>
+      <c r="E2075" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2075" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2076">
+      <c r="A2076">
+        <v>17594210</v>
+      </c>
+      <c r="B2076" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C2076" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2076">
+        <v>1080</v>
+      </c>
+      <c r="E2076" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2076" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2077">
+      <c r="A2077">
+        <v>19095902</v>
+      </c>
+      <c r="B2077" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C2077" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2077">
+        <v>2035</v>
+      </c>
+      <c r="E2077" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2077" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2078">
+      <c r="A2078">
+        <v>26440948</v>
+      </c>
+      <c r="B2078" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C2078" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2078">
+        <v>1214</v>
+      </c>
+      <c r="E2078" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2078" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2079">
+      <c r="A2079">
+        <v>29316562</v>
+      </c>
+      <c r="B2079" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C2079" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2079">
+        <v>1479</v>
+      </c>
+      <c r="E2079" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2079" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2080">
+      <c r="A2080">
+        <v>37081450</v>
+      </c>
+      <c r="B2080" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C2080" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2080">
+        <v>291</v>
+      </c>
+      <c r="E2080" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2080" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2081">
+      <c r="A2081">
+        <v>3416829</v>
+      </c>
+      <c r="B2081" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C2081" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2081">
+        <v>1073</v>
+      </c>
+      <c r="E2081" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2081" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2082">
+      <c r="A2082">
+        <v>38160002</v>
+      </c>
+      <c r="B2082" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C2082" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2082">
+        <v>425</v>
+      </c>
+      <c r="E2082" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2082" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2083">
+      <c r="A2083">
+        <v>14356532</v>
+      </c>
+      <c r="B2083" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C2083" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2083">
+        <v>759</v>
+      </c>
+      <c r="E2083" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2083" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2084">
+      <c r="A2084">
+        <v>38954602</v>
+      </c>
+      <c r="B2084" t="str">
+        <v>你是我的万千星辰丨都市虐恋言情丨一刀苏苏精品多人（会员畅听）</v>
+      </c>
+      <c r="C2084" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2084">
+        <v>565</v>
+      </c>
+      <c r="E2084" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2084" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2085">
+      <c r="A2085">
+        <v>25001000</v>
+      </c>
+      <c r="B2085" t="str">
+        <v>神医毒妃 | 神医嫡女第二部</v>
+      </c>
+      <c r="C2085" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2085">
+        <v>912</v>
+      </c>
+      <c r="E2085" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2085" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2086">
+      <c r="A2086">
+        <v>28810646</v>
+      </c>
+      <c r="B2086" t="str">
+        <v>琉璃美人煞｜成毅&amp;袁冰妍主演《琉璃》原著小说，精品多人剧</v>
+      </c>
+      <c r="C2086" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2086">
+        <v>405</v>
+      </c>
+      <c r="E2086" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2086" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2087">
+      <c r="A2087">
+        <v>12517524</v>
+      </c>
+      <c r="B2087" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2087" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2087">
+        <v>129</v>
+      </c>
+      <c r="E2087" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2087" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2088">
+      <c r="A2088">
+        <v>37407947</v>
+      </c>
+      <c r="B2088" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2088" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2088">
+        <v>575</v>
+      </c>
+      <c r="E2088" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2088" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2089">
+      <c r="A2089">
+        <v>40121646</v>
+      </c>
+      <c r="B2089" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2089" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2089">
+        <v>86</v>
+      </c>
+      <c r="E2089" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2089" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2090">
+      <c r="A2090">
+        <v>30816438</v>
+      </c>
+      <c r="B2090" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2090" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2090">
+        <v>46</v>
+      </c>
+      <c r="E2090" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2090" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2091">
+      <c r="A2091">
+        <v>30222680</v>
+      </c>
+      <c r="B2091" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2091" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2091">
+        <v>1488</v>
+      </c>
+      <c r="E2091" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2091" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2092">
+      <c r="A2092">
+        <v>33476331</v>
+      </c>
+      <c r="B2092" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2092" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2092">
+        <v>593</v>
+      </c>
+      <c r="E2092" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2092" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2093">
+      <c r="A2093">
+        <v>32650457</v>
+      </c>
+      <c r="B2093" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C2093" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2093">
+        <v>1229</v>
+      </c>
+      <c r="E2093" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2093" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2094">
+      <c r="A2094">
+        <v>31887842</v>
+      </c>
+      <c r="B2094" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C2094" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2094">
+        <v>1388</v>
+      </c>
+      <c r="E2094" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2094" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2095">
+      <c r="A2095">
+        <v>34220825</v>
+      </c>
+      <c r="B2095" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C2095" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2095">
+        <v>688</v>
+      </c>
+      <c r="E2095" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2095" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2096">
+      <c r="A2096">
+        <v>25010802</v>
+      </c>
+      <c r="B2096" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C2096" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2096">
+        <v>1954</v>
+      </c>
+      <c r="E2096" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2096" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2097">
+      <c r="A2097">
+        <v>23889957</v>
+      </c>
+      <c r="B2097" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C2097" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2097">
+        <v>2066</v>
+      </c>
+      <c r="E2097" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2097" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2098">
+      <c r="A2098">
+        <v>32553758</v>
+      </c>
+      <c r="B2098" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C2098" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2098">
+        <v>924</v>
+      </c>
+      <c r="E2098" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2098" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2099">
+      <c r="A2099">
+        <v>39361268</v>
+      </c>
+      <c r="B2099" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C2099" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2099">
+        <v>406</v>
+      </c>
+      <c r="E2099" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2099" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2100">
+      <c r="A2100">
+        <v>33541329</v>
+      </c>
+      <c r="B2100" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C2100" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2100">
+        <v>1095</v>
+      </c>
+      <c r="E2100" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2100" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2101">
+      <c r="A2101">
+        <v>17594210</v>
+      </c>
+      <c r="B2101" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C2101" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2101">
+        <v>1080</v>
+      </c>
+      <c r="E2101" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2101" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2102">
+      <c r="A2102">
+        <v>12517524</v>
+      </c>
+      <c r="B2102" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2102" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2102">
+        <v>129</v>
+      </c>
+      <c r="E2102" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2102" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2103">
+      <c r="A2103">
+        <v>37407947</v>
+      </c>
+      <c r="B2103" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2103" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2103">
+        <v>575</v>
+      </c>
+      <c r="E2103" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2103" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2104">
+      <c r="A2104">
+        <v>40121646</v>
+      </c>
+      <c r="B2104" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2104" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2104">
+        <v>86</v>
+      </c>
+      <c r="E2104" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2104" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2105">
+      <c r="A2105">
+        <v>30816438</v>
+      </c>
+      <c r="B2105" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2105" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2105">
+        <v>46</v>
+      </c>
+      <c r="E2105" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2105" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2106">
+      <c r="A2106">
+        <v>30222680</v>
+      </c>
+      <c r="B2106" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2106" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2106">
+        <v>1488</v>
+      </c>
+      <c r="E2106" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2106" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2022"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2106"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2106"/>
+  <dimension ref="A1:F2388"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -42500,9 +42500,5649 @@
         <v>否</v>
       </c>
     </row>
+    <row r="2107">
+      <c r="A2107">
+        <v>12517524</v>
+      </c>
+      <c r="B2107" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2107" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2107">
+        <v>130</v>
+      </c>
+      <c r="E2107" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2107" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2108">
+      <c r="A2108">
+        <v>40121646</v>
+      </c>
+      <c r="B2108" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2108" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2108">
+        <v>90</v>
+      </c>
+      <c r="E2108" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2108" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2109">
+      <c r="A2109">
+        <v>30816438</v>
+      </c>
+      <c r="B2109" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2109" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2109">
+        <v>46</v>
+      </c>
+      <c r="E2109" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2109" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2110">
+      <c r="A2110">
+        <v>30222680</v>
+      </c>
+      <c r="B2110" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2110" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2110">
+        <v>1488</v>
+      </c>
+      <c r="E2110" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2110" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2111">
+      <c r="A2111">
+        <v>19232895</v>
+      </c>
+      <c r="B2111" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2111" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2111">
+        <v>1612</v>
+      </c>
+      <c r="E2111" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2111" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2112">
+      <c r="A2112">
+        <v>23632774</v>
+      </c>
+      <c r="B2112" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C2112" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2112">
+        <v>263</v>
+      </c>
+      <c r="E2112" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2112" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2113">
+      <c r="A2113">
+        <v>23625885</v>
+      </c>
+      <c r="B2113" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C2113" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2113">
+        <v>812</v>
+      </c>
+      <c r="E2113" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2113" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2114">
+      <c r="A2114">
+        <v>35582881</v>
+      </c>
+      <c r="B2114" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C2114" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2114">
+        <v>308</v>
+      </c>
+      <c r="E2114" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2114" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2115">
+      <c r="A2115">
+        <v>32267812</v>
+      </c>
+      <c r="B2115" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C2115" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2115">
+        <v>204</v>
+      </c>
+      <c r="E2115" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2115" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2116">
+      <c r="A2116">
+        <v>10989065</v>
+      </c>
+      <c r="B2116" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C2116" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2116">
+        <v>202</v>
+      </c>
+      <c r="E2116" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2116" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2117">
+      <c r="A2117">
+        <v>26890897</v>
+      </c>
+      <c r="B2117" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2117" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2117">
+        <v>239</v>
+      </c>
+      <c r="E2117" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2117" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2118">
+      <c r="A2118">
+        <v>25482236</v>
+      </c>
+      <c r="B2118" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2118" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2118">
+        <v>240</v>
+      </c>
+      <c r="E2118" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2118" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2119">
+      <c r="A2119">
+        <v>39016657</v>
+      </c>
+      <c r="B2119" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C2119" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2119">
+        <v>184</v>
+      </c>
+      <c r="E2119" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2119" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2120">
+      <c r="A2120">
+        <v>39885016</v>
+      </c>
+      <c r="B2120" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C2120" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2120">
+        <v>173</v>
+      </c>
+      <c r="E2120" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2120" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2121">
+      <c r="A2121">
+        <v>23550058</v>
+      </c>
+      <c r="B2121" t="str">
+        <v>精读1000本全球好书【日更】心理罪、人类简史、墨菲定律等</v>
+      </c>
+      <c r="C2121" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2121">
+        <v>508</v>
+      </c>
+      <c r="E2121" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2121" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2122">
+      <c r="A2122">
+        <v>23633996</v>
+      </c>
+      <c r="B2122" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C2122" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2122">
+        <v>138</v>
+      </c>
+      <c r="E2122" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2122" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2123">
+      <c r="A2123">
+        <v>23633187</v>
+      </c>
+      <c r="B2123" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C2123" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2123">
+        <v>143</v>
+      </c>
+      <c r="E2123" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2123" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2124">
+      <c r="A2124">
+        <v>5445798</v>
+      </c>
+      <c r="B2124" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C2124" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2124">
+        <v>234</v>
+      </c>
+      <c r="E2124" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2124" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2125">
+      <c r="A2125">
+        <v>18982940</v>
+      </c>
+      <c r="B2125" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C2125" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2125">
+        <v>101</v>
+      </c>
+      <c r="E2125" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2125" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2126">
+      <c r="A2126">
+        <v>23633842</v>
+      </c>
+      <c r="B2126" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C2126" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2126">
+        <v>125</v>
+      </c>
+      <c r="E2126" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2126" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2127">
+      <c r="A2127">
+        <v>35454435</v>
+      </c>
+      <c r="B2127" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C2127" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2127">
+        <v>174</v>
+      </c>
+      <c r="E2127" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2127" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2128">
+      <c r="A2128">
+        <v>30362073</v>
+      </c>
+      <c r="B2128" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C2128" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2128">
+        <v>105</v>
+      </c>
+      <c r="E2128" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2128" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2129">
+      <c r="A2129">
+        <v>25488931</v>
+      </c>
+      <c r="B2129" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C2129" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2129">
+        <v>131</v>
+      </c>
+      <c r="E2129" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2129" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2130">
+      <c r="A2130">
+        <v>40610230</v>
+      </c>
+      <c r="B2130" t="str">
+        <v>魏晋风华：轻松读懂《世说新语》</v>
+      </c>
+      <c r="C2130" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2130">
+        <v>101</v>
+      </c>
+      <c r="E2130" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2130" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2131">
+      <c r="A2131">
+        <v>14561753</v>
+      </c>
+      <c r="B2131" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C2131" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2131">
+        <v>127</v>
+      </c>
+      <c r="E2131" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2131" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2132">
+      <c r="A2132">
+        <v>37304112</v>
+      </c>
+      <c r="B2132" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C2132" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2132">
+        <v>149</v>
+      </c>
+      <c r="E2132" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2132" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2133">
+      <c r="A2133">
+        <v>6693171</v>
+      </c>
+      <c r="B2133" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C2133" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2133">
+        <v>106</v>
+      </c>
+      <c r="E2133" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2133" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2134">
+      <c r="A2134">
+        <v>16166114</v>
+      </c>
+      <c r="B2134" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C2134" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2134">
+        <v>140</v>
+      </c>
+      <c r="E2134" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2134" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2135">
+      <c r="A2135">
+        <v>12424955</v>
+      </c>
+      <c r="B2135" t="str">
+        <v>一听就懂的《易经》</v>
+      </c>
+      <c r="C2135" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2135">
+        <v>107</v>
+      </c>
+      <c r="E2135" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2135" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2136">
+      <c r="A2136">
+        <v>11594109</v>
+      </c>
+      <c r="B2136" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C2136" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2136">
+        <v>314</v>
+      </c>
+      <c r="E2136" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2136" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2137">
+      <c r="A2137">
+        <v>33476331</v>
+      </c>
+      <c r="B2137" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2137" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2137">
+        <v>595</v>
+      </c>
+      <c r="E2137" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2137" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2138">
+      <c r="A2138">
+        <v>18923338</v>
+      </c>
+      <c r="B2138" t="str">
+        <v>罪咒 | 悬疑侦探剧</v>
+      </c>
+      <c r="C2138" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2138">
+        <v>240</v>
+      </c>
+      <c r="E2138" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F2138" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2139">
+      <c r="A2139">
+        <v>19232895</v>
+      </c>
+      <c r="B2139" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2139" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2139">
+        <v>1612</v>
+      </c>
+      <c r="E2139" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2139" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2140">
+      <c r="A2140">
+        <v>27505286</v>
+      </c>
+      <c r="B2140" t="str">
+        <v>刑警803【900集 每日双更】</v>
+      </c>
+      <c r="C2140" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2140">
+        <v>912</v>
+      </c>
+      <c r="E2140" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F2140" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2141">
+      <c r="A2141">
+        <v>35574131</v>
+      </c>
+      <c r="B2141" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C2141" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2141">
+        <v>238</v>
+      </c>
+      <c r="E2141" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2141" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2142">
+      <c r="A2142">
+        <v>35356646</v>
+      </c>
+      <c r="B2142" t="str">
+        <v>神奇校车冒险故事【桥梁书版】</v>
+      </c>
+      <c r="C2142" t="str">
+        <v>是</v>
+      </c>
+      <c r="D2142">
+        <v>231</v>
+      </c>
+      <c r="E2142" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2142" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2143">
+      <c r="A2143">
+        <v>23632774</v>
+      </c>
+      <c r="B2143" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C2143" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2143">
+        <v>263</v>
+      </c>
+      <c r="E2143" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2143" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2144">
+      <c r="A2144">
+        <v>22814062</v>
+      </c>
+      <c r="B2144" t="str">
+        <v>鬼话三国(贯穿封神西游上古神话)</v>
+      </c>
+      <c r="C2144" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2144">
+        <v>271</v>
+      </c>
+      <c r="E2144" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F2144" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2145">
+      <c r="A2145">
+        <v>19003298</v>
+      </c>
+      <c r="B2145" t="str">
+        <v>永恒的边缘：冷战的权力游戏</v>
+      </c>
+      <c r="C2145" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2145">
+        <v>331</v>
+      </c>
+      <c r="E2145" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F2145" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2146">
+      <c r="A2146">
+        <v>12517524</v>
+      </c>
+      <c r="B2146" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2146" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2146">
+        <v>130</v>
+      </c>
+      <c r="E2146" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2146" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2147">
+      <c r="A2147">
+        <v>12517524</v>
+      </c>
+      <c r="B2147" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2147" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2147">
+        <v>130</v>
+      </c>
+      <c r="E2147" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2147" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2148">
+      <c r="A2148">
+        <v>12517524</v>
+      </c>
+      <c r="B2148" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2148" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2148">
+        <v>130</v>
+      </c>
+      <c r="E2148" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2148" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2149">
+      <c r="A2149">
+        <v>12517524</v>
+      </c>
+      <c r="B2149" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2149" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2149">
+        <v>130</v>
+      </c>
+      <c r="E2149" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2149" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2150">
+      <c r="A2150">
+        <v>37407947</v>
+      </c>
+      <c r="B2150" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2150" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2150">
+        <v>580</v>
+      </c>
+      <c r="E2150" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2150" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2151">
+      <c r="A2151">
+        <v>40121646</v>
+      </c>
+      <c r="B2151" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2151" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2151">
+        <v>92</v>
+      </c>
+      <c r="E2151" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2151" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2152">
+      <c r="A2152">
+        <v>30816438</v>
+      </c>
+      <c r="B2152" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2152" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2152">
+        <v>46</v>
+      </c>
+      <c r="E2152" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2152" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2153">
+      <c r="A2153">
+        <v>30222680</v>
+      </c>
+      <c r="B2153" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2153" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2153">
+        <v>1488</v>
+      </c>
+      <c r="E2153" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2153" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2154">
+      <c r="A2154">
+        <v>19232895</v>
+      </c>
+      <c r="B2154" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2154" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2154">
+        <v>1612</v>
+      </c>
+      <c r="E2154" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2154" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2155">
+      <c r="A2155">
+        <v>23632774</v>
+      </c>
+      <c r="B2155" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C2155" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2155">
+        <v>263</v>
+      </c>
+      <c r="E2155" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2155" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2156">
+      <c r="A2156">
+        <v>23625885</v>
+      </c>
+      <c r="B2156" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C2156" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2156">
+        <v>812</v>
+      </c>
+      <c r="E2156" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2156" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2157">
+      <c r="A2157">
+        <v>35516850</v>
+      </c>
+      <c r="B2157" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C2157" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2157">
+        <v>256</v>
+      </c>
+      <c r="E2157" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2157" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2158">
+      <c r="A2158">
+        <v>32267812</v>
+      </c>
+      <c r="B2158" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C2158" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2158">
+        <v>204</v>
+      </c>
+      <c r="E2158" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2158" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2159">
+      <c r="A2159">
+        <v>35582881</v>
+      </c>
+      <c r="B2159" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C2159" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2159">
+        <v>308</v>
+      </c>
+      <c r="E2159" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2159" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2160">
+      <c r="A2160">
+        <v>10989065</v>
+      </c>
+      <c r="B2160" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C2160" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2160">
+        <v>202</v>
+      </c>
+      <c r="E2160" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2160" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2161">
+      <c r="A2161">
+        <v>26890897</v>
+      </c>
+      <c r="B2161" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2161" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2161">
+        <v>239</v>
+      </c>
+      <c r="E2161" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2161" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2162">
+      <c r="A2162">
+        <v>25482236</v>
+      </c>
+      <c r="B2162" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2162" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2162">
+        <v>240</v>
+      </c>
+      <c r="E2162" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2162" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2163">
+      <c r="A2163">
+        <v>39016657</v>
+      </c>
+      <c r="B2163" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C2163" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2163">
+        <v>184</v>
+      </c>
+      <c r="E2163" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2163" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2164">
+      <c r="A2164">
+        <v>39885016</v>
+      </c>
+      <c r="B2164" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C2164" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2164">
+        <v>173</v>
+      </c>
+      <c r="E2164" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2164" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2165">
+      <c r="A2165">
+        <v>23550058</v>
+      </c>
+      <c r="B2165" t="str">
+        <v>精读1000本全球好书【日更】心理罪、人类简史、墨菲定律等</v>
+      </c>
+      <c r="C2165" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2165">
+        <v>508</v>
+      </c>
+      <c r="E2165" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2165" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2166">
+      <c r="A2166">
+        <v>23633996</v>
+      </c>
+      <c r="B2166" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C2166" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2166">
+        <v>138</v>
+      </c>
+      <c r="E2166" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2166" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2167">
+      <c r="A2167">
+        <v>23633187</v>
+      </c>
+      <c r="B2167" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C2167" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2167">
+        <v>143</v>
+      </c>
+      <c r="E2167" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2167" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2168">
+      <c r="A2168">
+        <v>36387482</v>
+      </c>
+      <c r="B2168" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C2168" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2168">
+        <v>166</v>
+      </c>
+      <c r="E2168" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2168" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2169">
+      <c r="A2169">
+        <v>23633570</v>
+      </c>
+      <c r="B2169" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C2169" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2169">
+        <v>147</v>
+      </c>
+      <c r="E2169" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2169" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2170">
+      <c r="A2170">
+        <v>18982940</v>
+      </c>
+      <c r="B2170" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C2170" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2170">
+        <v>101</v>
+      </c>
+      <c r="E2170" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2170" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2171">
+      <c r="A2171">
+        <v>35454435</v>
+      </c>
+      <c r="B2171" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C2171" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2171">
+        <v>174</v>
+      </c>
+      <c r="E2171" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2171" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2172">
+      <c r="A2172">
+        <v>23633842</v>
+      </c>
+      <c r="B2172" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C2172" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2172">
+        <v>125</v>
+      </c>
+      <c r="E2172" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2172" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2173">
+      <c r="A2173">
+        <v>5445798</v>
+      </c>
+      <c r="B2173" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C2173" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2173">
+        <v>234</v>
+      </c>
+      <c r="E2173" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2173" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2174">
+      <c r="A2174">
+        <v>30362073</v>
+      </c>
+      <c r="B2174" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C2174" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2174">
+        <v>105</v>
+      </c>
+      <c r="E2174" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2174" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2175">
+      <c r="A2175">
+        <v>25488931</v>
+      </c>
+      <c r="B2175" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C2175" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2175">
+        <v>131</v>
+      </c>
+      <c r="E2175" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2175" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2176">
+      <c r="A2176">
+        <v>40610230</v>
+      </c>
+      <c r="B2176" t="str">
+        <v>魏晋风华：轻松读懂《世说新语》</v>
+      </c>
+      <c r="C2176" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2176">
+        <v>101</v>
+      </c>
+      <c r="E2176" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2176" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2177">
+      <c r="A2177">
+        <v>14561753</v>
+      </c>
+      <c r="B2177" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C2177" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2177">
+        <v>127</v>
+      </c>
+      <c r="E2177" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2177" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2178">
+      <c r="A2178">
+        <v>37304112</v>
+      </c>
+      <c r="B2178" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C2178" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2178">
+        <v>149</v>
+      </c>
+      <c r="E2178" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2178" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2179">
+      <c r="A2179">
+        <v>6693171</v>
+      </c>
+      <c r="B2179" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C2179" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2179">
+        <v>106</v>
+      </c>
+      <c r="E2179" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2179" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2180">
+      <c r="A2180">
+        <v>16166114</v>
+      </c>
+      <c r="B2180" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C2180" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2180">
+        <v>140</v>
+      </c>
+      <c r="E2180" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2180" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2181">
+      <c r="A2181">
+        <v>12424955</v>
+      </c>
+      <c r="B2181" t="str">
+        <v>一听就懂的《易经》</v>
+      </c>
+      <c r="C2181" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2181">
+        <v>107</v>
+      </c>
+      <c r="E2181" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2181" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2182">
+      <c r="A2182">
+        <v>11594109</v>
+      </c>
+      <c r="B2182" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C2182" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2182">
+        <v>314</v>
+      </c>
+      <c r="E2182" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2182" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2183">
+      <c r="A2183">
+        <v>33476331</v>
+      </c>
+      <c r="B2183" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2183" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2183">
+        <v>597</v>
+      </c>
+      <c r="E2183" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2183" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2184">
+      <c r="A2184">
+        <v>18923338</v>
+      </c>
+      <c r="B2184" t="str">
+        <v>罪咒 | 悬疑侦探剧</v>
+      </c>
+      <c r="C2184" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2184">
+        <v>240</v>
+      </c>
+      <c r="E2184" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F2184" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2185">
+      <c r="A2185">
+        <v>19232895</v>
+      </c>
+      <c r="B2185" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2185" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2185">
+        <v>1612</v>
+      </c>
+      <c r="E2185" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2185" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2186">
+      <c r="A2186">
+        <v>27505286</v>
+      </c>
+      <c r="B2186" t="str">
+        <v>刑警803【900集 每日双更】</v>
+      </c>
+      <c r="C2186" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2186">
+        <v>912</v>
+      </c>
+      <c r="E2186" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F2186" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2187">
+      <c r="A2187">
+        <v>35574131</v>
+      </c>
+      <c r="B2187" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C2187" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2187">
+        <v>238</v>
+      </c>
+      <c r="E2187" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2187" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2188">
+      <c r="A2188">
+        <v>11438153</v>
+      </c>
+      <c r="B2188" t="str">
+        <v>郭论1·郭德纲品俗文化史</v>
+      </c>
+      <c r="C2188" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2188">
+        <v>161</v>
+      </c>
+      <c r="E2188" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2188" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2189">
+      <c r="A2189">
+        <v>23632774</v>
+      </c>
+      <c r="B2189" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C2189" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2189">
+        <v>263</v>
+      </c>
+      <c r="E2189" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2189" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2190">
+      <c r="A2190">
+        <v>22814062</v>
+      </c>
+      <c r="B2190" t="str">
+        <v>鬼话三国(贯穿封神西游上古神话)</v>
+      </c>
+      <c r="C2190" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2190">
+        <v>272</v>
+      </c>
+      <c r="E2190" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F2190" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2191">
+      <c r="A2191">
+        <v>19003298</v>
+      </c>
+      <c r="B2191" t="str">
+        <v>永恒的边缘：冷战的权力游戏</v>
+      </c>
+      <c r="C2191" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2191">
+        <v>331</v>
+      </c>
+      <c r="E2191" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F2191" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2192">
+      <c r="A2192">
+        <v>12517524</v>
+      </c>
+      <c r="B2192" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2192" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2192">
+        <v>130</v>
+      </c>
+      <c r="E2192" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2192" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2193">
+      <c r="A2193">
+        <v>37407947</v>
+      </c>
+      <c r="B2193" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2193" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2193">
+        <v>580</v>
+      </c>
+      <c r="E2193" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2193" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2194">
+      <c r="A2194">
+        <v>40121646</v>
+      </c>
+      <c r="B2194" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2194" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2194">
+        <v>92</v>
+      </c>
+      <c r="E2194" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2194" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2195">
+      <c r="A2195">
+        <v>30816438</v>
+      </c>
+      <c r="B2195" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2195" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2195">
+        <v>46</v>
+      </c>
+      <c r="E2195" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2195" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2196">
+      <c r="A2196">
+        <v>30222680</v>
+      </c>
+      <c r="B2196" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2196" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2196">
+        <v>1488</v>
+      </c>
+      <c r="E2196" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2196" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2197">
+      <c r="A2197">
+        <v>19232895</v>
+      </c>
+      <c r="B2197" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2197" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2197">
+        <v>1613</v>
+      </c>
+      <c r="E2197" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2197" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2198">
+      <c r="A2198">
+        <v>23632774</v>
+      </c>
+      <c r="B2198" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C2198" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2198">
+        <v>263</v>
+      </c>
+      <c r="E2198" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2198" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2199">
+      <c r="A2199">
+        <v>23625885</v>
+      </c>
+      <c r="B2199" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C2199" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2199">
+        <v>812</v>
+      </c>
+      <c r="E2199" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2199" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2200">
+      <c r="A2200">
+        <v>35516850</v>
+      </c>
+      <c r="B2200" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C2200" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2200">
+        <v>261</v>
+      </c>
+      <c r="E2200" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2200" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2201">
+      <c r="A2201">
+        <v>32267812</v>
+      </c>
+      <c r="B2201" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C2201" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2201">
+        <v>204</v>
+      </c>
+      <c r="E2201" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2201" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2202">
+      <c r="A2202">
+        <v>35582881</v>
+      </c>
+      <c r="B2202" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C2202" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2202">
+        <v>309</v>
+      </c>
+      <c r="E2202" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2202" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2203">
+      <c r="A2203">
+        <v>10989065</v>
+      </c>
+      <c r="B2203" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C2203" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2203">
+        <v>202</v>
+      </c>
+      <c r="E2203" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2203" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2204">
+      <c r="A2204">
+        <v>26890897</v>
+      </c>
+      <c r="B2204" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2204" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2204">
+        <v>239</v>
+      </c>
+      <c r="E2204" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2204" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2205">
+      <c r="A2205">
+        <v>25482236</v>
+      </c>
+      <c r="B2205" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2205" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2205">
+        <v>240</v>
+      </c>
+      <c r="E2205" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2205" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2206">
+      <c r="A2206">
+        <v>39016657</v>
+      </c>
+      <c r="B2206" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C2206" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2206">
+        <v>184</v>
+      </c>
+      <c r="E2206" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2206" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2207">
+      <c r="A2207">
+        <v>39885016</v>
+      </c>
+      <c r="B2207" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C2207" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2207">
+        <v>177</v>
+      </c>
+      <c r="E2207" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2207" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2208">
+      <c r="A2208">
+        <v>23550058</v>
+      </c>
+      <c r="B2208" t="str">
+        <v>精读1000本全球好书【日更】心理罪、人类简史、墨菲定律等</v>
+      </c>
+      <c r="C2208" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2208">
+        <v>508</v>
+      </c>
+      <c r="E2208" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2208" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2209">
+      <c r="A2209">
+        <v>23633996</v>
+      </c>
+      <c r="B2209" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C2209" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2209">
+        <v>138</v>
+      </c>
+      <c r="E2209" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2209" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2210">
+      <c r="A2210">
+        <v>23633187</v>
+      </c>
+      <c r="B2210" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C2210" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2210">
+        <v>143</v>
+      </c>
+      <c r="E2210" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2210" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2211">
+      <c r="A2211">
+        <v>36387482</v>
+      </c>
+      <c r="B2211" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C2211" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2211">
+        <v>166</v>
+      </c>
+      <c r="E2211" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2211" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2212">
+      <c r="A2212">
+        <v>23633570</v>
+      </c>
+      <c r="B2212" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C2212" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2212">
+        <v>147</v>
+      </c>
+      <c r="E2212" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2212" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2213">
+      <c r="A2213">
+        <v>18982940</v>
+      </c>
+      <c r="B2213" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C2213" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2213">
+        <v>101</v>
+      </c>
+      <c r="E2213" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2213" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2214">
+      <c r="A2214">
+        <v>35454435</v>
+      </c>
+      <c r="B2214" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C2214" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2214">
+        <v>175</v>
+      </c>
+      <c r="E2214" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2214" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2215">
+      <c r="A2215">
+        <v>23633842</v>
+      </c>
+      <c r="B2215" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C2215" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2215">
+        <v>125</v>
+      </c>
+      <c r="E2215" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2215" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2216">
+      <c r="A2216">
+        <v>5445798</v>
+      </c>
+      <c r="B2216" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C2216" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2216">
+        <v>234</v>
+      </c>
+      <c r="E2216" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2216" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2217">
+      <c r="A2217">
+        <v>30362073</v>
+      </c>
+      <c r="B2217" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C2217" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2217">
+        <v>105</v>
+      </c>
+      <c r="E2217" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2217" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2218">
+      <c r="A2218">
+        <v>25488931</v>
+      </c>
+      <c r="B2218" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C2218" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2218">
+        <v>131</v>
+      </c>
+      <c r="E2218" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2218" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2219">
+      <c r="A2219">
+        <v>40610230</v>
+      </c>
+      <c r="B2219" t="str">
+        <v>魏晋风华：轻松读懂《世说新语》</v>
+      </c>
+      <c r="C2219" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2219">
+        <v>101</v>
+      </c>
+      <c r="E2219" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2219" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2220">
+      <c r="A2220">
+        <v>14561753</v>
+      </c>
+      <c r="B2220" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C2220" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2220">
+        <v>127</v>
+      </c>
+      <c r="E2220" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2220" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2221">
+      <c r="A2221">
+        <v>37304112</v>
+      </c>
+      <c r="B2221" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C2221" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2221">
+        <v>149</v>
+      </c>
+      <c r="E2221" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2221" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2222">
+      <c r="A2222">
+        <v>6693171</v>
+      </c>
+      <c r="B2222" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C2222" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2222">
+        <v>106</v>
+      </c>
+      <c r="E2222" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2222" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2223">
+      <c r="A2223">
+        <v>16166114</v>
+      </c>
+      <c r="B2223" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C2223" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2223">
+        <v>140</v>
+      </c>
+      <c r="E2223" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2223" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2224">
+      <c r="A2224">
+        <v>12424955</v>
+      </c>
+      <c r="B2224" t="str">
+        <v>一听就懂的《易经》</v>
+      </c>
+      <c r="C2224" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2224">
+        <v>107</v>
+      </c>
+      <c r="E2224" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2224" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2225">
+      <c r="A2225">
+        <v>11594109</v>
+      </c>
+      <c r="B2225" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C2225" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2225">
+        <v>314</v>
+      </c>
+      <c r="E2225" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2225" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2226">
+      <c r="A2226">
+        <v>33476331</v>
+      </c>
+      <c r="B2226" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2226" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2226">
+        <v>597</v>
+      </c>
+      <c r="E2226" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2226" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2227">
+      <c r="A2227">
+        <v>18923338</v>
+      </c>
+      <c r="B2227" t="str">
+        <v>罪咒 | 悬疑侦探剧</v>
+      </c>
+      <c r="C2227" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2227">
+        <v>242</v>
+      </c>
+      <c r="E2227" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F2227" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2228">
+      <c r="A2228">
+        <v>19232895</v>
+      </c>
+      <c r="B2228" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2228" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2228">
+        <v>1613</v>
+      </c>
+      <c r="E2228" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2228" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2229">
+      <c r="A2229">
+        <v>27505286</v>
+      </c>
+      <c r="B2229" t="str">
+        <v>刑警803【900集 每日双更】</v>
+      </c>
+      <c r="C2229" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2229">
+        <v>912</v>
+      </c>
+      <c r="E2229" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F2229" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2230">
+      <c r="A2230">
+        <v>35574131</v>
+      </c>
+      <c r="B2230" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C2230" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2230">
+        <v>238</v>
+      </c>
+      <c r="E2230" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2230" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2231">
+      <c r="A2231">
+        <v>11438153</v>
+      </c>
+      <c r="B2231" t="str">
+        <v>郭论1·郭德纲品俗文化史</v>
+      </c>
+      <c r="C2231" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2231">
+        <v>161</v>
+      </c>
+      <c r="E2231" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2231" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2232">
+      <c r="A2232">
+        <v>23632774</v>
+      </c>
+      <c r="B2232" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C2232" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2232">
+        <v>263</v>
+      </c>
+      <c r="E2232" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2232" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2233">
+      <c r="A2233">
+        <v>22814062</v>
+      </c>
+      <c r="B2233" t="str">
+        <v>鬼话三国(贯穿封神西游上古神话)</v>
+      </c>
+      <c r="C2233" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2233">
+        <v>272</v>
+      </c>
+      <c r="E2233" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F2233" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2234">
+      <c r="A2234">
+        <v>19003298</v>
+      </c>
+      <c r="B2234" t="str">
+        <v>永恒的边缘：冷战的权力游戏</v>
+      </c>
+      <c r="C2234" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2234">
+        <v>331</v>
+      </c>
+      <c r="E2234" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F2234" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2235">
+      <c r="A2235">
+        <v>40389630</v>
+      </c>
+      <c r="B2235" t="str">
+        <v>听世界·楚汉争霸录（《听世界·秦汉》前部）</v>
+      </c>
+      <c r="C2235" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2235">
+        <v>232</v>
+      </c>
+      <c r="E2235" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F2235" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2236">
+      <c r="A2236">
+        <v>30416480</v>
+      </c>
+      <c r="B2236" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C2236" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2236">
+        <v>272</v>
+      </c>
+      <c r="E2236" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2236" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2237">
+      <c r="A2237">
+        <v>21824864</v>
+      </c>
+      <c r="B2237" t="str">
+        <v>谦道·于谦首档音频脱口秀</v>
+      </c>
+      <c r="C2237" t="str">
+        <v>是</v>
+      </c>
+      <c r="D2237">
+        <v>161</v>
+      </c>
+      <c r="E2237" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2237" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2238">
+      <c r="A2238">
+        <v>39394985</v>
+      </c>
+      <c r="B2238" t="str">
+        <v>火影：从双神威开始 |精品多人剧</v>
+      </c>
+      <c r="C2238" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2238">
+        <v>249</v>
+      </c>
+      <c r="E2238" t="str">
+        <v>二次元</v>
+      </c>
+      <c r="F2238" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2239">
+      <c r="A2239">
+        <v>12517524</v>
+      </c>
+      <c r="B2239" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2239" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2239">
+        <v>130</v>
+      </c>
+      <c r="E2239" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2239" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2240">
+      <c r="A2240">
+        <v>37407947</v>
+      </c>
+      <c r="B2240" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2240" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2240">
+        <v>584</v>
+      </c>
+      <c r="E2240" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2240" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2241">
+      <c r="A2241">
+        <v>40121646</v>
+      </c>
+      <c r="B2241" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2241" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2241">
+        <v>96</v>
+      </c>
+      <c r="E2241" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2241" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2242">
+      <c r="A2242">
+        <v>30816438</v>
+      </c>
+      <c r="B2242" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2242" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2242">
+        <v>46</v>
+      </c>
+      <c r="E2242" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2242" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2243">
+      <c r="A2243">
+        <v>30222680</v>
+      </c>
+      <c r="B2243" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2243" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2243">
+        <v>1489</v>
+      </c>
+      <c r="E2243" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2243" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2244">
+      <c r="A2244">
+        <v>37881116</v>
+      </c>
+      <c r="B2244" t="str">
+        <v>生死禁地之香巴拉|周建龙播讲</v>
+      </c>
+      <c r="C2244" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2244">
+        <v>319</v>
+      </c>
+      <c r="E2244" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2244" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2245">
+      <c r="A2245">
+        <v>19232895</v>
+      </c>
+      <c r="B2245" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2245" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2245">
+        <v>1614</v>
+      </c>
+      <c r="E2245" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2245" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2246">
+      <c r="A2246">
+        <v>12517524</v>
+      </c>
+      <c r="B2246" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2246" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2246">
+        <v>130</v>
+      </c>
+      <c r="E2246" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2246" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2247">
+      <c r="A2247">
+        <v>37407947</v>
+      </c>
+      <c r="B2247" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2247" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2247">
+        <v>584</v>
+      </c>
+      <c r="E2247" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2247" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2248">
+      <c r="A2248">
+        <v>40121646</v>
+      </c>
+      <c r="B2248" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2248" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2248">
+        <v>96</v>
+      </c>
+      <c r="E2248" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2248" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2249">
+      <c r="A2249">
+        <v>30816438</v>
+      </c>
+      <c r="B2249" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2249" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2249">
+        <v>46</v>
+      </c>
+      <c r="E2249" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2249" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2250">
+      <c r="A2250">
+        <v>30222680</v>
+      </c>
+      <c r="B2250" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2250" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2250">
+        <v>1489</v>
+      </c>
+      <c r="E2250" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2250" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2251">
+      <c r="A2251">
+        <v>37881116</v>
+      </c>
+      <c r="B2251" t="str">
+        <v>生死禁地之香巴拉|周建龙播讲</v>
+      </c>
+      <c r="C2251" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2251">
+        <v>319</v>
+      </c>
+      <c r="E2251" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2251" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2252">
+      <c r="A2252">
+        <v>19232895</v>
+      </c>
+      <c r="B2252" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2252" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2252">
+        <v>1614</v>
+      </c>
+      <c r="E2252" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2252" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2253">
+      <c r="A2253">
+        <v>23632774</v>
+      </c>
+      <c r="B2253" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C2253" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2253">
+        <v>263</v>
+      </c>
+      <c r="E2253" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2253" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2254">
+      <c r="A2254">
+        <v>35516850</v>
+      </c>
+      <c r="B2254" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C2254" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2254">
+        <v>267</v>
+      </c>
+      <c r="E2254" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2254" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2255">
+      <c r="A2255">
+        <v>23625885</v>
+      </c>
+      <c r="B2255" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C2255" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2255">
+        <v>812</v>
+      </c>
+      <c r="E2255" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2255" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2256">
+      <c r="A2256">
+        <v>35582881</v>
+      </c>
+      <c r="B2256" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C2256" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2256">
+        <v>311</v>
+      </c>
+      <c r="E2256" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2256" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2257">
+      <c r="A2257">
+        <v>32267812</v>
+      </c>
+      <c r="B2257" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C2257" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2257">
+        <v>204</v>
+      </c>
+      <c r="E2257" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2257" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2258">
+      <c r="A2258">
+        <v>26890897</v>
+      </c>
+      <c r="B2258" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2258" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2258">
+        <v>239</v>
+      </c>
+      <c r="E2258" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2258" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2259">
+      <c r="A2259">
+        <v>25482236</v>
+      </c>
+      <c r="B2259" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2259" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2259">
+        <v>240</v>
+      </c>
+      <c r="E2259" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2259" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2260">
+      <c r="A2260">
+        <v>10989065</v>
+      </c>
+      <c r="B2260" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C2260" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2260">
+        <v>202</v>
+      </c>
+      <c r="E2260" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2260" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2261">
+      <c r="A2261">
+        <v>39016657</v>
+      </c>
+      <c r="B2261" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C2261" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2261">
+        <v>184</v>
+      </c>
+      <c r="E2261" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2261" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2262">
+      <c r="A2262">
+        <v>23550058</v>
+      </c>
+      <c r="B2262" t="str">
+        <v>精读1000本全球好书【日更】心理罪、人类简史、墨菲定律等</v>
+      </c>
+      <c r="C2262" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2262">
+        <v>510</v>
+      </c>
+      <c r="E2262" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2262" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2263">
+      <c r="A2263">
+        <v>39885016</v>
+      </c>
+      <c r="B2263" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C2263" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2263">
+        <v>179</v>
+      </c>
+      <c r="E2263" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2263" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2264">
+      <c r="A2264">
+        <v>23633996</v>
+      </c>
+      <c r="B2264" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C2264" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2264">
+        <v>138</v>
+      </c>
+      <c r="E2264" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2264" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2265">
+      <c r="A2265">
+        <v>23633187</v>
+      </c>
+      <c r="B2265" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C2265" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2265">
+        <v>143</v>
+      </c>
+      <c r="E2265" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2265" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2266">
+      <c r="A2266">
+        <v>36387482</v>
+      </c>
+      <c r="B2266" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C2266" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2266">
+        <v>166</v>
+      </c>
+      <c r="E2266" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2266" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2267">
+      <c r="A2267">
+        <v>23633570</v>
+      </c>
+      <c r="B2267" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C2267" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2267">
+        <v>147</v>
+      </c>
+      <c r="E2267" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2267" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2268">
+      <c r="A2268">
+        <v>18982940</v>
+      </c>
+      <c r="B2268" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C2268" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2268">
+        <v>101</v>
+      </c>
+      <c r="E2268" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2268" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2269">
+      <c r="A2269">
+        <v>35454435</v>
+      </c>
+      <c r="B2269" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C2269" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2269">
+        <v>177</v>
+      </c>
+      <c r="E2269" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2269" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2270">
+      <c r="A2270">
+        <v>23633842</v>
+      </c>
+      <c r="B2270" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C2270" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2270">
+        <v>125</v>
+      </c>
+      <c r="E2270" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2270" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2271">
+      <c r="A2271">
+        <v>5445798</v>
+      </c>
+      <c r="B2271" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C2271" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2271">
+        <v>234</v>
+      </c>
+      <c r="E2271" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2271" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2272">
+      <c r="A2272">
+        <v>40610230</v>
+      </c>
+      <c r="B2272" t="str">
+        <v>魏晋风华：轻松读懂《世说新语》</v>
+      </c>
+      <c r="C2272" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2272">
+        <v>101</v>
+      </c>
+      <c r="E2272" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2272" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2273">
+      <c r="A2273">
+        <v>30362073</v>
+      </c>
+      <c r="B2273" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C2273" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2273">
+        <v>105</v>
+      </c>
+      <c r="E2273" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2273" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2274">
+      <c r="A2274">
+        <v>25488931</v>
+      </c>
+      <c r="B2274" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C2274" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2274">
+        <v>131</v>
+      </c>
+      <c r="E2274" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2274" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2275">
+      <c r="A2275">
+        <v>14561753</v>
+      </c>
+      <c r="B2275" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C2275" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2275">
+        <v>127</v>
+      </c>
+      <c r="E2275" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2275" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2276">
+      <c r="A2276">
+        <v>6693171</v>
+      </c>
+      <c r="B2276" t="str">
+        <v>蒙曼品最美唐诗</v>
+      </c>
+      <c r="C2276" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2276">
+        <v>106</v>
+      </c>
+      <c r="E2276" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2276" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2277">
+      <c r="A2277">
+        <v>37304112</v>
+      </c>
+      <c r="B2277" t="str">
+        <v>水浒传 · 经典评书升级版 | 全本无删减道尽人间百态</v>
+      </c>
+      <c r="C2277" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2277">
+        <v>151</v>
+      </c>
+      <c r="E2277" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2277" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2278">
+      <c r="A2278">
+        <v>16166114</v>
+      </c>
+      <c r="B2278" t="str">
+        <v>一听就懂的心经</v>
+      </c>
+      <c r="C2278" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2278">
+        <v>140</v>
+      </c>
+      <c r="E2278" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2278" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2279">
+      <c r="A2279">
+        <v>12424955</v>
+      </c>
+      <c r="B2279" t="str">
+        <v>一听就懂的《易经》</v>
+      </c>
+      <c r="C2279" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2279">
+        <v>107</v>
+      </c>
+      <c r="E2279" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2279" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2280">
+      <c r="A2280">
+        <v>11594109</v>
+      </c>
+      <c r="B2280" t="str">
+        <v>小猪佩奇全集：一二三四季</v>
+      </c>
+      <c r="C2280" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2280">
+        <v>314</v>
+      </c>
+      <c r="E2280" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2280" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2281">
+      <c r="A2281">
+        <v>33476331</v>
+      </c>
+      <c r="B2281" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2281" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2281">
+        <v>601</v>
+      </c>
+      <c r="E2281" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2281" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2282">
+      <c r="A2282">
+        <v>18923338</v>
+      </c>
+      <c r="B2282" t="str">
+        <v>罪咒 | 悬疑侦探剧</v>
+      </c>
+      <c r="C2282" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2282">
+        <v>242</v>
+      </c>
+      <c r="E2282" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F2282" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2283">
+      <c r="A2283">
+        <v>19232895</v>
+      </c>
+      <c r="B2283" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2283" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2283">
+        <v>1614</v>
+      </c>
+      <c r="E2283" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2283" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2284">
+      <c r="A2284">
+        <v>27505286</v>
+      </c>
+      <c r="B2284" t="str">
+        <v>刑警803【900集 每日双更】</v>
+      </c>
+      <c r="C2284" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2284">
+        <v>912</v>
+      </c>
+      <c r="E2284" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F2284" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2285">
+      <c r="A2285">
+        <v>35574131</v>
+      </c>
+      <c r="B2285" t="str">
+        <v>星际太空鼠 | 恐龙星历险记</v>
+      </c>
+      <c r="C2285" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2285">
+        <v>238</v>
+      </c>
+      <c r="E2285" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2285" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2286">
+      <c r="A2286">
+        <v>11438153</v>
+      </c>
+      <c r="B2286" t="str">
+        <v>郭论1·郭德纲品俗文化史</v>
+      </c>
+      <c r="C2286" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2286">
+        <v>161</v>
+      </c>
+      <c r="E2286" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2286" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2287">
+      <c r="A2287">
+        <v>23632774</v>
+      </c>
+      <c r="B2287" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C2287" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2287">
+        <v>263</v>
+      </c>
+      <c r="E2287" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2287" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2288">
+      <c r="A2288">
+        <v>30416480</v>
+      </c>
+      <c r="B2288" t="str">
+        <v>西游记 · 后传 | 儿童经典名著</v>
+      </c>
+      <c r="C2288" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2288">
+        <v>272</v>
+      </c>
+      <c r="E2288" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F2288" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2289">
+      <c r="A2289">
+        <v>19003298</v>
+      </c>
+      <c r="B2289" t="str">
+        <v>永恒的边缘：冷战的权力游戏</v>
+      </c>
+      <c r="C2289" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2289">
+        <v>331</v>
+      </c>
+      <c r="E2289" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F2289" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2290">
+      <c r="A2290">
+        <v>22814062</v>
+      </c>
+      <c r="B2290" t="str">
+        <v>鬼话三国(贯穿封神西游上古神话)</v>
+      </c>
+      <c r="C2290" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2290">
+        <v>273</v>
+      </c>
+      <c r="E2290" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F2290" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2291">
+      <c r="A2291">
+        <v>41340115</v>
+      </c>
+      <c r="B2291" t="str">
+        <v>《东北保家仙之常三太奶》</v>
+      </c>
+      <c r="C2291" t="str">
+        <v>是</v>
+      </c>
+      <c r="D2291">
+        <v>225</v>
+      </c>
+      <c r="E2291" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2291" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2292">
+      <c r="A2292">
+        <v>40389630</v>
+      </c>
+      <c r="B2292" t="str">
+        <v>听世界·楚汉争霸录（《听世界·秦汉》前部）</v>
+      </c>
+      <c r="C2292" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2292">
+        <v>232</v>
+      </c>
+      <c r="E2292" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F2292" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2293">
+      <c r="A2293">
+        <v>4651578</v>
+      </c>
+      <c r="B2293" t="str">
+        <v>穿越异世界|我和公主有一腿</v>
+      </c>
+      <c r="C2293" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2293">
+        <v>634</v>
+      </c>
+      <c r="E2293" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2293" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2294">
+      <c r="A2294">
+        <v>39394985</v>
+      </c>
+      <c r="B2294" t="str">
+        <v>火影：从双神威开始 |精品多人剧</v>
+      </c>
+      <c r="C2294" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2294">
+        <v>256</v>
+      </c>
+      <c r="E2294" t="str">
+        <v>二次元</v>
+      </c>
+      <c r="F2294" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2295">
+      <c r="A2295">
+        <v>39488639</v>
+      </c>
+      <c r="B2295" t="str">
+        <v>郭论3·夜总荟 | 郭德纲的晚间哔哔电台</v>
+      </c>
+      <c r="C2295" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2295">
+        <v>39</v>
+      </c>
+      <c r="E2295" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2295" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2296">
+      <c r="A2296">
+        <v>12517524</v>
+      </c>
+      <c r="B2296" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2296" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2296">
+        <v>130</v>
+      </c>
+      <c r="E2296" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2296" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2297">
+      <c r="A2297">
+        <v>37407947</v>
+      </c>
+      <c r="B2297" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2297" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2297">
+        <v>589</v>
+      </c>
+      <c r="E2297" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2297" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2298">
+      <c r="A2298">
+        <v>40121646</v>
+      </c>
+      <c r="B2298" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2298" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2298">
+        <v>98</v>
+      </c>
+      <c r="E2298" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2298" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2299">
+      <c r="A2299">
+        <v>30816438</v>
+      </c>
+      <c r="B2299" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2299" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2299">
+        <v>46</v>
+      </c>
+      <c r="E2299" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2299" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2300">
+      <c r="A2300">
+        <v>30222680</v>
+      </c>
+      <c r="B2300" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2300" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2300">
+        <v>1489</v>
+      </c>
+      <c r="E2300" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2300" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2301">
+      <c r="A2301">
+        <v>37881116</v>
+      </c>
+      <c r="B2301" t="str">
+        <v>生死禁地之香巴拉|周建龙播讲</v>
+      </c>
+      <c r="C2301" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2301">
+        <v>319</v>
+      </c>
+      <c r="E2301" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2301" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2302">
+      <c r="A2302">
+        <v>19232895</v>
+      </c>
+      <c r="B2302" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2302" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2302">
+        <v>1616</v>
+      </c>
+      <c r="E2302" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2302" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2303">
+      <c r="A2303">
+        <v>23632774</v>
+      </c>
+      <c r="B2303" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C2303" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2303">
+        <v>265</v>
+      </c>
+      <c r="E2303" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2303" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2304">
+      <c r="A2304">
+        <v>35516850</v>
+      </c>
+      <c r="B2304" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C2304" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2304">
+        <v>276</v>
+      </c>
+      <c r="E2304" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2304" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2305">
+      <c r="A2305">
+        <v>23625885</v>
+      </c>
+      <c r="B2305" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C2305" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2305">
+        <v>814</v>
+      </c>
+      <c r="E2305" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2305" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2306">
+      <c r="A2306">
+        <v>35582881</v>
+      </c>
+      <c r="B2306" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C2306" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2306">
+        <v>314</v>
+      </c>
+      <c r="E2306" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2306" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2307">
+      <c r="A2307">
+        <v>32267812</v>
+      </c>
+      <c r="B2307" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C2307" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2307">
+        <v>204</v>
+      </c>
+      <c r="E2307" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2307" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2308">
+      <c r="A2308">
+        <v>26890897</v>
+      </c>
+      <c r="B2308" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2308" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2308">
+        <v>239</v>
+      </c>
+      <c r="E2308" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2308" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2309">
+      <c r="A2309">
+        <v>25482236</v>
+      </c>
+      <c r="B2309" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2309" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2309">
+        <v>240</v>
+      </c>
+      <c r="E2309" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2309" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2310">
+      <c r="A2310">
+        <v>10989065</v>
+      </c>
+      <c r="B2310" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C2310" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2310">
+        <v>202</v>
+      </c>
+      <c r="E2310" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2310" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2311">
+      <c r="A2311">
+        <v>39016657</v>
+      </c>
+      <c r="B2311" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C2311" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2311">
+        <v>210</v>
+      </c>
+      <c r="E2311" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2311" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2312">
+      <c r="A2312">
+        <v>23550058</v>
+      </c>
+      <c r="B2312" t="str">
+        <v>精读1000本全球好书【日更】心理罪、人类简史、墨菲定律等</v>
+      </c>
+      <c r="C2312" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2312">
+        <v>512</v>
+      </c>
+      <c r="E2312" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2312" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2313">
+      <c r="A2313">
+        <v>39885016</v>
+      </c>
+      <c r="B2313" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C2313" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2313">
+        <v>186</v>
+      </c>
+      <c r="E2313" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2313" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2314">
+      <c r="A2314">
+        <v>23633187</v>
+      </c>
+      <c r="B2314" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C2314" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2314">
+        <v>143</v>
+      </c>
+      <c r="E2314" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2314" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2315">
+      <c r="A2315">
+        <v>23633996</v>
+      </c>
+      <c r="B2315" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C2315" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2315">
+        <v>138</v>
+      </c>
+      <c r="E2315" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2315" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2316">
+      <c r="A2316">
+        <v>36387482</v>
+      </c>
+      <c r="B2316" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C2316" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2316">
+        <v>166</v>
+      </c>
+      <c r="E2316" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2316" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2317">
+      <c r="A2317">
+        <v>23633570</v>
+      </c>
+      <c r="B2317" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C2317" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2317">
+        <v>147</v>
+      </c>
+      <c r="E2317" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2317" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2318">
+      <c r="A2318">
+        <v>18982940</v>
+      </c>
+      <c r="B2318" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C2318" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2318">
+        <v>101</v>
+      </c>
+      <c r="E2318" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2318" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2319">
+      <c r="A2319">
+        <v>35454435</v>
+      </c>
+      <c r="B2319" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C2319" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2319">
+        <v>178</v>
+      </c>
+      <c r="E2319" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2319" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2320">
+      <c r="A2320">
+        <v>23633842</v>
+      </c>
+      <c r="B2320" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C2320" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2320">
+        <v>125</v>
+      </c>
+      <c r="E2320" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2320" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2321">
+      <c r="A2321">
+        <v>5445798</v>
+      </c>
+      <c r="B2321" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C2321" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2321">
+        <v>234</v>
+      </c>
+      <c r="E2321" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2321" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2322">
+      <c r="A2322">
+        <v>25488931</v>
+      </c>
+      <c r="B2322" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C2322" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2322">
+        <v>131</v>
+      </c>
+      <c r="E2322" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2322" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2323">
+      <c r="A2323">
+        <v>30362073</v>
+      </c>
+      <c r="B2323" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C2323" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2323">
+        <v>105</v>
+      </c>
+      <c r="E2323" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2323" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2324">
+      <c r="A2324">
+        <v>40610230</v>
+      </c>
+      <c r="B2324" t="str">
+        <v>魏晋风华：轻松读懂《世说新语》</v>
+      </c>
+      <c r="C2324" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2324">
+        <v>101</v>
+      </c>
+      <c r="E2324" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2324" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2325">
+      <c r="A2325">
+        <v>14561753</v>
+      </c>
+      <c r="B2325" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C2325" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2325">
+        <v>127</v>
+      </c>
+      <c r="E2325" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2325" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2326">
+      <c r="A2326">
+        <v>12517524</v>
+      </c>
+      <c r="B2326" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2326" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2326">
+        <v>130</v>
+      </c>
+      <c r="E2326" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2326" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2327">
+      <c r="A2327">
+        <v>37407947</v>
+      </c>
+      <c r="B2327" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2327" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2327">
+        <v>592</v>
+      </c>
+      <c r="E2327" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2327" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2328">
+      <c r="A2328">
+        <v>40121646</v>
+      </c>
+      <c r="B2328" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2328" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2328">
+        <v>98</v>
+      </c>
+      <c r="E2328" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2328" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2329">
+      <c r="A2329">
+        <v>30816438</v>
+      </c>
+      <c r="B2329" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2329" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2329">
+        <v>46</v>
+      </c>
+      <c r="E2329" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2329" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2330">
+      <c r="A2330">
+        <v>30222680</v>
+      </c>
+      <c r="B2330" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2330" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2330">
+        <v>1489</v>
+      </c>
+      <c r="E2330" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2330" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2331">
+      <c r="A2331">
+        <v>37881116</v>
+      </c>
+      <c r="B2331" t="str">
+        <v>生死禁地之香巴拉|周建龙播讲</v>
+      </c>
+      <c r="C2331" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2331">
+        <v>319</v>
+      </c>
+      <c r="E2331" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2331" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2332">
+      <c r="A2332">
+        <v>19232895</v>
+      </c>
+      <c r="B2332" t="str">
+        <v>曾仕强讲中华文化·大合集</v>
+      </c>
+      <c r="C2332" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2332">
+        <v>1616</v>
+      </c>
+      <c r="E2332" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2332" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2333">
+      <c r="A2333">
+        <v>23632774</v>
+      </c>
+      <c r="B2333" t="str">
+        <v>《故事会》精品小说剧（悬疑篇）</v>
+      </c>
+      <c r="C2333" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2333">
+        <v>265</v>
+      </c>
+      <c r="E2333" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2333" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2334">
+      <c r="A2334">
+        <v>35516850</v>
+      </c>
+      <c r="B2334" t="str">
+        <v>鬼谷子权谋智慧：从零学为人处世</v>
+      </c>
+      <c r="C2334" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2334">
+        <v>276</v>
+      </c>
+      <c r="E2334" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2334" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2335">
+      <c r="A2335">
+        <v>23625885</v>
+      </c>
+      <c r="B2335" t="str">
+        <v>《故事会》精品小说剧全集</v>
+      </c>
+      <c r="C2335" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2335">
+        <v>814</v>
+      </c>
+      <c r="E2335" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2335" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2336">
+      <c r="A2336">
+        <v>35582881</v>
+      </c>
+      <c r="B2336" t="str">
+        <v>念楼学短：给现代人的古文必修课</v>
+      </c>
+      <c r="C2336" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2336">
+        <v>314</v>
+      </c>
+      <c r="E2336" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2336" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2337">
+      <c r="A2337">
+        <v>32267812</v>
+      </c>
+      <c r="B2337" t="str">
+        <v>百家讲坛韩田鹿妙解《西游记》：揭秘佛教与道教的不解之缘</v>
+      </c>
+      <c r="C2337" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2337">
+        <v>204</v>
+      </c>
+      <c r="E2337" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2337" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2338">
+      <c r="A2338">
+        <v>26890897</v>
+      </c>
+      <c r="B2338" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2338" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2338">
+        <v>239</v>
+      </c>
+      <c r="E2338" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2338" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2339">
+      <c r="A2339">
+        <v>25482236</v>
+      </c>
+      <c r="B2339" t="str">
+        <v>刘小念X晓希：情感故事剧场</v>
+      </c>
+      <c r="C2339" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2339">
+        <v>240</v>
+      </c>
+      <c r="E2339" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2339" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2340">
+      <c r="A2340">
+        <v>10989065</v>
+      </c>
+      <c r="B2340" t="str">
+        <v>郁喆隽的复旦哲学课</v>
+      </c>
+      <c r="C2340" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2340">
+        <v>202</v>
+      </c>
+      <c r="E2340" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2340" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2341">
+      <c r="A2341">
+        <v>39016657</v>
+      </c>
+      <c r="B2341" t="str">
+        <v>《论语》儿童跟读版 | 儿童睡前故事国学 会员免费</v>
+      </c>
+      <c r="C2341" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2341">
+        <v>210</v>
+      </c>
+      <c r="E2341" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2341" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2342">
+      <c r="A2342">
+        <v>23550058</v>
+      </c>
+      <c r="B2342" t="str">
+        <v>精读1000本全球好书【日更】心理罪、人类简史、墨菲定律等</v>
+      </c>
+      <c r="C2342" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2342">
+        <v>512</v>
+      </c>
+      <c r="E2342" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2342" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2343">
+      <c r="A2343">
+        <v>39885016</v>
+      </c>
+      <c r="B2343" t="str">
+        <v>天才在左 疯子在右|冯远征、倪妮、郭晓东演绎，怪奇心理有声剧</v>
+      </c>
+      <c r="C2343" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2343">
+        <v>186</v>
+      </c>
+      <c r="E2343" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2343" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2344">
+      <c r="A2344">
+        <v>23633187</v>
+      </c>
+      <c r="B2344" t="str">
+        <v>《故事会》精品小说剧（怪谈篇）</v>
+      </c>
+      <c r="C2344" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2344">
+        <v>143</v>
+      </c>
+      <c r="E2344" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2344" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2345">
+      <c r="A2345">
+        <v>23633996</v>
+      </c>
+      <c r="B2345" t="str">
+        <v>《故事会》精品小说剧（市井篇）</v>
+      </c>
+      <c r="C2345" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2345">
+        <v>138</v>
+      </c>
+      <c r="E2345" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2345" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2346">
+      <c r="A2346">
+        <v>36387482</v>
+      </c>
+      <c r="B2346" t="str">
+        <v>花田妖精爆笑三言二拍/1-200集</v>
+      </c>
+      <c r="C2346" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2346">
+        <v>166</v>
+      </c>
+      <c r="E2346" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2346" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2347">
+      <c r="A2347">
+        <v>23633570</v>
+      </c>
+      <c r="B2347" t="str">
+        <v>《故事会》精品小说剧（情感篇）</v>
+      </c>
+      <c r="C2347" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2347">
+        <v>147</v>
+      </c>
+      <c r="E2347" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2347" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2348">
+      <c r="A2348">
+        <v>18982940</v>
+      </c>
+      <c r="B2348" t="str">
+        <v>马未都《国宝100》</v>
+      </c>
+      <c r="C2348" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2348">
+        <v>101</v>
+      </c>
+      <c r="E2348" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2348" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2349">
+      <c r="A2349">
+        <v>35454435</v>
+      </c>
+      <c r="B2349" t="str">
+        <v>老崔讲中国神探｜300+大案纪实</v>
+      </c>
+      <c r="C2349" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2349">
+        <v>178</v>
+      </c>
+      <c r="E2349" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2349" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2350">
+      <c r="A2350">
+        <v>23633842</v>
+      </c>
+      <c r="B2350" t="str">
+        <v>《故事会》精品小说剧（幽默篇）</v>
+      </c>
+      <c r="C2350" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2350">
+        <v>125</v>
+      </c>
+      <c r="E2350" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2350" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2351">
+      <c r="A2351">
+        <v>5445798</v>
+      </c>
+      <c r="B2351" t="str">
+        <v>张庆祥讲传习录</v>
+      </c>
+      <c r="C2351" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2351">
+        <v>234</v>
+      </c>
+      <c r="E2351" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2351" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2352">
+      <c r="A2352">
+        <v>25488931</v>
+      </c>
+      <c r="B2352" t="str">
+        <v>大象公会：一天一个冷知识</v>
+      </c>
+      <c r="C2352" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2352">
+        <v>131</v>
+      </c>
+      <c r="E2352" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2352" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2353">
+      <c r="A2353">
+        <v>30362073</v>
+      </c>
+      <c r="B2353" t="str">
+        <v>一听就懂的《道德经》</v>
+      </c>
+      <c r="C2353" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2353">
+        <v>105</v>
+      </c>
+      <c r="E2353" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2353" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2354">
+      <c r="A2354">
+        <v>40610230</v>
+      </c>
+      <c r="B2354" t="str">
+        <v>魏晋风华：轻松读懂《世说新语》</v>
+      </c>
+      <c r="C2354" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2354">
+        <v>101</v>
+      </c>
+      <c r="E2354" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2354" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2355">
+      <c r="A2355">
+        <v>14561753</v>
+      </c>
+      <c r="B2355" t="str">
+        <v>宋英杰讲二十四节气</v>
+      </c>
+      <c r="C2355" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2355">
+        <v>127</v>
+      </c>
+      <c r="E2355" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2355" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2356">
+      <c r="A2356">
+        <v>12517524</v>
+      </c>
+      <c r="B2356" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2356" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2356">
+        <v>130</v>
+      </c>
+      <c r="E2356" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2356" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2357">
+      <c r="A2357">
+        <v>37407947</v>
+      </c>
+      <c r="B2357" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2357" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2357">
+        <v>592</v>
+      </c>
+      <c r="E2357" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2357" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2358">
+      <c r="A2358">
+        <v>40121646</v>
+      </c>
+      <c r="B2358" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2358" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2358">
+        <v>98</v>
+      </c>
+      <c r="E2358" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2358" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2359">
+      <c r="A2359">
+        <v>30816438</v>
+      </c>
+      <c r="B2359" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2359" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2359">
+        <v>46</v>
+      </c>
+      <c r="E2359" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2359" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2360">
+      <c r="A2360">
+        <v>30222680</v>
+      </c>
+      <c r="B2360" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2360" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2360">
+        <v>1489</v>
+      </c>
+      <c r="E2360" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2360" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2361">
+      <c r="A2361">
+        <v>37881116</v>
+      </c>
+      <c r="B2361" t="str">
+        <v>生死禁地之香巴拉|周建龙播讲</v>
+      </c>
+      <c r="C2361" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2361">
+        <v>319</v>
+      </c>
+      <c r="E2361" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2361" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2362">
+      <c r="A2362">
+        <v>41843374</v>
+      </c>
+      <c r="B2362" t="str">
+        <v>王加：遇见拉斐尔</v>
+      </c>
+      <c r="C2362" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2362">
+        <v>7</v>
+      </c>
+      <c r="E2362" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2362" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2363">
+      <c r="A2363">
+        <v>35724447</v>
+      </c>
+      <c r="B2363" t="str">
+        <v>孟京辉话剧 | 恋爱的犀牛</v>
+      </c>
+      <c r="C2363" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2363">
+        <v>4</v>
+      </c>
+      <c r="E2363" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2363" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2364">
+      <c r="A2364">
+        <v>16420380</v>
+      </c>
+      <c r="B2364" t="str">
+        <v>禧爷说艺术 | 史上16个艺术表情</v>
+      </c>
+      <c r="C2364" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2364">
+        <v>22</v>
+      </c>
+      <c r="E2364" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2364" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2365">
+      <c r="A2365">
+        <v>21984732</v>
+      </c>
+      <c r="B2365" t="str">
+        <v>《西方美术史》丁宁“北大通识课” 精读版 | 喜马讲书</v>
+      </c>
+      <c r="C2365" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2365">
+        <v>2</v>
+      </c>
+      <c r="E2365" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2365" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2366">
+      <c r="A2366">
+        <v>35724780</v>
+      </c>
+      <c r="B2366" t="str">
+        <v>孟京辉话剧 | 一个无政府主义者的意外死亡</v>
+      </c>
+      <c r="C2366" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2366">
+        <v>4</v>
+      </c>
+      <c r="E2366" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2366" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2367">
+      <c r="A2367">
+        <v>40194393</v>
+      </c>
+      <c r="B2367" t="str">
+        <v>品位江南 | 著名作家张永祎主讲（凤凰书苑）</v>
+      </c>
+      <c r="C2367" t="str">
+        <v>是</v>
+      </c>
+      <c r="D2367">
+        <v>20</v>
+      </c>
+      <c r="E2367" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2367" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2368">
+      <c r="A2368">
+        <v>35725787</v>
+      </c>
+      <c r="B2368" t="str">
+        <v>孟京辉话剧 | 关于爱情归宿的最新观念</v>
+      </c>
+      <c r="C2368" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2368">
+        <v>5</v>
+      </c>
+      <c r="E2368" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2368" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2369">
+      <c r="A2369">
+        <v>21721044</v>
+      </c>
+      <c r="B2369" t="str">
+        <v>《演员自我修养》| 喜马讲书</v>
+      </c>
+      <c r="C2369" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2369">
+        <v>1</v>
+      </c>
+      <c r="E2369" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2369" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2370">
+      <c r="A2370">
+        <v>35724380</v>
+      </c>
+      <c r="B2370" t="str">
+        <v>孟京辉话剧 | 镜花水月</v>
+      </c>
+      <c r="C2370" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2370">
+        <v>3</v>
+      </c>
+      <c r="E2370" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2370" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2371">
+      <c r="A2371">
+        <v>38540483</v>
+      </c>
+      <c r="B2371" t="str">
+        <v>艺术头条|宅游15个世界博物馆</v>
+      </c>
+      <c r="C2371" t="str">
+        <v>是</v>
+      </c>
+      <c r="D2371">
+        <v>31</v>
+      </c>
+      <c r="E2371" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F2371" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2372">
+      <c r="A2372">
+        <v>12517524</v>
+      </c>
+      <c r="B2372" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2372" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2372">
+        <v>130</v>
+      </c>
+      <c r="E2372" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2372" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2373">
+      <c r="A2373">
+        <v>37407947</v>
+      </c>
+      <c r="B2373" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2373" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2373">
+        <v>592</v>
+      </c>
+      <c r="E2373" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2373" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374">
+        <v>40121646</v>
+      </c>
+      <c r="B2374" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2374" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2374">
+        <v>98</v>
+      </c>
+      <c r="E2374" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2374" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2375">
+      <c r="A2375">
+        <v>30816438</v>
+      </c>
+      <c r="B2375" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2375" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2375">
+        <v>46</v>
+      </c>
+      <c r="E2375" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2375" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2376">
+      <c r="A2376">
+        <v>30222680</v>
+      </c>
+      <c r="B2376" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2376" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2376">
+        <v>1489</v>
+      </c>
+      <c r="E2376" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2376" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377">
+        <v>37881116</v>
+      </c>
+      <c r="B2377" t="str">
+        <v>生死禁地之香巴拉|周建龙播讲</v>
+      </c>
+      <c r="C2377" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2377">
+        <v>319</v>
+      </c>
+      <c r="E2377" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2377" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378">
+        <v>33476331</v>
+      </c>
+      <c r="B2378" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2378" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2378">
+        <v>605</v>
+      </c>
+      <c r="E2378" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2378" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2379">
+      <c r="A2379">
+        <v>32650457</v>
+      </c>
+      <c r="B2379" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C2379" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2379">
+        <v>1259</v>
+      </c>
+      <c r="E2379" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2379" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2380">
+      <c r="A2380">
+        <v>31887842</v>
+      </c>
+      <c r="B2380" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C2380" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2380">
+        <v>1418</v>
+      </c>
+      <c r="E2380" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2380" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2381">
+      <c r="A2381">
+        <v>34220825</v>
+      </c>
+      <c r="B2381" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C2381" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2381">
+        <v>706</v>
+      </c>
+      <c r="E2381" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2381" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382">
+        <v>25010802</v>
+      </c>
+      <c r="B2382" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C2382" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2382">
+        <v>1966</v>
+      </c>
+      <c r="E2382" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2382" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383">
+        <v>23889957</v>
+      </c>
+      <c r="B2383" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C2383" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2383">
+        <v>2085</v>
+      </c>
+      <c r="E2383" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2383" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2384">
+      <c r="A2384">
+        <v>32553758</v>
+      </c>
+      <c r="B2384" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C2384" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2384">
+        <v>940</v>
+      </c>
+      <c r="E2384" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2384" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2385">
+      <c r="A2385">
+        <v>39361268</v>
+      </c>
+      <c r="B2385" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C2385" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2385">
+        <v>436</v>
+      </c>
+      <c r="E2385" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2385" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2386">
+      <c r="A2386">
+        <v>17594210</v>
+      </c>
+      <c r="B2386" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C2386" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2386">
+        <v>1086</v>
+      </c>
+      <c r="E2386" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2386" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2387">
+      <c r="A2387">
+        <v>19095902</v>
+      </c>
+      <c r="B2387" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C2387" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2387">
+        <v>2047</v>
+      </c>
+      <c r="E2387" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2387" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2388">
+      <c r="A2388">
+        <v>33541329</v>
+      </c>
+      <c r="B2388" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C2388" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2388">
+        <v>1125</v>
+      </c>
+      <c r="E2388" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2388" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2106"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2388"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2388"/>
+  <dimension ref="A1:F2411"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48140,9 +48140,469 @@
         <v>否</v>
       </c>
     </row>
+    <row r="2389">
+      <c r="A2389">
+        <v>12517524</v>
+      </c>
+      <c r="B2389" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2389" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2389">
+        <v>130</v>
+      </c>
+      <c r="E2389" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2389" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2390">
+      <c r="A2390">
+        <v>37407947</v>
+      </c>
+      <c r="B2390" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2390" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2390">
+        <v>592</v>
+      </c>
+      <c r="E2390" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2390" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2391">
+      <c r="A2391">
+        <v>40121646</v>
+      </c>
+      <c r="B2391" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2391" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2391">
+        <v>102</v>
+      </c>
+      <c r="E2391" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2391" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2392">
+      <c r="A2392">
+        <v>30816438</v>
+      </c>
+      <c r="B2392" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2392" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2392">
+        <v>46</v>
+      </c>
+      <c r="E2392" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2392" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2393">
+      <c r="A2393">
+        <v>30222680</v>
+      </c>
+      <c r="B2393" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2393" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2393">
+        <v>1489</v>
+      </c>
+      <c r="E2393" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2393" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2394">
+      <c r="A2394">
+        <v>37881116</v>
+      </c>
+      <c r="B2394" t="str">
+        <v>生死禁地之香巴拉|周建龙播讲</v>
+      </c>
+      <c r="C2394" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2394">
+        <v>319</v>
+      </c>
+      <c r="E2394" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2394" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2395">
+      <c r="A2395">
+        <v>33476331</v>
+      </c>
+      <c r="B2395" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2395" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2395">
+        <v>607</v>
+      </c>
+      <c r="E2395" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2395" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2396">
+      <c r="A2396">
+        <v>32650457</v>
+      </c>
+      <c r="B2396" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C2396" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2396">
+        <v>1269</v>
+      </c>
+      <c r="E2396" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2396" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2397">
+      <c r="A2397">
+        <v>31887842</v>
+      </c>
+      <c r="B2397" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C2397" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2397">
+        <v>1423</v>
+      </c>
+      <c r="E2397" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2397" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2398">
+      <c r="A2398">
+        <v>34220825</v>
+      </c>
+      <c r="B2398" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C2398" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2398">
+        <v>712</v>
+      </c>
+      <c r="E2398" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2398" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2399">
+      <c r="A2399">
+        <v>25010802</v>
+      </c>
+      <c r="B2399" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C2399" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2399">
+        <v>1968</v>
+      </c>
+      <c r="E2399" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2399" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2400">
+      <c r="A2400">
+        <v>23889957</v>
+      </c>
+      <c r="B2400" t="str">
+        <v>重生八零，媳妇有点辣（vip）</v>
+      </c>
+      <c r="C2400" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2400">
+        <v>2099</v>
+      </c>
+      <c r="E2400" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2400" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2401">
+      <c r="A2401">
+        <v>32553758</v>
+      </c>
+      <c r="B2401" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C2401" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2401">
+        <v>946</v>
+      </c>
+      <c r="E2401" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2401" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2402">
+      <c r="A2402">
+        <v>39361268</v>
+      </c>
+      <c r="B2402" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C2402" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2402">
+        <v>451</v>
+      </c>
+      <c r="E2402" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2402" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2403">
+      <c r="A2403">
+        <v>19095902</v>
+      </c>
+      <c r="B2403" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C2403" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2403">
+        <v>2047</v>
+      </c>
+      <c r="E2403" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2403" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2404">
+      <c r="A2404">
+        <v>26440948</v>
+      </c>
+      <c r="B2404" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C2404" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2404">
+        <v>1256</v>
+      </c>
+      <c r="E2404" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2404" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2405">
+      <c r="A2405">
+        <v>33541329</v>
+      </c>
+      <c r="B2405" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C2405" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2405">
+        <v>1130</v>
+      </c>
+      <c r="E2405" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2405" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2406">
+      <c r="A2406">
+        <v>17594210</v>
+      </c>
+      <c r="B2406" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C2406" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2406">
+        <v>1086</v>
+      </c>
+      <c r="E2406" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2406" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2407">
+      <c r="A2407">
+        <v>29316562</v>
+      </c>
+      <c r="B2407" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C2407" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2407">
+        <v>1519</v>
+      </c>
+      <c r="E2407" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2407" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2408">
+      <c r="A2408">
+        <v>37081450</v>
+      </c>
+      <c r="B2408" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C2408" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2408">
+        <v>315</v>
+      </c>
+      <c r="E2408" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2408" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2409">
+      <c r="A2409">
+        <v>3416829</v>
+      </c>
+      <c r="B2409" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C2409" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2409">
+        <v>1075</v>
+      </c>
+      <c r="E2409" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2409" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2410">
+      <c r="A2410">
+        <v>38160002</v>
+      </c>
+      <c r="B2410" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C2410" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2410">
+        <v>441</v>
+      </c>
+      <c r="E2410" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2410" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2411">
+      <c r="A2411">
+        <v>14356532</v>
+      </c>
+      <c r="B2411" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C2411" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2411">
+        <v>775</v>
+      </c>
+      <c r="E2411" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2411" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2388"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2411"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2411"/>
+  <dimension ref="A1:F2437"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -48600,9 +48600,529 @@
         <v>否</v>
       </c>
     </row>
+    <row r="2412">
+      <c r="A2412">
+        <v>12517524</v>
+      </c>
+      <c r="B2412" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C2412" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2412">
+        <v>131</v>
+      </c>
+      <c r="E2412" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F2412" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2413">
+      <c r="A2413">
+        <v>37407947</v>
+      </c>
+      <c r="B2413" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C2413" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2413">
+        <v>607</v>
+      </c>
+      <c r="E2413" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2413" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2414">
+      <c r="A2414">
+        <v>40121646</v>
+      </c>
+      <c r="B2414" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C2414" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2414">
+        <v>108</v>
+      </c>
+      <c r="E2414" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2414" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2415">
+      <c r="A2415">
+        <v>30816438</v>
+      </c>
+      <c r="B2415" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C2415" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2415">
+        <v>46</v>
+      </c>
+      <c r="E2415" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F2415" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2416">
+      <c r="A2416">
+        <v>30222680</v>
+      </c>
+      <c r="B2416" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C2416" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2416">
+        <v>1489</v>
+      </c>
+      <c r="E2416" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2416" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2417">
+      <c r="A2417">
+        <v>37881116</v>
+      </c>
+      <c r="B2417" t="str">
+        <v>生死禁地之香巴拉|周建龙播讲</v>
+      </c>
+      <c r="C2417" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2417">
+        <v>319</v>
+      </c>
+      <c r="E2417" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2417" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2418">
+      <c r="A2418">
+        <v>33476331</v>
+      </c>
+      <c r="B2418" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C2418" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2418">
+        <v>613</v>
+      </c>
+      <c r="E2418" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2418" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2419">
+      <c r="A2419">
+        <v>32650457</v>
+      </c>
+      <c r="B2419" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C2419" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2419">
+        <v>1284</v>
+      </c>
+      <c r="E2419" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2419" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2420">
+      <c r="A2420">
+        <v>31887842</v>
+      </c>
+      <c r="B2420" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C2420" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2420">
+        <v>1438</v>
+      </c>
+      <c r="E2420" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2420" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2421">
+      <c r="A2421">
+        <v>34220825</v>
+      </c>
+      <c r="B2421" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C2421" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2421">
+        <v>718</v>
+      </c>
+      <c r="E2421" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2421" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2422">
+      <c r="A2422">
+        <v>23889957</v>
+      </c>
+      <c r="B2422" t="str">
+        <v>重生八零，媳妇有点辣 | vip</v>
+      </c>
+      <c r="C2422" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2422">
+        <v>2116</v>
+      </c>
+      <c r="E2422" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2422" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2423">
+      <c r="A2423">
+        <v>25010802</v>
+      </c>
+      <c r="B2423" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C2423" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2423">
+        <v>1974</v>
+      </c>
+      <c r="E2423" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2423" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2424">
+      <c r="A2424">
+        <v>32553758</v>
+      </c>
+      <c r="B2424" t="str">
+        <v>斗罗大陆4终极斗罗|唐家三少玄幻经典（喜马拉雅铁三角多人剧）</v>
+      </c>
+      <c r="C2424" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2424">
+        <v>953</v>
+      </c>
+      <c r="E2424" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2424" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2425">
+      <c r="A2425">
+        <v>39361268</v>
+      </c>
+      <c r="B2425" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C2425" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2425">
+        <v>476</v>
+      </c>
+      <c r="E2425" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2425" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2426">
+      <c r="A2426">
+        <v>19095902</v>
+      </c>
+      <c r="B2426" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C2426" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2426">
+        <v>2051</v>
+      </c>
+      <c r="E2426" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2426" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2427">
+      <c r="A2427">
+        <v>33541329</v>
+      </c>
+      <c r="B2427" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C2427" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2427">
+        <v>1139</v>
+      </c>
+      <c r="E2427" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2427" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2428">
+      <c r="A2428">
+        <v>26440948</v>
+      </c>
+      <c r="B2428" t="str">
+        <v>老弟，作妖呢（牛大宝爆笑演播）</v>
+      </c>
+      <c r="C2428" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2428">
+        <v>1274</v>
+      </c>
+      <c r="E2428" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2428" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2429">
+      <c r="A2429">
+        <v>29316562</v>
+      </c>
+      <c r="B2429" t="str">
+        <v>史上最强炼气期（尖儿播讲）</v>
+      </c>
+      <c r="C2429" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2429">
+        <v>1529</v>
+      </c>
+      <c r="E2429" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2429" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2430">
+      <c r="A2430">
+        <v>17594210</v>
+      </c>
+      <c r="B2430" t="str">
+        <v>倒卖凶宅那几年/盗墓笔记凶宅篇</v>
+      </c>
+      <c r="C2430" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2430">
+        <v>1088</v>
+      </c>
+      <c r="E2430" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2430" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2431">
+      <c r="A2431">
+        <v>3416829</v>
+      </c>
+      <c r="B2431" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C2431" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2431">
+        <v>1076</v>
+      </c>
+      <c r="E2431" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2431" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2432">
+      <c r="A2432">
+        <v>37081450</v>
+      </c>
+      <c r="B2432" t="str">
+        <v>雪中悍刀行（张若昀主演影视原著，烽火戏诸侯 著，多人小说剧）</v>
+      </c>
+      <c r="C2432" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2432">
+        <v>324</v>
+      </c>
+      <c r="E2432" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2432" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2433">
+      <c r="A2433">
+        <v>38160002</v>
+      </c>
+      <c r="B2433" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C2433" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2433">
+        <v>445</v>
+      </c>
+      <c r="E2433" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2433" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2434">
+      <c r="A2434">
+        <v>39609405</v>
+      </c>
+      <c r="B2434" t="str">
+        <v>前世老婆找上门（喜马拉雅铁三角）</v>
+      </c>
+      <c r="C2434" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2434">
+        <v>444</v>
+      </c>
+      <c r="E2434" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2434" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2435">
+      <c r="A2435">
+        <v>14356532</v>
+      </c>
+      <c r="B2435" t="str">
+        <v>凡人修仙传（下）｜同名动漫原著，桑梓演播</v>
+      </c>
+      <c r="C2435" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2435">
+        <v>779</v>
+      </c>
+      <c r="E2435" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2435" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2436">
+      <c r="A2436">
+        <v>32210809</v>
+      </c>
+      <c r="B2436" t="str">
+        <v>龙王殿|萧阳叶云舒都市精品多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C2436" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2436">
+        <v>941</v>
+      </c>
+      <c r="E2436" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2436" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="2437">
+      <c r="A2437">
+        <v>15966734</v>
+      </c>
+      <c r="B2437" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C2437" t="str">
+        <v>否</v>
+      </c>
+      <c r="D2437">
+        <v>1271</v>
+      </c>
+      <c r="E2437" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F2437" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F2411"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F2437"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F771"/>
+  <dimension ref="A1:F900"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -15800,9 +15800,2589 @@
         <v>否</v>
       </c>
     </row>
+    <row r="772">
+      <c r="A772">
+        <v>12517524</v>
+      </c>
+      <c r="B772" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C772" t="str">
+        <v>否</v>
+      </c>
+      <c r="D772">
+        <v>134</v>
+      </c>
+      <c r="E772" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F772" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773">
+        <v>37407947</v>
+      </c>
+      <c r="B773" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C773" t="str">
+        <v>否</v>
+      </c>
+      <c r="D773">
+        <v>650</v>
+      </c>
+      <c r="E773" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F773" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774">
+        <v>40121646</v>
+      </c>
+      <c r="B774" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C774" t="str">
+        <v>否</v>
+      </c>
+      <c r="D774">
+        <v>144</v>
+      </c>
+      <c r="E774" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F774" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775">
+        <v>30816438</v>
+      </c>
+      <c r="B775" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C775" t="str">
+        <v>否</v>
+      </c>
+      <c r="D775">
+        <v>46</v>
+      </c>
+      <c r="E775" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F775" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776">
+        <v>30222680</v>
+      </c>
+      <c r="B776" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C776" t="str">
+        <v>否</v>
+      </c>
+      <c r="D776">
+        <v>1489</v>
+      </c>
+      <c r="E776" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F776" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777">
+        <v>37881116</v>
+      </c>
+      <c r="B777" t="str">
+        <v>生死禁地之香巴拉|周建龙播讲</v>
+      </c>
+      <c r="C777" t="str">
+        <v>是</v>
+      </c>
+      <c r="D777">
+        <v>319</v>
+      </c>
+      <c r="E777" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F777" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778">
+        <v>12517524</v>
+      </c>
+      <c r="B778" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C778" t="str">
+        <v>否</v>
+      </c>
+      <c r="D778">
+        <v>134</v>
+      </c>
+      <c r="E778" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F778" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779">
+        <v>37407947</v>
+      </c>
+      <c r="B779" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C779" t="str">
+        <v>否</v>
+      </c>
+      <c r="D779">
+        <v>650</v>
+      </c>
+      <c r="E779" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F779" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780">
+        <v>40121646</v>
+      </c>
+      <c r="B780" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C780" t="str">
+        <v>否</v>
+      </c>
+      <c r="D780">
+        <v>144</v>
+      </c>
+      <c r="E780" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F780" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781">
+        <v>30816438</v>
+      </c>
+      <c r="B781" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C781" t="str">
+        <v>否</v>
+      </c>
+      <c r="D781">
+        <v>46</v>
+      </c>
+      <c r="E781" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F781" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782">
+        <v>30222680</v>
+      </c>
+      <c r="B782" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C782" t="str">
+        <v>否</v>
+      </c>
+      <c r="D782">
+        <v>1489</v>
+      </c>
+      <c r="E782" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F782" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783">
+        <v>12517524</v>
+      </c>
+      <c r="B783" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C783" t="str">
+        <v>否</v>
+      </c>
+      <c r="D783">
+        <v>134</v>
+      </c>
+      <c r="E783" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F783" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784">
+        <v>37407947</v>
+      </c>
+      <c r="B784" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C784" t="str">
+        <v>否</v>
+      </c>
+      <c r="D784">
+        <v>650</v>
+      </c>
+      <c r="E784" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F784" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785">
+        <v>40121646</v>
+      </c>
+      <c r="B785" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C785" t="str">
+        <v>否</v>
+      </c>
+      <c r="D785">
+        <v>144</v>
+      </c>
+      <c r="E785" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F785" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786">
+        <v>30816438</v>
+      </c>
+      <c r="B786" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C786" t="str">
+        <v>否</v>
+      </c>
+      <c r="D786">
+        <v>46</v>
+      </c>
+      <c r="E786" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F786" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787">
+        <v>30222680</v>
+      </c>
+      <c r="B787" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C787" t="str">
+        <v>否</v>
+      </c>
+      <c r="D787">
+        <v>1489</v>
+      </c>
+      <c r="E787" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F787" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788">
+        <v>12517524</v>
+      </c>
+      <c r="B788" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C788" t="str">
+        <v>否</v>
+      </c>
+      <c r="D788">
+        <v>134</v>
+      </c>
+      <c r="E788" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F788" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789">
+        <v>37407947</v>
+      </c>
+      <c r="B789" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C789" t="str">
+        <v>否</v>
+      </c>
+      <c r="D789">
+        <v>650</v>
+      </c>
+      <c r="E789" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F789" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790">
+        <v>40121646</v>
+      </c>
+      <c r="B790" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C790" t="str">
+        <v>否</v>
+      </c>
+      <c r="D790">
+        <v>144</v>
+      </c>
+      <c r="E790" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F790" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791">
+        <v>30816438</v>
+      </c>
+      <c r="B791" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C791" t="str">
+        <v>否</v>
+      </c>
+      <c r="D791">
+        <v>46</v>
+      </c>
+      <c r="E791" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F791" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792">
+        <v>30222680</v>
+      </c>
+      <c r="B792" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C792" t="str">
+        <v>否</v>
+      </c>
+      <c r="D792">
+        <v>1489</v>
+      </c>
+      <c r="E792" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F792" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793">
+        <v>12517524</v>
+      </c>
+      <c r="B793" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C793" t="str">
+        <v>否</v>
+      </c>
+      <c r="D793">
+        <v>134</v>
+      </c>
+      <c r="E793" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F793" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794">
+        <v>37407947</v>
+      </c>
+      <c r="B794" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C794" t="str">
+        <v>否</v>
+      </c>
+      <c r="D794">
+        <v>650</v>
+      </c>
+      <c r="E794" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F794" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795">
+        <v>40121646</v>
+      </c>
+      <c r="B795" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C795" t="str">
+        <v>否</v>
+      </c>
+      <c r="D795">
+        <v>144</v>
+      </c>
+      <c r="E795" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F795" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796">
+        <v>30816438</v>
+      </c>
+      <c r="B796" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C796" t="str">
+        <v>否</v>
+      </c>
+      <c r="D796">
+        <v>46</v>
+      </c>
+      <c r="E796" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F796" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797">
+        <v>30222680</v>
+      </c>
+      <c r="B797" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C797" t="str">
+        <v>否</v>
+      </c>
+      <c r="D797">
+        <v>1489</v>
+      </c>
+      <c r="E797" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F797" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798">
+        <v>12517524</v>
+      </c>
+      <c r="B798" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C798" t="str">
+        <v>否</v>
+      </c>
+      <c r="D798">
+        <v>134</v>
+      </c>
+      <c r="E798" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F798" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799">
+        <v>37407947</v>
+      </c>
+      <c r="B799" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C799" t="str">
+        <v>否</v>
+      </c>
+      <c r="D799">
+        <v>650</v>
+      </c>
+      <c r="E799" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F799" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800">
+        <v>40121646</v>
+      </c>
+      <c r="B800" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C800" t="str">
+        <v>否</v>
+      </c>
+      <c r="D800">
+        <v>144</v>
+      </c>
+      <c r="E800" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F800" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801">
+        <v>30816438</v>
+      </c>
+      <c r="B801" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C801" t="str">
+        <v>否</v>
+      </c>
+      <c r="D801">
+        <v>46</v>
+      </c>
+      <c r="E801" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F801" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802">
+        <v>30222680</v>
+      </c>
+      <c r="B802" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C802" t="str">
+        <v>否</v>
+      </c>
+      <c r="D802">
+        <v>1489</v>
+      </c>
+      <c r="E802" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F802" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803">
+        <v>12517524</v>
+      </c>
+      <c r="B803" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C803" t="str">
+        <v>否</v>
+      </c>
+      <c r="D803">
+        <v>134</v>
+      </c>
+      <c r="E803" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F803" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804">
+        <v>37407947</v>
+      </c>
+      <c r="B804" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C804" t="str">
+        <v>否</v>
+      </c>
+      <c r="D804">
+        <v>650</v>
+      </c>
+      <c r="E804" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F804" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805">
+        <v>40121646</v>
+      </c>
+      <c r="B805" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C805" t="str">
+        <v>否</v>
+      </c>
+      <c r="D805">
+        <v>144</v>
+      </c>
+      <c r="E805" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F805" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806">
+        <v>30816438</v>
+      </c>
+      <c r="B806" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C806" t="str">
+        <v>否</v>
+      </c>
+      <c r="D806">
+        <v>46</v>
+      </c>
+      <c r="E806" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F806" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807">
+        <v>30222680</v>
+      </c>
+      <c r="B807" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C807" t="str">
+        <v>否</v>
+      </c>
+      <c r="D807">
+        <v>1489</v>
+      </c>
+      <c r="E807" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F807" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808">
+        <v>12517524</v>
+      </c>
+      <c r="B808" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C808" t="str">
+        <v>否</v>
+      </c>
+      <c r="D808">
+        <v>134</v>
+      </c>
+      <c r="E808" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F808" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809">
+        <v>37407947</v>
+      </c>
+      <c r="B809" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C809" t="str">
+        <v>否</v>
+      </c>
+      <c r="D809">
+        <v>650</v>
+      </c>
+      <c r="E809" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F809" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810">
+        <v>40121646</v>
+      </c>
+      <c r="B810" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C810" t="str">
+        <v>否</v>
+      </c>
+      <c r="D810">
+        <v>144</v>
+      </c>
+      <c r="E810" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F810" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811">
+        <v>30816438</v>
+      </c>
+      <c r="B811" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C811" t="str">
+        <v>否</v>
+      </c>
+      <c r="D811">
+        <v>46</v>
+      </c>
+      <c r="E811" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F811" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812">
+        <v>30222680</v>
+      </c>
+      <c r="B812" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C812" t="str">
+        <v>否</v>
+      </c>
+      <c r="D812">
+        <v>1489</v>
+      </c>
+      <c r="E812" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F812" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813">
+        <v>12517524</v>
+      </c>
+      <c r="B813" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C813" t="str">
+        <v>否</v>
+      </c>
+      <c r="D813">
+        <v>134</v>
+      </c>
+      <c r="E813" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F813" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814">
+        <v>37407947</v>
+      </c>
+      <c r="B814" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C814" t="str">
+        <v>否</v>
+      </c>
+      <c r="D814">
+        <v>650</v>
+      </c>
+      <c r="E814" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F814" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815">
+        <v>40121646</v>
+      </c>
+      <c r="B815" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C815" t="str">
+        <v>否</v>
+      </c>
+      <c r="D815">
+        <v>144</v>
+      </c>
+      <c r="E815" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F815" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816">
+        <v>30816438</v>
+      </c>
+      <c r="B816" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C816" t="str">
+        <v>否</v>
+      </c>
+      <c r="D816">
+        <v>46</v>
+      </c>
+      <c r="E816" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F816" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817">
+        <v>30222680</v>
+      </c>
+      <c r="B817" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C817" t="str">
+        <v>否</v>
+      </c>
+      <c r="D817">
+        <v>1489</v>
+      </c>
+      <c r="E817" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F817" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818">
+        <v>33476331</v>
+      </c>
+      <c r="B818" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C818" t="str">
+        <v>否</v>
+      </c>
+      <c r="D818">
+        <v>649</v>
+      </c>
+      <c r="E818" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F818" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819">
+        <v>32650457</v>
+      </c>
+      <c r="B819" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C819" t="str">
+        <v>否</v>
+      </c>
+      <c r="D819">
+        <v>1376</v>
+      </c>
+      <c r="E819" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F819" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820">
+        <v>12517524</v>
+      </c>
+      <c r="B820" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C820" t="str">
+        <v>否</v>
+      </c>
+      <c r="D820">
+        <v>134</v>
+      </c>
+      <c r="E820" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F820" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821">
+        <v>37407947</v>
+      </c>
+      <c r="B821" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C821" t="str">
+        <v>否</v>
+      </c>
+      <c r="D821">
+        <v>650</v>
+      </c>
+      <c r="E821" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F821" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822">
+        <v>40121646</v>
+      </c>
+      <c r="B822" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C822" t="str">
+        <v>否</v>
+      </c>
+      <c r="D822">
+        <v>144</v>
+      </c>
+      <c r="E822" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F822" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823">
+        <v>30816438</v>
+      </c>
+      <c r="B823" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C823" t="str">
+        <v>否</v>
+      </c>
+      <c r="D823">
+        <v>46</v>
+      </c>
+      <c r="E823" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F823" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824">
+        <v>30222680</v>
+      </c>
+      <c r="B824" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C824" t="str">
+        <v>否</v>
+      </c>
+      <c r="D824">
+        <v>1489</v>
+      </c>
+      <c r="E824" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F824" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825">
+        <v>33476331</v>
+      </c>
+      <c r="B825" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C825" t="str">
+        <v>否</v>
+      </c>
+      <c r="D825">
+        <v>649</v>
+      </c>
+      <c r="E825" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F825" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826">
+        <v>32650457</v>
+      </c>
+      <c r="B826" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C826" t="str">
+        <v>否</v>
+      </c>
+      <c r="D826">
+        <v>1376</v>
+      </c>
+      <c r="E826" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F826" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827">
+        <v>12517524</v>
+      </c>
+      <c r="B827" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C827" t="str">
+        <v>否</v>
+      </c>
+      <c r="D827">
+        <v>134</v>
+      </c>
+      <c r="E827" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F827" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828">
+        <v>37407947</v>
+      </c>
+      <c r="B828" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C828" t="str">
+        <v>否</v>
+      </c>
+      <c r="D828">
+        <v>650</v>
+      </c>
+      <c r="E828" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F828" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829">
+        <v>40121646</v>
+      </c>
+      <c r="B829" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C829" t="str">
+        <v>否</v>
+      </c>
+      <c r="D829">
+        <v>144</v>
+      </c>
+      <c r="E829" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F829" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830">
+        <v>30816438</v>
+      </c>
+      <c r="B830" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C830" t="str">
+        <v>否</v>
+      </c>
+      <c r="D830">
+        <v>46</v>
+      </c>
+      <c r="E830" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F830" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831">
+        <v>30222680</v>
+      </c>
+      <c r="B831" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C831" t="str">
+        <v>否</v>
+      </c>
+      <c r="D831">
+        <v>1489</v>
+      </c>
+      <c r="E831" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F831" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832">
+        <v>33476331</v>
+      </c>
+      <c r="B832" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C832" t="str">
+        <v>否</v>
+      </c>
+      <c r="D832">
+        <v>649</v>
+      </c>
+      <c r="E832" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F832" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833">
+        <v>32650457</v>
+      </c>
+      <c r="B833" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C833" t="str">
+        <v>否</v>
+      </c>
+      <c r="D833">
+        <v>1376</v>
+      </c>
+      <c r="E833" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F833" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834">
+        <v>12517524</v>
+      </c>
+      <c r="B834" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C834" t="str">
+        <v>否</v>
+      </c>
+      <c r="D834">
+        <v>135</v>
+      </c>
+      <c r="E834" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F834" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835">
+        <v>37407947</v>
+      </c>
+      <c r="B835" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C835" t="str">
+        <v>否</v>
+      </c>
+      <c r="D835">
+        <v>660</v>
+      </c>
+      <c r="E835" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F835" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836">
+        <v>40121646</v>
+      </c>
+      <c r="B836" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C836" t="str">
+        <v>否</v>
+      </c>
+      <c r="D836">
+        <v>154</v>
+      </c>
+      <c r="E836" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F836" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837">
+        <v>30816438</v>
+      </c>
+      <c r="B837" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C837" t="str">
+        <v>否</v>
+      </c>
+      <c r="D837">
+        <v>46</v>
+      </c>
+      <c r="E837" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F837" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838">
+        <v>30222680</v>
+      </c>
+      <c r="B838" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C838" t="str">
+        <v>否</v>
+      </c>
+      <c r="D838">
+        <v>1489</v>
+      </c>
+      <c r="E838" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F838" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839">
+        <v>33476331</v>
+      </c>
+      <c r="B839" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C839" t="str">
+        <v>否</v>
+      </c>
+      <c r="D839">
+        <v>657</v>
+      </c>
+      <c r="E839" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F839" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840">
+        <v>32650457</v>
+      </c>
+      <c r="B840" t="str">
+        <v>一剑独尊（20年玄幻大作 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C840" t="str">
+        <v>否</v>
+      </c>
+      <c r="D840">
+        <v>1401</v>
+      </c>
+      <c r="E840" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F840" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841">
+        <v>34220825</v>
+      </c>
+      <c r="B841" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C841" t="str">
+        <v>否</v>
+      </c>
+      <c r="D841">
+        <v>778</v>
+      </c>
+      <c r="E841" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F841" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842">
+        <v>12517524</v>
+      </c>
+      <c r="B842" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C842" t="str">
+        <v>否</v>
+      </c>
+      <c r="D842">
+        <v>135</v>
+      </c>
+      <c r="E842" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F842" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843">
+        <v>37407947</v>
+      </c>
+      <c r="B843" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C843" t="str">
+        <v>否</v>
+      </c>
+      <c r="D843">
+        <v>660</v>
+      </c>
+      <c r="E843" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F843" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844">
+        <v>40121646</v>
+      </c>
+      <c r="B844" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C844" t="str">
+        <v>否</v>
+      </c>
+      <c r="D844">
+        <v>156</v>
+      </c>
+      <c r="E844" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F844" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845">
+        <v>30816438</v>
+      </c>
+      <c r="B845" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C845" t="str">
+        <v>否</v>
+      </c>
+      <c r="D845">
+        <v>46</v>
+      </c>
+      <c r="E845" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F845" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846">
+        <v>30222680</v>
+      </c>
+      <c r="B846" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C846" t="str">
+        <v>否</v>
+      </c>
+      <c r="D846">
+        <v>1489</v>
+      </c>
+      <c r="E846" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F846" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847">
+        <v>33476331</v>
+      </c>
+      <c r="B847" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C847" t="str">
+        <v>否</v>
+      </c>
+      <c r="D847">
+        <v>659</v>
+      </c>
+      <c r="E847" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F847" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848">
+        <v>32650457</v>
+      </c>
+      <c r="B848" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C848" t="str">
+        <v>否</v>
+      </c>
+      <c r="D848">
+        <v>1407</v>
+      </c>
+      <c r="E848" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F848" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849">
+        <v>34220825</v>
+      </c>
+      <c r="B849" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C849" t="str">
+        <v>否</v>
+      </c>
+      <c r="D849">
+        <v>781</v>
+      </c>
+      <c r="E849" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F849" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850">
+        <v>40639352</v>
+      </c>
+      <c r="B850" t="str">
+        <v>上门女婿（都市龙婿赘婿）会员免费爆笑爽文</v>
+      </c>
+      <c r="C850" t="str">
+        <v>否</v>
+      </c>
+      <c r="D850">
+        <v>633</v>
+      </c>
+      <c r="E850" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F850" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851">
+        <v>31887842</v>
+      </c>
+      <c r="B851" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C851" t="str">
+        <v>否</v>
+      </c>
+      <c r="D851">
+        <v>1498</v>
+      </c>
+      <c r="E851" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F851" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852">
+        <v>16167406</v>
+      </c>
+      <c r="B852" t="str">
+        <v>我在三界开茶馆｜恐怖故事</v>
+      </c>
+      <c r="C852" t="str">
+        <v>否</v>
+      </c>
+      <c r="D852">
+        <v>1030</v>
+      </c>
+      <c r="E852" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F852" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853">
+        <v>12517524</v>
+      </c>
+      <c r="B853" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C853" t="str">
+        <v>否</v>
+      </c>
+      <c r="D853">
+        <v>135</v>
+      </c>
+      <c r="E853" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F853" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854">
+        <v>37407947</v>
+      </c>
+      <c r="B854" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C854" t="str">
+        <v>否</v>
+      </c>
+      <c r="D854">
+        <v>665</v>
+      </c>
+      <c r="E854" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F854" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855">
+        <v>40121646</v>
+      </c>
+      <c r="B855" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C855" t="str">
+        <v>否</v>
+      </c>
+      <c r="D855">
+        <v>158</v>
+      </c>
+      <c r="E855" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F855" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856">
+        <v>30816438</v>
+      </c>
+      <c r="B856" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C856" t="str">
+        <v>否</v>
+      </c>
+      <c r="D856">
+        <v>47</v>
+      </c>
+      <c r="E856" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F856" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857">
+        <v>30222680</v>
+      </c>
+      <c r="B857" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C857" t="str">
+        <v>否</v>
+      </c>
+      <c r="D857">
+        <v>1489</v>
+      </c>
+      <c r="E857" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F857" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858">
+        <v>33476331</v>
+      </c>
+      <c r="B858" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C858" t="str">
+        <v>否</v>
+      </c>
+      <c r="D858">
+        <v>661</v>
+      </c>
+      <c r="E858" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F858" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859">
+        <v>32650457</v>
+      </c>
+      <c r="B859" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C859" t="str">
+        <v>否</v>
+      </c>
+      <c r="D859">
+        <v>1412</v>
+      </c>
+      <c r="E859" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F859" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860">
+        <v>34220825</v>
+      </c>
+      <c r="B860" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C860" t="str">
+        <v>否</v>
+      </c>
+      <c r="D860">
+        <v>781</v>
+      </c>
+      <c r="E860" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F860" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861">
+        <v>40639352</v>
+      </c>
+      <c r="B861" t="str">
+        <v>上门女婿（都市上门龙婿）爆笑赘婿多人剧</v>
+      </c>
+      <c r="C861" t="str">
+        <v>否</v>
+      </c>
+      <c r="D861">
+        <v>643</v>
+      </c>
+      <c r="E861" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F861" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862">
+        <v>31887842</v>
+      </c>
+      <c r="B862" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C862" t="str">
+        <v>否</v>
+      </c>
+      <c r="D862">
+        <v>1500</v>
+      </c>
+      <c r="E862" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F862" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863">
+        <v>25010802</v>
+      </c>
+      <c r="B863" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C863" t="str">
+        <v>否</v>
+      </c>
+      <c r="D863">
+        <v>2024</v>
+      </c>
+      <c r="E863" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F863" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864">
+        <v>33541329</v>
+      </c>
+      <c r="B864" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C864" t="str">
+        <v>否</v>
+      </c>
+      <c r="D864">
+        <v>1225</v>
+      </c>
+      <c r="E864" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F864" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865">
+        <v>23889957</v>
+      </c>
+      <c r="B865" t="str">
+        <v>重生八零，媳妇有点辣 君颜/簌簌轻扬 vip免费</v>
+      </c>
+      <c r="C865" t="str">
+        <v>否</v>
+      </c>
+      <c r="D865">
+        <v>2196</v>
+      </c>
+      <c r="E865" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F865" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866">
+        <v>3416829</v>
+      </c>
+      <c r="B866" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C866" t="str">
+        <v>否</v>
+      </c>
+      <c r="D866">
+        <v>1087</v>
+      </c>
+      <c r="E866" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F866" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867">
+        <v>19095902</v>
+      </c>
+      <c r="B867" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C867" t="str">
+        <v>否</v>
+      </c>
+      <c r="D867">
+        <v>2083</v>
+      </c>
+      <c r="E867" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F867" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868">
+        <v>16167406</v>
+      </c>
+      <c r="B868" t="str">
+        <v>我在三界开茶馆｜恐怖故事</v>
+      </c>
+      <c r="C868" t="str">
+        <v>否</v>
+      </c>
+      <c r="D868">
+        <v>1032</v>
+      </c>
+      <c r="E868" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F868" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869">
+        <v>12517524</v>
+      </c>
+      <c r="B869" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C869" t="str">
+        <v>否</v>
+      </c>
+      <c r="D869">
+        <v>136</v>
+      </c>
+      <c r="E869" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F869" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870">
+        <v>37407947</v>
+      </c>
+      <c r="B870" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C870" t="str">
+        <v>否</v>
+      </c>
+      <c r="D870">
+        <v>680</v>
+      </c>
+      <c r="E870" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F870" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871">
+        <v>40121646</v>
+      </c>
+      <c r="B871" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C871" t="str">
+        <v>否</v>
+      </c>
+      <c r="D871">
+        <v>164</v>
+      </c>
+      <c r="E871" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F871" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872">
+        <v>30816438</v>
+      </c>
+      <c r="B872" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C872" t="str">
+        <v>否</v>
+      </c>
+      <c r="D872">
+        <v>47</v>
+      </c>
+      <c r="E872" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F872" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873">
+        <v>30222680</v>
+      </c>
+      <c r="B873" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C873" t="str">
+        <v>否</v>
+      </c>
+      <c r="D873">
+        <v>1491</v>
+      </c>
+      <c r="E873" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F873" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874">
+        <v>33476331</v>
+      </c>
+      <c r="B874" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C874" t="str">
+        <v>否</v>
+      </c>
+      <c r="D874">
+        <v>667</v>
+      </c>
+      <c r="E874" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F874" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875">
+        <v>32650457</v>
+      </c>
+      <c r="B875" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C875" t="str">
+        <v>否</v>
+      </c>
+      <c r="D875">
+        <v>1427</v>
+      </c>
+      <c r="E875" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F875" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876">
+        <v>3416829</v>
+      </c>
+      <c r="B876" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C876" t="str">
+        <v>否</v>
+      </c>
+      <c r="D876">
+        <v>1088</v>
+      </c>
+      <c r="E876" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F876" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877">
+        <v>4651578</v>
+      </c>
+      <c r="B877" t="str">
+        <v>穿越异世界|我和公主有一腿</v>
+      </c>
+      <c r="C877" t="str">
+        <v>否</v>
+      </c>
+      <c r="D877">
+        <v>667</v>
+      </c>
+      <c r="E877" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F877" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878">
+        <v>34220825</v>
+      </c>
+      <c r="B878" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C878" t="str">
+        <v>否</v>
+      </c>
+      <c r="D878">
+        <v>784</v>
+      </c>
+      <c r="E878" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F878" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879">
+        <v>40639352</v>
+      </c>
+      <c r="B879" t="str">
+        <v>上门女婿（都市上门龙婿）爆笑赘婿多人剧</v>
+      </c>
+      <c r="C879" t="str">
+        <v>否</v>
+      </c>
+      <c r="D879">
+        <v>656</v>
+      </c>
+      <c r="E879" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F879" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880">
+        <v>31887842</v>
+      </c>
+      <c r="B880" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C880" t="str">
+        <v>否</v>
+      </c>
+      <c r="D880">
+        <v>1506</v>
+      </c>
+      <c r="E880" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F880" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881">
+        <v>25010802</v>
+      </c>
+      <c r="B881" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C881" t="str">
+        <v>否</v>
+      </c>
+      <c r="D881">
+        <v>2028</v>
+      </c>
+      <c r="E881" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F881" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882">
+        <v>33541329</v>
+      </c>
+      <c r="B882" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C882" t="str">
+        <v>否</v>
+      </c>
+      <c r="D882">
+        <v>1229</v>
+      </c>
+      <c r="E882" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F882" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883">
+        <v>23889957</v>
+      </c>
+      <c r="B883" t="str">
+        <v>重生八零，媳妇有点辣 君颜/簌簌轻扬 vip免费</v>
+      </c>
+      <c r="C883" t="str">
+        <v>否</v>
+      </c>
+      <c r="D883">
+        <v>2208</v>
+      </c>
+      <c r="E883" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F883" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884">
+        <v>16167406</v>
+      </c>
+      <c r="B884" t="str">
+        <v>我在三界开茶馆｜恐怖故事</v>
+      </c>
+      <c r="C884" t="str">
+        <v>否</v>
+      </c>
+      <c r="D884">
+        <v>1034</v>
+      </c>
+      <c r="E884" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F884" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885">
+        <v>12517524</v>
+      </c>
+      <c r="B885" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C885" t="str">
+        <v>否</v>
+      </c>
+      <c r="D885">
+        <v>136</v>
+      </c>
+      <c r="E885" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F885" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886">
+        <v>37407947</v>
+      </c>
+      <c r="B886" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C886" t="str">
+        <v>否</v>
+      </c>
+      <c r="D886">
+        <v>680</v>
+      </c>
+      <c r="E886" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F886" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887">
+        <v>40121646</v>
+      </c>
+      <c r="B887" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C887" t="str">
+        <v>否</v>
+      </c>
+      <c r="D887">
+        <v>168</v>
+      </c>
+      <c r="E887" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F887" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888">
+        <v>30816438</v>
+      </c>
+      <c r="B888" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C888" t="str">
+        <v>否</v>
+      </c>
+      <c r="D888">
+        <v>47</v>
+      </c>
+      <c r="E888" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F888" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889">
+        <v>30222680</v>
+      </c>
+      <c r="B889" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C889" t="str">
+        <v>否</v>
+      </c>
+      <c r="D889">
+        <v>1491</v>
+      </c>
+      <c r="E889" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F889" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890">
+        <v>33476331</v>
+      </c>
+      <c r="B890" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C890" t="str">
+        <v>否</v>
+      </c>
+      <c r="D890">
+        <v>671</v>
+      </c>
+      <c r="E890" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F890" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891">
+        <v>32650457</v>
+      </c>
+      <c r="B891" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C891" t="str">
+        <v>否</v>
+      </c>
+      <c r="D891">
+        <v>1437</v>
+      </c>
+      <c r="E891" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F891" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892">
+        <v>3416829</v>
+      </c>
+      <c r="B892" t="str">
+        <v>赘婿（郭麒麟主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C892" t="str">
+        <v>否</v>
+      </c>
+      <c r="D892">
+        <v>1089</v>
+      </c>
+      <c r="E892" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F892" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893">
+        <v>34220825</v>
+      </c>
+      <c r="B893" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C893" t="str">
+        <v>否</v>
+      </c>
+      <c r="D893">
+        <v>790</v>
+      </c>
+      <c r="E893" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F893" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894">
+        <v>25010802</v>
+      </c>
+      <c r="B894" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C894" t="str">
+        <v>否</v>
+      </c>
+      <c r="D894">
+        <v>2032</v>
+      </c>
+      <c r="E894" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F894" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895">
+        <v>31887842</v>
+      </c>
+      <c r="B895" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C895" t="str">
+        <v>否</v>
+      </c>
+      <c r="D895">
+        <v>1510</v>
+      </c>
+      <c r="E895" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F895" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896">
+        <v>40639352</v>
+      </c>
+      <c r="B896" t="str">
+        <v>上门女婿（都市上门龙婿）爆笑赘婿多人剧</v>
+      </c>
+      <c r="C896" t="str">
+        <v>否</v>
+      </c>
+      <c r="D896">
+        <v>670</v>
+      </c>
+      <c r="E896" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F896" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897">
+        <v>33541329</v>
+      </c>
+      <c r="B897" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C897" t="str">
+        <v>否</v>
+      </c>
+      <c r="D897">
+        <v>1235</v>
+      </c>
+      <c r="E897" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F897" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898">
+        <v>23889957</v>
+      </c>
+      <c r="B898" t="str">
+        <v>重生八零，媳妇有点辣 君颜/簌簌轻扬 vip免费</v>
+      </c>
+      <c r="C898" t="str">
+        <v>否</v>
+      </c>
+      <c r="D898">
+        <v>2216</v>
+      </c>
+      <c r="E898" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F898" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899">
+        <v>39361268</v>
+      </c>
+      <c r="B899" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C899" t="str">
+        <v>否</v>
+      </c>
+      <c r="D899">
+        <v>626</v>
+      </c>
+      <c r="E899" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F899" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900">
+        <v>4651578</v>
+      </c>
+      <c r="B900" t="str">
+        <v>穿越异世界|我和公主有一腿</v>
+      </c>
+      <c r="C900" t="str">
+        <v>否</v>
+      </c>
+      <c r="D900">
+        <v>668</v>
+      </c>
+      <c r="E900" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F900" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F771"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F900"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F941"/>
+  <dimension ref="A1:F977"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19200,9 +19200,729 @@
         <v>否</v>
       </c>
     </row>
+    <row r="942">
+      <c r="A942">
+        <v>29135574</v>
+      </c>
+      <c r="B942" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C942" t="str">
+        <v>否</v>
+      </c>
+      <c r="D942">
+        <v>122</v>
+      </c>
+      <c r="E942" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F942" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="943">
+      <c r="A943">
+        <v>40544228</v>
+      </c>
+      <c r="B943" t="str">
+        <v>捍宝|民国盗墓探险 抗日热血（周建龙播讲）</v>
+      </c>
+      <c r="C943" t="str">
+        <v>否</v>
+      </c>
+      <c r="D943">
+        <v>247</v>
+      </c>
+      <c r="E943" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F943" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="944">
+      <c r="A944">
+        <v>40121646</v>
+      </c>
+      <c r="B944" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C944" t="str">
+        <v>否</v>
+      </c>
+      <c r="D944">
+        <v>280</v>
+      </c>
+      <c r="E944" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F944" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="945">
+      <c r="A945">
+        <v>30816438</v>
+      </c>
+      <c r="B945" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C945" t="str">
+        <v>否</v>
+      </c>
+      <c r="D945">
+        <v>55</v>
+      </c>
+      <c r="E945" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F945" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="946">
+      <c r="A946">
+        <v>30222680</v>
+      </c>
+      <c r="B946" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C946" t="str">
+        <v>否</v>
+      </c>
+      <c r="D946">
+        <v>1505</v>
+      </c>
+      <c r="E946" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F946" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="947">
+      <c r="A947">
+        <v>5949372</v>
+      </c>
+      <c r="B947" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C947" t="str">
+        <v>否</v>
+      </c>
+      <c r="D947">
+        <v>1433</v>
+      </c>
+      <c r="E947" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F947" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="948">
+      <c r="A948">
+        <v>20134156</v>
+      </c>
+      <c r="B948" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C948" t="str">
+        <v>否</v>
+      </c>
+      <c r="D948">
+        <v>1554</v>
+      </c>
+      <c r="E948" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F948" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="949">
+      <c r="A949">
+        <v>33476331</v>
+      </c>
+      <c r="B949" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C949" t="str">
+        <v>否</v>
+      </c>
+      <c r="D949">
+        <v>730</v>
+      </c>
+      <c r="E949" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F949" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="950">
+      <c r="A950">
+        <v>32650457</v>
+      </c>
+      <c r="B950" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C950" t="str">
+        <v>否</v>
+      </c>
+      <c r="D950">
+        <v>1667</v>
+      </c>
+      <c r="E950" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F950" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="951">
+      <c r="A951">
+        <v>38160002</v>
+      </c>
+      <c r="B951" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C951" t="str">
+        <v>否</v>
+      </c>
+      <c r="D951">
+        <v>609</v>
+      </c>
+      <c r="E951" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F951" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="952">
+      <c r="A952">
+        <v>40121646</v>
+      </c>
+      <c r="B952" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C952" t="str">
+        <v>否</v>
+      </c>
+      <c r="D952">
+        <v>280</v>
+      </c>
+      <c r="E952" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F952" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="953">
+      <c r="A953">
+        <v>25010802</v>
+      </c>
+      <c r="B953" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C953" t="str">
+        <v>否</v>
+      </c>
+      <c r="D953">
+        <v>2123</v>
+      </c>
+      <c r="E953" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F953" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="954">
+      <c r="A954">
+        <v>41152884</v>
+      </c>
+      <c r="B954" t="str">
+        <v>盗墓手札丨有声的紫襟（盗墓笔记基友版）</v>
+      </c>
+      <c r="C954" t="str">
+        <v>否</v>
+      </c>
+      <c r="D954">
+        <v>599</v>
+      </c>
+      <c r="E954" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F954" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="955">
+      <c r="A955">
+        <v>34220825</v>
+      </c>
+      <c r="B955" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C955" t="str">
+        <v>否</v>
+      </c>
+      <c r="D955">
+        <v>928</v>
+      </c>
+      <c r="E955" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F955" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="956">
+      <c r="A956">
+        <v>31887842</v>
+      </c>
+      <c r="B956" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C956" t="str">
+        <v>否</v>
+      </c>
+      <c r="D956">
+        <v>1610</v>
+      </c>
+      <c r="E956" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F956" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="957">
+      <c r="A957">
+        <v>33541329</v>
+      </c>
+      <c r="B957" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C957" t="str">
+        <v>否</v>
+      </c>
+      <c r="D957">
+        <v>1419</v>
+      </c>
+      <c r="E957" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F957" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="958">
+      <c r="A958">
+        <v>39361268</v>
+      </c>
+      <c r="B958" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C958" t="str">
+        <v>否</v>
+      </c>
+      <c r="D958">
+        <v>856</v>
+      </c>
+      <c r="E958" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F958" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="959">
+      <c r="A959">
+        <v>29135574</v>
+      </c>
+      <c r="B959" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C959" t="str">
+        <v>否</v>
+      </c>
+      <c r="D959">
+        <v>122</v>
+      </c>
+      <c r="E959" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F959" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="960">
+      <c r="A960">
+        <v>40544228</v>
+      </c>
+      <c r="B960" t="str">
+        <v>捍宝|民国盗墓探险 抗日热血（周建龙播讲）</v>
+      </c>
+      <c r="C960" t="str">
+        <v>否</v>
+      </c>
+      <c r="D960">
+        <v>247</v>
+      </c>
+      <c r="E960" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F960" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="961">
+      <c r="A961">
+        <v>12517524</v>
+      </c>
+      <c r="B961" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C961" t="str">
+        <v>否</v>
+      </c>
+      <c r="D961">
+        <v>143</v>
+      </c>
+      <c r="E961" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F961" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="962">
+      <c r="A962">
+        <v>37407947</v>
+      </c>
+      <c r="B962" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C962" t="str">
+        <v>否</v>
+      </c>
+      <c r="D962">
+        <v>818</v>
+      </c>
+      <c r="E962" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F962" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="963">
+      <c r="A963">
+        <v>40121646</v>
+      </c>
+      <c r="B963" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C963" t="str">
+        <v>否</v>
+      </c>
+      <c r="D963">
+        <v>280</v>
+      </c>
+      <c r="E963" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F963" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="964">
+      <c r="A964">
+        <v>30816438</v>
+      </c>
+      <c r="B964" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C964" t="str">
+        <v>否</v>
+      </c>
+      <c r="D964">
+        <v>55</v>
+      </c>
+      <c r="E964" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F964" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="965">
+      <c r="A965">
+        <v>30222680</v>
+      </c>
+      <c r="B965" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C965" t="str">
+        <v>否</v>
+      </c>
+      <c r="D965">
+        <v>1505</v>
+      </c>
+      <c r="E965" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F965" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="966">
+      <c r="A966">
+        <v>5949372</v>
+      </c>
+      <c r="B966" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C966" t="str">
+        <v>否</v>
+      </c>
+      <c r="D966">
+        <v>1433</v>
+      </c>
+      <c r="E966" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F966" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="967">
+      <c r="A967">
+        <v>20134156</v>
+      </c>
+      <c r="B967" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C967" t="str">
+        <v>否</v>
+      </c>
+      <c r="D967">
+        <v>1554</v>
+      </c>
+      <c r="E967" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F967" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="968">
+      <c r="A968">
+        <v>33476331</v>
+      </c>
+      <c r="B968" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C968" t="str">
+        <v>否</v>
+      </c>
+      <c r="D968">
+        <v>730</v>
+      </c>
+      <c r="E968" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F968" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="969">
+      <c r="A969">
+        <v>32650457</v>
+      </c>
+      <c r="B969" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C969" t="str">
+        <v>否</v>
+      </c>
+      <c r="D969">
+        <v>1667</v>
+      </c>
+      <c r="E969" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F969" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="970">
+      <c r="A970">
+        <v>38160002</v>
+      </c>
+      <c r="B970" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C970" t="str">
+        <v>否</v>
+      </c>
+      <c r="D970">
+        <v>609</v>
+      </c>
+      <c r="E970" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F970" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="971">
+      <c r="A971">
+        <v>40121646</v>
+      </c>
+      <c r="B971" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C971" t="str">
+        <v>否</v>
+      </c>
+      <c r="D971">
+        <v>280</v>
+      </c>
+      <c r="E971" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F971" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="972">
+      <c r="A972">
+        <v>25010802</v>
+      </c>
+      <c r="B972" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C972" t="str">
+        <v>否</v>
+      </c>
+      <c r="D972">
+        <v>2123</v>
+      </c>
+      <c r="E972" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F972" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="973">
+      <c r="A973">
+        <v>41152884</v>
+      </c>
+      <c r="B973" t="str">
+        <v>盗墓手札丨有声的紫襟（盗墓笔记基友版）</v>
+      </c>
+      <c r="C973" t="str">
+        <v>否</v>
+      </c>
+      <c r="D973">
+        <v>599</v>
+      </c>
+      <c r="E973" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F973" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="974">
+      <c r="A974">
+        <v>34220825</v>
+      </c>
+      <c r="B974" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C974" t="str">
+        <v>否</v>
+      </c>
+      <c r="D974">
+        <v>928</v>
+      </c>
+      <c r="E974" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F974" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="975">
+      <c r="A975">
+        <v>31887842</v>
+      </c>
+      <c r="B975" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C975" t="str">
+        <v>否</v>
+      </c>
+      <c r="D975">
+        <v>1610</v>
+      </c>
+      <c r="E975" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F975" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="976">
+      <c r="A976">
+        <v>33541329</v>
+      </c>
+      <c r="B976" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C976" t="str">
+        <v>否</v>
+      </c>
+      <c r="D976">
+        <v>1419</v>
+      </c>
+      <c r="E976" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F976" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="977">
+      <c r="A977">
+        <v>39361268</v>
+      </c>
+      <c r="B977" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C977" t="str">
+        <v>否</v>
+      </c>
+      <c r="D977">
+        <v>856</v>
+      </c>
+      <c r="E977" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F977" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F941"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F977"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F977"/>
+  <dimension ref="A1:F1139"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -19920,9 +19920,3249 @@
         <v>否</v>
       </c>
     </row>
+    <row r="978">
+      <c r="A978">
+        <v>8274546</v>
+      </c>
+      <c r="B978" t="str">
+        <v>周建龙演播-《五大贼王1-7合集》</v>
+      </c>
+      <c r="C978" t="str">
+        <v>是</v>
+      </c>
+      <c r="D978">
+        <v>449</v>
+      </c>
+      <c r="E978" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F978" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="979">
+      <c r="A979">
+        <v>29135574</v>
+      </c>
+      <c r="B979" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C979" t="str">
+        <v>否</v>
+      </c>
+      <c r="D979">
+        <v>123</v>
+      </c>
+      <c r="E979" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F979" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="980">
+      <c r="A980">
+        <v>40544228</v>
+      </c>
+      <c r="B980" t="str">
+        <v>捍宝|民国盗墓探险 抗日热血（周建龙播讲）</v>
+      </c>
+      <c r="C980" t="str">
+        <v>否</v>
+      </c>
+      <c r="D980">
+        <v>247</v>
+      </c>
+      <c r="E980" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F980" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="981">
+      <c r="A981">
+        <v>12517524</v>
+      </c>
+      <c r="B981" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C981" t="str">
+        <v>否</v>
+      </c>
+      <c r="D981">
+        <v>143</v>
+      </c>
+      <c r="E981" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F981" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="982">
+      <c r="A982">
+        <v>37407947</v>
+      </c>
+      <c r="B982" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C982" t="str">
+        <v>否</v>
+      </c>
+      <c r="D982">
+        <v>833</v>
+      </c>
+      <c r="E982" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F982" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="983">
+      <c r="A983">
+        <v>40121646</v>
+      </c>
+      <c r="B983" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C983" t="str">
+        <v>否</v>
+      </c>
+      <c r="D983">
+        <v>290</v>
+      </c>
+      <c r="E983" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F983" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="984">
+      <c r="A984">
+        <v>30816438</v>
+      </c>
+      <c r="B984" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C984" t="str">
+        <v>否</v>
+      </c>
+      <c r="D984">
+        <v>56</v>
+      </c>
+      <c r="E984" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F984" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="985">
+      <c r="A985">
+        <v>30222680</v>
+      </c>
+      <c r="B985" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C985" t="str">
+        <v>否</v>
+      </c>
+      <c r="D985">
+        <v>1506</v>
+      </c>
+      <c r="E985" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F985" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="986">
+      <c r="A986">
+        <v>5949372</v>
+      </c>
+      <c r="B986" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C986" t="str">
+        <v>否</v>
+      </c>
+      <c r="D986">
+        <v>1433</v>
+      </c>
+      <c r="E986" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F986" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="987">
+      <c r="A987">
+        <v>20134156</v>
+      </c>
+      <c r="B987" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C987" t="str">
+        <v>否</v>
+      </c>
+      <c r="D987">
+        <v>1569</v>
+      </c>
+      <c r="E987" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F987" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988">
+        <v>33476331</v>
+      </c>
+      <c r="B988" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C988" t="str">
+        <v>否</v>
+      </c>
+      <c r="D988">
+        <v>734</v>
+      </c>
+      <c r="E988" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F988" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="989">
+      <c r="A989">
+        <v>29135574</v>
+      </c>
+      <c r="B989" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C989" t="str">
+        <v>否</v>
+      </c>
+      <c r="D989">
+        <v>123</v>
+      </c>
+      <c r="E989" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F989" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="990">
+      <c r="A990">
+        <v>40544228</v>
+      </c>
+      <c r="B990" t="str">
+        <v>捍宝|民国盗墓探险 抗日热血（周建龙播讲）</v>
+      </c>
+      <c r="C990" t="str">
+        <v>否</v>
+      </c>
+      <c r="D990">
+        <v>247</v>
+      </c>
+      <c r="E990" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F990" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="991">
+      <c r="A991">
+        <v>12517524</v>
+      </c>
+      <c r="B991" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C991" t="str">
+        <v>否</v>
+      </c>
+      <c r="D991">
+        <v>144</v>
+      </c>
+      <c r="E991" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F991" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992">
+        <v>37407947</v>
+      </c>
+      <c r="B992" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C992" t="str">
+        <v>否</v>
+      </c>
+      <c r="D992">
+        <v>848</v>
+      </c>
+      <c r="E992" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F992" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="993">
+      <c r="A993">
+        <v>40121646</v>
+      </c>
+      <c r="B993" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C993" t="str">
+        <v>否</v>
+      </c>
+      <c r="D993">
+        <v>296</v>
+      </c>
+      <c r="E993" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F993" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="994">
+      <c r="A994">
+        <v>30816438</v>
+      </c>
+      <c r="B994" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C994" t="str">
+        <v>否</v>
+      </c>
+      <c r="D994">
+        <v>56</v>
+      </c>
+      <c r="E994" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F994" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="995">
+      <c r="A995">
+        <v>30222680</v>
+      </c>
+      <c r="B995" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C995" t="str">
+        <v>否</v>
+      </c>
+      <c r="D995">
+        <v>1507</v>
+      </c>
+      <c r="E995" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F995" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="996">
+      <c r="A996">
+        <v>5949372</v>
+      </c>
+      <c r="B996" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C996" t="str">
+        <v>否</v>
+      </c>
+      <c r="D996">
+        <v>1433</v>
+      </c>
+      <c r="E996" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F996" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="997">
+      <c r="A997">
+        <v>20134156</v>
+      </c>
+      <c r="B997" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C997" t="str">
+        <v>否</v>
+      </c>
+      <c r="D997">
+        <v>1578</v>
+      </c>
+      <c r="E997" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F997" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998">
+        <v>33476331</v>
+      </c>
+      <c r="B998" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C998" t="str">
+        <v>否</v>
+      </c>
+      <c r="D998">
+        <v>737</v>
+      </c>
+      <c r="E998" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F998" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999">
+        <v>32650457</v>
+      </c>
+      <c r="B999" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C999" t="str">
+        <v>否</v>
+      </c>
+      <c r="D999">
+        <v>1698</v>
+      </c>
+      <c r="E999" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F999" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000">
+        <v>25010802</v>
+      </c>
+      <c r="B1000" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1000" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1000">
+        <v>2136</v>
+      </c>
+      <c r="E1000" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1000" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001">
+        <v>38160002</v>
+      </c>
+      <c r="B1001" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1001" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1001">
+        <v>625</v>
+      </c>
+      <c r="E1001" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1001" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002">
+        <v>41152884</v>
+      </c>
+      <c r="B1002" t="str">
+        <v>盗墓手札丨有声的紫襟（盗墓笔记基友版）</v>
+      </c>
+      <c r="C1002" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1002">
+        <v>639</v>
+      </c>
+      <c r="E1002" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1002" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003">
+        <v>40121646</v>
+      </c>
+      <c r="B1003" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C1003" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1003">
+        <v>296</v>
+      </c>
+      <c r="E1003" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1003" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004">
+        <v>31887842</v>
+      </c>
+      <c r="B1004" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1004" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1004">
+        <v>1626</v>
+      </c>
+      <c r="E1004" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1004" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1005">
+      <c r="A1005">
+        <v>34220825</v>
+      </c>
+      <c r="B1005" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C1005" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1005">
+        <v>952</v>
+      </c>
+      <c r="E1005" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1005" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1006">
+      <c r="A1006">
+        <v>39361268</v>
+      </c>
+      <c r="B1006" t="str">
+        <v>无案不眠（现言悬疑精品多人剧）</v>
+      </c>
+      <c r="C1006" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1006">
+        <v>896</v>
+      </c>
+      <c r="E1006" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1006" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1007">
+      <c r="A1007">
+        <v>33541329</v>
+      </c>
+      <c r="B1007" t="str">
+        <v>少帅你老婆又跑了|民国言情多人</v>
+      </c>
+      <c r="C1007" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1007">
+        <v>1432</v>
+      </c>
+      <c r="E1007" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1007" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1008">
+      <c r="A1008">
+        <v>29135574</v>
+      </c>
+      <c r="B1008" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1008" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1008">
+        <v>123</v>
+      </c>
+      <c r="E1008" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1008" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1009">
+      <c r="A1009">
+        <v>40544228</v>
+      </c>
+      <c r="B1009" t="str">
+        <v>捍宝|民国盗墓探险 抗日热血（周建龙播讲）</v>
+      </c>
+      <c r="C1009" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1009">
+        <v>247</v>
+      </c>
+      <c r="E1009" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1009" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1010">
+      <c r="A1010">
+        <v>12517524</v>
+      </c>
+      <c r="B1010" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1010" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1010">
+        <v>144</v>
+      </c>
+      <c r="E1010" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1010" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1011">
+      <c r="A1011">
+        <v>37407947</v>
+      </c>
+      <c r="B1011" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C1011" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1011">
+        <v>849</v>
+      </c>
+      <c r="E1011" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1011" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1012">
+      <c r="A1012">
+        <v>25167841</v>
+      </c>
+      <c r="B1012" t="str">
+        <v>实用人格手册：读懂自己与他人的必备指南</v>
+      </c>
+      <c r="C1012" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1012">
+        <v>39</v>
+      </c>
+      <c r="E1012" t="str">
+        <v>个人成长</v>
+      </c>
+      <c r="F1012" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1013">
+      <c r="A1013">
+        <v>35535482</v>
+      </c>
+      <c r="B1013" t="str">
+        <v>霍乱时期的爱情 | 马尔克斯代表作，杨晨、吴凌云演播</v>
+      </c>
+      <c r="C1013" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1013">
+        <v>76</v>
+      </c>
+      <c r="E1013" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1013" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1014">
+      <c r="A1014">
+        <v>29135574</v>
+      </c>
+      <c r="B1014" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1014" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1014">
+        <v>124</v>
+      </c>
+      <c r="E1014" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1014" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1015">
+      <c r="A1015">
+        <v>12517524</v>
+      </c>
+      <c r="B1015" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1015" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1015">
+        <v>146</v>
+      </c>
+      <c r="E1015" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1015" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1016">
+      <c r="A1016">
+        <v>29135574</v>
+      </c>
+      <c r="B1016" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1016" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1016">
+        <v>124</v>
+      </c>
+      <c r="E1016" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1016" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017">
+        <v>12517524</v>
+      </c>
+      <c r="B1017" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1017" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1017">
+        <v>146</v>
+      </c>
+      <c r="E1017" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1017" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1018">
+      <c r="A1018">
+        <v>29135574</v>
+      </c>
+      <c r="B1018" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1018" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1018">
+        <v>124</v>
+      </c>
+      <c r="E1018" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1018" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1019">
+      <c r="A1019">
+        <v>12517524</v>
+      </c>
+      <c r="B1019" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1019" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1019">
+        <v>146</v>
+      </c>
+      <c r="E1019" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1019" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1020">
+      <c r="A1020">
+        <v>29135574</v>
+      </c>
+      <c r="B1020" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1020" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1020">
+        <v>124</v>
+      </c>
+      <c r="E1020" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1020" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1021">
+      <c r="A1021">
+        <v>12517524</v>
+      </c>
+      <c r="B1021" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1021" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1021">
+        <v>146</v>
+      </c>
+      <c r="E1021" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1021" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1022">
+      <c r="A1022">
+        <v>29135574</v>
+      </c>
+      <c r="B1022" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1022" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1022">
+        <v>124</v>
+      </c>
+      <c r="E1022" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1022" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1023">
+      <c r="A1023">
+        <v>12517524</v>
+      </c>
+      <c r="B1023" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1023" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1023">
+        <v>146</v>
+      </c>
+      <c r="E1023" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1023" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1024">
+      <c r="A1024">
+        <v>29135574</v>
+      </c>
+      <c r="B1024" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1024" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1024">
+        <v>124</v>
+      </c>
+      <c r="E1024" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1024" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1025">
+      <c r="A1025">
+        <v>12517524</v>
+      </c>
+      <c r="B1025" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1025" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1025">
+        <v>146</v>
+      </c>
+      <c r="E1025" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1025" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1026">
+      <c r="A1026">
+        <v>37407947</v>
+      </c>
+      <c r="B1026" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C1026" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1026">
+        <v>897</v>
+      </c>
+      <c r="E1026" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1026" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1027">
+      <c r="A1027">
+        <v>40121646</v>
+      </c>
+      <c r="B1027" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C1027" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1027">
+        <v>314</v>
+      </c>
+      <c r="E1027" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1027" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1028">
+      <c r="A1028">
+        <v>30816438</v>
+      </c>
+      <c r="B1028" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C1028" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1028">
+        <v>59</v>
+      </c>
+      <c r="E1028" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1028" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1029">
+      <c r="A1029">
+        <v>30222680</v>
+      </c>
+      <c r="B1029" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C1029" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1029">
+        <v>1511</v>
+      </c>
+      <c r="E1029" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1029" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1030">
+      <c r="A1030">
+        <v>5949372</v>
+      </c>
+      <c r="B1030" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C1030" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1030">
+        <v>1435</v>
+      </c>
+      <c r="E1030" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1030" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1031">
+      <c r="A1031">
+        <v>29135574</v>
+      </c>
+      <c r="B1031" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1031" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1031">
+        <v>124</v>
+      </c>
+      <c r="E1031" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1031" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1032">
+      <c r="A1032">
+        <v>12517524</v>
+      </c>
+      <c r="B1032" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1032" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1032">
+        <v>147</v>
+      </c>
+      <c r="E1032" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1032" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1033">
+      <c r="A1033">
+        <v>37407947</v>
+      </c>
+      <c r="B1033" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C1033" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1033">
+        <v>907</v>
+      </c>
+      <c r="E1033" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1033" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1034">
+      <c r="A1034">
+        <v>40121646</v>
+      </c>
+      <c r="B1034" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C1034" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1034">
+        <v>314</v>
+      </c>
+      <c r="E1034" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1034" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1035">
+      <c r="A1035">
+        <v>30816438</v>
+      </c>
+      <c r="B1035" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C1035" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1035">
+        <v>59</v>
+      </c>
+      <c r="E1035" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1035" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1036">
+      <c r="A1036">
+        <v>30222680</v>
+      </c>
+      <c r="B1036" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C1036" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1036">
+        <v>1511</v>
+      </c>
+      <c r="E1036" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1036" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1037">
+      <c r="A1037">
+        <v>5949372</v>
+      </c>
+      <c r="B1037" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C1037" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1037">
+        <v>1435</v>
+      </c>
+      <c r="E1037" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1037" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1038">
+      <c r="A1038">
+        <v>43964846</v>
+      </c>
+      <c r="B1038" t="str">
+        <v>老梁故事汇主讲人丨处世绝学29招丨职场高情商，教你好好说话</v>
+      </c>
+      <c r="C1038" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1038">
+        <v>13</v>
+      </c>
+      <c r="E1038" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1038" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1039">
+      <c r="A1039">
+        <v>29135574</v>
+      </c>
+      <c r="B1039" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1039" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1039">
+        <v>124</v>
+      </c>
+      <c r="E1039" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1039" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1040">
+      <c r="A1040">
+        <v>12517524</v>
+      </c>
+      <c r="B1040" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1040" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1040">
+        <v>147</v>
+      </c>
+      <c r="E1040" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1040" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1041">
+      <c r="A1041">
+        <v>37407947</v>
+      </c>
+      <c r="B1041" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C1041" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1041">
+        <v>907</v>
+      </c>
+      <c r="E1041" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1041" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1042">
+      <c r="A1042">
+        <v>40121646</v>
+      </c>
+      <c r="B1042" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C1042" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1042">
+        <v>314</v>
+      </c>
+      <c r="E1042" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1042" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1043">
+      <c r="A1043">
+        <v>30816438</v>
+      </c>
+      <c r="B1043" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C1043" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1043">
+        <v>59</v>
+      </c>
+      <c r="E1043" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1043" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1044">
+      <c r="A1044">
+        <v>30222680</v>
+      </c>
+      <c r="B1044" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C1044" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1044">
+        <v>1511</v>
+      </c>
+      <c r="E1044" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1044" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1045">
+      <c r="A1045">
+        <v>5949372</v>
+      </c>
+      <c r="B1045" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C1045" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1045">
+        <v>1435</v>
+      </c>
+      <c r="E1045" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1045" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1046">
+      <c r="A1046">
+        <v>20134156</v>
+      </c>
+      <c r="B1046" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C1046" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1046">
+        <v>1641</v>
+      </c>
+      <c r="E1046" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1046" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1047">
+      <c r="A1047">
+        <v>33476331</v>
+      </c>
+      <c r="B1047" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1047" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1047">
+        <v>758</v>
+      </c>
+      <c r="E1047" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1047" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1048">
+      <c r="A1048">
+        <v>29135574</v>
+      </c>
+      <c r="B1048" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1048" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1048">
+        <v>124</v>
+      </c>
+      <c r="E1048" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1048" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1049">
+      <c r="A1049">
+        <v>12517524</v>
+      </c>
+      <c r="B1049" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1049" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1049">
+        <v>147</v>
+      </c>
+      <c r="E1049" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1049" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1050">
+      <c r="A1050">
+        <v>37407947</v>
+      </c>
+      <c r="B1050" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C1050" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1050">
+        <v>907</v>
+      </c>
+      <c r="E1050" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1050" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1051">
+      <c r="A1051">
+        <v>40121646</v>
+      </c>
+      <c r="B1051" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C1051" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1051">
+        <v>314</v>
+      </c>
+      <c r="E1051" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1051" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1052">
+      <c r="A1052">
+        <v>30816438</v>
+      </c>
+      <c r="B1052" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C1052" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1052">
+        <v>59</v>
+      </c>
+      <c r="E1052" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1052" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1053">
+      <c r="A1053">
+        <v>30222680</v>
+      </c>
+      <c r="B1053" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C1053" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1053">
+        <v>1511</v>
+      </c>
+      <c r="E1053" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1053" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1054">
+      <c r="A1054">
+        <v>5949372</v>
+      </c>
+      <c r="B1054" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C1054" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1054">
+        <v>1435</v>
+      </c>
+      <c r="E1054" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1054" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1055">
+      <c r="A1055">
+        <v>20134156</v>
+      </c>
+      <c r="B1055" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C1055" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1055">
+        <v>1647</v>
+      </c>
+      <c r="E1055" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1055" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1056">
+      <c r="A1056">
+        <v>33476331</v>
+      </c>
+      <c r="B1056" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1056" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1056">
+        <v>760</v>
+      </c>
+      <c r="E1056" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1056" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1057">
+      <c r="A1057">
+        <v>32650457</v>
+      </c>
+      <c r="B1057" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1057" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1057">
+        <v>1750</v>
+      </c>
+      <c r="E1057" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1057" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1058">
+      <c r="A1058">
+        <v>25010802</v>
+      </c>
+      <c r="B1058" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1058" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1058">
+        <v>2160</v>
+      </c>
+      <c r="E1058" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1058" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1059">
+      <c r="A1059">
+        <v>38160002</v>
+      </c>
+      <c r="B1059" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1059" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1059">
+        <v>662</v>
+      </c>
+      <c r="E1059" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1059" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1060">
+      <c r="A1060">
+        <v>40121646</v>
+      </c>
+      <c r="B1060" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C1060" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1060">
+        <v>314</v>
+      </c>
+      <c r="E1060" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1060" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1061">
+      <c r="A1061">
+        <v>29135574</v>
+      </c>
+      <c r="B1061" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1061" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1061">
+        <v>124</v>
+      </c>
+      <c r="E1061" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1061" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1062">
+      <c r="A1062">
+        <v>12517524</v>
+      </c>
+      <c r="B1062" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1062" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1062">
+        <v>147</v>
+      </c>
+      <c r="E1062" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1062" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1063">
+      <c r="A1063">
+        <v>37407947</v>
+      </c>
+      <c r="B1063" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C1063" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1063">
+        <v>907</v>
+      </c>
+      <c r="E1063" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1063" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1064">
+      <c r="A1064">
+        <v>40121646</v>
+      </c>
+      <c r="B1064" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C1064" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1064">
+        <v>314</v>
+      </c>
+      <c r="E1064" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1064" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1065">
+      <c r="A1065">
+        <v>30816438</v>
+      </c>
+      <c r="B1065" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C1065" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1065">
+        <v>59</v>
+      </c>
+      <c r="E1065" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1065" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1066">
+      <c r="A1066">
+        <v>30222680</v>
+      </c>
+      <c r="B1066" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C1066" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1066">
+        <v>1511</v>
+      </c>
+      <c r="E1066" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1066" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1067">
+      <c r="A1067">
+        <v>5949372</v>
+      </c>
+      <c r="B1067" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C1067" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1067">
+        <v>1435</v>
+      </c>
+      <c r="E1067" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1067" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1068">
+      <c r="A1068">
+        <v>20134156</v>
+      </c>
+      <c r="B1068" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C1068" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1068">
+        <v>1647</v>
+      </c>
+      <c r="E1068" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1068" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1069">
+      <c r="A1069">
+        <v>33476331</v>
+      </c>
+      <c r="B1069" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1069" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1069">
+        <v>760</v>
+      </c>
+      <c r="E1069" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1069" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1070">
+      <c r="A1070">
+        <v>32650457</v>
+      </c>
+      <c r="B1070" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1070" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1070">
+        <v>1750</v>
+      </c>
+      <c r="E1070" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1070" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1071">
+      <c r="A1071">
+        <v>25010802</v>
+      </c>
+      <c r="B1071" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1071" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1071">
+        <v>2160</v>
+      </c>
+      <c r="E1071" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1071" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1072">
+      <c r="A1072">
+        <v>38160002</v>
+      </c>
+      <c r="B1072" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1072" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1072">
+        <v>662</v>
+      </c>
+      <c r="E1072" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1072" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1073">
+      <c r="A1073">
+        <v>40121646</v>
+      </c>
+      <c r="B1073" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C1073" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1073">
+        <v>314</v>
+      </c>
+      <c r="E1073" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1073" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1074">
+      <c r="A1074">
+        <v>41152884</v>
+      </c>
+      <c r="B1074" t="str">
+        <v>盗墓手札丨有声的紫襟（盗墓笔记基友版）</v>
+      </c>
+      <c r="C1074" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1074">
+        <v>750</v>
+      </c>
+      <c r="E1074" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1074" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1075">
+      <c r="A1075">
+        <v>34220825</v>
+      </c>
+      <c r="B1075" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C1075" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1075">
+        <v>1021</v>
+      </c>
+      <c r="E1075" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1075" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1076">
+      <c r="A1076">
+        <v>31887842</v>
+      </c>
+      <c r="B1076" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1076" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1076">
+        <v>1672</v>
+      </c>
+      <c r="E1076" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1076" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1077">
+      <c r="A1077">
+        <v>29135574</v>
+      </c>
+      <c r="B1077" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1077" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1077">
+        <v>124</v>
+      </c>
+      <c r="E1077" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1077" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1078">
+      <c r="A1078">
+        <v>12517524</v>
+      </c>
+      <c r="B1078" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1078" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1078">
+        <v>147</v>
+      </c>
+      <c r="E1078" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1078" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1079">
+      <c r="A1079">
+        <v>37407947</v>
+      </c>
+      <c r="B1079" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C1079" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1079">
+        <v>917</v>
+      </c>
+      <c r="E1079" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1079" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1080">
+      <c r="A1080">
+        <v>40121646</v>
+      </c>
+      <c r="B1080" t="str">
+        <v>三体（全集）| 有声小说，刘慈欣作品，王明军演播</v>
+      </c>
+      <c r="C1080" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1080">
+        <v>314</v>
+      </c>
+      <c r="E1080" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1080" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1081">
+      <c r="A1081">
+        <v>30816438</v>
+      </c>
+      <c r="B1081" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C1081" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1081">
+        <v>59</v>
+      </c>
+      <c r="E1081" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1081" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1082">
+      <c r="A1082">
+        <v>30222680</v>
+      </c>
+      <c r="B1082" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C1082" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1082">
+        <v>1511</v>
+      </c>
+      <c r="E1082" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1082" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1083">
+      <c r="A1083">
+        <v>5949372</v>
+      </c>
+      <c r="B1083" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C1083" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1083">
+        <v>1435</v>
+      </c>
+      <c r="E1083" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1083" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1084">
+      <c r="A1084">
+        <v>20134156</v>
+      </c>
+      <c r="B1084" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C1084" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1084">
+        <v>1650</v>
+      </c>
+      <c r="E1084" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1084" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1085">
+      <c r="A1085">
+        <v>33476331</v>
+      </c>
+      <c r="B1085" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1085" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1085">
+        <v>762</v>
+      </c>
+      <c r="E1085" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1085" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1086">
+      <c r="A1086">
+        <v>32650457</v>
+      </c>
+      <c r="B1086" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1086" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1086">
+        <v>1752</v>
+      </c>
+      <c r="E1086" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1086" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1087">
+      <c r="A1087">
+        <v>25010802</v>
+      </c>
+      <c r="B1087" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1087" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1087">
+        <v>2161</v>
+      </c>
+      <c r="E1087" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1087" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1088">
+      <c r="A1088">
+        <v>41152884</v>
+      </c>
+      <c r="B1088" t="str">
+        <v>盗墓手札丨有声的紫襟（盗墓笔记基友版）</v>
+      </c>
+      <c r="C1088" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1088">
+        <v>756</v>
+      </c>
+      <c r="E1088" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1088" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1089">
+      <c r="A1089">
+        <v>38160002</v>
+      </c>
+      <c r="B1089" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1089" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1089">
+        <v>664</v>
+      </c>
+      <c r="E1089" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1089" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1090">
+      <c r="A1090">
+        <v>31887842</v>
+      </c>
+      <c r="B1090" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1090" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1090">
+        <v>1676</v>
+      </c>
+      <c r="E1090" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1090" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1091">
+      <c r="A1091">
+        <v>34220825</v>
+      </c>
+      <c r="B1091" t="str">
+        <v>遮天（辰东作品，头陀渊&amp;小桃红精品双播）</v>
+      </c>
+      <c r="C1091" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1091">
+        <v>1024</v>
+      </c>
+      <c r="E1091" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1091" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1092">
+      <c r="A1092">
+        <v>19095902</v>
+      </c>
+      <c r="B1092" t="str">
+        <v>圣墟【头陀渊&amp;小桃红】遮天后传</v>
+      </c>
+      <c r="C1092" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1092">
+        <v>2227</v>
+      </c>
+      <c r="E1092" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1092" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1093">
+      <c r="A1093">
+        <v>24075975</v>
+      </c>
+      <c r="B1093" t="str">
+        <v>医学博士的心脑训练课【SMART】</v>
+      </c>
+      <c r="C1093" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1093">
+        <v>21</v>
+      </c>
+      <c r="E1093" t="str">
+        <v>教育培训</v>
+      </c>
+      <c r="F1093" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1094">
+      <c r="A1094">
+        <v>29135574</v>
+      </c>
+      <c r="B1094" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1094" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1094">
+        <v>124</v>
+      </c>
+      <c r="E1094" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1094" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1095">
+      <c r="A1095">
+        <v>12517524</v>
+      </c>
+      <c r="B1095" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1095" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1095">
+        <v>147</v>
+      </c>
+      <c r="E1095" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1095" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1096">
+      <c r="A1096">
+        <v>37407947</v>
+      </c>
+      <c r="B1096" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C1096" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1096">
+        <v>922</v>
+      </c>
+      <c r="E1096" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1096" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1097">
+      <c r="A1097">
+        <v>30816438</v>
+      </c>
+      <c r="B1097" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C1097" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1097">
+        <v>60</v>
+      </c>
+      <c r="E1097" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1097" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1098">
+      <c r="A1098">
+        <v>30222680</v>
+      </c>
+      <c r="B1098" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C1098" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1098">
+        <v>1511</v>
+      </c>
+      <c r="E1098" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1098" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1099">
+      <c r="A1099">
+        <v>5949372</v>
+      </c>
+      <c r="B1099" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C1099" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1099">
+        <v>1435</v>
+      </c>
+      <c r="E1099" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1099" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1100">
+      <c r="A1100">
+        <v>20134156</v>
+      </c>
+      <c r="B1100" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C1100" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1100">
+        <v>1656</v>
+      </c>
+      <c r="E1100" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1100" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1101">
+      <c r="A1101">
+        <v>33476331</v>
+      </c>
+      <c r="B1101" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1101" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1101">
+        <v>764</v>
+      </c>
+      <c r="E1101" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1101" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1102">
+      <c r="A1102">
+        <v>32650457</v>
+      </c>
+      <c r="B1102" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1102" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1102">
+        <v>1756</v>
+      </c>
+      <c r="E1102" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1102" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1103">
+      <c r="A1103">
+        <v>25010802</v>
+      </c>
+      <c r="B1103" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1103" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1103">
+        <v>2163</v>
+      </c>
+      <c r="E1103" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1103" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1104">
+      <c r="A1104">
+        <v>41152884</v>
+      </c>
+      <c r="B1104" t="str">
+        <v>盗墓手札丨有声的紫襟（盗墓笔记基友版）</v>
+      </c>
+      <c r="C1104" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1104">
+        <v>756</v>
+      </c>
+      <c r="E1104" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1104" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1105">
+      <c r="A1105">
+        <v>38160002</v>
+      </c>
+      <c r="B1105" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1105" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1105">
+        <v>669</v>
+      </c>
+      <c r="E1105" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1105" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1106">
+      <c r="A1106">
+        <v>31887842</v>
+      </c>
+      <c r="B1106" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1106" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1106">
+        <v>1680</v>
+      </c>
+      <c r="E1106" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1106" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1107">
+      <c r="A1107">
+        <v>29135574</v>
+      </c>
+      <c r="B1107" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1107" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1107">
+        <v>124</v>
+      </c>
+      <c r="E1107" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1107" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1108">
+      <c r="A1108">
+        <v>12517524</v>
+      </c>
+      <c r="B1108" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1108" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1108">
+        <v>147</v>
+      </c>
+      <c r="E1108" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1108" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1109">
+      <c r="A1109">
+        <v>37407947</v>
+      </c>
+      <c r="B1109" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C1109" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1109">
+        <v>927</v>
+      </c>
+      <c r="E1109" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1109" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1110">
+      <c r="A1110">
+        <v>30816438</v>
+      </c>
+      <c r="B1110" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C1110" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1110">
+        <v>60</v>
+      </c>
+      <c r="E1110" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1110" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1111">
+      <c r="A1111">
+        <v>30222680</v>
+      </c>
+      <c r="B1111" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C1111" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1111">
+        <v>1511</v>
+      </c>
+      <c r="E1111" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1111" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1112">
+      <c r="A1112">
+        <v>5949372</v>
+      </c>
+      <c r="B1112" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C1112" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1112">
+        <v>1435</v>
+      </c>
+      <c r="E1112" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1112" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1113">
+      <c r="A1113">
+        <v>20134156</v>
+      </c>
+      <c r="B1113" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C1113" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1113">
+        <v>1659</v>
+      </c>
+      <c r="E1113" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1113" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1114">
+      <c r="A1114">
+        <v>33476331</v>
+      </c>
+      <c r="B1114" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1114" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1114">
+        <v>764</v>
+      </c>
+      <c r="E1114" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1114" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1115">
+      <c r="A1115">
+        <v>32650457</v>
+      </c>
+      <c r="B1115" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1115" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1115">
+        <v>1758</v>
+      </c>
+      <c r="E1115" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1115" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1116">
+      <c r="A1116">
+        <v>25010802</v>
+      </c>
+      <c r="B1116" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1116" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1116">
+        <v>2163</v>
+      </c>
+      <c r="E1116" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1116" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1117">
+      <c r="A1117">
+        <v>41152884</v>
+      </c>
+      <c r="B1117" t="str">
+        <v>盗墓手札丨有声的紫襟（盗墓笔记基友版）</v>
+      </c>
+      <c r="C1117" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1117">
+        <v>756</v>
+      </c>
+      <c r="E1117" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1117" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1118">
+      <c r="A1118">
+        <v>38160002</v>
+      </c>
+      <c r="B1118" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1118" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1118">
+        <v>669</v>
+      </c>
+      <c r="E1118" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1118" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1119">
+      <c r="A1119">
+        <v>16576596</v>
+      </c>
+      <c r="B1119" t="str">
+        <v>四世同堂 | 李野墨演播 老舍经典</v>
+      </c>
+      <c r="C1119" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1119">
+        <v>100</v>
+      </c>
+      <c r="E1119" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1119" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1120">
+      <c r="A1120">
+        <v>29135574</v>
+      </c>
+      <c r="B1120" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C1120" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1120">
+        <v>125</v>
+      </c>
+      <c r="E1120" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F1120" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1121">
+      <c r="A1121">
+        <v>12517524</v>
+      </c>
+      <c r="B1121" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C1121" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1121">
+        <v>148</v>
+      </c>
+      <c r="E1121" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F1121" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1122">
+      <c r="A1122">
+        <v>37407947</v>
+      </c>
+      <c r="B1122" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C1122" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1122">
+        <v>927</v>
+      </c>
+      <c r="E1122" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1122" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1123">
+      <c r="A1123">
+        <v>30816438</v>
+      </c>
+      <c r="B1123" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C1123" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1123">
+        <v>60</v>
+      </c>
+      <c r="E1123" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F1123" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1124">
+      <c r="A1124">
+        <v>30222680</v>
+      </c>
+      <c r="B1124" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C1124" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1124">
+        <v>1511</v>
+      </c>
+      <c r="E1124" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1124" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1125">
+      <c r="A1125">
+        <v>5949372</v>
+      </c>
+      <c r="B1125" t="str">
+        <v>逆天邪神</v>
+      </c>
+      <c r="C1125" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1125">
+        <v>1435</v>
+      </c>
+      <c r="E1125" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1125" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1126">
+      <c r="A1126">
+        <v>20134156</v>
+      </c>
+      <c r="B1126" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C1126" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1126">
+        <v>1662</v>
+      </c>
+      <c r="E1126" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1126" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1127">
+      <c r="A1127">
+        <v>33476331</v>
+      </c>
+      <c r="B1127" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C1127" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1127">
+        <v>766</v>
+      </c>
+      <c r="E1127" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1127" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1128">
+      <c r="A1128">
+        <v>32650457</v>
+      </c>
+      <c r="B1128" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C1128" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1128">
+        <v>1760</v>
+      </c>
+      <c r="E1128" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1128" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1129">
+      <c r="A1129">
+        <v>25010802</v>
+      </c>
+      <c r="B1129" t="str">
+        <v>最佳女婿|火爆都市异能多人剧（喜马拉雅铁三角出品）</v>
+      </c>
+      <c r="C1129" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1129">
+        <v>2165</v>
+      </c>
+      <c r="E1129" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1129" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1130">
+      <c r="A1130">
+        <v>41152884</v>
+      </c>
+      <c r="B1130" t="str">
+        <v>盗墓手札丨有声的紫襟（盗墓笔记基友版）</v>
+      </c>
+      <c r="C1130" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1130">
+        <v>756</v>
+      </c>
+      <c r="E1130" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1130" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1131">
+      <c r="A1131">
+        <v>38160002</v>
+      </c>
+      <c r="B1131" t="str">
+        <v>庆余年【全三季】古风&amp;权谋（同名影视原著 | 精品多人剧）</v>
+      </c>
+      <c r="C1131" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1131">
+        <v>671</v>
+      </c>
+      <c r="E1131" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1131" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1132">
+      <c r="A1132">
+        <v>31887842</v>
+      </c>
+      <c r="B1132" t="str">
+        <v>超级女婿|又名: 豪婿（上门女婿韩三千）</v>
+      </c>
+      <c r="C1132" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1132">
+        <v>1682</v>
+      </c>
+      <c r="E1132" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1132" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1133">
+      <c r="A1133">
+        <v>37522647</v>
+      </c>
+      <c r="B1133" t="str">
+        <v>《随园食单》白话文【有文稿】</v>
+      </c>
+      <c r="C1133" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1133">
+        <v>16</v>
+      </c>
+      <c r="E1133" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1133" t="str">
+        <v>是</v>
+      </c>
+    </row>
+    <row r="1134">
+      <c r="A1134">
+        <v>44955514</v>
+      </c>
+      <c r="B1134" t="str">
+        <v>一寸师|小人物的悲喜起落|黄梵著</v>
+      </c>
+      <c r="C1134" t="str">
+        <v>是</v>
+      </c>
+      <c r="D1134">
+        <v>27</v>
+      </c>
+      <c r="E1134" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F1134" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="1135">
+      <c r="A1135">
+        <v>37522647</v>
+      </c>
+      <c r="B1135" t="str">
+        <v>《随园食单》白话文【有文稿】</v>
+      </c>
+      <c r="C1135" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1135">
+        <v>16</v>
+      </c>
+      <c r="E1135" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1135" t="str">
+        <v>是</v>
+      </c>
+    </row>
+    <row r="1136">
+      <c r="A1136">
+        <v>37522647</v>
+      </c>
+      <c r="B1136" t="str">
+        <v>《随园食单》白话文【有文稿】</v>
+      </c>
+      <c r="C1136" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1136">
+        <v>16</v>
+      </c>
+      <c r="E1136" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1136" t="str">
+        <v>是</v>
+      </c>
+    </row>
+    <row r="1137">
+      <c r="A1137">
+        <v>37522647</v>
+      </c>
+      <c r="B1137" t="str">
+        <v>《随园食单》白话文【有文稿】</v>
+      </c>
+      <c r="C1137" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1137">
+        <v>16</v>
+      </c>
+      <c r="E1137" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1137" t="str">
+        <v>是</v>
+      </c>
+    </row>
+    <row r="1138">
+      <c r="A1138">
+        <v>37522647</v>
+      </c>
+      <c r="B1138" t="str">
+        <v>《随园食单》白话文【有文稿】</v>
+      </c>
+      <c r="C1138" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1138">
+        <v>16</v>
+      </c>
+      <c r="E1138" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1138" t="str">
+        <v>是</v>
+      </c>
+    </row>
+    <row r="1139">
+      <c r="A1139">
+        <v>37522647</v>
+      </c>
+      <c r="B1139" t="str">
+        <v>《随园食单》白话文【有文稿】</v>
+      </c>
+      <c r="C1139" t="str">
+        <v>否</v>
+      </c>
+      <c r="D1139">
+        <v>16</v>
+      </c>
+      <c r="E1139" t="str">
+        <v>历史</v>
+      </c>
+      <c r="F1139" t="str">
+        <v>是</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F977"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F1139"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F786"/>
+  <dimension ref="A1:F814"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16100,9 +16100,569 @@
         <v>否</v>
       </c>
     </row>
+    <row r="787">
+      <c r="A787">
+        <v>11549955</v>
+      </c>
+      <c r="B787" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C787" t="str">
+        <v>否</v>
+      </c>
+      <c r="D787" t="b">
+        <v>1</v>
+      </c>
+      <c r="E787" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F787" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788">
+        <v>45564718</v>
+      </c>
+      <c r="B788" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈代表作“谋杀官员”系列</v>
+      </c>
+      <c r="C788" t="str">
+        <v>否</v>
+      </c>
+      <c r="D788" t="b">
+        <v>1</v>
+      </c>
+      <c r="E788" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F788" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789">
+        <v>38159966</v>
+      </c>
+      <c r="B789" t="str">
+        <v>间谍的战争|昊翔演播（佣兵的战争作者又一力作）</v>
+      </c>
+      <c r="C789" t="str">
+        <v>是</v>
+      </c>
+      <c r="D789" t="b">
+        <v>1</v>
+      </c>
+      <c r="E789" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F789" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790">
+        <v>29135574</v>
+      </c>
+      <c r="B790" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C790" t="str">
+        <v>否</v>
+      </c>
+      <c r="D790" t="b">
+        <v>1</v>
+      </c>
+      <c r="E790" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F790" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791">
+        <v>12517524</v>
+      </c>
+      <c r="B791" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C791" t="str">
+        <v>否</v>
+      </c>
+      <c r="D791" t="b">
+        <v>1</v>
+      </c>
+      <c r="E791" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F791" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792">
+        <v>37407947</v>
+      </c>
+      <c r="B792" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C792" t="str">
+        <v>否</v>
+      </c>
+      <c r="D792" t="b">
+        <v>1</v>
+      </c>
+      <c r="E792" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F792" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793">
+        <v>30816438</v>
+      </c>
+      <c r="B793" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C793" t="str">
+        <v>否</v>
+      </c>
+      <c r="D793" t="b">
+        <v>1</v>
+      </c>
+      <c r="E793" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F793" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794">
+        <v>30222680</v>
+      </c>
+      <c r="B794" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C794" t="str">
+        <v>否</v>
+      </c>
+      <c r="D794" t="b">
+        <v>1</v>
+      </c>
+      <c r="E794" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F794" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795">
+        <v>5949372</v>
+      </c>
+      <c r="B795" t="str">
+        <v>逆天邪神（嘉伟演播）</v>
+      </c>
+      <c r="C795" t="str">
+        <v>否</v>
+      </c>
+      <c r="D795" t="b">
+        <v>1</v>
+      </c>
+      <c r="E795" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F795" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796">
+        <v>20134156</v>
+      </c>
+      <c r="B796" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C796" t="str">
+        <v>否</v>
+      </c>
+      <c r="D796" t="b">
+        <v>1</v>
+      </c>
+      <c r="E796" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F796" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797">
+        <v>3416829</v>
+      </c>
+      <c r="B797" t="str">
+        <v>赘婿（郭麒麟&amp;宋轶主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C797" t="str">
+        <v>否</v>
+      </c>
+      <c r="D797" t="b">
+        <v>1</v>
+      </c>
+      <c r="E797" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F797" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798">
+        <v>3096376</v>
+      </c>
+      <c r="B798" t="str">
+        <v>庶女攻略（钟汉良、谭松韵主演《锦心似玉》原著小说）</v>
+      </c>
+      <c r="C798" t="str">
+        <v>是</v>
+      </c>
+      <c r="D798" t="b">
+        <v>1</v>
+      </c>
+      <c r="E798" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F798" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799">
+        <v>33476331</v>
+      </c>
+      <c r="B799" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C799" t="str">
+        <v>否</v>
+      </c>
+      <c r="D799" t="b">
+        <v>1</v>
+      </c>
+      <c r="E799" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F799" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800">
+        <v>11549955</v>
+      </c>
+      <c r="B800" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C800" t="str">
+        <v>否</v>
+      </c>
+      <c r="D800" t="b">
+        <v>1</v>
+      </c>
+      <c r="E800" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F800" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801">
+        <v>45564718</v>
+      </c>
+      <c r="B801" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈代表作“谋杀官员”系列</v>
+      </c>
+      <c r="C801" t="str">
+        <v>否</v>
+      </c>
+      <c r="D801" t="b">
+        <v>1</v>
+      </c>
+      <c r="E801" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F801" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802">
+        <v>29135574</v>
+      </c>
+      <c r="B802" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C802" t="str">
+        <v>否</v>
+      </c>
+      <c r="D802" t="b">
+        <v>1</v>
+      </c>
+      <c r="E802" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F802" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803">
+        <v>11549955</v>
+      </c>
+      <c r="B803" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C803" t="str">
+        <v>否</v>
+      </c>
+      <c r="D803" t="str">
+        <v>1295</v>
+      </c>
+      <c r="E803" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F803" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804">
+        <v>45564718</v>
+      </c>
+      <c r="B804" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈代表作“谋杀官员”系列</v>
+      </c>
+      <c r="C804" t="str">
+        <v>否</v>
+      </c>
+      <c r="D804" t="str">
+        <v>89</v>
+      </c>
+      <c r="E804" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F804" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805">
+        <v>29135574</v>
+      </c>
+      <c r="B805" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C805" t="str">
+        <v>否</v>
+      </c>
+      <c r="D805" t="str">
+        <v>130</v>
+      </c>
+      <c r="E805" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F805" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806">
+        <v>12517524</v>
+      </c>
+      <c r="B806" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C806" t="str">
+        <v>否</v>
+      </c>
+      <c r="D806" t="str">
+        <v>154</v>
+      </c>
+      <c r="E806" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F806" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807">
+        <v>37407947</v>
+      </c>
+      <c r="B807" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C807" t="str">
+        <v>否</v>
+      </c>
+      <c r="D807" t="str">
+        <v>1055</v>
+      </c>
+      <c r="E807" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F807" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808">
+        <v>30816438</v>
+      </c>
+      <c r="B808" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C808" t="str">
+        <v>否</v>
+      </c>
+      <c r="D808" t="str">
+        <v>63</v>
+      </c>
+      <c r="E808" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F808" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809">
+        <v>30222680</v>
+      </c>
+      <c r="B809" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C809" t="str">
+        <v>否</v>
+      </c>
+      <c r="D809" t="str">
+        <v>1538</v>
+      </c>
+      <c r="E809" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F809" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810">
+        <v>5949372</v>
+      </c>
+      <c r="B810" t="str">
+        <v>逆天邪神（嘉伟演播）</v>
+      </c>
+      <c r="C810" t="str">
+        <v>否</v>
+      </c>
+      <c r="D810" t="str">
+        <v>1437</v>
+      </c>
+      <c r="E810" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F810" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811">
+        <v>20134156</v>
+      </c>
+      <c r="B811" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C811" t="str">
+        <v>否</v>
+      </c>
+      <c r="D811" t="str">
+        <v>1785</v>
+      </c>
+      <c r="E811" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F811" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812">
+        <v>11549955</v>
+      </c>
+      <c r="B812" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C812" t="str">
+        <v>否</v>
+      </c>
+      <c r="D812" t="str">
+        <v>1295</v>
+      </c>
+      <c r="E812" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F812" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813">
+        <v>45564718</v>
+      </c>
+      <c r="B813" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈代表作“谋杀官员”系列</v>
+      </c>
+      <c r="C813" t="str">
+        <v>否</v>
+      </c>
+      <c r="D813" t="str">
+        <v>89</v>
+      </c>
+      <c r="E813" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F813" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814">
+        <v>29135574</v>
+      </c>
+      <c r="B814" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C814" t="str">
+        <v>否</v>
+      </c>
+      <c r="D814" t="str">
+        <v>130</v>
+      </c>
+      <c r="E814" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F814" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F786"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F814"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F814"/>
+  <dimension ref="A1:F816"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16660,9 +16660,49 @@
         <v>否</v>
       </c>
     </row>
+    <row r="815">
+      <c r="A815">
+        <v>11549955</v>
+      </c>
+      <c r="B815" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C815" t="str">
+        <v>否</v>
+      </c>
+      <c r="D815" t="str">
+        <v>1295</v>
+      </c>
+      <c r="E815" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F815" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816">
+        <v>45564718</v>
+      </c>
+      <c r="B816" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈代表作“谋杀官员”系列</v>
+      </c>
+      <c r="C816" t="str">
+        <v>否</v>
+      </c>
+      <c r="D816" t="str">
+        <v>89</v>
+      </c>
+      <c r="E816" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F816" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F814"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F816"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F816"/>
+  <dimension ref="A1:F818"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16700,9 +16700,49 @@
         <v>否</v>
       </c>
     </row>
+    <row r="817">
+      <c r="A817">
+        <v>40384178</v>
+      </c>
+      <c r="B817" t="str">
+        <v>无证之罪|《沉默的真相》原著作者紫金陈推荐新版，头陀渊多人剧</v>
+      </c>
+      <c r="C817" t="str">
+        <v>是</v>
+      </c>
+      <c r="D817" t="str">
+        <v>76</v>
+      </c>
+      <c r="E817" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F817" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818">
+        <v>45190176</v>
+      </c>
+      <c r="B818" t="str">
+        <v>天涯·明月·刀（古龙有声作品大系，张震演播）</v>
+      </c>
+      <c r="C818" t="str">
+        <v>是</v>
+      </c>
+      <c r="D818" t="str">
+        <v>62</v>
+      </c>
+      <c r="E818" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F818" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F816"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F818"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F818"/>
+  <dimension ref="A1:F902"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -16740,9 +16740,1689 @@
         <v>否</v>
       </c>
     </row>
+    <row r="819">
+      <c r="A819">
+        <v>40360833</v>
+      </c>
+      <c r="B819" t="str">
+        <v>了凡四训 | 佛学修心课主讲人费勇翻译版</v>
+      </c>
+      <c r="C819" t="str">
+        <v>是</v>
+      </c>
+      <c r="D819" t="str">
+        <v>22</v>
+      </c>
+      <c r="E819" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F819" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820">
+        <v>19309575</v>
+      </c>
+      <c r="B820" t="str">
+        <v>大侠给跪｜悬疑搞笑</v>
+      </c>
+      <c r="C820" t="str">
+        <v>是</v>
+      </c>
+      <c r="D820" t="str">
+        <v>587</v>
+      </c>
+      <c r="E820" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F820" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821">
+        <v>11549955</v>
+      </c>
+      <c r="B821" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C821" t="str">
+        <v>否</v>
+      </c>
+      <c r="D821" t="str">
+        <v>1304</v>
+      </c>
+      <c r="E821" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F821" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822">
+        <v>19309575</v>
+      </c>
+      <c r="B822" t="str">
+        <v>大侠给跪｜悬疑搞笑</v>
+      </c>
+      <c r="C822" t="str">
+        <v>是</v>
+      </c>
+      <c r="D822" t="str">
+        <v>587</v>
+      </c>
+      <c r="E822" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F822" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823">
+        <v>11549955</v>
+      </c>
+      <c r="B823" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C823" t="str">
+        <v>否</v>
+      </c>
+      <c r="D823" t="str">
+        <v>1305</v>
+      </c>
+      <c r="E823" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F823" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824">
+        <v>45564718</v>
+      </c>
+      <c r="B824" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈代表作“谋杀官员”系列</v>
+      </c>
+      <c r="C824" t="str">
+        <v>否</v>
+      </c>
+      <c r="D824" t="str">
+        <v>120</v>
+      </c>
+      <c r="E824" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F824" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825">
+        <v>29135574</v>
+      </c>
+      <c r="B825" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C825" t="str">
+        <v>否</v>
+      </c>
+      <c r="D825" t="str">
+        <v>132</v>
+      </c>
+      <c r="E825" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F825" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826">
+        <v>12517524</v>
+      </c>
+      <c r="B826" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C826" t="str">
+        <v>否</v>
+      </c>
+      <c r="D826" t="str">
+        <v>156</v>
+      </c>
+      <c r="E826" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F826" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827">
+        <v>37407947</v>
+      </c>
+      <c r="B827" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C827" t="str">
+        <v>否</v>
+      </c>
+      <c r="D827" t="str">
+        <v>1110</v>
+      </c>
+      <c r="E827" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F827" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828">
+        <v>30816438</v>
+      </c>
+      <c r="B828" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C828" t="str">
+        <v>否</v>
+      </c>
+      <c r="D828" t="str">
+        <v>63</v>
+      </c>
+      <c r="E828" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F828" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829">
+        <v>30222680</v>
+      </c>
+      <c r="B829" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C829" t="str">
+        <v>否</v>
+      </c>
+      <c r="D829" t="str">
+        <v>1538</v>
+      </c>
+      <c r="E829" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F829" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830">
+        <v>5949372</v>
+      </c>
+      <c r="B830" t="str">
+        <v>逆天邪神（嘉伟演播）</v>
+      </c>
+      <c r="C830" t="str">
+        <v>否</v>
+      </c>
+      <c r="D830" t="str">
+        <v>1437</v>
+      </c>
+      <c r="E830" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F830" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831">
+        <v>20134156</v>
+      </c>
+      <c r="B831" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C831" t="str">
+        <v>否</v>
+      </c>
+      <c r="D831" t="str">
+        <v>1827</v>
+      </c>
+      <c r="E831" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F831" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832">
+        <v>3416829</v>
+      </c>
+      <c r="B832" t="str">
+        <v>赘婿（郭麒麟&amp;宋轶主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C832" t="str">
+        <v>否</v>
+      </c>
+      <c r="D832" t="str">
+        <v>1169</v>
+      </c>
+      <c r="E832" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F832" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833">
+        <v>38160002</v>
+      </c>
+      <c r="B833" t="str">
+        <v>庆余年【全三季多人剧】同名影视原著</v>
+      </c>
+      <c r="C833" t="str">
+        <v>否</v>
+      </c>
+      <c r="D833" t="str">
+        <v>745</v>
+      </c>
+      <c r="E833" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F833" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834">
+        <v>33476331</v>
+      </c>
+      <c r="B834" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C834" t="str">
+        <v>否</v>
+      </c>
+      <c r="D834" t="str">
+        <v>824</v>
+      </c>
+      <c r="E834" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F834" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835">
+        <v>32650457</v>
+      </c>
+      <c r="B835" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C835" t="str">
+        <v>否</v>
+      </c>
+      <c r="D835" t="str">
+        <v>1903</v>
+      </c>
+      <c r="E835" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F835" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836">
+        <v>11549955</v>
+      </c>
+      <c r="B836" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C836" t="str">
+        <v>否</v>
+      </c>
+      <c r="D836" t="str">
+        <v>1308</v>
+      </c>
+      <c r="E836" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F836" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837">
+        <v>45564718</v>
+      </c>
+      <c r="B837" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈代表作“谋杀官员”系列</v>
+      </c>
+      <c r="C837" t="str">
+        <v>否</v>
+      </c>
+      <c r="D837" t="str">
+        <v>126</v>
+      </c>
+      <c r="E837" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F837" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838">
+        <v>29135574</v>
+      </c>
+      <c r="B838" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C838" t="str">
+        <v>否</v>
+      </c>
+      <c r="D838" t="str">
+        <v>132</v>
+      </c>
+      <c r="E838" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F838" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839">
+        <v>12517524</v>
+      </c>
+      <c r="B839" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C839" t="str">
+        <v>否</v>
+      </c>
+      <c r="D839" t="str">
+        <v>156</v>
+      </c>
+      <c r="E839" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F839" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840">
+        <v>37407947</v>
+      </c>
+      <c r="B840" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C840" t="str">
+        <v>否</v>
+      </c>
+      <c r="D840" t="str">
+        <v>1118</v>
+      </c>
+      <c r="E840" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F840" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841">
+        <v>30816438</v>
+      </c>
+      <c r="B841" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C841" t="str">
+        <v>否</v>
+      </c>
+      <c r="D841" t="str">
+        <v>63</v>
+      </c>
+      <c r="E841" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F841" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842">
+        <v>30222680</v>
+      </c>
+      <c r="B842" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C842" t="str">
+        <v>否</v>
+      </c>
+      <c r="D842" t="str">
+        <v>1538</v>
+      </c>
+      <c r="E842" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F842" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843">
+        <v>5949372</v>
+      </c>
+      <c r="B843" t="str">
+        <v>逆天邪神（嘉伟演播）</v>
+      </c>
+      <c r="C843" t="str">
+        <v>否</v>
+      </c>
+      <c r="D843" t="str">
+        <v>1438</v>
+      </c>
+      <c r="E843" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F843" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844">
+        <v>20134156</v>
+      </c>
+      <c r="B844" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C844" t="str">
+        <v>否</v>
+      </c>
+      <c r="D844" t="str">
+        <v>1833</v>
+      </c>
+      <c r="E844" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F844" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845">
+        <v>3416829</v>
+      </c>
+      <c r="B845" t="str">
+        <v>赘婿（郭麒麟&amp;宋轶主演影视原著，精品多人有声剧）</v>
+      </c>
+      <c r="C845" t="str">
+        <v>否</v>
+      </c>
+      <c r="D845" t="str">
+        <v>1170</v>
+      </c>
+      <c r="E845" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F845" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846">
+        <v>33476331</v>
+      </c>
+      <c r="B846" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C846" t="str">
+        <v>否</v>
+      </c>
+      <c r="D846" t="str">
+        <v>827</v>
+      </c>
+      <c r="E846" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F846" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847">
+        <v>32650457</v>
+      </c>
+      <c r="B847" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C847" t="str">
+        <v>否</v>
+      </c>
+      <c r="D847" t="str">
+        <v>1909</v>
+      </c>
+      <c r="E847" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F847" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848">
+        <v>33849546</v>
+      </c>
+      <c r="B848" t="str">
+        <v>半妖司藤 | 景甜、张彬彬主演原著小说，悬疑多人有声，尾鱼</v>
+      </c>
+      <c r="C848" t="str">
+        <v>是</v>
+      </c>
+      <c r="D848" t="str">
+        <v>168</v>
+      </c>
+      <c r="E848" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F848" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849">
+        <v>38160002</v>
+      </c>
+      <c r="B849" t="str">
+        <v>庆余年【全三季多人剧】同名影视原著</v>
+      </c>
+      <c r="C849" t="str">
+        <v>否</v>
+      </c>
+      <c r="D849" t="str">
+        <v>748</v>
+      </c>
+      <c r="E849" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F849" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850">
+        <v>25010802</v>
+      </c>
+      <c r="B850" t="str">
+        <v>最佳女婿｜都市异能多人剧｜一种侃侃｜VIP免费有声小说</v>
+      </c>
+      <c r="C850" t="str">
+        <v>否</v>
+      </c>
+      <c r="D850" t="str">
+        <v>2226</v>
+      </c>
+      <c r="E850" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F850" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851">
+        <v>41144898</v>
+      </c>
+      <c r="B851" t="str">
+        <v>六爻（Priest仙侠修真作品，姜广涛&amp;陈张太康主役有声剧）</v>
+      </c>
+      <c r="C851" t="str">
+        <v>是</v>
+      </c>
+      <c r="D851" t="str">
+        <v>185</v>
+      </c>
+      <c r="E851" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F851" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852">
+        <v>42983367</v>
+      </c>
+      <c r="B852" t="str">
+        <v>植物大战僵尸2 科学漫画 动物卷</v>
+      </c>
+      <c r="C852" t="str">
+        <v>否</v>
+      </c>
+      <c r="D852" t="str">
+        <v>5</v>
+      </c>
+      <c r="E852" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F852" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853">
+        <v>42984013</v>
+      </c>
+      <c r="B853" t="str">
+        <v>植物大战僵尸2 科学漫画 昆虫卷</v>
+      </c>
+      <c r="C853" t="str">
+        <v>否</v>
+      </c>
+      <c r="D853" t="str">
+        <v>5</v>
+      </c>
+      <c r="E853" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F853" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854">
+        <v>42984771</v>
+      </c>
+      <c r="B854" t="str">
+        <v>植物大战僵尸2 科学漫画 两栖动物卷</v>
+      </c>
+      <c r="C854" t="str">
+        <v>否</v>
+      </c>
+      <c r="D854" t="str">
+        <v>5</v>
+      </c>
+      <c r="E854" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F854" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855">
+        <v>28373650</v>
+      </c>
+      <c r="B855" t="str">
+        <v>读小库 “名人传记” 系列</v>
+      </c>
+      <c r="C855" t="str">
+        <v>否</v>
+      </c>
+      <c r="D855" t="str">
+        <v>44</v>
+      </c>
+      <c r="E855" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F855" t="str">
+        <v>是</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856">
+        <v>11549955</v>
+      </c>
+      <c r="B856" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C856" t="str">
+        <v>否</v>
+      </c>
+      <c r="D856" t="str">
+        <v>1316</v>
+      </c>
+      <c r="E856" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F856" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857">
+        <v>45564718</v>
+      </c>
+      <c r="B857" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈“谋杀官员”精品有声剧</v>
+      </c>
+      <c r="C857" t="str">
+        <v>否</v>
+      </c>
+      <c r="D857" t="str">
+        <v>148</v>
+      </c>
+      <c r="E857" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F857" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858">
+        <v>29135574</v>
+      </c>
+      <c r="B858" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C858" t="str">
+        <v>否</v>
+      </c>
+      <c r="D858" t="str">
+        <v>134</v>
+      </c>
+      <c r="E858" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F858" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="859">
+      <c r="A859">
+        <v>12517524</v>
+      </c>
+      <c r="B859" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C859" t="str">
+        <v>否</v>
+      </c>
+      <c r="D859" t="str">
+        <v>158</v>
+      </c>
+      <c r="E859" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F859" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="860">
+      <c r="A860">
+        <v>37407947</v>
+      </c>
+      <c r="B860" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C860" t="str">
+        <v>否</v>
+      </c>
+      <c r="D860" t="str">
+        <v>1163</v>
+      </c>
+      <c r="E860" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F860" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="861">
+      <c r="A861">
+        <v>30816438</v>
+      </c>
+      <c r="B861" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C861" t="str">
+        <v>否</v>
+      </c>
+      <c r="D861" t="str">
+        <v>63</v>
+      </c>
+      <c r="E861" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F861" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="862">
+      <c r="A862">
+        <v>30222680</v>
+      </c>
+      <c r="B862" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C862" t="str">
+        <v>否</v>
+      </c>
+      <c r="D862" t="str">
+        <v>1542</v>
+      </c>
+      <c r="E862" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F862" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="863">
+      <c r="A863">
+        <v>5949372</v>
+      </c>
+      <c r="B863" t="str">
+        <v>逆天邪神（嘉伟演播）</v>
+      </c>
+      <c r="C863" t="str">
+        <v>否</v>
+      </c>
+      <c r="D863" t="str">
+        <v>1438</v>
+      </c>
+      <c r="E863" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F863" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="864">
+      <c r="A864">
+        <v>20134156</v>
+      </c>
+      <c r="B864" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C864" t="str">
+        <v>否</v>
+      </c>
+      <c r="D864" t="str">
+        <v>1869</v>
+      </c>
+      <c r="E864" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F864" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="865">
+      <c r="A865">
+        <v>3416829</v>
+      </c>
+      <c r="B865" t="str">
+        <v>赘婿（郭麒麟&amp;宋轶主演影视原著，多人精品有声剧）</v>
+      </c>
+      <c r="C865" t="str">
+        <v>否</v>
+      </c>
+      <c r="D865" t="str">
+        <v>1177</v>
+      </c>
+      <c r="E865" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F865" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="866">
+      <c r="A866">
+        <v>33476331</v>
+      </c>
+      <c r="B866" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C866" t="str">
+        <v>否</v>
+      </c>
+      <c r="D866" t="str">
+        <v>838</v>
+      </c>
+      <c r="E866" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F866" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="867">
+      <c r="A867">
+        <v>32650457</v>
+      </c>
+      <c r="B867" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C867" t="str">
+        <v>否</v>
+      </c>
+      <c r="D867" t="str">
+        <v>1931</v>
+      </c>
+      <c r="E867" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F867" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="868">
+      <c r="A868">
+        <v>25010802</v>
+      </c>
+      <c r="B868" t="str">
+        <v>最佳女婿｜都市异能多人剧｜一种侃侃｜VIP免费有声小说</v>
+      </c>
+      <c r="C868" t="str">
+        <v>否</v>
+      </c>
+      <c r="D868" t="str">
+        <v>2238</v>
+      </c>
+      <c r="E868" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F868" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="869">
+      <c r="A869">
+        <v>15966734</v>
+      </c>
+      <c r="B869" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C869" t="str">
+        <v>否</v>
+      </c>
+      <c r="D869" t="str">
+        <v>1465</v>
+      </c>
+      <c r="E869" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F869" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="870">
+      <c r="A870">
+        <v>11549955</v>
+      </c>
+      <c r="B870" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C870" t="str">
+        <v>否</v>
+      </c>
+      <c r="D870" t="str">
+        <v>1318</v>
+      </c>
+      <c r="E870" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F870" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="871">
+      <c r="A871">
+        <v>45564718</v>
+      </c>
+      <c r="B871" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈“谋杀官员”精品有声剧</v>
+      </c>
+      <c r="C871" t="str">
+        <v>否</v>
+      </c>
+      <c r="D871" t="str">
+        <v>156</v>
+      </c>
+      <c r="E871" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F871" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="872">
+      <c r="A872">
+        <v>29135574</v>
+      </c>
+      <c r="B872" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C872" t="str">
+        <v>否</v>
+      </c>
+      <c r="D872" t="str">
+        <v>135</v>
+      </c>
+      <c r="E872" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F872" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="873">
+      <c r="A873">
+        <v>12517524</v>
+      </c>
+      <c r="B873" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C873" t="str">
+        <v>否</v>
+      </c>
+      <c r="D873" t="str">
+        <v>158</v>
+      </c>
+      <c r="E873" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F873" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="874">
+      <c r="A874">
+        <v>37407947</v>
+      </c>
+      <c r="B874" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C874" t="str">
+        <v>否</v>
+      </c>
+      <c r="D874" t="str">
+        <v>1173</v>
+      </c>
+      <c r="E874" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F874" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="875">
+      <c r="A875">
+        <v>30816438</v>
+      </c>
+      <c r="B875" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C875" t="str">
+        <v>否</v>
+      </c>
+      <c r="D875" t="str">
+        <v>63</v>
+      </c>
+      <c r="E875" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F875" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="876">
+      <c r="A876">
+        <v>30222680</v>
+      </c>
+      <c r="B876" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C876" t="str">
+        <v>否</v>
+      </c>
+      <c r="D876" t="str">
+        <v>1542</v>
+      </c>
+      <c r="E876" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F876" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="877">
+      <c r="A877">
+        <v>5949372</v>
+      </c>
+      <c r="B877" t="str">
+        <v>逆天邪神（嘉伟演播）</v>
+      </c>
+      <c r="C877" t="str">
+        <v>否</v>
+      </c>
+      <c r="D877" t="str">
+        <v>1438</v>
+      </c>
+      <c r="E877" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F877" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="878">
+      <c r="A878">
+        <v>20134156</v>
+      </c>
+      <c r="B878" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C878" t="str">
+        <v>否</v>
+      </c>
+      <c r="D878" t="str">
+        <v>1875</v>
+      </c>
+      <c r="E878" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F878" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="879">
+      <c r="A879">
+        <v>3416829</v>
+      </c>
+      <c r="B879" t="str">
+        <v>赘婿（郭麒麟&amp;宋轶主演影视原著，多人精品有声剧）</v>
+      </c>
+      <c r="C879" t="str">
+        <v>否</v>
+      </c>
+      <c r="D879" t="str">
+        <v>1178</v>
+      </c>
+      <c r="E879" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F879" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="880">
+      <c r="A880">
+        <v>33476331</v>
+      </c>
+      <c r="B880" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C880" t="str">
+        <v>否</v>
+      </c>
+      <c r="D880" t="str">
+        <v>840</v>
+      </c>
+      <c r="E880" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F880" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="881">
+      <c r="A881">
+        <v>32650457</v>
+      </c>
+      <c r="B881" t="str">
+        <v>一剑独尊（叶玄叶灵 | 有声的紫襟 | 男女双播）</v>
+      </c>
+      <c r="C881" t="str">
+        <v>否</v>
+      </c>
+      <c r="D881" t="str">
+        <v>1935</v>
+      </c>
+      <c r="E881" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F881" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="882">
+      <c r="A882">
+        <v>35576721</v>
+      </c>
+      <c r="B882" t="str">
+        <v>早晨从中午开始 | 路遥 著（张震演播，独家）</v>
+      </c>
+      <c r="C882" t="str">
+        <v>是</v>
+      </c>
+      <c r="D882" t="str">
+        <v>70</v>
+      </c>
+      <c r="E882" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F882" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="883">
+      <c r="A883">
+        <v>22114605</v>
+      </c>
+      <c r="B883" t="str">
+        <v>《迷你特工队》全集</v>
+      </c>
+      <c r="C883" t="str">
+        <v>是</v>
+      </c>
+      <c r="D883" t="str">
+        <v>104</v>
+      </c>
+      <c r="E883" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F883" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="884">
+      <c r="A884">
+        <v>19222273</v>
+      </c>
+      <c r="B884" t="str">
+        <v>洪门兄弟1：结义（满超演播）</v>
+      </c>
+      <c r="C884" t="str">
+        <v>是</v>
+      </c>
+      <c r="D884" t="str">
+        <v>42</v>
+      </c>
+      <c r="E884" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F884" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="885">
+      <c r="A885">
+        <v>42040834</v>
+      </c>
+      <c r="B885" t="str">
+        <v>洪门兄弟2：内讧（精品双播）</v>
+      </c>
+      <c r="C885" t="str">
+        <v>是</v>
+      </c>
+      <c r="D885" t="str">
+        <v>85</v>
+      </c>
+      <c r="E885" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F885" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="886">
+      <c r="A886">
+        <v>43856408</v>
+      </c>
+      <c r="B886" t="str">
+        <v>洪门兄弟3：归宿（民国大上海的爱恨情仇）</v>
+      </c>
+      <c r="C886" t="str">
+        <v>是</v>
+      </c>
+      <c r="D886" t="str">
+        <v>99</v>
+      </c>
+      <c r="E886" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F886" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="887">
+      <c r="A887">
+        <v>24334252</v>
+      </c>
+      <c r="B887" t="str">
+        <v>南怀瑾|金刚经说什么（田园读书会演播）</v>
+      </c>
+      <c r="C887" t="str">
+        <v>是</v>
+      </c>
+      <c r="D887" t="str">
+        <v>99</v>
+      </c>
+      <c r="E887" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F887" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="888">
+      <c r="A888">
+        <v>30142010</v>
+      </c>
+      <c r="B888" t="str">
+        <v>南怀瑾|老子他说</v>
+      </c>
+      <c r="C888" t="str">
+        <v>是</v>
+      </c>
+      <c r="D888" t="str">
+        <v>65</v>
+      </c>
+      <c r="E888" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F888" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="889">
+      <c r="A889">
+        <v>15966734</v>
+      </c>
+      <c r="B889" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C889" t="str">
+        <v>否</v>
+      </c>
+      <c r="D889" t="str">
+        <v>1495</v>
+      </c>
+      <c r="E889" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F889" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="890">
+      <c r="A890">
+        <v>11549955</v>
+      </c>
+      <c r="B890" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C890" t="str">
+        <v>否</v>
+      </c>
+      <c r="D890" t="str">
+        <v>1328</v>
+      </c>
+      <c r="E890" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F890" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="891">
+      <c r="A891">
+        <v>15966734</v>
+      </c>
+      <c r="B891" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C891" t="str">
+        <v>否</v>
+      </c>
+      <c r="D891" t="str">
+        <v>1495</v>
+      </c>
+      <c r="E891" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F891" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="892">
+      <c r="A892">
+        <v>11549955</v>
+      </c>
+      <c r="B892" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C892" t="str">
+        <v>否</v>
+      </c>
+      <c r="D892" t="str">
+        <v>1328</v>
+      </c>
+      <c r="E892" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F892" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="893">
+      <c r="A893">
+        <v>45564718</v>
+      </c>
+      <c r="B893" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈“谋杀官员”精品有声剧</v>
+      </c>
+      <c r="C893" t="str">
+        <v>否</v>
+      </c>
+      <c r="D893" t="str">
+        <v>189</v>
+      </c>
+      <c r="E893" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F893" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="894">
+      <c r="A894">
+        <v>29135574</v>
+      </c>
+      <c r="B894" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C894" t="str">
+        <v>否</v>
+      </c>
+      <c r="D894" t="str">
+        <v>137</v>
+      </c>
+      <c r="E894" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F894" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="895">
+      <c r="A895">
+        <v>12517524</v>
+      </c>
+      <c r="B895" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C895" t="str">
+        <v>否</v>
+      </c>
+      <c r="D895" t="str">
+        <v>161</v>
+      </c>
+      <c r="E895" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F895" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="896">
+      <c r="A896">
+        <v>37407947</v>
+      </c>
+      <c r="B896" t="str">
+        <v>都市狂兵（双播精配）热血爽文 | 限时免费</v>
+      </c>
+      <c r="C896" t="str">
+        <v>否</v>
+      </c>
+      <c r="D896" t="str">
+        <v>1218</v>
+      </c>
+      <c r="E896" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F896" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="897">
+      <c r="A897">
+        <v>30816438</v>
+      </c>
+      <c r="B897" t="str">
+        <v>三体（全六季）| 精品广播剧，刘慈欣著</v>
+      </c>
+      <c r="C897" t="str">
+        <v>否</v>
+      </c>
+      <c r="D897" t="str">
+        <v>65</v>
+      </c>
+      <c r="E897" t="str">
+        <v>广播剧</v>
+      </c>
+      <c r="F897" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="898">
+      <c r="A898">
+        <v>30222680</v>
+      </c>
+      <c r="B898" t="str">
+        <v>老街中的痞子（爆更版）-VIP免费</v>
+      </c>
+      <c r="C898" t="str">
+        <v>否</v>
+      </c>
+      <c r="D898" t="str">
+        <v>1542</v>
+      </c>
+      <c r="E898" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F898" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="899">
+      <c r="A899">
+        <v>5949372</v>
+      </c>
+      <c r="B899" t="str">
+        <v>逆天邪神（嘉伟演播）</v>
+      </c>
+      <c r="C899" t="str">
+        <v>否</v>
+      </c>
+      <c r="D899" t="str">
+        <v>1440</v>
+      </c>
+      <c r="E899" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F899" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="900">
+      <c r="A900">
+        <v>20134156</v>
+      </c>
+      <c r="B900" t="str">
+        <v>伏天氏（多人录制版）</v>
+      </c>
+      <c r="C900" t="str">
+        <v>否</v>
+      </c>
+      <c r="D900" t="str">
+        <v>1920</v>
+      </c>
+      <c r="E900" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F900" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="901">
+      <c r="A901">
+        <v>33476331</v>
+      </c>
+      <c r="B901" t="str">
+        <v>上门龙婿|至尊龙婿叶辰萧初然</v>
+      </c>
+      <c r="C901" t="str">
+        <v>否</v>
+      </c>
+      <c r="D901" t="str">
+        <v>855</v>
+      </c>
+      <c r="E901" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F901" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="902">
+      <c r="A902">
+        <v>3416829</v>
+      </c>
+      <c r="B902" t="str">
+        <v>赘婿（郭麒麟&amp;宋轶主演影视原著，多人精品有声剧）</v>
+      </c>
+      <c r="C902" t="str">
+        <v>否</v>
+      </c>
+      <c r="D902" t="str">
+        <v>1186</v>
+      </c>
+      <c r="E902" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F902" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F818"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F902"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F902"/>
+  <dimension ref="A1:F915"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18420,9 +18420,266 @@
         <v>否</v>
       </c>
     </row>
+    <row r="903">
+      <c r="A903">
+        <v>38983098</v>
+      </c>
+      <c r="B903" t="str">
+        <v>卡拉马佐夫兄弟（上海译文版）</v>
+      </c>
+      <c r="C903" t="str">
+        <v>是</v>
+      </c>
+      <c r="D903" t="str">
+        <v>177</v>
+      </c>
+      <c r="E903" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F903" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="904">
+      <c r="A904">
+        <v>41343401</v>
+      </c>
+      <c r="B904" t="str">
+        <v>王明军有声文学作品集|《男人战争》《新恋爱时代》等6部</v>
+      </c>
+      <c r="C904" t="str">
+        <v>是</v>
+      </c>
+      <c r="E904" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F904" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="905">
+      <c r="A905">
+        <v>15966734</v>
+      </c>
+      <c r="B905" t="str">
+        <v>《元尊》天蚕土豆全新玄幻力作</v>
+      </c>
+      <c r="C905" t="str">
+        <v>是</v>
+      </c>
+      <c r="D905" t="str">
+        <v>1498</v>
+      </c>
+      <c r="E905" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F905" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="906">
+      <c r="A906">
+        <v>41343401</v>
+      </c>
+      <c r="B906" t="str">
+        <v>王明军有声文学作品集|《男人战争》《新恋爱时代》等6部</v>
+      </c>
+      <c r="C906" t="str">
+        <v>是</v>
+      </c>
+      <c r="D906" t="str">
+        <v>358</v>
+      </c>
+      <c r="E906" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F906" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="907">
+      <c r="A907">
+        <v>32462143</v>
+      </c>
+      <c r="B907" t="str">
+        <v>宋门（近半个世纪的民间史长卷）丨双播</v>
+      </c>
+      <c r="C907" t="str">
+        <v>是</v>
+      </c>
+      <c r="D907" t="str">
+        <v>262</v>
+      </c>
+      <c r="E907" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F907" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="908">
+      <c r="A908">
+        <v>40505340</v>
+      </c>
+      <c r="B908" t="str">
+        <v>宇宙英雄奥特曼：罗布奥特曼</v>
+      </c>
+      <c r="C908" t="str">
+        <v>否</v>
+      </c>
+      <c r="D908" t="str">
+        <v>76</v>
+      </c>
+      <c r="E908" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F908" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="909">
+      <c r="A909">
+        <v>40505340</v>
+      </c>
+      <c r="B909" t="str">
+        <v>宇宙英雄奥特曼：罗布奥特曼</v>
+      </c>
+      <c r="C909" t="str">
+        <v>否</v>
+      </c>
+      <c r="D909" t="str">
+        <v>76</v>
+      </c>
+      <c r="E909" t="str">
+        <v>儿童</v>
+      </c>
+      <c r="F909" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="910">
+      <c r="A910">
+        <v>11549955</v>
+      </c>
+      <c r="B910" t="str">
+        <v>喜马讲书</v>
+      </c>
+      <c r="C910" t="str">
+        <v>否</v>
+      </c>
+      <c r="D910" t="str">
+        <v>1343</v>
+      </c>
+      <c r="E910" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F910" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="911">
+      <c r="A911">
+        <v>45564718</v>
+      </c>
+      <c r="B911" t="str">
+        <v>【白夜剧场出品】高智商犯罪 | 紫金陈“谋杀官员”精品有声剧</v>
+      </c>
+      <c r="C911" t="str">
+        <v>否</v>
+      </c>
+      <c r="D911" t="str">
+        <v>213</v>
+      </c>
+      <c r="E911" t="str">
+        <v>娱乐</v>
+      </c>
+      <c r="F911" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="912">
+      <c r="A912">
+        <v>29135574</v>
+      </c>
+      <c r="B912" t="str">
+        <v>神奇的a阿尔法脑波音乐 |雨声催眠减压 潜意识右脑开发</v>
+      </c>
+      <c r="C912" t="str">
+        <v>否</v>
+      </c>
+      <c r="D912" t="str">
+        <v>139</v>
+      </c>
+      <c r="E912" t="str">
+        <v>音乐</v>
+      </c>
+      <c r="F912" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="913">
+      <c r="A913">
+        <v>12517524</v>
+      </c>
+      <c r="B913" t="str">
+        <v>王玥波播讲：雍正剑侠图·第七部</v>
+      </c>
+      <c r="C913" t="str">
+        <v>是</v>
+      </c>
+      <c r="D913" t="str">
+        <v>161</v>
+      </c>
+      <c r="E913" t="str">
+        <v>相声评书</v>
+      </c>
+      <c r="F913" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="914">
+      <c r="A914">
+        <v>22267570</v>
+      </c>
+      <c r="B914" t="str">
+        <v>钱文忠讲佛教十三经 | 金刚经、心经等经典佛经精讲</v>
+      </c>
+      <c r="C914" t="str">
+        <v>是</v>
+      </c>
+      <c r="D914" t="str">
+        <v>209</v>
+      </c>
+      <c r="E914" t="str">
+        <v>人文</v>
+      </c>
+      <c r="F914" t="str">
+        <v>否</v>
+      </c>
+    </row>
+    <row r="915">
+      <c r="A915">
+        <v>48972552</v>
+      </c>
+      <c r="B915" t="str">
+        <v>摸金异闻录|周建龙演播盗墓探险会员免费有声小说</v>
+      </c>
+      <c r="C915" t="str">
+        <v>否</v>
+      </c>
+      <c r="D915" t="str">
+        <v>303</v>
+      </c>
+      <c r="E915" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F915" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F902"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F915"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/node/crawler/ximalaya/output.xlsx
+++ b/node/crawler/ximalaya/output.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F915"/>
+  <dimension ref="A1:F916"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -18677,9 +18677,29 @@
         <v>否</v>
       </c>
     </row>
+    <row r="916">
+      <c r="A916">
+        <v>48972552</v>
+      </c>
+      <c r="B916" t="str">
+        <v>摸金异闻录|周建龙演播盗墓探险会员免费有声小说</v>
+      </c>
+      <c r="C916" t="str">
+        <v>否</v>
+      </c>
+      <c r="D916" t="str">
+        <v>382</v>
+      </c>
+      <c r="E916" t="str">
+        <v>有声书</v>
+      </c>
+      <c r="F916" t="str">
+        <v>否</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:F915"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:F916"/>
   </ignoredErrors>
 </worksheet>
 </file>